--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-28.xlsx
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="H3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
         <v>11</v>
@@ -977,7 +977,7 @@
         <v>1.7</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
         <v>6.5</v>
@@ -986,7 +986,7 @@
         <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA3" t="n">
         <v>11</v>
@@ -1001,7 +1001,7 @@
         <v>13</v>
       </c>
       <c r="AE3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
         <v>81</v>
@@ -1010,25 +1010,25 @@
         <v>451</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
         <v>51</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK3" t="n">
         <v>151</v>
       </c>
       <c r="AL3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO3" t="n">
         <v>5.5</v>
@@ -1037,7 +1037,7 @@
         <v>17</v>
       </c>
       <c r="AQ3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR3" t="n">
         <v>34</v>
@@ -1067,13 +1067,13 @@
         <v>251</v>
       </c>
       <c r="BA3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB3" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BC3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H4" t="n">
         <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
         <v>2.38</v>
       </c>
       <c r="L4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -1159,13 +1159,13 @@
         <v>2.5</v>
       </c>
       <c r="W4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X4" t="n">
         <v>19</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z4" t="n">
         <v>34</v>
@@ -1195,7 +1195,7 @@
         <v>11</v>
       </c>
       <c r="AI4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ4" t="n">
         <v>9</v>
@@ -1213,7 +1213,7 @@
         <v>5.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP4" t="n">
         <v>21</v>
@@ -1249,7 +1249,7 @@
         <v>34</v>
       </c>
       <c r="BA4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB4" t="n">
         <v>101</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K5" t="n">
         <v>2.4</v>
@@ -1344,13 +1344,13 @@
         <v>9</v>
       </c>
       <c r="X5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
         <v>12</v>
@@ -1362,7 +1362,7 @@
         <v>15</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
         <v>13</v>
@@ -1374,22 +1374,22 @@
         <v>151</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK5" t="n">
         <v>51</v>
       </c>
       <c r="AL5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN5" t="n">
         <v>3.75</v>
@@ -1413,16 +1413,16 @@
         <v>3.4</v>
       </c>
       <c r="AU5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY5" t="n">
         <v>29</v>
@@ -1431,7 +1431,7 @@
         <v>81</v>
       </c>
       <c r="BA5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB5" t="n">
         <v>151</v>
@@ -1475,55 +1475,55 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L6" t="n">
         <v>3.4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="S6" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
         <v>12</v>
@@ -1532,67 +1532,67 @@
         <v>10</v>
       </c>
       <c r="Z6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA6" t="n">
         <v>23</v>
       </c>
-      <c r="AA6" t="n">
-        <v>21</v>
-      </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
       </c>
       <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI6" t="n">
         <v>13</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>15</v>
       </c>
       <c r="AJ6" t="n">
         <v>11</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
         <v>23</v>
       </c>
       <c r="AM6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN6" t="n">
         <v>4.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU6" t="n">
         <v>8</v>
@@ -1607,16 +1607,16 @@
         <v>15</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ6" t="n">
         <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1660,7 +1660,7 @@
         <v>1.29</v>
       </c>
       <c r="H7" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="I7" t="n">
         <v>10</v>
@@ -1669,28 +1669,28 @@
         <v>1.73</v>
       </c>
       <c r="K7" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L7" t="n">
         <v>8.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R7" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S7" t="n">
         <v>1.29</v>
@@ -1699,13 +1699,13 @@
         <v>3.5</v>
       </c>
       <c r="U7" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="W7" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X7" t="n">
         <v>6.5</v>
@@ -1720,43 +1720,43 @@
         <v>11</v>
       </c>
       <c r="AB7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="n">
         <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH7" t="n">
         <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM7" t="n">
         <v>51</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO7" t="n">
         <v>6</v>
@@ -1780,7 +1780,7 @@
         <v>9.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW7" t="n">
         <v>10</v>
@@ -1798,10 +1798,10 @@
         <v>201</v>
       </c>
       <c r="BB7" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD7" t="n">
         <v>151</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J8" t="n">
         <v>3.5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.75</v>
       </c>
       <c r="K8" t="n">
         <v>2.38</v>
       </c>
       <c r="L8" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1890,19 +1890,19 @@
         <v>15</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="n">
         <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB8" t="n">
         <v>23</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>26</v>
       </c>
       <c r="AC8" t="n">
         <v>17</v>
@@ -1923,13 +1923,13 @@
         <v>11</v>
       </c>
       <c r="AI8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ8" t="n">
         <v>9</v>
       </c>
       <c r="AK8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL8" t="n">
         <v>15</v>
@@ -1950,10 +1950,10 @@
         <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT8" t="n">
         <v>3.5</v>
@@ -1965,10 +1965,10 @@
         <v>41</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY8" t="n">
         <v>17</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H10" t="n">
         <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J10" t="n">
         <v>2.6</v>
@@ -2293,7 +2293,7 @@
         <v>12</v>
       </c>
       <c r="AK10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
         <v>23</v>
@@ -2302,10 +2302,10 @@
         <v>26</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP10" t="n">
         <v>17</v>
@@ -2415,10 +2415,10 @@
         <v>3.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="R11" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="S11" t="n">
         <v>1.4</v>
@@ -2597,10 +2597,10 @@
         <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R12" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="S12" t="n">
         <v>1.36</v>
@@ -2752,7 +2752,7 @@
         <v>1.2</v>
       </c>
       <c r="H13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I13" t="n">
         <v>13</v>
@@ -2761,16 +2761,16 @@
         <v>1.57</v>
       </c>
       <c r="K13" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="L13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="M13" t="n">
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O13" t="n">
         <v>1.13</v>
@@ -2779,10 +2779,10 @@
         <v>6</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R13" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="S13" t="n">
         <v>1.22</v>
@@ -2797,13 +2797,13 @@
         <v>1.8</v>
       </c>
       <c r="W13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X13" t="n">
         <v>7</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z13" t="n">
         <v>7.5</v>
@@ -2815,7 +2815,7 @@
         <v>26</v>
       </c>
       <c r="AC13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD13" t="n">
         <v>13</v>
@@ -2833,7 +2833,7 @@
         <v>34</v>
       </c>
       <c r="AI13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ13" t="n">
         <v>34</v>
@@ -2848,16 +2848,16 @@
         <v>67</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO13" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AP13" t="n">
         <v>15</v>
       </c>
       <c r="AQ13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR13" t="n">
         <v>34</v>
@@ -2955,10 +2955,10 @@
         <v>13</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q14" t="n">
         <v>1.67</v>
@@ -3045,7 +3045,7 @@
         <v>67</v>
       </c>
       <c r="AS14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT14" t="n">
         <v>3.25</v>
@@ -3325,10 +3325,10 @@
         <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R16" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="S16" t="n">
         <v>1.4</v>
@@ -3477,22 +3477,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I17" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="K17" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="M17" t="n">
         <v>1.07</v>
@@ -3507,10 +3507,10 @@
         <v>3.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S17" t="n">
         <v>1.44</v>
@@ -3519,25 +3519,25 @@
         <v>2.63</v>
       </c>
       <c r="U17" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V17" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB17" t="n">
         <v>29</v>
@@ -3546,7 +3546,7 @@
         <v>9</v>
       </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE17" t="n">
         <v>15</v>
@@ -3555,31 +3555,31 @@
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH17" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL17" t="n">
         <v>34</v>
       </c>
-      <c r="AL17" t="n">
-        <v>29</v>
-      </c>
       <c r="AM17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>23</v>
@@ -3588,10 +3588,10 @@
         <v>41</v>
       </c>
       <c r="AR17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS17" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT17" t="n">
         <v>2.63</v>
@@ -3603,22 +3603,22 @@
         <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY17" t="n">
         <v>29</v>
       </c>
       <c r="AZ17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA17" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB17" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC17" t="n">
         <v>126</v>
@@ -3844,85 +3844,85 @@
         <v>2.25</v>
       </c>
       <c r="H19" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I19" t="n">
         <v>3.3</v>
       </c>
       <c r="J19" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L19" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
+        <v>9</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X19" t="n">
         <v>11</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W19" t="n">
-        <v>9</v>
-      </c>
-      <c r="X19" t="n">
-        <v>12</v>
-      </c>
       <c r="Y19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z19" t="n">
         <v>21</v>
       </c>
       <c r="AA19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD19" t="n">
         <v>6</v>
       </c>
       <c r="AE19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AH19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI19" t="n">
         <v>17</v>
@@ -3934,34 +3934,34 @@
         <v>34</v>
       </c>
       <c r="AL19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN19" t="n">
         <v>4.33</v>
       </c>
       <c r="AO19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ19" t="n">
         <v>41</v>
       </c>
       <c r="AR19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS19" t="n">
         <v>151</v>
       </c>
       <c r="AT19" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV19" t="n">
         <v>51</v>
@@ -3970,25 +3970,25 @@
         <v>5</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ19" t="n">
         <v>51</v>
       </c>
       <c r="BA19" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB19" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC19" t="n">
         <v>501</v>
       </c>
       <c r="BD19" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20">
@@ -4023,7 +4023,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H20" t="n">
         <v>3.6</v>
@@ -4047,10 +4047,10 @@
         <v>8.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q20" t="n">
         <v>2.2</v>
@@ -4143,7 +4143,7 @@
         <v>2.5</v>
       </c>
       <c r="AU20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV20" t="n">
         <v>67</v>
@@ -4158,7 +4158,7 @@
         <v>23</v>
       </c>
       <c r="AZ20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA20" t="n">
         <v>67</v>
@@ -4205,40 +4205,40 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J21" t="n">
         <v>4.33</v>
       </c>
       <c r="K21" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L21" t="n">
         <v>2.75</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="R21" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="S21" t="n">
         <v>1.44</v>
@@ -4247,13 +4247,13 @@
         <v>2.63</v>
       </c>
       <c r="U21" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V21" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X21" t="n">
         <v>19</v>
@@ -4271,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="AC21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD21" t="n">
         <v>6</v>
@@ -4283,7 +4283,7 @@
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH21" t="n">
         <v>7</v>
@@ -4295,10 +4295,10 @@
         <v>9</v>
       </c>
       <c r="AK21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM21" t="n">
         <v>29</v>
@@ -4319,13 +4319,13 @@
         <v>101</v>
       </c>
       <c r="AS21" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT21" t="n">
         <v>2.63</v>
       </c>
       <c r="AU21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV21" t="n">
         <v>51</v>
@@ -4334,19 +4334,19 @@
         <v>4</v>
       </c>
       <c r="AX21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ21" t="n">
         <v>41</v>
       </c>
       <c r="BA21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB21" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC21" t="n">
         <v>126</v>
@@ -4405,10 +4405,10 @@
         <v>3.25</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O22" t="n">
         <v>1.22</v>
@@ -4417,10 +4417,10 @@
         <v>4</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R22" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S22" t="n">
         <v>1.33</v>
@@ -4775,16 +4775,16 @@
         <v>11</v>
       </c>
       <c r="O24" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R24" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S24" t="n">
         <v>1.4</v>
@@ -5115,7 +5115,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H26" t="n">
         <v>4</v>
@@ -5145,10 +5145,10 @@
         <v>3.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R26" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S26" t="n">
         <v>1.36</v>
@@ -5193,13 +5193,13 @@
         <v>51</v>
       </c>
       <c r="AG26" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH26" t="n">
         <v>15</v>
       </c>
       <c r="AI26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ26" t="n">
         <v>17</v>
@@ -5229,7 +5229,7 @@
         <v>51</v>
       </c>
       <c r="AS26" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT26" t="n">
         <v>3</v>
@@ -5297,13 +5297,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H27" t="n">
         <v>3.6</v>
       </c>
       <c r="I27" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J27" t="n">
         <v>2.38</v>
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="O27" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P27" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R27" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S27" t="n">
         <v>1.33</v>
@@ -5348,7 +5348,7 @@
         <v>8.5</v>
       </c>
       <c r="X27" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y27" t="n">
         <v>8.5</v>
@@ -5360,7 +5360,7 @@
         <v>13</v>
       </c>
       <c r="AB27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC27" t="n">
         <v>13</v>
@@ -5846,7 +5846,7 @@
         <v>4.1</v>
       </c>
       <c r="H30" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I30" t="n">
         <v>1.85</v>
@@ -5858,7 +5858,7 @@
         <v>2.3</v>
       </c>
       <c r="L30" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M30" t="n">
         <v>1.04</v>
@@ -5891,10 +5891,10 @@
         <v>2.2</v>
       </c>
       <c r="W30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y30" t="n">
         <v>13</v>
@@ -5915,7 +5915,7 @@
         <v>7</v>
       </c>
       <c r="AE30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF30" t="n">
         <v>41</v>
@@ -5933,7 +5933,7 @@
         <v>8.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL30" t="n">
         <v>13</v>
@@ -5972,16 +5972,16 @@
         <v>4</v>
       </c>
       <c r="AX30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AY30" t="n">
         <v>19</v>
       </c>
       <c r="AZ30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB30" t="n">
         <v>101</v>
@@ -6043,10 +6043,10 @@
         <v>7.5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O31" t="n">
         <v>1.18</v>
@@ -6076,7 +6076,7 @@
         <v>7.5</v>
       </c>
       <c r="X31" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y31" t="n">
         <v>8.5</v>
@@ -6091,7 +6091,7 @@
         <v>26</v>
       </c>
       <c r="AC31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD31" t="n">
         <v>9.5</v>
@@ -6207,16 +6207,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H32" t="n">
         <v>3.3</v>
       </c>
       <c r="I32" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K32" t="n">
         <v>2.25</v>
@@ -6237,10 +6237,10 @@
         <v>4</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R32" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S32" t="n">
         <v>1.33</v>
@@ -6255,7 +6255,7 @@
         <v>2.25</v>
       </c>
       <c r="W32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X32" t="n">
         <v>13</v>
@@ -6264,7 +6264,7 @@
         <v>10</v>
       </c>
       <c r="Z32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA32" t="n">
         <v>19</v>
@@ -6273,7 +6273,7 @@
         <v>23</v>
       </c>
       <c r="AC32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD32" t="n">
         <v>6.5</v>
@@ -6294,7 +6294,7 @@
         <v>15</v>
       </c>
       <c r="AJ32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK32" t="n">
         <v>29</v>
@@ -6306,7 +6306,7 @@
         <v>26</v>
       </c>
       <c r="AN32" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO32" t="n">
         <v>13</v>
@@ -6333,7 +6333,7 @@
         <v>41</v>
       </c>
       <c r="AW32" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX32" t="n">
         <v>15</v>
@@ -6342,7 +6342,7 @@
         <v>21</v>
       </c>
       <c r="AZ32" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA32" t="n">
         <v>51</v>
@@ -6351,7 +6351,7 @@
         <v>126</v>
       </c>
       <c r="BC32" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD32" t="n">
         <v>126</v>
@@ -6389,13 +6389,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="H33" t="n">
         <v>3.9</v>
       </c>
       <c r="I33" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="J33" t="n">
         <v>5.5</v>
@@ -6437,7 +6437,7 @@
         <v>2</v>
       </c>
       <c r="W33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X33" t="n">
         <v>29</v>
@@ -6470,7 +6470,7 @@
         <v>201</v>
       </c>
       <c r="AH33" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI33" t="n">
         <v>8</v>
@@ -6524,7 +6524,7 @@
         <v>19</v>
       </c>
       <c r="AZ33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA33" t="n">
         <v>41</v>
@@ -6583,136 +6583,136 @@
         <v>1.57</v>
       </c>
       <c r="K34" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="L34" t="n">
+        <v>12</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N34" t="n">
+        <v>17</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X34" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y34" t="n">
         <v>10</v>
       </c>
-      <c r="M34" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N34" t="n">
-        <v>19</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T34" t="n">
-        <v>4</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W34" t="n">
-        <v>9</v>
-      </c>
-      <c r="X34" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z34" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA34" t="n">
         <v>11</v>
       </c>
       <c r="AB34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH34" t="n">
         <v>26</v>
       </c>
-      <c r="AC34" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH34" t="n">
+      <c r="AI34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ34" t="n">
         <v>34</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>41</v>
       </c>
       <c r="AK34" t="n">
         <v>201</v>
       </c>
       <c r="AL34" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM34" t="n">
         <v>81</v>
       </c>
-      <c r="AM34" t="n">
-        <v>67</v>
-      </c>
       <c r="AN34" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="AO34" t="n">
         <v>5</v>
       </c>
       <c r="AP34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ34" t="n">
         <v>12</v>
       </c>
       <c r="AR34" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS34" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT34" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AU34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV34" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX34" t="n">
         <v>51</v>
       </c>
       <c r="AY34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ34" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BA34" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BB34" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BC34" t="n">
         <v>126</v>
@@ -6783,10 +6783,10 @@
         <v>3.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R35" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S35" t="n">
         <v>1.4</v>
@@ -6965,10 +6965,10 @@
         <v>5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R36" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S36" t="n">
         <v>1.29</v>
@@ -7120,19 +7120,19 @@
         <v>2.2</v>
       </c>
       <c r="H37" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="I37" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J37" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="K37" t="n">
         <v>1.95</v>
       </c>
       <c r="L37" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="M37" t="n">
         <v>1.09</v>
@@ -7141,10 +7141,10 @@
         <v>6.1</v>
       </c>
       <c r="O37" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="P37" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="Q37" t="n">
         <v>2.15</v>
@@ -7165,25 +7165,25 @@
         <v>1.81</v>
       </c>
       <c r="W37" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="X37" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Y37" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="Z37" t="n">
         <v>17.5</v>
       </c>
       <c r="AA37" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AB37" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC37" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AD37" t="n">
         <v>5</v>
@@ -7195,40 +7195,40 @@
         <v>60</v>
       </c>
       <c r="AG37" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AH37" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AI37" t="n">
         <v>13</v>
       </c>
       <c r="AJ37" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AK37" t="n">
         <v>35</v>
       </c>
       <c r="AL37" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM37" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN37" t="n">
         <v>4</v>
       </c>
       <c r="AO37" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AP37" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ37" t="n">
         <v>50</v>
       </c>
       <c r="AR37" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS37" t="n">
         <v>300</v>
@@ -7243,13 +7243,13 @@
         <v>70</v>
       </c>
       <c r="AW37" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AX37" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AY37" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ37" t="n">
         <v>100</v>
@@ -7258,7 +7258,7 @@
         <v>150</v>
       </c>
       <c r="BB37" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC37" t="inlineStr"/>
       <c r="BD37" t="inlineStr"/>
@@ -8388,7 +8388,7 @@
         <v>1.12</v>
       </c>
       <c r="P44" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="Q44" t="n">
         <v>1.55</v>
@@ -8397,16 +8397,16 @@
         <v>2.15</v>
       </c>
       <c r="S44" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="T44" t="n">
-        <v>3.48</v>
+        <v>3.42</v>
       </c>
       <c r="U44" t="n">
-        <v>2.51</v>
+        <v>2.45</v>
       </c>
       <c r="V44" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W44" t="n">
         <v>32</v>
@@ -8531,16 +8531,16 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="H45" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="I45" t="n">
         <v>1.39</v>
       </c>
       <c r="J45" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="K45" t="n">
         <v>2.22</v>
@@ -8555,28 +8555,28 @@
         <v>8.6</v>
       </c>
       <c r="O45" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P45" t="n">
-        <v>3.14</v>
+        <v>3.08</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="R45" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S45" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="T45" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="U45" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="V45" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="W45" t="n">
         <v>12.5</v>
@@ -8585,37 +8585,37 @@
         <v>35</v>
       </c>
       <c r="Y45" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z45" t="n">
         <v>120</v>
       </c>
       <c r="AA45" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB45" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AC45" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AD45" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AE45" t="n">
         <v>19.5</v>
       </c>
       <c r="AF45" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG45" t="n">
         <v>101</v>
       </c>
       <c r="AH45" t="n">
-        <v>4.85</v>
+        <v>4.75</v>
       </c>
       <c r="AI45" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AJ45" t="n">
         <v>7.3</v>
@@ -8636,29 +8636,29 @@
         <v>45</v>
       </c>
       <c r="AP45" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AQ45" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AR45" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AS45" t="inlineStr"/>
       <c r="AT45" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="AU45" t="n">
         <v>9.25</v>
       </c>
       <c r="AV45" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AW45" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AX45" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AY45" t="n">
         <v>19</v>
@@ -8707,40 +8707,40 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H46" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="I46" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="J46" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="K46" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="L46" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="M46" t="n">
         <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>14.9</v>
+        <v>16.5</v>
       </c>
       <c r="O46" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="P46" t="n">
-        <v>7.4</v>
+        <v>6.25</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="R46" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="S46" t="n">
         <v>1.14</v>
@@ -8749,73 +8749,73 @@
         <v>4.9</v>
       </c>
       <c r="U46" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="V46" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="W46" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="X46" t="n">
+        <v>65</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA46" t="n">
         <v>80</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>250</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>90</v>
       </c>
       <c r="AB46" t="n">
         <v>60</v>
       </c>
       <c r="AC46" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AD46" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF46" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG46" t="n">
         <v>300</v>
       </c>
       <c r="AH46" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AI46" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ46" t="n">
         <v>9.25</v>
       </c>
-      <c r="AJ46" t="n">
-        <v>9.75</v>
-      </c>
       <c r="AK46" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AL46" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AM46" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AN46" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AO46" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AP46" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AQ46" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AR46" t="n">
         <v>200</v>
@@ -8824,34 +8824,34 @@
         <v>300</v>
       </c>
       <c r="AT46" t="n">
-        <v>4.65</v>
+        <v>4.2</v>
       </c>
       <c r="AU46" t="n">
         <v>7.9</v>
       </c>
       <c r="AV46" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AW46" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AX46" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AY46" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AZ46" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="BA46" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="BB46" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="BC46" t="n">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="BD46" t="n">
         <v>51</v>
@@ -8892,33 +8892,33 @@
         <v>1.02</v>
       </c>
       <c r="H47" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="I47" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J47" t="n">
         <v>1.16</v>
       </c>
       <c r="K47" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L47" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P47" t="n">
         <v>10</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="R47" t="n">
-        <v>4.85</v>
+        <v>5.1</v>
       </c>
       <c r="S47" t="n">
         <v>1.07</v>
@@ -8933,22 +8933,22 @@
         <v>1.4</v>
       </c>
       <c r="W47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X47" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="Y47" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z47" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AA47" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AB47" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AC47" t="n">
         <v>37</v>
@@ -8960,21 +8960,23 @@
         <v>110</v>
       </c>
       <c r="AF47" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AG47" t="n">
         <v>800</v>
       </c>
       <c r="AH47" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AI47" t="n">
         <v>800</v>
       </c>
       <c r="AJ47" t="n">
-        <v>400</v>
-      </c>
-      <c r="AK47" t="inlineStr"/>
+        <v>350</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>51</v>
+      </c>
       <c r="AL47" t="n">
         <v>1000</v>
       </c>
@@ -8982,16 +8984,16 @@
         <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AO47" t="n">
         <v>3.7</v>
       </c>
       <c r="AP47" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AR47" t="n">
         <v>22</v>
@@ -9000,28 +9002,38 @@
         <v>175</v>
       </c>
       <c r="AT47" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AU47" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AV47" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AW47" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AX47" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AY47" t="n">
         <v>175</v>
       </c>
-      <c r="AZ47" t="inlineStr"/>
-      <c r="BA47" t="inlineStr"/>
-      <c r="BB47" t="inlineStr"/>
-      <c r="BC47" t="inlineStr"/>
-      <c r="BD47" t="inlineStr"/>
+      <c r="AZ47" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9255,10 +9267,10 @@
         <v>3.2</v>
       </c>
       <c r="M49" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N49" t="n">
-        <v>8</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="O49" t="n">
         <v>1.26</v>
@@ -9419,19 +9431,19 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H50" t="n">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="I50" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J50" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="K50" t="n">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="L50" t="n">
         <v>5</v>
@@ -9443,16 +9455,16 @@
         <v>11</v>
       </c>
       <c r="O50" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P50" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="R50" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="S50" t="n">
         <v>1.4</v>
@@ -9461,16 +9473,16 @@
         <v>2.52</v>
       </c>
       <c r="U50" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="V50" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="W50" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="X50" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Y50" t="n">
         <v>8</v>
@@ -9479,31 +9491,31 @@
         <v>11.75</v>
       </c>
       <c r="AA50" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AB50" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AC50" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD50" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AE50" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF50" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG50" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AH50" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AI50" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ50" t="n">
         <v>16.5</v>
@@ -9512,46 +9524,46 @@
         <v>100</v>
       </c>
       <c r="AL50" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AM50" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN50" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AO50" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AP50" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AQ50" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR50" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AS50" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT50" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="AU50" t="n">
         <v>7</v>
       </c>
       <c r="AV50" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW50" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AX50" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY50" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ50" t="n">
         <v>150</v>
@@ -9783,7 +9795,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H52" t="n">
         <v>3.6</v>
@@ -9792,7 +9804,7 @@
         <v>3.4</v>
       </c>
       <c r="J52" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K52" t="n">
         <v>2.2</v>
@@ -9804,7 +9816,7 @@
         <v>1.04</v>
       </c>
       <c r="N52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O52" t="n">
         <v>1.25</v>
@@ -9813,22 +9825,22 @@
         <v>3.75</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R52" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S52" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T52" t="n">
         <v>3</v>
       </c>
       <c r="U52" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V52" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W52" t="n">
         <v>8.5</v>
@@ -9840,10 +9852,10 @@
         <v>9</v>
       </c>
       <c r="Z52" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA52" t="n">
         <v>17</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>15</v>
       </c>
       <c r="AB52" t="n">
         <v>23</v>
@@ -9855,7 +9867,7 @@
         <v>7</v>
       </c>
       <c r="AE52" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF52" t="n">
         <v>41</v>
@@ -9867,7 +9879,7 @@
         <v>11</v>
       </c>
       <c r="AI52" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ52" t="n">
         <v>12</v>
@@ -9891,7 +9903,7 @@
         <v>21</v>
       </c>
       <c r="AQ52" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR52" t="n">
         <v>51</v>
@@ -9961,13 +9973,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H53" t="n">
         <v>4</v>
       </c>
       <c r="I53" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J53" t="n">
         <v>2.3</v>
@@ -9979,28 +9991,28 @@
         <v>5</v>
       </c>
       <c r="M53" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N53" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O53" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P53" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R53" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S53" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="T53" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U53" t="n">
         <v>1.83</v>
@@ -10039,7 +10051,7 @@
         <v>51</v>
       </c>
       <c r="AG53" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH53" t="n">
         <v>12</v>
@@ -10054,19 +10066,19 @@
         <v>51</v>
       </c>
       <c r="AL53" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM53" t="n">
         <v>41</v>
       </c>
       <c r="AN53" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO53" t="n">
         <v>9</v>
       </c>
       <c r="AP53" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ53" t="n">
         <v>29</v>
@@ -10078,10 +10090,10 @@
         <v>151</v>
       </c>
       <c r="AT53" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU53" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV53" t="n">
         <v>51</v>
@@ -10102,7 +10114,7 @@
         <v>101</v>
       </c>
       <c r="BB53" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC53" t="inlineStr"/>
       <c r="BD53" t="inlineStr"/>
@@ -10337,7 +10349,7 @@
         <v>2.08</v>
       </c>
       <c r="S55" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T55" t="n">
         <v>3.25</v>
@@ -10632,7 +10644,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SMjNBP0m</t>
+          <t>QDWL2F8h</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -10642,350 +10654,350 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>EUROPE - EURO WOMEN</t>
+          <t>ETHIOPIA - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Serbia W</t>
+          <t>Ethio Electric</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Sweden W</t>
+          <t>Dire Dawa</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>14.1</v>
+        <v>2.72</v>
       </c>
       <c r="H57" t="n">
-        <v>5.95</v>
+        <v>2.92</v>
       </c>
       <c r="I57" t="n">
-        <v>1.16</v>
+        <v>2.5</v>
       </c>
       <c r="J57" t="n">
-        <v>10.7</v>
+        <v>3.5</v>
       </c>
       <c r="K57" t="n">
-        <v>2.58</v>
+        <v>1.88</v>
       </c>
       <c r="L57" t="n">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="M57" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N57" t="n">
-        <v>11.5</v>
+        <v>6.1</v>
       </c>
       <c r="O57" t="n">
-        <v>1.15</v>
+        <v>1.43</v>
       </c>
       <c r="P57" t="n">
-        <v>4.05</v>
+        <v>2.65</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.65</v>
+        <v>2.22</v>
       </c>
       <c r="R57" t="n">
-        <v>2.09</v>
+        <v>1.52</v>
       </c>
       <c r="S57" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="T57" t="n">
-        <v>3.28</v>
+        <v>2.18</v>
       </c>
       <c r="U57" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="V57" t="n">
-        <v>1.57</v>
+        <v>1.77</v>
       </c>
       <c r="W57" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="X57" t="n">
-        <v>67</v>
+        <v>10.25</v>
       </c>
       <c r="Y57" t="n">
-        <v>34</v>
+        <v>8.75</v>
       </c>
       <c r="Z57" t="n">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="AA57" t="n">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="AB57" t="n">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="AC57" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AD57" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE57" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AF57" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG57" t="inlineStr"/>
+        <v>65</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>500</v>
+      </c>
       <c r="AH57" t="n">
         <v>6</v>
       </c>
       <c r="AI57" t="n">
-        <v>5</v>
+        <v>9.75</v>
       </c>
       <c r="AJ57" t="n">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="AK57" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="AL57" t="n">
-        <v>9.5</v>
+        <v>18.5</v>
       </c>
       <c r="AM57" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN57" t="n">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="AO57" t="n">
-        <v>51</v>
+        <v>16.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="AQ57" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AR57" t="n">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="AS57" t="n">
-        <v>81</v>
+        <v>450</v>
       </c>
       <c r="AT57" t="n">
-        <v>3.4</v>
+        <v>2.18</v>
       </c>
       <c r="AU57" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AV57" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="AW57" t="n">
-        <v>2.7</v>
+        <v>4.25</v>
       </c>
       <c r="AX57" t="n">
-        <v>4.33</v>
+        <v>14.5</v>
       </c>
       <c r="AY57" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AZ57" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="BA57" t="n">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="BB57" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC57" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD57" t="n">
-        <v>81</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="BC57" t="inlineStr"/>
+      <c r="BD57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>GQRxg0r1</t>
+          <t>SMjNBP0m</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>27/11/2024</t>
+          <t>28/11/2024</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>GUATEMALA - LIGA NACIONAL</t>
+          <t>EUROPE - EURO WOMEN</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Xinabajul</t>
+          <t>Serbia W</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Malacateco</t>
+          <t>Sweden W</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.1</v>
+        <v>14.1</v>
       </c>
       <c r="H58" t="n">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="I58" t="n">
-        <v>3.45</v>
+        <v>1.16</v>
       </c>
       <c r="J58" t="n">
-        <v>2.67</v>
+        <v>10.7</v>
       </c>
       <c r="K58" t="n">
-        <v>2.05</v>
+        <v>2.58</v>
       </c>
       <c r="L58" t="n">
-        <v>3.85</v>
+        <v>1.6</v>
       </c>
       <c r="M58" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N58" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T58" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W58" t="n">
+        <v>26</v>
+      </c>
+      <c r="X58" t="n">
+        <v>81</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>81</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>81</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG58" t="inlineStr"/>
+      <c r="AH58" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ58" t="n">
         <v>8</v>
       </c>
-      <c r="O58" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P58" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R58" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S58" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T58" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U58" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V58" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="W58" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="X58" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB58" t="n">
+      <c r="AK58" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AM58" t="n">
         <v>29</v>
       </c>
-      <c r="AC58" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM58" t="n">
-        <v>37</v>
-      </c>
       <c r="AN58" t="n">
-        <v>3.95</v>
+        <v>9</v>
       </c>
       <c r="AO58" t="n">
-        <v>10.75</v>
+        <v>51</v>
       </c>
       <c r="AP58" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="AQ58" t="n">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AR58" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AS58" t="n">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.52</v>
+        <v>3.4</v>
       </c>
       <c r="AU58" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="AV58" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AW58" t="n">
-        <v>5.3</v>
+        <v>2.7</v>
       </c>
       <c r="AX58" t="n">
-        <v>18.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY58" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AZ58" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="BA58" t="n">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="BB58" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC58" t="inlineStr"/>
-      <c r="BD58" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -11193,22 +11205,22 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H60" t="n">
         <v>2.85</v>
       </c>
       <c r="I60" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J60" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="K60" t="n">
         <v>1.95</v>
       </c>
       <c r="L60" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="M60" t="n">
         <v>1.03</v>
@@ -11229,28 +11241,28 @@
         <v>1.6</v>
       </c>
       <c r="S60" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T60" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="U60" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V60" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="W60" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="X60" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y60" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z60" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA60" t="n">
         <v>21</v>
@@ -11274,28 +11286,28 @@
         <v>600</v>
       </c>
       <c r="AH60" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AI60" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ60" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AK60" t="n">
         <v>45</v>
       </c>
       <c r="AL60" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM60" t="n">
         <v>37</v>
       </c>
       <c r="AN60" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="AO60" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AP60" t="n">
         <v>20</v>
@@ -11319,16 +11331,16 @@
         <v>60</v>
       </c>
       <c r="AW60" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AX60" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AY60" t="n">
         <v>23</v>
       </c>
       <c r="AZ60" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BA60" t="n">
         <v>120</v>
@@ -11401,10 +11413,10 @@
         <v>3.95</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R61" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S61" t="n">
         <v>1.33</v>
@@ -11549,40 +11561,40 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="H62" t="n">
-        <v>4.25</v>
+        <v>4.55</v>
       </c>
       <c r="I62" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="J62" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="K62" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L62" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="M62" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N62" t="n">
-        <v>7.65</v>
+        <v>8</v>
       </c>
       <c r="O62" t="n">
         <v>1.21</v>
       </c>
       <c r="P62" t="n">
-        <v>3.44</v>
+        <v>4</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="R62" t="n">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="S62" t="n">
         <v>1.37</v>
@@ -11591,103 +11603,103 @@
         <v>2.47</v>
       </c>
       <c r="U62" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="V62" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="W62" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="X62" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="Y62" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="Z62" t="n">
         <v>6.6</v>
       </c>
       <c r="AA62" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AB62" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AC62" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD62" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="AE62" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF62" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AG62" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AH62" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI62" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ62" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK62" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AL62" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AM62" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AN62" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AO62" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AP62" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AQ62" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AR62" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>55</v>
+      </c>
+      <c r="AY62" t="n">
         <v>45</v>
       </c>
-      <c r="AS62" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT62" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AU62" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AV62" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW62" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AX62" t="n">
-        <v>65</v>
-      </c>
-      <c r="AY62" t="n">
-        <v>60</v>
-      </c>
       <c r="AZ62" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BA62" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="BB62" t="n">
         <v>400</v>
@@ -11727,10 +11739,10 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="H63" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I63" t="n">
         <v>2.2</v>
@@ -11754,13 +11766,13 @@
         <v>1.16</v>
       </c>
       <c r="P63" t="n">
-        <v>3.92</v>
+        <v>3.9</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R63" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="S63" t="n">
         <v>1.39</v>
@@ -11775,37 +11787,37 @@
         <v>2.48</v>
       </c>
       <c r="W63" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="X63" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="Y63" t="n">
         <v>8.75</v>
       </c>
       <c r="Z63" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA63" t="n">
         <v>17</v>
       </c>
       <c r="AB63" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AC63" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD63" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AE63" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AF63" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AG63" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AH63" t="n">
         <v>8.5</v>
@@ -11823,52 +11835,52 @@
         <v>13.5</v>
       </c>
       <c r="AM63" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AN63" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AO63" t="n">
         <v>14.5</v>
       </c>
       <c r="AP63" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AQ63" t="n">
         <v>60</v>
       </c>
       <c r="AR63" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AS63" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="AU63" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AV63" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW63" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="AX63" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AY63" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AZ63" t="n">
         <v>45</v>
       </c>
       <c r="BA63" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB63" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BC63" t="inlineStr"/>
       <c r="BD63" t="inlineStr"/>
@@ -11926,7 +11938,7 @@
         <v>1.01</v>
       </c>
       <c r="N64" t="n">
-        <v>9.800000000000001</v>
+        <v>8.25</v>
       </c>
       <c r="O64" t="n">
         <v>1.25</v>
@@ -11947,10 +11959,10 @@
         <v>2.42</v>
       </c>
       <c r="U64" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V64" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="W64" t="n">
         <v>5.6</v>
@@ -12104,7 +12116,7 @@
         <v>1.03</v>
       </c>
       <c r="N65" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O65" t="n">
         <v>1.19</v>
@@ -12634,7 +12646,7 @@
         <v>1.07</v>
       </c>
       <c r="N68" t="n">
-        <v>6.88</v>
+        <v>6.9</v>
       </c>
       <c r="O68" t="n">
         <v>1.44</v>
@@ -13683,13 +13695,13 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="H74" t="n">
         <v>3.7</v>
       </c>
       <c r="I74" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="J74" t="n">
         <v>4.33</v>
@@ -13701,10 +13713,10 @@
         <v>2.5</v>
       </c>
       <c r="M74" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N74" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O74" t="n">
         <v>1.25</v>
@@ -13725,16 +13737,16 @@
         <v>3</v>
       </c>
       <c r="U74" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V74" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W74" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X74" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y74" t="n">
         <v>13</v>
@@ -13743,10 +13755,10 @@
         <v>41</v>
       </c>
       <c r="AA74" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB74" t="n">
         <v>34</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>41</v>
       </c>
       <c r="AC74" t="n">
         <v>11</v>
@@ -13761,7 +13773,7 @@
         <v>51</v>
       </c>
       <c r="AG74" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH74" t="n">
         <v>7.5</v>
@@ -14217,13 +14229,13 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H77" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I77" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J77" t="n">
         <v>2.75</v>
@@ -14235,10 +14247,10 @@
         <v>3.75</v>
       </c>
       <c r="M77" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N77" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="O77" t="n">
         <v>1.33</v>
@@ -14301,7 +14313,7 @@
         <v>9.5</v>
       </c>
       <c r="AI77" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ77" t="n">
         <v>12</v>
@@ -14310,13 +14322,13 @@
         <v>34</v>
       </c>
       <c r="AL77" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM77" t="n">
         <v>34</v>
       </c>
       <c r="AN77" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO77" t="n">
         <v>12</v>
@@ -14328,7 +14340,7 @@
         <v>41</v>
       </c>
       <c r="AR77" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS77" t="n">
         <v>151</v>
@@ -14343,7 +14355,7 @@
         <v>51</v>
       </c>
       <c r="AW77" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX77" t="n">
         <v>19</v>
@@ -14429,10 +14441,10 @@
         <v>3.5</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R78" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="S78" t="n">
         <v>1.4</v>
@@ -14611,10 +14623,10 @@
         <v>3.5</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R79" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S79" t="n">
         <v>1.4</v>
@@ -14763,13 +14775,13 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H80" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I80" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="J80" t="n">
         <v>3.75</v>
@@ -14778,13 +14790,13 @@
         <v>2.05</v>
       </c>
       <c r="L80" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M80" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N80" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O80" t="n">
         <v>1.36</v>
@@ -14829,13 +14841,13 @@
         <v>34</v>
       </c>
       <c r="AC80" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD80" t="n">
         <v>6.5</v>
       </c>
       <c r="AE80" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF80" t="n">
         <v>51</v>
@@ -14847,7 +14859,7 @@
         <v>7</v>
       </c>
       <c r="AI80" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ80" t="n">
         <v>9.5</v>
@@ -14856,22 +14868,22 @@
         <v>21</v>
       </c>
       <c r="AL80" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM80" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN80" t="n">
         <v>5</v>
       </c>
       <c r="AO80" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP80" t="n">
         <v>29</v>
       </c>
       <c r="AQ80" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR80" t="n">
         <v>81</v>
@@ -14883,7 +14895,7 @@
         <v>2.63</v>
       </c>
       <c r="AU80" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV80" t="n">
         <v>51</v>
@@ -14895,7 +14907,7 @@
         <v>13</v>
       </c>
       <c r="AY80" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ80" t="n">
         <v>41</v>
@@ -15119,22 +15131,22 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H82" t="n">
         <v>3.2</v>
       </c>
       <c r="I82" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="J82" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="K82" t="n">
         <v>1.9</v>
       </c>
       <c r="L82" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="M82" t="n">
         <v>1.09</v>
@@ -15143,13 +15155,13 @@
         <v>5</v>
       </c>
       <c r="O82" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="P82" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="R82" t="n">
         <v>1.36</v>
@@ -15158,73 +15170,73 @@
         <v>1.55</v>
       </c>
       <c r="T82" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="U82" t="n">
-        <v>2.51</v>
+        <v>2.54</v>
       </c>
       <c r="V82" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="W82" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="X82" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y82" t="n">
         <v>8</v>
       </c>
       <c r="Z82" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AA82" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AB82" t="n">
         <v>40</v>
       </c>
       <c r="AC82" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AD82" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AE82" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF82" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AG82" t="n">
         <v>101</v>
       </c>
       <c r="AH82" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AI82" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ82" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK82" t="n">
         <v>80</v>
       </c>
       <c r="AL82" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM82" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN82" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AO82" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AP82" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ82" t="n">
         <v>32</v>
@@ -15236,28 +15248,28 @@
         <v>500</v>
       </c>
       <c r="AT82" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="AU82" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AV82" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AW82" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AX82" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AY82" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AZ82" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BA82" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BB82" t="inlineStr"/>
       <c r="BC82" t="inlineStr"/>
@@ -15821,13 +15833,13 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H86" t="n">
         <v>3.3</v>
       </c>
       <c r="I86" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="J86" t="n">
         <v>3.15</v>
@@ -15893,13 +15905,13 @@
         <v>6.5</v>
       </c>
       <c r="AE86" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF86" t="n">
         <v>45</v>
       </c>
       <c r="AG86" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AH86" t="n">
         <v>10.25</v>
@@ -15908,7 +15920,7 @@
         <v>14.5</v>
       </c>
       <c r="AJ86" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK86" t="n">
         <v>29</v>
@@ -15917,10 +15929,10 @@
         <v>19</v>
       </c>
       <c r="AM86" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN86" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="AO86" t="n">
         <v>14</v>
@@ -15941,7 +15953,7 @@
         <v>2.92</v>
       </c>
       <c r="AU86" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV86" t="n">
         <v>50</v>
@@ -15953,7 +15965,7 @@
         <v>13</v>
       </c>
       <c r="AY86" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AZ86" t="n">
         <v>55</v>
@@ -16003,46 +16015,46 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="H87" t="n">
-        <v>4.33</v>
+        <v>4.3</v>
       </c>
       <c r="I87" t="n">
-        <v>5.58</v>
+        <v>5.52</v>
       </c>
       <c r="J87" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="K87" t="n">
         <v>2.47</v>
       </c>
       <c r="L87" t="n">
-        <v>5.39</v>
+        <v>5.34</v>
       </c>
       <c r="M87" t="n">
         <v>1.03</v>
       </c>
       <c r="N87" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O87" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="P87" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="R87" t="n">
-        <v>2.31</v>
+        <v>2.34</v>
       </c>
       <c r="S87" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="T87" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="U87" t="n">
         <v>1.6</v>
@@ -16183,22 +16195,22 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="H88" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="I88" t="n">
-        <v>5.96</v>
+        <v>6.17</v>
       </c>
       <c r="J88" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="K88" t="n">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="L88" t="n">
-        <v>6.18</v>
+        <v>6.28</v>
       </c>
       <c r="M88" t="n">
         <v>1.06</v>
@@ -16213,10 +16225,10 @@
         <v>3.14</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R88" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="S88" t="n">
         <v>1.38</v>
@@ -16249,10 +16261,10 @@
         <v>26</v>
       </c>
       <c r="AC88" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD88" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE88" t="n">
         <v>17</v>
@@ -16298,7 +16310,7 @@
         <v>51</v>
       </c>
       <c r="AT88" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="AU88" t="n">
         <v>7.5</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD89"/>
+  <dimension ref="A1:BD90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1073,7 +1073,7 @@
         <v>351</v>
       </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
         <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
         <v>2.38</v>
       </c>
       <c r="L4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -1159,13 +1159,13 @@
         <v>2.5</v>
       </c>
       <c r="W4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X4" t="n">
         <v>19</v>
       </c>
       <c r="Y4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
         <v>34</v>
@@ -1195,7 +1195,7 @@
         <v>11</v>
       </c>
       <c r="AI4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ4" t="n">
         <v>9</v>
@@ -1213,7 +1213,7 @@
         <v>5.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP4" t="n">
         <v>21</v>
@@ -1249,7 +1249,7 @@
         <v>34</v>
       </c>
       <c r="BA4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB4" t="n">
         <v>101</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
         <v>2.2</v>
@@ -1308,7 +1308,7 @@
         <v>2.4</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
@@ -1377,7 +1377,7 @@
         <v>17</v>
       </c>
       <c r="AI5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ5" t="n">
         <v>15</v>
@@ -1395,13 +1395,13 @@
         <v>3.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP5" t="n">
         <v>17</v>
       </c>
       <c r="AQ5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR5" t="n">
         <v>41</v>
@@ -1416,7 +1416,7 @@
         <v>7.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW5" t="n">
         <v>6.5</v>
@@ -1425,7 +1425,7 @@
         <v>23</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
         <v>81</v>
@@ -1437,7 +1437,7 @@
         <v>151</v>
       </c>
       <c r="BC5" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1493,16 +1493,16 @@
         <v>3.4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
         <v>2.2</v>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H7" t="n">
         <v>5.5</v>
@@ -1675,10 +1675,10 @@
         <v>8.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O7" t="n">
         <v>1.2</v>
@@ -1693,16 +1693,16 @@
         <v>2.3</v>
       </c>
       <c r="S7" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W7" t="n">
         <v>7.5</v>
@@ -1711,7 +1711,7 @@
         <v>6.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z7" t="n">
         <v>8</v>
@@ -1720,7 +1720,7 @@
         <v>11</v>
       </c>
       <c r="AB7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC7" t="n">
         <v>13</v>
@@ -1729,7 +1729,7 @@
         <v>10</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
         <v>67</v>
@@ -1741,10 +1741,10 @@
         <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK7" t="n">
         <v>126</v>
@@ -1756,7 +1756,7 @@
         <v>51</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO7" t="n">
         <v>6</v>
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="AQ7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR7" t="n">
         <v>41</v>
@@ -1774,7 +1774,7 @@
         <v>126</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU7" t="n">
         <v>9.5</v>
@@ -1783,7 +1783,7 @@
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AX7" t="n">
         <v>41</v>
@@ -2266,7 +2266,7 @@
         <v>15</v>
       </c>
       <c r="AB10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
         <v>17</v>
@@ -2302,7 +2302,7 @@
         <v>26</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO10" t="n">
         <v>11</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="H12" t="n">
         <v>3.5</v>
@@ -2597,10 +2597,10 @@
         <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R12" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S12" t="n">
         <v>1.36</v>
@@ -2749,7 +2749,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="H13" t="n">
         <v>7</v>
@@ -2931,13 +2931,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H14" t="n">
         <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J14" t="n">
         <v>3.75</v>
@@ -2988,16 +2988,16 @@
         <v>12</v>
       </c>
       <c r="Z14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB14" t="n">
         <v>29</v>
       </c>
       <c r="AC14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD14" t="n">
         <v>7</v>
@@ -3012,7 +3012,7 @@
         <v>126</v>
       </c>
       <c r="AH14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI14" t="n">
         <v>11</v>
@@ -3325,10 +3325,10 @@
         <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="R16" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="S16" t="n">
         <v>1.4</v>
@@ -3683,10 +3683,10 @@
         <v>17</v>
       </c>
       <c r="O18" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P18" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q18" t="n">
         <v>1.5</v>
@@ -3871,10 +3871,10 @@
         <v>3.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S19" t="n">
         <v>1.44</v>
@@ -3988,7 +3988,7 @@
         <v>501</v>
       </c>
       <c r="BD19" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20">
@@ -4044,13 +4044,13 @@
         <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P20" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
         <v>2.2</v>
@@ -4205,61 +4205,61 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="H21" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
         <v>2.1</v>
       </c>
       <c r="J21" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K21" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>7</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P21" t="n">
         <v>2.75</v>
       </c>
-      <c r="M21" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N21" t="n">
-        <v>8</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3</v>
-      </c>
       <c r="Q21" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R21" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S21" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="T21" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="U21" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X21" t="n">
         <v>19</v>
       </c>
       <c r="Y21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z21" t="n">
         <v>41</v>
@@ -4271,28 +4271,28 @@
         <v>41</v>
       </c>
       <c r="AC21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD21" t="n">
         <v>6</v>
       </c>
       <c r="AE21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>9</v>
       </c>
       <c r="AK21" t="n">
         <v>19</v>
@@ -4301,7 +4301,7 @@
         <v>19</v>
       </c>
       <c r="AM21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN21" t="n">
         <v>5.5</v>
@@ -4310,25 +4310,25 @@
         <v>21</v>
       </c>
       <c r="AP21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV21" t="n">
         <v>67</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>51</v>
       </c>
       <c r="AW21" t="n">
         <v>4</v>
@@ -4337,7 +4337,7 @@
         <v>12</v>
       </c>
       <c r="AY21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ21" t="n">
         <v>41</v>
@@ -4387,22 +4387,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I22" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="J22" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K22" t="n">
         <v>2.25</v>
       </c>
       <c r="L22" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M22" t="n">
         <v>1.04</v>
@@ -4435,19 +4435,19 @@
         <v>2.2</v>
       </c>
       <c r="W22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB22" t="n">
         <v>23</v>
@@ -4468,16 +4468,16 @@
         <v>151</v>
       </c>
       <c r="AH22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI22" t="n">
         <v>15</v>
       </c>
       <c r="AJ22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL22" t="n">
         <v>21</v>
@@ -4486,13 +4486,13 @@
         <v>26</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ22" t="n">
         <v>41</v>
@@ -4513,7 +4513,7 @@
         <v>41</v>
       </c>
       <c r="AW22" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX22" t="n">
         <v>15</v>
@@ -4522,16 +4522,16 @@
         <v>21</v>
       </c>
       <c r="AZ22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB22" t="n">
         <v>126</v>
       </c>
       <c r="BC22" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD22" t="n">
         <v>126</v>
@@ -4587,10 +4587,10 @@
         <v>4.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
         <v>1.25</v>
@@ -4599,10 +4599,10 @@
         <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S23" t="n">
         <v>1.36</v>
@@ -4775,16 +4775,16 @@
         <v>11</v>
       </c>
       <c r="O24" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P24" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R24" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S24" t="n">
         <v>1.4</v>
@@ -5115,13 +5115,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H26" t="n">
         <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J26" t="n">
         <v>2.2</v>
@@ -5145,10 +5145,10 @@
         <v>3.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R26" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S26" t="n">
         <v>1.36</v>
@@ -5193,13 +5193,13 @@
         <v>51</v>
       </c>
       <c r="AG26" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH26" t="n">
         <v>15</v>
       </c>
       <c r="AI26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ26" t="n">
         <v>17</v>
@@ -5229,7 +5229,7 @@
         <v>51</v>
       </c>
       <c r="AS26" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT26" t="n">
         <v>3</v>
@@ -5297,58 +5297,58 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H27" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I27" t="n">
         <v>4.5</v>
       </c>
       <c r="J27" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K27" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L27" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O27" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P27" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="R27" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="S27" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="T27" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U27" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="V27" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="W27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X27" t="n">
         <v>8.5</v>
-      </c>
-      <c r="X27" t="n">
-        <v>9</v>
       </c>
       <c r="Y27" t="n">
         <v>8.5</v>
@@ -5357,28 +5357,28 @@
         <v>15</v>
       </c>
       <c r="AA27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH27" t="n">
         <v>13</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>15</v>
       </c>
       <c r="AI27" t="n">
         <v>23</v>
@@ -5387,37 +5387,37 @@
         <v>15</v>
       </c>
       <c r="AK27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL27" t="n">
         <v>34</v>
       </c>
       <c r="AM27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ27" t="n">
         <v>34</v>
       </c>
-      <c r="AN27" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>29</v>
-      </c>
       <c r="AR27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS27" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT27" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV27" t="n">
         <v>51</v>
@@ -5426,19 +5426,19 @@
         <v>6</v>
       </c>
       <c r="AX27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA27" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB27" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC27" t="n">
         <v>501</v>
@@ -5685,10 +5685,10 @@
         <v>19</v>
       </c>
       <c r="O29" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P29" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q29" t="n">
         <v>1.48</v>
@@ -5843,22 +5843,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="H30" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I30" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="J30" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="K30" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L30" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="M30" t="n">
         <v>1.04</v>
@@ -5885,28 +5885,28 @@
         <v>3.25</v>
       </c>
       <c r="U30" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V30" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W30" t="n">
         <v>15</v>
       </c>
       <c r="X30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB30" t="n">
         <v>41</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>34</v>
       </c>
       <c r="AC30" t="n">
         <v>13</v>
@@ -5915,7 +5915,7 @@
         <v>7</v>
       </c>
       <c r="AE30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF30" t="n">
         <v>41</v>
@@ -5924,16 +5924,16 @@
         <v>151</v>
       </c>
       <c r="AH30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI30" t="n">
         <v>9</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>10</v>
       </c>
       <c r="AJ30" t="n">
         <v>8.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AL30" t="n">
         <v>13</v>
@@ -5942,16 +5942,16 @@
         <v>21</v>
       </c>
       <c r="AN30" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ30" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR30" t="n">
         <v>81</v>
@@ -5969,19 +5969,19 @@
         <v>51</v>
       </c>
       <c r="AW30" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX30" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AY30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ30" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="BA30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB30" t="n">
         <v>101</v>
@@ -5990,7 +5990,7 @@
         <v>501</v>
       </c>
       <c r="BD30" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31">
@@ -6231,16 +6231,16 @@
         <v>13</v>
       </c>
       <c r="O32" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P32" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R32" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S32" t="n">
         <v>1.33</v>
@@ -6389,46 +6389,46 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H33" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="J33" t="n">
         <v>5.5</v>
       </c>
       <c r="K33" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L33" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M33" t="n">
         <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O33" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P33" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R33" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="S33" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T33" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U33" t="n">
         <v>1.73</v>
@@ -6455,7 +6455,7 @@
         <v>41</v>
       </c>
       <c r="AC33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD33" t="n">
         <v>7.5</v>
@@ -6464,16 +6464,16 @@
         <v>15</v>
       </c>
       <c r="AF33" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG33" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH33" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ33" t="n">
         <v>8.5</v>
@@ -6482,10 +6482,10 @@
         <v>12</v>
       </c>
       <c r="AL33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN33" t="n">
         <v>7</v>
@@ -6494,10 +6494,10 @@
         <v>26</v>
       </c>
       <c r="AP33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ33" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR33" t="n">
         <v>101</v>
@@ -6506,7 +6506,7 @@
         <v>201</v>
       </c>
       <c r="AT33" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU33" t="n">
         <v>8</v>
@@ -6515,28 +6515,28 @@
         <v>51</v>
       </c>
       <c r="AW33" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AX33" t="n">
         <v>8</v>
       </c>
       <c r="AY33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ33" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA33" t="n">
         <v>41</v>
       </c>
       <c r="BB33" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC33" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD33" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34">
@@ -6571,22 +6571,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="H34" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="I34" t="n">
         <v>13</v>
       </c>
       <c r="J34" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="K34" t="n">
         <v>2.75</v>
       </c>
       <c r="L34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M34" t="n">
         <v>1.03</v>
@@ -6601,10 +6601,10 @@
         <v>5</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R34" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S34" t="n">
         <v>1.29</v>
@@ -6613,10 +6613,10 @@
         <v>3.5</v>
       </c>
       <c r="U34" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V34" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W34" t="n">
         <v>7.5</v>
@@ -6625,40 +6625,40 @@
         <v>6</v>
       </c>
       <c r="Y34" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA34" t="n">
         <v>11</v>
       </c>
       <c r="AB34" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC34" t="n">
         <v>15</v>
       </c>
       <c r="AD34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE34" t="n">
         <v>29</v>
       </c>
       <c r="AF34" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG34" t="n">
         <v>501</v>
       </c>
       <c r="AH34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI34" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ34" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK34" t="n">
         <v>201</v>
@@ -6673,13 +6673,13 @@
         <v>3.1</v>
       </c>
       <c r="AO34" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AP34" t="n">
         <v>19</v>
       </c>
       <c r="AQ34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR34" t="n">
         <v>41</v>
@@ -6694,10 +6694,10 @@
         <v>11</v>
       </c>
       <c r="AV34" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX34" t="n">
         <v>51</v>
@@ -6706,10 +6706,10 @@
         <v>51</v>
       </c>
       <c r="AZ34" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BA34" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BB34" t="n">
         <v>501</v>
@@ -6965,10 +6965,10 @@
         <v>5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R36" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S36" t="n">
         <v>1.29</v>
@@ -7159,10 +7159,10 @@
         <v>2.32</v>
       </c>
       <c r="U37" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V37" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="W37" t="n">
         <v>5.5</v>
@@ -7845,7 +7845,7 @@
         <v>2.95</v>
       </c>
       <c r="M41" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N41" t="n">
         <v>8.5</v>
@@ -8403,10 +8403,10 @@
         <v>3.42</v>
       </c>
       <c r="U44" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="V44" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W44" t="n">
         <v>32</v>
@@ -8552,7 +8552,7 @@
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>8.6</v>
+        <v>7.95</v>
       </c>
       <c r="O45" t="n">
         <v>1.26</v>
@@ -8710,7 +8710,7 @@
         <v>8</v>
       </c>
       <c r="H46" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="I46" t="n">
         <v>1.27</v>
@@ -8719,40 +8719,40 @@
         <v>6.5</v>
       </c>
       <c r="K46" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="L46" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="M46" t="n">
         <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>16.5</v>
+        <v>14.9</v>
       </c>
       <c r="O46" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="P46" t="n">
-        <v>6.25</v>
+        <v>5.9</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="R46" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="S46" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="T46" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="U46" t="n">
         <v>1.65</v>
       </c>
       <c r="V46" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W46" t="n">
         <v>32</v>
@@ -8773,31 +8773,31 @@
         <v>60</v>
       </c>
       <c r="AC46" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AD46" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE46" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AF46" t="n">
         <v>65</v>
       </c>
       <c r="AG46" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AH46" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AI46" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AJ46" t="n">
         <v>9.25</v>
       </c>
       <c r="AK46" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AL46" t="n">
         <v>10</v>
@@ -8806,7 +8806,7 @@
         <v>21</v>
       </c>
       <c r="AN46" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO46" t="n">
         <v>40</v>
@@ -8818,37 +8818,37 @@
         <v>250</v>
       </c>
       <c r="AR46" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AS46" t="n">
         <v>300</v>
       </c>
       <c r="AT46" t="n">
-        <v>4.2</v>
+        <v>4.55</v>
       </c>
       <c r="AU46" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AV46" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW46" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AX46" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AY46" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AZ46" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="BA46" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BB46" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BC46" t="n">
         <v>500</v>
@@ -8895,13 +8895,13 @@
         <v>11.75</v>
       </c>
       <c r="I47" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J47" t="n">
         <v>1.16</v>
       </c>
       <c r="K47" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="L47" t="n">
         <v>24</v>
@@ -8912,13 +8912,13 @@
         <v>1.03</v>
       </c>
       <c r="P47" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="R47" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="S47" t="n">
         <v>1.07</v>
@@ -8927,46 +8927,46 @@
         <v>6.8</v>
       </c>
       <c r="U47" t="n">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
       <c r="V47" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W47" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="X47" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="Y47" t="n">
         <v>25</v>
       </c>
       <c r="Z47" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AA47" t="n">
         <v>16.5</v>
       </c>
       <c r="AB47" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AC47" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AD47" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AE47" t="n">
         <v>110</v>
       </c>
       <c r="AF47" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AG47" t="n">
         <v>800</v>
       </c>
       <c r="AH47" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AI47" t="n">
         <v>800</v>
@@ -8981,34 +8981,34 @@
         <v>1000</v>
       </c>
       <c r="AM47" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="AN47" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AO47" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AP47" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AR47" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS47" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT47" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AU47" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AV47" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AW47" t="n">
         <v>45</v>
@@ -9017,7 +9017,7 @@
         <v>400</v>
       </c>
       <c r="AY47" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AZ47" t="n">
         <v>51</v>
@@ -9249,19 +9249,19 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="H49" t="n">
         <v>3.25</v>
       </c>
       <c r="I49" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="J49" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="K49" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L49" t="n">
         <v>3.2</v>
@@ -9279,10 +9279,10 @@
         <v>3.2</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R49" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S49" t="n">
         <v>1.39</v>
@@ -9297,25 +9297,25 @@
         <v>2.05</v>
       </c>
       <c r="W49" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="X49" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y49" t="n">
         <v>9.25</v>
       </c>
       <c r="Z49" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA49" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AB49" t="n">
         <v>26</v>
       </c>
       <c r="AC49" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AD49" t="n">
         <v>6.4</v>
@@ -9333,16 +9333,16 @@
         <v>9.5</v>
       </c>
       <c r="AI49" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ49" t="n">
         <v>9.75</v>
       </c>
       <c r="AK49" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL49" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM49" t="n">
         <v>28</v>
@@ -9351,37 +9351,37 @@
         <v>4.4</v>
       </c>
       <c r="AO49" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AP49" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AQ49" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR49" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AS49" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT49" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="AU49" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV49" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW49" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AX49" t="n">
         <v>14</v>
       </c>
       <c r="AY49" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ49" t="n">
         <v>60</v>
@@ -9437,13 +9437,13 @@
         <v>4.05</v>
       </c>
       <c r="I50" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J50" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="K50" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="L50" t="n">
         <v>5</v>
@@ -9452,7 +9452,7 @@
         <v>1.03</v>
       </c>
       <c r="N50" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="O50" t="n">
         <v>1.21</v>
@@ -9464,7 +9464,7 @@
         <v>1.53</v>
       </c>
       <c r="R50" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="S50" t="n">
         <v>1.4</v>
@@ -9473,16 +9473,16 @@
         <v>2.52</v>
       </c>
       <c r="U50" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V50" t="n">
         <v>2.05</v>
       </c>
       <c r="W50" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X50" t="n">
         <v>8.5</v>
-      </c>
-      <c r="X50" t="n">
-        <v>8.25</v>
       </c>
       <c r="Y50" t="n">
         <v>8</v>
@@ -9503,7 +9503,7 @@
         <v>8.25</v>
       </c>
       <c r="AE50" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF50" t="n">
         <v>50</v>
@@ -9512,7 +9512,7 @@
         <v>300</v>
       </c>
       <c r="AH50" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI50" t="n">
         <v>37</v>
@@ -9530,16 +9530,16 @@
         <v>40</v>
       </c>
       <c r="AN50" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AO50" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AP50" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AQ50" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR50" t="n">
         <v>40</v>
@@ -9548,16 +9548,16 @@
         <v>150</v>
       </c>
       <c r="AT50" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="AU50" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AV50" t="n">
         <v>50</v>
       </c>
       <c r="AW50" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AX50" t="n">
         <v>27</v>
@@ -9572,7 +9572,7 @@
         <v>150</v>
       </c>
       <c r="BB50" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC50" t="n">
         <v>51</v>
@@ -9991,22 +9991,22 @@
         <v>5</v>
       </c>
       <c r="M53" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N53" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O53" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P53" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="R53" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S53" t="n">
         <v>1.36</v>
@@ -10313,22 +10313,22 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="H55" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I55" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="J55" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K55" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L55" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M55" t="n">
         <v>1.04</v>
@@ -10397,16 +10397,16 @@
         <v>8.5</v>
       </c>
       <c r="AI55" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ55" t="n">
         <v>8.5</v>
       </c>
       <c r="AK55" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL55" t="n">
         <v>15</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>13</v>
       </c>
       <c r="AM55" t="n">
         <v>23</v>
@@ -10442,13 +10442,13 @@
         <v>4</v>
       </c>
       <c r="AX55" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AY55" t="n">
         <v>19</v>
       </c>
       <c r="AZ55" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA55" t="n">
         <v>51</v>
@@ -10513,13 +10513,13 @@
         <v>4.3</v>
       </c>
       <c r="M56" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N56" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="O56" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P56" t="n">
         <v>2.75</v>
@@ -10537,10 +10537,10 @@
         <v>2.22</v>
       </c>
       <c r="U56" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V56" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="W56" t="n">
         <v>5.2</v>
@@ -10851,10 +10851,10 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="H58" t="n">
-        <v>6</v>
+        <v>5.95</v>
       </c>
       <c r="I58" t="n">
         <v>1.16</v>
@@ -10878,19 +10878,19 @@
         <v>1.15</v>
       </c>
       <c r="P58" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="R58" t="n">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="S58" t="n">
         <v>1.29</v>
       </c>
       <c r="T58" t="n">
-        <v>3.28</v>
+        <v>3.32</v>
       </c>
       <c r="U58" t="n">
         <v>2.3</v>
@@ -11739,22 +11739,22 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="H63" t="n">
         <v>3.3</v>
       </c>
       <c r="I63" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J63" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K63" t="n">
         <v>2.2</v>
       </c>
-      <c r="J63" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K63" t="n">
-        <v>2.18</v>
-      </c>
       <c r="L63" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="M63" t="n">
         <v>1.03</v>
@@ -11766,7 +11766,7 @@
         <v>1.16</v>
       </c>
       <c r="P63" t="n">
-        <v>3.9</v>
+        <v>3.94</v>
       </c>
       <c r="Q63" t="n">
         <v>1.57</v>
@@ -11793,28 +11793,28 @@
         <v>15.5</v>
       </c>
       <c r="Y63" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z63" t="n">
         <v>30</v>
       </c>
       <c r="AA63" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB63" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AC63" t="n">
         <v>13</v>
       </c>
       <c r="AD63" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AE63" t="n">
         <v>9.25</v>
       </c>
       <c r="AF63" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG63" t="n">
         <v>150</v>
@@ -11826,37 +11826,37 @@
         <v>10.5</v>
       </c>
       <c r="AJ63" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AK63" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL63" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AM63" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AN63" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AO63" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AP63" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ63" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AR63" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AS63" t="n">
         <v>175</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="AU63" t="n">
         <v>6.2</v>
@@ -11865,16 +11865,16 @@
         <v>40</v>
       </c>
       <c r="AW63" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="AX63" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AY63" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AZ63" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BA63" t="n">
         <v>60</v>
@@ -11938,7 +11938,7 @@
         <v>1.01</v>
       </c>
       <c r="N64" t="n">
-        <v>8.25</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O64" t="n">
         <v>1.25</v>
@@ -12116,7 +12116,7 @@
         <v>1.03</v>
       </c>
       <c r="N65" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O65" t="n">
         <v>1.19</v>
@@ -12418,7 +12418,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>fyiAvx4b</t>
+          <t>OK48vuEk</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -12428,175 +12428,173 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>JAMAICA - PREMIER LEAGUE</t>
+          <t>IVORY COAST - LIGUE 1</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Vere United</t>
+          <t>Zoman</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Mount Pleasant</t>
+          <t>Racing d'Abidjan</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>5.6</v>
+        <v>1.93</v>
       </c>
       <c r="H67" t="n">
-        <v>4.25</v>
+        <v>3</v>
       </c>
       <c r="I67" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L67" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N67" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O67" t="n">
         <v>1.47</v>
       </c>
-      <c r="J67" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K67" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="L67" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N67" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="O67" t="n">
-        <v>1.21</v>
-      </c>
       <c r="P67" t="n">
-        <v>3.55</v>
+        <v>2.32</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.62</v>
+        <v>2.48</v>
       </c>
       <c r="R67" t="n">
-        <v>2.02</v>
+        <v>1.48</v>
       </c>
       <c r="S67" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="T67" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="U67" t="n">
-        <v>1.78</v>
+        <v>2.2</v>
       </c>
       <c r="V67" t="n">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="W67" t="n">
-        <v>16.5</v>
+        <v>4.7</v>
       </c>
       <c r="X67" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL67" t="n">
         <v>35</v>
       </c>
-      <c r="Y67" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z67" t="n">
+      <c r="AM67" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR67" t="n">
         <v>110</v>
-      </c>
-      <c r="AA67" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB67" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC67" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD67" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE67" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF67" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG67" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH67" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI67" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AJ67" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK67" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AL67" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AM67" t="n">
-        <v>25</v>
-      </c>
-      <c r="AN67" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AO67" t="n">
-        <v>30</v>
-      </c>
-      <c r="AP67" t="n">
-        <v>35</v>
-      </c>
-      <c r="AQ67" t="n">
-        <v>175</v>
-      </c>
-      <c r="AR67" t="n">
-        <v>200</v>
       </c>
       <c r="AS67" t="n">
         <v>450</v>
       </c>
       <c r="AT67" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="AU67" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AV67" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AW67" t="n">
-        <v>3.35</v>
+        <v>5.5</v>
       </c>
       <c r="AX67" t="n">
-        <v>6.8</v>
+        <v>25</v>
       </c>
       <c r="AY67" t="n">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="AZ67" t="n">
-        <v>19.5</v>
+        <v>150</v>
       </c>
       <c r="BA67" t="n">
-        <v>45</v>
-      </c>
-      <c r="BB67" t="n">
-        <v>200</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="BB67" t="inlineStr"/>
       <c r="BC67" t="inlineStr"/>
       <c r="BD67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>21fIxGYA</t>
+          <t>fyiAvx4b</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -12606,7 +12604,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -12616,157 +12614,157 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Waterhouse</t>
+          <t>Vere United</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Montego Bay</t>
+          <t>Mount Pleasant</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.62</v>
+        <v>5.6</v>
       </c>
       <c r="H68" t="n">
-        <v>2.95</v>
+        <v>4.25</v>
       </c>
       <c r="I68" t="n">
-        <v>2.72</v>
+        <v>1.47</v>
       </c>
       <c r="J68" t="n">
-        <v>3.3</v>
+        <v>5.4</v>
       </c>
       <c r="K68" t="n">
-        <v>1.88</v>
+        <v>2.35</v>
       </c>
       <c r="L68" t="n">
-        <v>3.5</v>
+        <v>1.98</v>
       </c>
       <c r="M68" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N68" t="n">
-        <v>6.9</v>
+        <v>12.3</v>
       </c>
       <c r="O68" t="n">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="P68" t="n">
-        <v>2.42</v>
+        <v>3.55</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.25</v>
+        <v>1.62</v>
       </c>
       <c r="R68" t="n">
-        <v>1.5</v>
+        <v>2.02</v>
       </c>
       <c r="S68" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="T68" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="U68" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="V68" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="W68" t="n">
-        <v>7</v>
+        <v>16.5</v>
       </c>
       <c r="X68" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="Y68" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Z68" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AO68" t="n">
         <v>30</v>
       </c>
-      <c r="AA68" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB68" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC68" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AE68" t="n">
+      <c r="AP68" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AY68" t="n">
         <v>16</v>
       </c>
-      <c r="AF68" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM68" t="n">
+      <c r="AZ68" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BA68" t="n">
         <v>45</v>
       </c>
-      <c r="AN68" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AO68" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP68" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ68" t="n">
-        <v>70</v>
-      </c>
-      <c r="AR68" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS68" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT68" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AU68" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AV68" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW68" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="AX68" t="n">
-        <v>16</v>
-      </c>
-      <c r="AY68" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ68" t="n">
-        <v>80</v>
-      </c>
-      <c r="BA68" t="n">
-        <v>150</v>
-      </c>
       <c r="BB68" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="BC68" t="inlineStr"/>
       <c r="BD68" t="inlineStr"/>
@@ -12774,7 +12772,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>IgKGkRJk</t>
+          <t>21fIxGYA</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -12784,173 +12782,175 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>KENYA - PREMIER LEAGUE</t>
+          <t>JAMAICA - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sofapaka</t>
+          <t>Waterhouse</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Muranga</t>
+          <t>Montego Bay</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.15</v>
+        <v>2.62</v>
       </c>
       <c r="H69" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="I69" t="n">
-        <v>3.4</v>
+        <v>2.72</v>
       </c>
       <c r="J69" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="K69" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="L69" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M69" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N69" t="n">
-        <v>6.25</v>
+        <v>6.9</v>
       </c>
       <c r="O69" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P69" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R69" t="n">
         <v>1.5</v>
       </c>
-      <c r="P69" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R69" t="n">
-        <v>1.47</v>
-      </c>
       <c r="S69" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="T69" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="U69" t="n">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="V69" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="W69" t="n">
-        <v>4.9</v>
+        <v>7</v>
       </c>
       <c r="X69" t="n">
-        <v>7.6</v>
+        <v>12</v>
       </c>
       <c r="Y69" t="n">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="Z69" t="n">
-        <v>16.5</v>
+        <v>30</v>
       </c>
       <c r="AA69" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AB69" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AC69" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="AD69" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="AE69" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AF69" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG69" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AH69" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AI69" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ69" t="n">
         <v>10.5</v>
       </c>
       <c r="AK69" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AL69" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM69" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN69" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="AO69" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AP69" t="n">
         <v>26</v>
       </c>
       <c r="AQ69" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AR69" t="n">
         <v>120</v>
       </c>
       <c r="AS69" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AT69" t="n">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="AU69" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AV69" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AW69" t="n">
-        <v>5.1</v>
+        <v>4.45</v>
       </c>
       <c r="AX69" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AY69" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AZ69" t="n">
+        <v>80</v>
+      </c>
+      <c r="BA69" t="n">
         <v>150</v>
       </c>
-      <c r="BA69" t="n">
-        <v>200</v>
-      </c>
-      <c r="BB69" t="inlineStr"/>
+      <c r="BB69" t="n">
+        <v>500</v>
+      </c>
       <c r="BC69" t="inlineStr"/>
       <c r="BD69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>C81gKcbc</t>
+          <t>IgKGkRJk</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -12960,179 +12960,173 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>00:10</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>KENYA - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Club Tijuana</t>
+          <t>Sofapaka</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Muranga</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="H70" t="n">
-        <v>3.4</v>
+        <v>2.72</v>
       </c>
       <c r="I70" t="n">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="J70" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="K70" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="L70" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="M70" t="n">
         <v>1.05</v>
       </c>
       <c r="N70" t="n">
-        <v>11</v>
+        <v>5.9</v>
       </c>
       <c r="O70" t="n">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="P70" t="n">
-        <v>3.75</v>
+        <v>2.18</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.85</v>
+        <v>2.35</v>
       </c>
       <c r="R70" t="n">
-        <v>2</v>
+        <v>1.47</v>
       </c>
       <c r="S70" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="T70" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="U70" t="n">
-        <v>1.67</v>
+        <v>2.17</v>
       </c>
       <c r="V70" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="W70" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="X70" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT70" t="n">
         <v>2.1</v>
       </c>
-      <c r="W70" t="n">
-        <v>11</v>
-      </c>
-      <c r="X70" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH70" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI70" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ70" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK70" t="n">
+      <c r="AU70" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX70" t="n">
         <v>21</v>
       </c>
-      <c r="AL70" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM70" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN70" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO70" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP70" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ70" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR70" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS70" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT70" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU70" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV70" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW70" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX70" t="n">
-        <v>12</v>
-      </c>
       <c r="AY70" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AZ70" t="n">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="BA70" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB70" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC70" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD70" t="n">
-        <v>126</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="BB70" t="inlineStr"/>
+      <c r="BC70" t="inlineStr"/>
+      <c r="BD70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>x2BD1EaU</t>
+          <t>C81gKcbc</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -13142,7 +13136,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>00:10</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -13152,25 +13146,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Atl. San Luis</t>
+          <t>Club Tijuana</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>U.A.N.L.- Tigres</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H71" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I71" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J71" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K71" t="n">
         <v>2.2</v>
@@ -13179,19 +13173,19 @@
         <v>2.75</v>
       </c>
       <c r="M71" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N71" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O71" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P71" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R71" t="n">
         <v>2</v>
@@ -13215,19 +13209,19 @@
         <v>17</v>
       </c>
       <c r="Y71" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z71" t="n">
         <v>34</v>
       </c>
       <c r="AA71" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB71" t="n">
         <v>29</v>
       </c>
       <c r="AC71" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD71" t="n">
         <v>6.5</v>
@@ -13242,7 +13236,7 @@
         <v>151</v>
       </c>
       <c r="AH71" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI71" t="n">
         <v>11</v>
@@ -13260,7 +13254,7 @@
         <v>23</v>
       </c>
       <c r="AN71" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO71" t="n">
         <v>17</v>
@@ -13314,7 +13308,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Ig2ew1gt</t>
+          <t>x2BD1EaU</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -13324,171 +13318,179 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NIGER - SUPER LIGUE</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Renaissance</t>
+          <t>Atl. San Luis</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Jangorzo</t>
+          <t>U.A.N.L.- Tigres</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.77</v>
+        <v>3.2</v>
       </c>
       <c r="H72" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="I72" t="n">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="J72" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K72" t="n">
-        <v>1.82</v>
+        <v>2.2</v>
       </c>
       <c r="L72" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="M72" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N72" t="n">
-        <v>5.25</v>
+        <v>12</v>
       </c>
       <c r="O72" t="n">
-        <v>1.52</v>
+        <v>1.22</v>
       </c>
       <c r="P72" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="R72" t="n">
-        <v>1.41</v>
+        <v>2</v>
       </c>
       <c r="S72" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="T72" t="n">
-        <v>2.02</v>
+        <v>3</v>
       </c>
       <c r="U72" t="n">
-        <v>2.11</v>
+        <v>1.67</v>
       </c>
       <c r="V72" t="n">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="W72" t="n">
-        <v>5.6</v>
+        <v>11</v>
       </c>
       <c r="X72" t="n">
-        <v>10.25</v>
+        <v>17</v>
       </c>
       <c r="Y72" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z72" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AA72" t="n">
         <v>23</v>
       </c>
       <c r="AB72" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AC72" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AD72" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN72" t="n">
         <v>5</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG72" t="inlineStr"/>
-      <c r="AH72" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL72" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM72" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN72" t="n">
-        <v>4.45</v>
       </c>
       <c r="AO72" t="n">
         <v>17</v>
       </c>
       <c r="AP72" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AQ72" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AR72" t="n">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="AS72" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.02</v>
+        <v>3</v>
       </c>
       <c r="AU72" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="AV72" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AW72" t="n">
-        <v>4.25</v>
+        <v>4.33</v>
       </c>
       <c r="AX72" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AY72" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AZ72" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="BA72" t="n">
-        <v>175</v>
-      </c>
-      <c r="BB72" t="inlineStr"/>
-      <c r="BC72" t="inlineStr"/>
-      <c r="BD72" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>lpsIG3It</t>
+          <t>Ig2ew1gt</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -13498,175 +13500,171 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>NIGER - SUPER LIGUE</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Renaissance</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Olimpia Asuncion</t>
+          <t>Jangorzo</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4</v>
+        <v>2.77</v>
       </c>
       <c r="H73" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="I73" t="n">
-        <v>1.9</v>
+        <v>2.55</v>
       </c>
       <c r="J73" t="n">
-        <v>4.75</v>
+        <v>3.55</v>
       </c>
       <c r="K73" t="n">
-        <v>2.05</v>
+        <v>1.82</v>
       </c>
       <c r="L73" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="M73" t="n">
         <v>1.08</v>
       </c>
       <c r="N73" t="n">
-        <v>8</v>
+        <v>5.25</v>
       </c>
       <c r="O73" t="n">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="P73" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="R73" t="n">
-        <v>1.62</v>
+        <v>1.41</v>
       </c>
       <c r="S73" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="T73" t="n">
-        <v>2.5</v>
+        <v>2.02</v>
       </c>
       <c r="U73" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="V73" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W73" t="n">
-        <v>10</v>
+        <v>5.6</v>
       </c>
       <c r="X73" t="n">
-        <v>21</v>
+        <v>10.25</v>
       </c>
       <c r="Y73" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Z73" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AA73" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AB73" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AC73" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AD73" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AE73" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG73" t="inlineStr"/>
+      <c r="AH73" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AO73" t="n">
         <v>17</v>
       </c>
-      <c r="AF73" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH73" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK73" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL73" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM73" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN73" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO73" t="n">
-        <v>23</v>
-      </c>
       <c r="AP73" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AQ73" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AR73" t="n">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="AS73" t="n">
-        <v>301</v>
+        <v>500</v>
       </c>
       <c r="AT73" t="n">
-        <v>2.5</v>
+        <v>2.02</v>
       </c>
       <c r="AU73" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AV73" t="n">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="AW73" t="n">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="AX73" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AY73" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AZ73" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="BA73" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB73" t="n">
-        <v>201</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="BB73" t="inlineStr"/>
       <c r="BC73" t="inlineStr"/>
       <c r="BD73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>dApQEsmg</t>
+          <t>lpsIG3It</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -13686,157 +13684,157 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Tacuary</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Olimpia Asuncion</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="H74" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="I74" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J74" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="K74" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L74" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N74" t="n">
+        <v>8</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q74" t="n">
         <v>2.25</v>
       </c>
-      <c r="L74" t="n">
+      <c r="R74" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T74" t="n">
         <v>2.5</v>
       </c>
-      <c r="M74" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N74" t="n">
-        <v>13</v>
-      </c>
-      <c r="O74" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P74" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R74" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S74" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T74" t="n">
-        <v>3</v>
-      </c>
       <c r="U74" t="n">
+        <v>2</v>
+      </c>
+      <c r="V74" t="n">
         <v>1.73</v>
       </c>
-      <c r="V74" t="n">
-        <v>2</v>
-      </c>
       <c r="W74" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X74" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y74" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z74" t="n">
         <v>41</v>
       </c>
       <c r="AA74" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AB74" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC74" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AD74" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE74" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF74" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG74" t="n">
-        <v>201</v>
+        <v>1000</v>
       </c>
       <c r="AH74" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AI74" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ74" t="n">
         <v>9</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>8.5</v>
       </c>
       <c r="AK74" t="n">
         <v>15</v>
       </c>
       <c r="AL74" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM74" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AN74" t="n">
         <v>6</v>
       </c>
       <c r="AO74" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP74" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AQ74" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV74" t="n">
         <v>67</v>
       </c>
-      <c r="AR74" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS74" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT74" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU74" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV74" t="n">
-        <v>51</v>
-      </c>
       <c r="AW74" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX74" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY74" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ74" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA74" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB74" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BC74" t="inlineStr"/>
       <c r="BD74" t="inlineStr"/>
@@ -13844,7 +13842,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>IPYYCLH5</t>
+          <t>dApQEsmg</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -13854,7 +13852,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -13864,157 +13862,157 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Libertad Asuncion</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="H75" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I75" t="n">
-        <v>4.5</v>
+        <v>1.91</v>
       </c>
       <c r="J75" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K75" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L75" t="n">
         <v>2.5</v>
       </c>
-      <c r="K75" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L75" t="n">
-        <v>5</v>
-      </c>
       <c r="M75" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N75" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O75" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S75" t="n">
         <v>1.36</v>
       </c>
-      <c r="P75" t="n">
+      <c r="T75" t="n">
         <v>3</v>
       </c>
-      <c r="Q75" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R75" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S75" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T75" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U75" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V75" t="n">
         <v>2</v>
       </c>
-      <c r="V75" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W75" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="X75" t="n">
-        <v>7.5</v>
+        <v>19</v>
       </c>
       <c r="Y75" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z75" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AA75" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AB75" t="n">
         <v>34</v>
       </c>
       <c r="AC75" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH75" t="n">
         <v>8</v>
       </c>
-      <c r="AD75" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE75" t="n">
+      <c r="AI75" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY75" t="n">
         <v>19</v>
       </c>
-      <c r="AF75" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK75" t="n">
+      <c r="AZ75" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA75" t="n">
         <v>51</v>
       </c>
-      <c r="AL75" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM75" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN75" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO75" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP75" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ75" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR75" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS75" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT75" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU75" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV75" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW75" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX75" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY75" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ75" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA75" t="n">
+      <c r="BB75" t="n">
         <v>126</v>
-      </c>
-      <c r="BB75" t="n">
-        <v>301</v>
       </c>
       <c r="BC75" t="inlineStr"/>
       <c r="BD75" t="inlineStr"/>
@@ -14022,7 +14020,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>rBQkpUIO</t>
+          <t>IPYYCLH5</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -14032,167 +14030,167 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 2</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Ceahlaul</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>FC Arges</t>
+          <t>Libertad Asuncion</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.72</v>
+        <v>1.75</v>
       </c>
       <c r="H76" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I76" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K76" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L76" t="n">
+        <v>5</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N76" t="n">
+        <v>8</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P76" t="n">
         <v>3</v>
       </c>
-      <c r="I76" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="J76" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K76" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L76" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="M76" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N76" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="O76" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P76" t="n">
-        <v>2.52</v>
-      </c>
       <c r="Q76" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="R76" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="S76" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="T76" t="n">
-        <v>2.37</v>
+        <v>2.63</v>
       </c>
       <c r="U76" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V76" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="W76" t="n">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="X76" t="n">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y76" t="n">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="Z76" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="AA76" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX76" t="n">
         <v>26</v>
       </c>
-      <c r="AB76" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC76" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH76" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AI76" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AJ76" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AK76" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL76" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM76" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN76" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="AO76" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP76" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ76" t="n">
-        <v>75</v>
-      </c>
-      <c r="AR76" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS76" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT76" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AU76" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV76" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW76" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AX76" t="n">
-        <v>15</v>
-      </c>
       <c r="AY76" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AZ76" t="n">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="BA76" t="n">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="BB76" t="n">
-        <v>450</v>
+        <v>301</v>
       </c>
       <c r="BC76" t="inlineStr"/>
       <c r="BD76" t="inlineStr"/>
@@ -14200,7 +14198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>lleFOanB</t>
+          <t>rBQkpUIO</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -14210,179 +14208,175 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>ROMANIA - LIGA 2</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Al Feiha</t>
+          <t>Ceahlaul</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>FC Arges</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.1</v>
+        <v>2.72</v>
       </c>
       <c r="H77" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I77" t="n">
-        <v>3.1</v>
+        <v>2.65</v>
       </c>
       <c r="J77" t="n">
-        <v>2.75</v>
+        <v>3.35</v>
       </c>
       <c r="K77" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L77" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="M77" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N77" t="n">
-        <v>9.5</v>
+        <v>5.8</v>
       </c>
       <c r="O77" t="n">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="P77" t="n">
-        <v>3.25</v>
+        <v>2.52</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="R77" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="T77" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U77" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V77" t="n">
         <v>1.75</v>
       </c>
-      <c r="S77" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T77" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U77" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V77" t="n">
-        <v>1.83</v>
-      </c>
       <c r="W77" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="X77" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="Y77" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="Z77" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AA77" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AB77" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AC77" t="n">
-        <v>9.5</v>
+        <v>5.8</v>
       </c>
       <c r="AD77" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="AE77" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AO77" t="n">
         <v>15</v>
       </c>
-      <c r="AF77" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG77" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH77" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI77" t="n">
+      <c r="AP77" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>75</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AX77" t="n">
         <v>15</v>
       </c>
-      <c r="AJ77" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK77" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL77" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM77" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN77" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO77" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP77" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ77" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR77" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS77" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT77" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU77" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV77" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW77" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX77" t="n">
-        <v>19</v>
-      </c>
       <c r="AY77" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AZ77" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="BA77" t="n">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="BB77" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC77" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD77" t="n">
-        <v>81</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="BC77" t="inlineStr"/>
+      <c r="BD77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>vyTPDrYh</t>
+          <t>lleFOanB</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -14392,7 +14386,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -14402,85 +14396,85 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Al Okhdood</t>
+          <t>Al Feiha</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Al Kholood</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H78" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I78" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="J78" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K78" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L78" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M78" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N78" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O78" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P78" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="R78" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="S78" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T78" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U78" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V78" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W78" t="n">
         <v>7.5</v>
       </c>
       <c r="X78" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y78" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y78" t="n">
-        <v>9</v>
-      </c>
       <c r="Z78" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA78" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AB78" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC78" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD78" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE78" t="n">
         <v>15</v>
@@ -14492,43 +14486,43 @@
         <v>600</v>
       </c>
       <c r="AH78" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ78" t="n">
         <v>12</v>
       </c>
-      <c r="AI78" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ78" t="n">
-        <v>13</v>
-      </c>
       <c r="AK78" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL78" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM78" t="n">
         <v>34</v>
       </c>
       <c r="AN78" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO78" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP78" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ78" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR78" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS78" t="n">
         <v>151</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU78" t="n">
         <v>8</v>
@@ -14537,22 +14531,22 @@
         <v>51</v>
       </c>
       <c r="AW78" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX78" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY78" t="n">
         <v>29</v>
       </c>
       <c r="AZ78" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA78" t="n">
         <v>81</v>
       </c>
       <c r="BB78" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="BC78" t="n">
         <v>81</v>
@@ -14564,7 +14558,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Gzc7QLHb</t>
+          <t>vyTPDrYh</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -14574,7 +14568,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -14584,31 +14578,31 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Okhdood</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Kholood</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.35</v>
+        <v>1.9</v>
       </c>
       <c r="H79" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I79" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="J79" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K79" t="n">
         <v>2.1</v>
       </c>
       <c r="L79" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M79" t="n">
         <v>1.05</v>
@@ -14623,10 +14617,10 @@
         <v>3.5</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R79" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S79" t="n">
         <v>1.4</v>
@@ -14635,76 +14629,76 @@
         <v>2.75</v>
       </c>
       <c r="U79" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V79" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W79" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X79" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="Y79" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z79" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AA79" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AB79" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC79" t="n">
         <v>10</v>
       </c>
       <c r="AD79" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE79" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ79" t="n">
         <v>13</v>
       </c>
-      <c r="AF79" t="n">
+      <c r="AK79" t="n">
         <v>41</v>
       </c>
-      <c r="AG79" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ79" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK79" t="n">
+      <c r="AL79" t="n">
         <v>29</v>
-      </c>
-      <c r="AL79" t="n">
-        <v>23</v>
       </c>
       <c r="AM79" t="n">
         <v>34</v>
       </c>
       <c r="AN79" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AO79" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP79" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ79" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR79" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS79" t="n">
         <v>151</v>
@@ -14719,22 +14713,22 @@
         <v>51</v>
       </c>
       <c r="AW79" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX79" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AY79" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ79" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA79" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB79" t="n">
-        <v>151</v>
+        <v>400</v>
       </c>
       <c r="BC79" t="n">
         <v>81</v>
@@ -14746,7 +14740,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>xjgVeHTp</t>
+          <t>Gzc7QLHb</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -14756,175 +14750,179 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Asan</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Daegu</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="G80" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H80" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J80" t="n">
         <v>2.88</v>
       </c>
-      <c r="H80" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="J80" t="n">
+      <c r="K80" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L80" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N80" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P80" t="n">
         <v>3.75</v>
       </c>
-      <c r="K80" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M80" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N80" t="n">
+      <c r="Q80" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T80" t="n">
+        <v>3</v>
+      </c>
+      <c r="U80" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V80" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W80" t="n">
         <v>9</v>
       </c>
-      <c r="O80" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P80" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R80" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S80" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T80" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U80" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V80" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W80" t="n">
-        <v>8.5</v>
-      </c>
       <c r="X80" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y80" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC80" t="n">
         <v>11</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA80" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>8.5</v>
       </c>
       <c r="AD80" t="n">
         <v>6.5</v>
       </c>
       <c r="AE80" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI80" t="n">
         <v>15</v>
       </c>
-      <c r="AF80" t="n">
+      <c r="AJ80" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR80" t="n">
         <v>51</v>
       </c>
-      <c r="AG80" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH80" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI80" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ80" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL80" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM80" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN80" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO80" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP80" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ80" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR80" t="n">
-        <v>81</v>
-      </c>
       <c r="AS80" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU80" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV80" t="n">
         <v>51</v>
       </c>
       <c r="AW80" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AX80" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY80" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ80" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA80" t="n">
         <v>67</v>
       </c>
       <c r="BB80" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC80" t="inlineStr"/>
-      <c r="BD80" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>44skNkhM</t>
+          <t>xjgVeHTp</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -14934,167 +14932,167 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>SWITZERLAND - PROMOTION LEAGUE</t>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Delemont</t>
+          <t>Asan</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Biel</t>
+          <t>Daegu</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.7</v>
+        <v>2.75</v>
       </c>
       <c r="H81" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="I81" t="n">
-        <v>1.88</v>
+        <v>2.3</v>
       </c>
       <c r="J81" t="n">
-        <v>4.05</v>
+        <v>3.6</v>
       </c>
       <c r="K81" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L81" t="n">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="M81" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N81" t="n">
         <v>10</v>
       </c>
       <c r="O81" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="P81" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="R81" t="n">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="S81" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="T81" t="n">
-        <v>2.99</v>
+        <v>2.63</v>
       </c>
       <c r="U81" t="n">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="V81" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="W81" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="X81" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL81" t="n">
         <v>21</v>
       </c>
-      <c r="Y81" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z81" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA81" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB81" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC81" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD81" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AE81" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF81" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG81" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH81" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AI81" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AJ81" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK81" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL81" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AM81" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AN81" t="n">
-        <v>5.6</v>
+        <v>4.75</v>
       </c>
       <c r="AO81" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AP81" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AQ81" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AR81" t="n">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="AS81" t="n">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.82</v>
+        <v>2.63</v>
       </c>
       <c r="AU81" t="n">
-        <v>6.9</v>
+        <v>8</v>
       </c>
       <c r="AV81" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AW81" t="n">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="AX81" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AY81" t="n">
-        <v>17.5</v>
+        <v>26</v>
       </c>
       <c r="AZ81" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="BA81" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="BB81" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="BC81" t="inlineStr"/>
       <c r="BD81" t="inlineStr"/>
@@ -15102,7 +15100,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6ROuG3i3</t>
+          <t>44skNkhM</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -15112,173 +15110,175 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>TANZANIA - LIGI KUU BARA</t>
+          <t>SWITZERLAND - PROMOTION LEAGUE</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Azam</t>
+          <t>Delemont</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Singida Black Stars</t>
+          <t>Biel</t>
         </is>
       </c>
       <c r="G82" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H82" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J82" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K82" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N82" t="n">
+        <v>10</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T82" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U82" t="n">
         <v>1.65</v>
       </c>
-      <c r="H82" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="K82" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L82" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N82" t="n">
-        <v>5</v>
-      </c>
-      <c r="O82" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P82" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="R82" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S82" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="T82" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="U82" t="n">
-        <v>2.54</v>
-      </c>
       <c r="V82" t="n">
-        <v>1.49</v>
+        <v>1.98</v>
       </c>
       <c r="W82" t="n">
-        <v>3.85</v>
+        <v>12</v>
       </c>
       <c r="X82" t="n">
-        <v>5.1</v>
+        <v>21</v>
       </c>
       <c r="Y82" t="n">
-        <v>8</v>
+        <v>12.5</v>
       </c>
       <c r="Z82" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>100</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AX82" t="n">
         <v>9.5</v>
       </c>
-      <c r="AA82" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB82" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC82" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AD82" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE82" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF82" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG82" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH82" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AI82" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ82" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AK82" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL82" t="n">
+      <c r="AY82" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>32</v>
+      </c>
+      <c r="BA82" t="n">
         <v>60</v>
       </c>
-      <c r="AM82" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN82" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AO82" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP82" t="n">
-        <v>27</v>
-      </c>
-      <c r="AQ82" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR82" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS82" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT82" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AU82" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV82" t="n">
-        <v>150</v>
-      </c>
-      <c r="AW82" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AX82" t="n">
-        <v>37</v>
-      </c>
-      <c r="AY82" t="n">
-        <v>55</v>
-      </c>
-      <c r="AZ82" t="n">
-        <v>300</v>
-      </c>
-      <c r="BA82" t="n">
-        <v>450</v>
-      </c>
-      <c r="BB82" t="inlineStr"/>
+      <c r="BB82" t="n">
+        <v>200</v>
+      </c>
       <c r="BC82" t="inlineStr"/>
       <c r="BD82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>4bx3TNtA</t>
+          <t>6ROuG3i3</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -15288,164 +15288,164 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>UGANDA - PREMIER LEAGUE</t>
+          <t>TANZANIA - LIGI KUU BARA</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Mbale Heroes</t>
+          <t>Azam</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Bright Stars</t>
+          <t>Singida Black Stars</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="H83" t="n">
-        <v>2.82</v>
+        <v>3.2</v>
       </c>
       <c r="I83" t="n">
-        <v>2.82</v>
+        <v>5.3</v>
       </c>
       <c r="J83" t="n">
-        <v>3.25</v>
+        <v>2.32</v>
       </c>
       <c r="K83" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="L83" t="n">
-        <v>3.65</v>
+        <v>5.9</v>
       </c>
       <c r="M83" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N83" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="O83" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P83" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.51</v>
+        <v>2.61</v>
       </c>
       <c r="R83" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="S83" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="T83" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="U83" t="n">
-        <v>2.12</v>
+        <v>2.54</v>
       </c>
       <c r="V83" t="n">
-        <v>1.69</v>
+        <v>1.49</v>
       </c>
       <c r="W83" t="n">
-        <v>5.2</v>
+        <v>3.85</v>
       </c>
       <c r="X83" t="n">
-        <v>9</v>
+        <v>5.1</v>
       </c>
       <c r="Y83" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z83" t="n">
-        <v>21</v>
+        <v>9.5</v>
       </c>
       <c r="AA83" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AB83" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AC83" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AD83" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE83" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AF83" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="AG83" t="n">
         <v>101</v>
       </c>
       <c r="AH83" t="n">
-        <v>5.5</v>
+        <v>7.9</v>
       </c>
       <c r="AI83" t="n">
-        <v>10.25</v>
+        <v>21</v>
       </c>
       <c r="AJ83" t="n">
-        <v>9.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK83" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP83" t="n">
         <v>27</v>
       </c>
-      <c r="AL83" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM83" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN83" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AO83" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP83" t="n">
-        <v>30</v>
-      </c>
       <c r="AQ83" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="AR83" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AS83" t="n">
         <v>500</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="AU83" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AV83" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AW83" t="n">
-        <v>4.5</v>
+        <v>6.6</v>
       </c>
       <c r="AX83" t="n">
-        <v>17.5</v>
+        <v>37</v>
       </c>
       <c r="AY83" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AZ83" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="BA83" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="BB83" t="inlineStr"/>
       <c r="BC83" t="inlineStr"/>
@@ -15454,7 +15454,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>xCzBR1BM</t>
+          <t>4bx3TNtA</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -15464,7 +15464,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -15474,104 +15474,106 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Express</t>
+          <t>Mbale Heroes</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Mbarara City</t>
+          <t>Bright Stars</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.22</v>
+        <v>2.55</v>
       </c>
       <c r="H84" t="n">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="I84" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J84" t="n">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="K84" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="L84" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="M84" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N84" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="O84" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P84" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.45</v>
+        <v>2.51</v>
       </c>
       <c r="R84" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="S84" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="T84" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="U84" t="n">
-        <v>2.11</v>
+        <v>2.12</v>
       </c>
       <c r="V84" t="n">
         <v>1.69</v>
       </c>
       <c r="W84" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="X84" t="n">
-        <v>7.8</v>
+        <v>9.5</v>
       </c>
       <c r="Y84" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z84" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AA84" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AB84" t="n">
         <v>32</v>
       </c>
       <c r="AC84" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="AD84" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="AE84" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF84" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG84" t="inlineStr"/>
+        <v>80</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>101</v>
+      </c>
       <c r="AH84" t="n">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="AI84" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="AJ84" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK84" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL84" t="n">
         <v>26</v>
@@ -15580,34 +15582,34 @@
         <v>40</v>
       </c>
       <c r="AN84" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AO84" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AP84" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ84" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AR84" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AS84" t="n">
         <v>500</v>
       </c>
       <c r="AT84" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU84" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AV84" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AW84" t="n">
-        <v>4.8</v>
+        <v>4.65</v>
       </c>
       <c r="AX84" t="n">
         <v>19</v>
@@ -15628,7 +15630,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>8EV2bg5d</t>
+          <t>xCzBR1BM</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -15638,173 +15640,173 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>WORLD - CLUB FRIENDLY</t>
+          <t>UGANDA - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>FA 2000</t>
+          <t>Express</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>F. Amager</t>
+          <t>Mbarara City</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>9</v>
+        <v>2.22</v>
       </c>
       <c r="H85" t="n">
-        <v>5.4</v>
+        <v>2.95</v>
       </c>
       <c r="I85" t="n">
-        <v>1.23</v>
+        <v>3.1</v>
       </c>
       <c r="J85" t="n">
-        <v>7.5</v>
+        <v>2.95</v>
       </c>
       <c r="K85" t="n">
-        <v>2.65</v>
+        <v>1.87</v>
       </c>
       <c r="L85" t="n">
-        <v>1.62</v>
+        <v>3.85</v>
       </c>
       <c r="M85" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N85" t="n">
-        <v>13</v>
+        <v>6.2</v>
       </c>
       <c r="O85" t="n">
-        <v>1.12</v>
+        <v>1.5</v>
       </c>
       <c r="P85" t="n">
-        <v>4.4</v>
+        <v>2.27</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.44</v>
+        <v>2.45</v>
       </c>
       <c r="R85" t="n">
-        <v>2.36</v>
+        <v>1.41</v>
       </c>
       <c r="S85" t="n">
-        <v>1.26</v>
+        <v>1.53</v>
       </c>
       <c r="T85" t="n">
-        <v>3.48</v>
+        <v>2.1</v>
       </c>
       <c r="U85" t="n">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="V85" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="W85" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="X85" t="n">
-        <v>55</v>
+        <v>7.8</v>
       </c>
       <c r="Y85" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="Z85" t="n">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="AA85" t="n">
-        <v>80</v>
+        <v>17.5</v>
       </c>
       <c r="AB85" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AC85" t="n">
-        <v>16.5</v>
+        <v>6.4</v>
       </c>
       <c r="AD85" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AJ85" t="n">
         <v>10</v>
       </c>
-      <c r="AE85" t="n">
+      <c r="AK85" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>110</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AX85" t="n">
         <v>19</v>
       </c>
-      <c r="AF85" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG85" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH85" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AI85" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AJ85" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AK85" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AL85" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AM85" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN85" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO85" t="n">
-        <v>55</v>
-      </c>
-      <c r="AP85" t="n">
-        <v>50</v>
-      </c>
-      <c r="AQ85" t="n">
-        <v>400</v>
-      </c>
-      <c r="AR85" t="n">
-        <v>350</v>
-      </c>
-      <c r="AS85" t="inlineStr"/>
-      <c r="AT85" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU85" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV85" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW85" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AX85" t="n">
-        <v>5.2</v>
-      </c>
       <c r="AY85" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="AZ85" t="n">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="BA85" t="n">
-        <v>35</v>
-      </c>
-      <c r="BB85" t="n">
         <v>200</v>
       </c>
+      <c r="BB85" t="inlineStr"/>
       <c r="BC85" t="inlineStr"/>
       <c r="BD85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>dMW11iJ6</t>
+          <t>8EV2bg5d</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -15814,179 +15816,173 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>WORLD - FRIENDLY INTERNATIONAL WOMEN</t>
+          <t>WORLD - CLUB FRIENDLY</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Australia W</t>
+          <t>FA 2000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Brazil W</t>
+          <t>F. Amager</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.62</v>
+        <v>9</v>
       </c>
       <c r="H86" t="n">
-        <v>3.3</v>
+        <v>5.4</v>
       </c>
       <c r="I86" t="n">
-        <v>2.52</v>
+        <v>1.23</v>
       </c>
       <c r="J86" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K86" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N86" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="O86" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="T86" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="U86" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="V86" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W86" t="n">
+        <v>23</v>
+      </c>
+      <c r="X86" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>175</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>65</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>55</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>50</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>400</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>350</v>
+      </c>
+      <c r="AS86" t="inlineStr"/>
+      <c r="AT86" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW86" t="n">
         <v>3.15</v>
       </c>
-      <c r="K86" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="M86" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N86" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="O86" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P86" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R86" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="S86" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T86" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="U86" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V86" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="W86" t="n">
-        <v>10</v>
-      </c>
-      <c r="X86" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y86" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z86" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA86" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB86" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC86" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AD86" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE86" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AF86" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG86" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH86" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AI86" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AJ86" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AK86" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL86" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM86" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN86" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO86" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP86" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AQ86" t="n">
-        <v>60</v>
-      </c>
-      <c r="AR86" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS86" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT86" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AU86" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AV86" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW86" t="n">
-        <v>4.65</v>
-      </c>
       <c r="AX86" t="n">
-        <v>13</v>
+        <v>5.2</v>
       </c>
       <c r="AY86" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ86" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="BA86" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="BB86" t="n">
         <v>200</v>
       </c>
-      <c r="BC86" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD86" t="n">
-        <v>51</v>
-      </c>
+      <c r="BC86" t="inlineStr"/>
+      <c r="BD86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>EZf78W43</t>
+          <t>dMW11iJ6</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -15996,7 +15992,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -16006,155 +16002,157 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Moldova W</t>
+          <t>Australia W</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Armenia W</t>
+          <t>Brazil W</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.46</v>
+        <v>2.62</v>
       </c>
       <c r="H87" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="I87" t="n">
-        <v>5.52</v>
+        <v>2.52</v>
       </c>
       <c r="J87" t="n">
-        <v>1.95</v>
+        <v>3.15</v>
       </c>
       <c r="K87" t="n">
-        <v>2.47</v>
+        <v>2.15</v>
       </c>
       <c r="L87" t="n">
-        <v>5.34</v>
+        <v>3.05</v>
       </c>
       <c r="M87" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N87" t="n">
-        <v>12</v>
+        <v>7.9</v>
       </c>
       <c r="O87" t="n">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="P87" t="n">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.45</v>
+        <v>1.72</v>
       </c>
       <c r="R87" t="n">
-        <v>2.34</v>
+        <v>2.02</v>
       </c>
       <c r="S87" t="n">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="T87" t="n">
-        <v>3.6</v>
+        <v>2.92</v>
       </c>
       <c r="U87" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="V87" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="W87" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X87" t="n">
-        <v>7.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y87" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Z87" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AA87" t="n">
-        <v>9.5</v>
+        <v>20</v>
       </c>
       <c r="AB87" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AC87" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL87" t="n">
         <v>19</v>
       </c>
-      <c r="AD87" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE87" t="n">
+      <c r="AM87" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AX87" t="n">
         <v>13</v>
       </c>
-      <c r="AF87" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG87" t="inlineStr"/>
-      <c r="AH87" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI87" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ87" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK87" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL87" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM87" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN87" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO87" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP87" t="n">
-        <v>12</v>
-      </c>
-      <c r="AQ87" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR87" t="n">
-        <v>36</v>
-      </c>
-      <c r="AS87" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT87" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AU87" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV87" t="n">
-        <v>46</v>
-      </c>
-      <c r="AW87" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX87" t="n">
-        <v>26</v>
-      </c>
       <c r="AY87" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AZ87" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="BA87" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="BB87" t="n">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="BC87" t="n">
         <v>51</v>
@@ -16166,7 +16164,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Shgo3yfA</t>
+          <t>EZf78W43</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -16176,7 +16174,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -16186,146 +16184,146 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Slovakia W</t>
+          <t>Moldova W</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Greece W</t>
+          <t>Armenia W</t>
         </is>
       </c>
       <c r="G88" t="n">
         <v>1.47</v>
       </c>
       <c r="H88" t="n">
-        <v>3.9</v>
+        <v>4.25</v>
       </c>
       <c r="I88" t="n">
-        <v>6.17</v>
+        <v>5.47</v>
       </c>
       <c r="J88" t="n">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="K88" t="n">
-        <v>2.18</v>
+        <v>2.44</v>
       </c>
       <c r="L88" t="n">
-        <v>6.28</v>
+        <v>5.4</v>
       </c>
       <c r="M88" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N88" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O88" t="n">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="P88" t="n">
-        <v>3.14</v>
+        <v>4.9</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.9</v>
+        <v>1.48</v>
       </c>
       <c r="R88" t="n">
-        <v>1.79</v>
+        <v>2.26</v>
       </c>
       <c r="S88" t="n">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="T88" t="n">
-        <v>2.81</v>
+        <v>3.6</v>
       </c>
       <c r="U88" t="n">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="V88" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="W88" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="X88" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y88" t="n">
         <v>7</v>
       </c>
       <c r="Z88" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA88" t="n">
         <v>9.5</v>
       </c>
-      <c r="AA88" t="n">
-        <v>11</v>
-      </c>
       <c r="AB88" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AC88" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AD88" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE88" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF88" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AG88" t="inlineStr"/>
       <c r="AH88" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AI88" t="n">
         <v>34</v>
       </c>
       <c r="AJ88" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK88" t="n">
         <v>51</v>
       </c>
       <c r="AL88" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM88" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="AN88" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AO88" t="n">
         <v>6.5</v>
       </c>
       <c r="AP88" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AQ88" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AR88" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="AS88" t="n">
         <v>51</v>
       </c>
       <c r="AT88" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="AU88" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AV88" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AW88" t="n">
         <v>6.5</v>
       </c>
       <c r="AX88" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AY88" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AZ88" t="n">
         <v>51</v>
@@ -16346,7 +16344,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Ie7xQptP</t>
+          <t>Shgo3yfA</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -16356,170 +16354,350 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>ZAMBIA - SUPER LEAGUE</t>
+          <t>WORLD - FRIENDLY INTERNATIONAL WOMEN</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Forest Rangers</t>
+          <t>Slovakia W</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Green Eagles</t>
+          <t>Greece W</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.52</v>
+        <v>1.47</v>
       </c>
       <c r="H89" t="n">
-        <v>2.75</v>
+        <v>3.9</v>
       </c>
       <c r="I89" t="n">
-        <v>2.85</v>
+        <v>6.17</v>
       </c>
       <c r="J89" t="n">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="K89" t="n">
-        <v>1.82</v>
+        <v>2.18</v>
       </c>
       <c r="L89" t="n">
-        <v>3.7</v>
+        <v>6.28</v>
       </c>
       <c r="M89" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N89" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="O89" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="P89" t="n">
-        <v>2.27</v>
+        <v>3.14</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.51</v>
+        <v>1.9</v>
       </c>
       <c r="R89" t="n">
-        <v>1.39</v>
+        <v>1.79</v>
       </c>
       <c r="S89" t="n">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="T89" t="n">
-        <v>2.05</v>
+        <v>2.81</v>
       </c>
       <c r="U89" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="V89" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="W89" t="n">
         <v>5.5</v>
       </c>
       <c r="X89" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z89" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y89" t="n">
+      <c r="AA89" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG89" t="inlineStr"/>
+      <c r="AH89" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>36</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>36</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Ie7xQptP</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>28/11/2024</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>ZAMBIA - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Forest Rangers</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Green Eagles</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="J90" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L90" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N90" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P90" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T90" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U90" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V90" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="W90" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X90" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y90" t="n">
         <v>8.25</v>
       </c>
-      <c r="Z89" t="n">
+      <c r="Z90" t="n">
         <v>22</v>
       </c>
-      <c r="AA89" t="n">
+      <c r="AA90" t="n">
         <v>19.5</v>
       </c>
-      <c r="AB89" t="n">
+      <c r="AB90" t="n">
         <v>32</v>
       </c>
-      <c r="AC89" t="n">
+      <c r="AC90" t="n">
         <v>6.1</v>
       </c>
-      <c r="AD89" t="n">
+      <c r="AD90" t="n">
         <v>4.85</v>
       </c>
-      <c r="AE89" t="n">
+      <c r="AE90" t="n">
         <v>13.5</v>
       </c>
-      <c r="AF89" t="n">
+      <c r="AF90" t="n">
         <v>75</v>
       </c>
-      <c r="AG89" t="n">
+      <c r="AG90" t="n">
         <v>101</v>
       </c>
-      <c r="AH89" t="n">
+      <c r="AH90" t="n">
         <v>5.7</v>
       </c>
-      <c r="AI89" t="n">
+      <c r="AI90" t="n">
         <v>10.75</v>
       </c>
-      <c r="AJ89" t="n">
+      <c r="AJ90" t="n">
         <v>9.25</v>
       </c>
-      <c r="AK89" t="n">
+      <c r="AK90" t="n">
         <v>28</v>
       </c>
-      <c r="AL89" t="n">
+      <c r="AL90" t="n">
         <v>24</v>
       </c>
-      <c r="AM89" t="n">
+      <c r="AM90" t="n">
         <v>37</v>
       </c>
-      <c r="AN89" t="n">
+      <c r="AN90" t="n">
         <v>4.2</v>
       </c>
-      <c r="AO89" t="n">
+      <c r="AO90" t="n">
         <v>14.5</v>
       </c>
-      <c r="AP89" t="n">
+      <c r="AP90" t="n">
         <v>27</v>
       </c>
-      <c r="AQ89" t="n">
+      <c r="AQ90" t="n">
         <v>75</v>
       </c>
-      <c r="AR89" t="n">
+      <c r="AR90" t="n">
         <v>150</v>
       </c>
-      <c r="AS89" t="n">
+      <c r="AS90" t="n">
         <v>450</v>
       </c>
-      <c r="AT89" t="n">
+      <c r="AT90" t="n">
         <v>2.05</v>
       </c>
-      <c r="AU89" t="n">
+      <c r="AU90" t="n">
         <v>7.9</v>
       </c>
-      <c r="AV89" t="n">
+      <c r="AV90" t="n">
         <v>100</v>
       </c>
-      <c r="AW89" t="n">
+      <c r="AW90" t="n">
         <v>4.6</v>
       </c>
-      <c r="AX89" t="n">
+      <c r="AX90" t="n">
         <v>18</v>
       </c>
-      <c r="AY89" t="n">
+      <c r="AY90" t="n">
         <v>32</v>
       </c>
-      <c r="AZ89" t="n">
+      <c r="AZ90" t="n">
         <v>100</v>
       </c>
-      <c r="BA89" t="n">
+      <c r="BA90" t="n">
         <v>175</v>
       </c>
-      <c r="BB89" t="n">
+      <c r="BB90" t="n">
         <v>500</v>
       </c>
-      <c r="BC89" t="inlineStr"/>
-      <c r="BD89" t="inlineStr"/>
+      <c r="BC90" t="inlineStr"/>
+      <c r="BD90" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-28.xlsx
@@ -756,10 +756,10 @@
         <v>2.1</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L2" t="n">
         <v>2.75</v>
@@ -777,10 +777,10 @@
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>
@@ -813,7 +813,7 @@
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
@@ -828,7 +828,7 @@
         <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
@@ -840,7 +840,7 @@
         <v>19</v>
       </c>
       <c r="AL2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM2" t="n">
         <v>23</v>
@@ -852,13 +852,13 @@
         <v>19</v>
       </c>
       <c r="AP2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
         <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
         <v>151</v>
@@ -941,52 +941,52 @@
         <v>1.62</v>
       </c>
       <c r="K3" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="L3" t="n">
         <v>10</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O3" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="R3" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="S3" t="n">
         <v>1.25</v>
       </c>
       <c r="T3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA3" t="n">
         <v>11</v>
@@ -995,19 +995,19 @@
         <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AD3" t="n">
         <v>13</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF3" t="n">
         <v>81</v>
       </c>
       <c r="AG3" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AH3" t="n">
         <v>23</v>
@@ -1016,40 +1016,40 @@
         <v>51</v>
       </c>
       <c r="AJ3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK3" t="n">
         <v>151</v>
       </c>
       <c r="AL3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM3" t="n">
         <v>67</v>
       </c>
-      <c r="AM3" t="n">
-        <v>51</v>
-      </c>
       <c r="AN3" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="AO3" t="n">
         <v>5.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ3" t="n">
         <v>13</v>
       </c>
       <c r="AR3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS3" t="n">
         <v>126</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
         <v>67</v>
@@ -1061,19 +1061,19 @@
         <v>51</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ3" t="n">
+        <v>301</v>
+      </c>
+      <c r="BA3" t="n">
         <v>251</v>
       </c>
-      <c r="BA3" t="n">
-        <v>201</v>
-      </c>
       <c r="BB3" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="BC3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1114,7 +1114,7 @@
         <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
         <v>2.2</v>
@@ -1123,7 +1123,7 @@
         <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L4" t="n">
         <v>2.75</v>
@@ -1132,7 +1132,7 @@
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O4" t="n">
         <v>1.17</v>
@@ -1141,25 +1141,25 @@
         <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S4" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T4" t="n">
         <v>3.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X4" t="n">
         <v>19</v>
@@ -1177,28 +1177,28 @@
         <v>23</v>
       </c>
       <c r="AC4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD4" t="n">
         <v>7.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG4" t="n">
         <v>101</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI4" t="n">
         <v>13</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK4" t="n">
         <v>21</v>
@@ -1207,7 +1207,7 @@
         <v>15</v>
       </c>
       <c r="AM4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN4" t="n">
         <v>5.5</v>
@@ -1216,10 +1216,10 @@
         <v>15</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
@@ -1249,13 +1249,13 @@
         <v>34</v>
       </c>
       <c r="BA4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC4" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1329,7 +1329,7 @@
         <v>2.3</v>
       </c>
       <c r="S5" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="T5" t="n">
         <v>3.4</v>
@@ -1505,16 +1505,16 @@
         <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T6" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U6" t="n">
         <v>1.91</v>
@@ -1675,25 +1675,25 @@
         <v>8.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R7" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="T7" t="n">
         <v>3.4</v>
@@ -1711,7 +1711,7 @@
         <v>6.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
         <v>8</v>
@@ -1720,7 +1720,7 @@
         <v>11</v>
       </c>
       <c r="AB7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
         <v>13</v>
@@ -1738,7 +1738,7 @@
         <v>401</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
         <v>41</v>
@@ -1747,7 +1747,7 @@
         <v>26</v>
       </c>
       <c r="AK7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL7" t="n">
         <v>67</v>
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="AQ7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR7" t="n">
         <v>41</v>
@@ -1783,7 +1783,7 @@
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AX7" t="n">
         <v>41</v>
@@ -2051,10 +2051,10 @@
         <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S9" t="n">
         <v>1.33</v>
@@ -2224,7 +2224,7 @@
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O10" t="n">
         <v>1.17</v>
@@ -2266,7 +2266,7 @@
         <v>15</v>
       </c>
       <c r="AB10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC10" t="n">
         <v>17</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="H12" t="n">
         <v>3.5</v>
@@ -2749,7 +2749,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="H13" t="n">
         <v>7</v>
@@ -2758,7 +2758,7 @@
         <v>13</v>
       </c>
       <c r="J13" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="K13" t="n">
         <v>3</v>
@@ -2770,7 +2770,7 @@
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O13" t="n">
         <v>1.13</v>
@@ -2833,7 +2833,7 @@
         <v>34</v>
       </c>
       <c r="AI13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ13" t="n">
         <v>34</v>
@@ -3325,10 +3325,10 @@
         <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R16" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="S16" t="n">
         <v>1.4</v>
@@ -3361,7 +3361,7 @@
         <v>26</v>
       </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD16" t="n">
         <v>6.5</v>
@@ -3480,13 +3480,13 @@
         <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
         <v>3.9</v>
       </c>
       <c r="J17" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K17" t="n">
         <v>2.1</v>
@@ -3495,10 +3495,10 @@
         <v>4.33</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.33</v>
@@ -3507,10 +3507,10 @@
         <v>3.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="R17" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S17" t="n">
         <v>1.44</v>
@@ -3519,16 +3519,16 @@
         <v>2.63</v>
       </c>
       <c r="U17" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V17" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y17" t="n">
         <v>9</v>
@@ -3543,7 +3543,7 @@
         <v>29</v>
       </c>
       <c r="AC17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD17" t="n">
         <v>6.5</v>
@@ -3555,7 +3555,7 @@
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH17" t="n">
         <v>11</v>
@@ -3570,7 +3570,7 @@
         <v>41</v>
       </c>
       <c r="AL17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM17" t="n">
         <v>41</v>
@@ -3582,7 +3582,7 @@
         <v>11</v>
       </c>
       <c r="AP17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ17" t="n">
         <v>41</v>
@@ -3618,7 +3618,7 @@
         <v>101</v>
       </c>
       <c r="BB17" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC17" t="n">
         <v>126</v>
@@ -3662,7 +3662,7 @@
         <v>1.67</v>
       </c>
       <c r="H18" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I18" t="n">
         <v>4.5</v>
@@ -3683,10 +3683,10 @@
         <v>17</v>
       </c>
       <c r="O18" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P18" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q18" t="n">
         <v>1.5</v>
@@ -3734,10 +3734,10 @@
         <v>13</v>
       </c>
       <c r="AF18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG18" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH18" t="n">
         <v>19</v>
@@ -3779,7 +3779,7 @@
         <v>3.75</v>
       </c>
       <c r="AU18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV18" t="n">
         <v>41</v>
@@ -3803,7 +3803,7 @@
         <v>126</v>
       </c>
       <c r="BC18" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD18" t="n">
         <v>151</v>
@@ -3847,10 +3847,10 @@
         <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K19" t="n">
         <v>2.1</v>
@@ -3895,7 +3895,7 @@
         <v>11</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z19" t="n">
         <v>21</v>
@@ -3943,7 +3943,7 @@
         <v>4.33</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP19" t="n">
         <v>23</v>
@@ -3973,7 +3973,7 @@
         <v>19</v>
       </c>
       <c r="AY19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ19" t="n">
         <v>51</v>
@@ -4205,13 +4205,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J21" t="n">
         <v>4.5</v>
@@ -4241,10 +4241,10 @@
         <v>1.57</v>
       </c>
       <c r="S21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T21" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U21" t="n">
         <v>2</v>
@@ -4280,13 +4280,13 @@
         <v>17</v>
       </c>
       <c r="AF21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG21" t="n">
         <v>401</v>
       </c>
       <c r="AH21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI21" t="n">
         <v>9</v>
@@ -4322,7 +4322,7 @@
         <v>301</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU21" t="n">
         <v>9</v>
@@ -4387,22 +4387,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H22" t="n">
         <v>3.7</v>
       </c>
       <c r="I22" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K22" t="n">
         <v>2.25</v>
       </c>
       <c r="L22" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M22" t="n">
         <v>1.04</v>
@@ -4435,10 +4435,10 @@
         <v>2.2</v>
       </c>
       <c r="W22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y22" t="n">
         <v>9</v>
@@ -4471,22 +4471,22 @@
         <v>11</v>
       </c>
       <c r="AI22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ22" t="n">
         <v>11</v>
       </c>
       <c r="AK22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM22" t="n">
         <v>29</v>
       </c>
-      <c r="AL22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>26</v>
-      </c>
       <c r="AN22" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO22" t="n">
         <v>12</v>
@@ -4510,16 +4510,16 @@
         <v>7.5</v>
       </c>
       <c r="AV22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW22" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ22" t="n">
         <v>51</v>
@@ -4528,10 +4528,10 @@
         <v>67</v>
       </c>
       <c r="BB22" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC22" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD22" t="n">
         <v>126</v>
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L23" t="n">
         <v>4.33</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L23" t="n">
-        <v>4.5</v>
       </c>
       <c r="M23" t="n">
         <v>1.04</v>
@@ -4620,7 +4620,7 @@
         <v>8</v>
       </c>
       <c r="X23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y23" t="n">
         <v>8.5</v>
@@ -4638,10 +4638,10 @@
         <v>11</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF23" t="n">
         <v>41</v>
@@ -4653,10 +4653,10 @@
         <v>13</v>
       </c>
       <c r="AI23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK23" t="n">
         <v>41</v>
@@ -4665,13 +4665,13 @@
         <v>34</v>
       </c>
       <c r="AM23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP23" t="n">
         <v>19</v>
@@ -4698,13 +4698,13 @@
         <v>6</v>
       </c>
       <c r="AX23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY23" t="n">
         <v>29</v>
       </c>
       <c r="AZ23" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA23" t="n">
         <v>81</v>
@@ -4775,16 +4775,16 @@
         <v>11</v>
       </c>
       <c r="O24" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R24" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S24" t="n">
         <v>1.4</v>
@@ -4939,10 +4939,10 @@
         <v>4.2</v>
       </c>
       <c r="I25" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="J25" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K25" t="n">
         <v>2.5</v>
@@ -4957,10 +4957,10 @@
         <v>17</v>
       </c>
       <c r="O25" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P25" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q25" t="n">
         <v>1.53</v>
@@ -4981,13 +4981,13 @@
         <v>2.2</v>
       </c>
       <c r="W25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X25" t="n">
         <v>34</v>
       </c>
       <c r="Y25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z25" t="n">
         <v>51</v>
@@ -4999,10 +4999,10 @@
         <v>41</v>
       </c>
       <c r="AC25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD25" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -5026,10 +5026,10 @@
         <v>12</v>
       </c>
       <c r="AL25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN25" t="n">
         <v>7</v>
@@ -5074,10 +5074,10 @@
         <v>41</v>
       </c>
       <c r="BB25" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC25" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD25" t="n">
         <v>151</v>
@@ -5127,25 +5127,25 @@
         <v>2.2</v>
       </c>
       <c r="K26" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L26" t="n">
         <v>5.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O26" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P26" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R26" t="n">
         <v>2</v>
@@ -5157,16 +5157,16 @@
         <v>3</v>
       </c>
       <c r="U26" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V26" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W26" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X26" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y26" t="n">
         <v>8.5</v>
@@ -5178,16 +5178,16 @@
         <v>13</v>
       </c>
       <c r="AB26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD26" t="n">
         <v>7.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF26" t="n">
         <v>51</v>
@@ -5217,7 +5217,7 @@
         <v>3.6</v>
       </c>
       <c r="AO26" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP26" t="n">
         <v>19</v>
@@ -5226,7 +5226,7 @@
         <v>26</v>
       </c>
       <c r="AR26" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS26" t="n">
         <v>126</v>
@@ -5235,7 +5235,7 @@
         <v>3</v>
       </c>
       <c r="AU26" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV26" t="n">
         <v>51</v>
@@ -5244,7 +5244,7 @@
         <v>7</v>
       </c>
       <c r="AX26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY26" t="n">
         <v>34</v>
@@ -5253,10 +5253,10 @@
         <v>101</v>
       </c>
       <c r="BA26" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB26" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC26" t="n">
         <v>501</v>
@@ -5321,16 +5321,16 @@
         <v>11</v>
       </c>
       <c r="O27" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P27" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R27" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S27" t="n">
         <v>1.4</v>
@@ -5661,13 +5661,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H29" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I29" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J29" t="n">
         <v>1.91</v>
@@ -5676,7 +5676,7 @@
         <v>2.63</v>
       </c>
       <c r="L29" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M29" t="n">
         <v>1.02</v>
@@ -5691,10 +5691,10 @@
         <v>6</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R29" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S29" t="n">
         <v>1.25</v>
@@ -5703,10 +5703,10 @@
         <v>3.75</v>
       </c>
       <c r="U29" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V29" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W29" t="n">
         <v>10</v>
@@ -5724,7 +5724,7 @@
         <v>11</v>
       </c>
       <c r="AB29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC29" t="n">
         <v>19</v>
@@ -6392,7 +6392,7 @@
         <v>5.75</v>
       </c>
       <c r="H33" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I33" t="n">
         <v>1.57</v>
@@ -6401,28 +6401,28 @@
         <v>5.5</v>
       </c>
       <c r="K33" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L33" t="n">
         <v>2.1</v>
       </c>
       <c r="M33" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O33" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P33" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R33" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S33" t="n">
         <v>1.3</v>
@@ -6431,13 +6431,13 @@
         <v>3.4</v>
       </c>
       <c r="U33" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V33" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X33" t="n">
         <v>29</v>
@@ -6455,10 +6455,10 @@
         <v>41</v>
       </c>
       <c r="AC33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD33" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE33" t="n">
         <v>15</v>
@@ -6503,7 +6503,7 @@
         <v>101</v>
       </c>
       <c r="AS33" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT33" t="n">
         <v>3.4</v>
@@ -6595,16 +6595,16 @@
         <v>17</v>
       </c>
       <c r="O34" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R34" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S34" t="n">
         <v>1.29</v>
@@ -6965,10 +6965,10 @@
         <v>5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R36" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S36" t="n">
         <v>1.29</v>
@@ -7135,16 +7135,16 @@
         <v>3.75</v>
       </c>
       <c r="M37" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="O37" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="P37" t="n">
-        <v>2.65</v>
+        <v>2.58</v>
       </c>
       <c r="Q37" t="n">
         <v>2.15</v>
@@ -7159,10 +7159,10 @@
         <v>2.32</v>
       </c>
       <c r="U37" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="V37" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="W37" t="n">
         <v>5.5</v>
@@ -7298,10 +7298,10 @@
         <v>4.2</v>
       </c>
       <c r="H38" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I38" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="J38" t="n">
         <v>4.65</v>
@@ -7313,16 +7313,16 @@
         <v>2.47</v>
       </c>
       <c r="M38" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>6.9</v>
+        <v>6.48</v>
       </c>
       <c r="O38" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="P38" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Q38" t="n">
         <v>2.05</v>
@@ -7337,16 +7337,16 @@
         <v>2.27</v>
       </c>
       <c r="U38" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="V38" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="W38" t="n">
         <v>9</v>
       </c>
       <c r="X38" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y38" t="n">
         <v>11.5</v>
@@ -7473,40 +7473,40 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="H39" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I39" t="n">
-        <v>6.9</v>
+        <v>4.65</v>
       </c>
       <c r="J39" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="K39" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="L39" t="n">
-        <v>6.9</v>
+        <v>4.85</v>
       </c>
       <c r="M39" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>7.7</v>
+        <v>10</v>
       </c>
       <c r="O39" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="P39" t="n">
-        <v>3.05</v>
+        <v>3.66</v>
       </c>
       <c r="Q39" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R39" t="n">
         <v>1.93</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.7</v>
       </c>
       <c r="S39" t="n">
         <v>1.4</v>
@@ -7515,105 +7515,107 @@
         <v>2.4</v>
       </c>
       <c r="U39" t="n">
-        <v>2.15</v>
+        <v>1.84</v>
       </c>
       <c r="V39" t="n">
-        <v>1.67</v>
+        <v>1.92</v>
       </c>
       <c r="W39" t="n">
-        <v>4.75</v>
+        <v>6.4</v>
       </c>
       <c r="X39" t="n">
-        <v>5</v>
+        <v>6.6</v>
       </c>
       <c r="Y39" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Z39" t="n">
-        <v>7.4</v>
+        <v>9.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AB39" t="n">
-        <v>28</v>
+        <v>19.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AD39" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AE39" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="AF39" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AG39" t="n">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="AH39" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AI39" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY39" t="n">
         <v>32</v>
       </c>
-      <c r="AJ39" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR39" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>110</v>
-      </c>
-      <c r="AW39" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX39" t="n">
-        <v>50</v>
-      </c>
-      <c r="AY39" t="n">
-        <v>55</v>
-      </c>
       <c r="AZ39" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="BA39" t="n">
+        <v>200</v>
+      </c>
+      <c r="BB39" t="n">
         <v>450</v>
       </c>
-      <c r="BB39" t="inlineStr"/>
       <c r="BC39" t="inlineStr"/>
       <c r="BD39" t="inlineStr"/>
     </row>
@@ -7667,16 +7669,16 @@
         <v>4.1</v>
       </c>
       <c r="M40" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N40" t="n">
-        <v>8.5</v>
+        <v>7.55</v>
       </c>
       <c r="O40" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P40" t="n">
-        <v>3.15</v>
+        <v>3.04</v>
       </c>
       <c r="Q40" t="n">
         <v>1.98</v>
@@ -7691,10 +7693,10 @@
         <v>2.37</v>
       </c>
       <c r="U40" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V40" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="W40" t="n">
         <v>5.9</v>
@@ -7830,10 +7832,10 @@
         <v>2.72</v>
       </c>
       <c r="H41" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I41" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="J41" t="n">
         <v>3.35</v>
@@ -7842,22 +7844,22 @@
         <v>2.02</v>
       </c>
       <c r="L41" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="M41" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N41" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="O41" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P41" t="n">
-        <v>3.3</v>
+        <v>2.97</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="R41" t="n">
         <v>1.7</v>
@@ -7869,16 +7871,16 @@
         <v>2.4</v>
       </c>
       <c r="U41" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="V41" t="n">
-        <v>1.96</v>
+        <v>2.01</v>
       </c>
       <c r="W41" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X41" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y41" t="n">
         <v>8.5</v>
@@ -7890,16 +7892,16 @@
         <v>19</v>
       </c>
       <c r="AB41" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC41" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD41" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF41" t="n">
         <v>50</v>
@@ -7908,25 +7910,25 @@
         <v>350</v>
       </c>
       <c r="AH41" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AJ41" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AK41" t="n">
         <v>19</v>
       </c>
       <c r="AL41" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AM41" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN41" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="AO41" t="n">
         <v>15</v>
@@ -7941,13 +7943,13 @@
         <v>110</v>
       </c>
       <c r="AS41" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AT41" t="n">
         <v>2.4</v>
       </c>
       <c r="AU41" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AV41" t="n">
         <v>70</v>
@@ -7965,7 +7967,7 @@
         <v>55</v>
       </c>
       <c r="BA41" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB41" t="n">
         <v>300</v>
@@ -8005,142 +8007,142 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="H42" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I42" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="J42" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="K42" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="L42" t="n">
         <v>2.32</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.27</v>
       </c>
       <c r="M42" t="n">
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="O42" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="P42" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R42" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="S42" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="T42" t="n">
-        <v>3.5</v>
+        <v>3.42</v>
       </c>
       <c r="U42" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="V42" t="n">
-        <v>2.27</v>
+        <v>2.38</v>
       </c>
       <c r="W42" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="X42" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Y42" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z42" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AA42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB42" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AC42" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AD42" t="n">
         <v>6.9</v>
       </c>
       <c r="AE42" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AF42" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG42" t="n">
         <v>175</v>
       </c>
       <c r="AH42" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AI42" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ42" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AK42" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL42" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AM42" t="n">
         <v>16</v>
       </c>
       <c r="AN42" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AO42" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AP42" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ42" t="n">
+        <v>75</v>
+      </c>
+      <c r="AR42" t="n">
         <v>90</v>
       </c>
-      <c r="AR42" t="n">
-        <v>110</v>
-      </c>
       <c r="AS42" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT42" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="AU42" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV42" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW42" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="AX42" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AY42" t="n">
         <v>15</v>
       </c>
       <c r="AZ42" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA42" t="n">
         <v>50</v>
@@ -8189,16 +8191,16 @@
         <v>3.2</v>
       </c>
       <c r="I43" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J43" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="K43" t="n">
         <v>2.05</v>
       </c>
       <c r="L43" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="M43" t="n">
         <v>1.04</v>
@@ -8219,22 +8221,22 @@
         <v>1.8</v>
       </c>
       <c r="S43" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="T43" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="U43" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V43" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="W43" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="X43" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Y43" t="n">
         <v>7.3</v>
@@ -8243,19 +8245,19 @@
         <v>16.5</v>
       </c>
       <c r="AA43" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC43" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AD43" t="n">
         <v>5.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AF43" t="n">
         <v>40</v>
@@ -8264,10 +8266,10 @@
         <v>250</v>
       </c>
       <c r="AH43" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AI43" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ43" t="n">
         <v>9.25</v>
@@ -8276,31 +8278,31 @@
         <v>32</v>
       </c>
       <c r="AL43" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM43" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN43" t="n">
         <v>4.05</v>
       </c>
       <c r="AO43" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AP43" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AQ43" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR43" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AS43" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AU43" t="n">
         <v>6.8</v>
@@ -8312,10 +8314,10 @@
         <v>5.1</v>
       </c>
       <c r="AX43" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AY43" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ43" t="n">
         <v>90</v>
@@ -8361,34 +8363,34 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="H44" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="I44" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="J44" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="K44" t="n">
-        <v>2.72</v>
+        <v>2.95</v>
       </c>
       <c r="L44" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="M44" t="n">
         <v>1.03</v>
       </c>
       <c r="N44" t="n">
-        <v>11.9</v>
+        <v>11</v>
       </c>
       <c r="O44" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="P44" t="n">
-        <v>4.4</v>
+        <v>4.33</v>
       </c>
       <c r="Q44" t="n">
         <v>1.55</v>
@@ -8397,104 +8399,104 @@
         <v>2.15</v>
       </c>
       <c r="S44" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="T44" t="n">
-        <v>3.42</v>
+        <v>4</v>
       </c>
       <c r="U44" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="V44" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="W44" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="X44" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="Y44" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Z44" t="n">
         <v>400</v>
       </c>
       <c r="AA44" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AB44" t="n">
         <v>150</v>
       </c>
       <c r="AC44" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD44" t="n">
         <v>13.5</v>
       </c>
-      <c r="AD44" t="n">
-        <v>12</v>
-      </c>
       <c r="AE44" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF44" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AG44" t="inlineStr"/>
       <c r="AH44" t="n">
-        <v>6.3</v>
+        <v>7.8</v>
       </c>
       <c r="AI44" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="AJ44" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK44" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AL44" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AM44" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AN44" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AO44" t="n">
         <v>120</v>
       </c>
       <c r="AP44" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AQ44" t="inlineStr"/>
       <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr"/>
       <c r="AT44" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="AU44" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AV44" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AW44" t="n">
-        <v>2.87</v>
+        <v>3.05</v>
       </c>
       <c r="AX44" t="n">
-        <v>4.45</v>
+        <v>4.3</v>
       </c>
       <c r="AY44" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AZ44" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="BA44" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="BB44" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="BC44" t="inlineStr"/>
       <c r="BD44" t="inlineStr"/>
@@ -8552,7 +8554,7 @@
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>7.95</v>
+        <v>7.6</v>
       </c>
       <c r="O45" t="n">
         <v>1.26</v>
@@ -8707,22 +8709,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="H46" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="I46" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="J46" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="K46" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="L46" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="M46" t="n">
         <v>1.01</v>
@@ -8731,7 +8733,7 @@
         <v>14.9</v>
       </c>
       <c r="O46" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P46" t="n">
         <v>5.9</v>
@@ -8740,7 +8742,7 @@
         <v>1.34</v>
       </c>
       <c r="R46" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="S46" t="n">
         <v>1.19</v>
@@ -8749,28 +8751,28 @@
         <v>4.2</v>
       </c>
       <c r="U46" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="V46" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="W46" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X46" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Y46" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Z46" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AA46" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB46" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AC46" t="n">
         <v>22</v>
@@ -8779,55 +8781,55 @@
         <v>12</v>
       </c>
       <c r="AE46" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AF46" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG46" t="n">
         <v>350</v>
       </c>
       <c r="AH46" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AI46" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AJ46" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK46" t="n">
         <v>9.25</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>8.75</v>
       </c>
       <c r="AL46" t="n">
         <v>10</v>
       </c>
       <c r="AM46" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN46" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AO46" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AP46" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AQ46" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AR46" t="n">
         <v>175</v>
       </c>
       <c r="AS46" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT46" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="AU46" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AV46" t="n">
         <v>45</v>
@@ -8836,16 +8838,16 @@
         <v>3.6</v>
       </c>
       <c r="AX46" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AY46" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AZ46" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="BA46" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB46" t="n">
         <v>100</v>
@@ -8895,16 +8897,16 @@
         <v>11.75</v>
       </c>
       <c r="I47" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J47" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="K47" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="L47" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
@@ -8915,16 +8917,16 @@
         <v>12</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="R47" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="S47" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="T47" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="U47" t="n">
         <v>2.45</v>
@@ -8933,19 +8935,19 @@
         <v>1.42</v>
       </c>
       <c r="W47" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X47" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y47" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Z47" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AA47" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AB47" t="n">
         <v>70</v>
@@ -8954,25 +8956,25 @@
         <v>45</v>
       </c>
       <c r="AD47" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AE47" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AF47" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AG47" t="n">
         <v>800</v>
       </c>
       <c r="AH47" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="AI47" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AJ47" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="AK47" t="n">
         <v>51</v>
@@ -8981,10 +8983,10 @@
         <v>1000</v>
       </c>
       <c r="AM47" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="AN47" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AO47" t="n">
         <v>3.75</v>
@@ -8993,7 +8995,7 @@
         <v>15.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AR47" t="n">
         <v>21</v>
@@ -9002,22 +9004,22 @@
         <v>150</v>
       </c>
       <c r="AT47" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AU47" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV47" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AW47" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AX47" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AY47" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AZ47" t="n">
         <v>51</v>
@@ -9067,19 +9069,19 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="H48" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I48" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="J48" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="K48" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="L48" t="n">
         <v>1.62</v>
@@ -9091,16 +9093,16 @@
         <v>12.8</v>
       </c>
       <c r="O48" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="P48" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="R48" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="S48" t="n">
         <v>1.19</v>
@@ -9109,106 +9111,106 @@
         <v>4.2</v>
       </c>
       <c r="U48" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="V48" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W48" t="n">
         <v>37</v>
       </c>
       <c r="X48" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="Y48" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z48" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AA48" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AB48" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AC48" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AD48" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AE48" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AF48" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AG48" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AH48" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AL48" t="n">
         <v>10</v>
       </c>
-      <c r="AI48" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>9.75</v>
-      </c>
       <c r="AM48" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AN48" t="n">
         <v>11</v>
       </c>
       <c r="AO48" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AP48" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AQ48" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AR48" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AS48" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AT48" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="AU48" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AV48" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AW48" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="AX48" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AY48" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AZ48" t="n">
         <v>12.5</v>
       </c>
-      <c r="AZ48" t="n">
-        <v>12</v>
-      </c>
       <c r="BA48" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="BB48" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BC48" t="n">
         <v>51</v>
@@ -9249,22 +9251,22 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="H49" t="n">
         <v>3.25</v>
       </c>
       <c r="I49" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
-        <v>2.95</v>
+        <v>2.77</v>
       </c>
       <c r="K49" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L49" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M49" t="n">
         <v>1.05</v>
@@ -9273,16 +9275,16 @@
         <v>8.949999999999999</v>
       </c>
       <c r="O49" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P49" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="R49" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S49" t="n">
         <v>1.39</v>
@@ -9291,37 +9293,37 @@
         <v>2.57</v>
       </c>
       <c r="U49" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="V49" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W49" t="n">
+        <v>9</v>
+      </c>
+      <c r="X49" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y49" t="n">
         <v>8.75</v>
       </c>
-      <c r="X49" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>9.25</v>
-      </c>
       <c r="Z49" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA49" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB49" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AC49" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD49" t="n">
         <v>6.4</v>
       </c>
       <c r="AE49" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF49" t="n">
         <v>50</v>
@@ -9330,64 +9332,64 @@
         <v>350</v>
       </c>
       <c r="AH49" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AI49" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ49" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AK49" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AL49" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AM49" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN49" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="AO49" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AP49" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ49" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR49" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AS49" t="n">
         <v>200</v>
       </c>
       <c r="AT49" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="AU49" t="n">
         <v>6.6</v>
       </c>
       <c r="AV49" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW49" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="AX49" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY49" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AZ49" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="BA49" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB49" t="n">
         <v>250</v>
@@ -9619,16 +9621,16 @@
         <v>4</v>
       </c>
       <c r="I51" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="J51" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="K51" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L51" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="M51" t="n">
         <v>1.04</v>
@@ -9637,16 +9639,16 @@
         <v>10</v>
       </c>
       <c r="O51" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P51" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R51" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S51" t="n">
         <v>1.39</v>
@@ -9658,13 +9660,13 @@
         <v>1.7</v>
       </c>
       <c r="V51" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="W51" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="X51" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -9673,16 +9675,16 @@
         <v>11.75</v>
       </c>
       <c r="AA51" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AB51" t="n">
         <v>23</v>
       </c>
       <c r="AC51" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD51" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AE51" t="n">
         <v>15.5</v>
@@ -9694,16 +9696,16 @@
         <v>450</v>
       </c>
       <c r="AH51" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI51" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ51" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AK51" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AL51" t="n">
         <v>45</v>
@@ -9715,34 +9717,34 @@
         <v>3.5</v>
       </c>
       <c r="AO51" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AP51" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AQ51" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR51" t="n">
         <v>45</v>
       </c>
       <c r="AS51" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="AU51" t="n">
         <v>7.4</v>
       </c>
       <c r="AV51" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW51" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AX51" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY51" t="n">
         <v>30</v>
@@ -9795,16 +9797,16 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
         <v>3.6</v>
       </c>
       <c r="I52" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J52" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K52" t="n">
         <v>2.2</v>
@@ -9816,7 +9818,7 @@
         <v>1.04</v>
       </c>
       <c r="N52" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O52" t="n">
         <v>1.25</v>
@@ -9837,13 +9839,13 @@
         <v>3</v>
       </c>
       <c r="U52" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V52" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W52" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X52" t="n">
         <v>10</v>
@@ -9852,13 +9854,13 @@
         <v>9</v>
       </c>
       <c r="Z52" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA52" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB52" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC52" t="n">
         <v>12</v>
@@ -9867,7 +9869,7 @@
         <v>7</v>
       </c>
       <c r="AE52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF52" t="n">
         <v>41</v>
@@ -9879,7 +9881,7 @@
         <v>11</v>
       </c>
       <c r="AI52" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ52" t="n">
         <v>12</v>
@@ -9903,7 +9905,7 @@
         <v>21</v>
       </c>
       <c r="AQ52" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR52" t="n">
         <v>51</v>
@@ -9930,7 +9932,7 @@
         <v>26</v>
       </c>
       <c r="AZ52" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA52" t="n">
         <v>81</v>
@@ -10003,10 +10005,10 @@
         <v>3.5</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R53" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S53" t="n">
         <v>1.36</v>
@@ -10170,8 +10172,12 @@
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
+      <c r="O54" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2.48</v>
+      </c>
       <c r="Q54" t="n">
         <v>2.2</v>
       </c>
@@ -10184,8 +10190,12 @@
       <c r="T54" t="n">
         <v>2.22</v>
       </c>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
+      <c r="U54" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1.55</v>
+      </c>
       <c r="W54" t="n">
         <v>4.3</v>
       </c>
@@ -10227,7 +10237,7 @@
         <v>17</v>
       </c>
       <c r="AK54" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AL54" t="n">
         <v>65</v>
@@ -10495,145 +10505,145 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="H56" t="n">
         <v>3.1</v>
       </c>
       <c r="I56" t="n">
-        <v>3.75</v>
+        <v>3.15</v>
       </c>
       <c r="J56" t="n">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="K56" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="L56" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="M56" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N56" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="O56" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="P56" t="n">
-        <v>2.75</v>
+        <v>2.61</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="R56" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="S56" t="n">
         <v>1.47</v>
       </c>
       <c r="T56" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U56" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="V56" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="W56" t="n">
         <v>5.2</v>
       </c>
       <c r="X56" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="Y56" t="n">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="Z56" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA56" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AB56" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AC56" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AD56" t="n">
         <v>5.4</v>
       </c>
       <c r="AE56" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF56" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AG56" t="n">
         <v>500</v>
       </c>
       <c r="AH56" t="n">
-        <v>7.9</v>
+        <v>6.6</v>
       </c>
       <c r="AI56" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AJ56" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AK56" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AL56" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AM56" t="n">
         <v>37</v>
       </c>
       <c r="AN56" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="AO56" t="n">
-        <v>10.5</v>
+        <v>11.75</v>
       </c>
       <c r="AP56" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AQ56" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AR56" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AS56" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="AT56" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="AU56" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AV56" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AW56" t="n">
-        <v>5.4</v>
+        <v>4.85</v>
       </c>
       <c r="AX56" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AY56" t="n">
         <v>32</v>
       </c>
       <c r="AZ56" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BA56" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BB56" t="n">
         <v>500</v>
@@ -10682,31 +10692,31 @@
         <v>2.5</v>
       </c>
       <c r="J57" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K57" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="L57" t="n">
         <v>3.2</v>
       </c>
       <c r="M57" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N57" t="n">
-        <v>6.1</v>
+        <v>5.67</v>
       </c>
       <c r="O57" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="P57" t="n">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="R57" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S57" t="n">
         <v>1.5</v>
@@ -10715,16 +10725,16 @@
         <v>2.18</v>
       </c>
       <c r="U57" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="V57" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="W57" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="X57" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="Y57" t="n">
         <v>8.75</v>
@@ -10736,49 +10746,49 @@
         <v>21</v>
       </c>
       <c r="AB57" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC57" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AD57" t="n">
         <v>5</v>
       </c>
       <c r="AE57" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF57" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG57" t="n">
         <v>500</v>
       </c>
       <c r="AH57" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AI57" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AJ57" t="n">
         <v>8.25</v>
       </c>
       <c r="AK57" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL57" t="n">
         <v>18.5</v>
       </c>
       <c r="AM57" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN57" t="n">
         <v>4.5</v>
       </c>
       <c r="AO57" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AP57" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ57" t="n">
         <v>80</v>
@@ -10787,16 +10797,16 @@
         <v>150</v>
       </c>
       <c r="AS57" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AT57" t="n">
         <v>2.18</v>
       </c>
       <c r="AU57" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV57" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW57" t="n">
         <v>4.25</v>
@@ -10805,7 +10815,7 @@
         <v>14.5</v>
       </c>
       <c r="AY57" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ57" t="n">
         <v>70</v>
@@ -10851,28 +10861,28 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>14.3</v>
+        <v>16.5</v>
       </c>
       <c r="H58" t="n">
-        <v>5.95</v>
+        <v>6.05</v>
       </c>
       <c r="I58" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="J58" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="K58" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="L58" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="M58" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N58" t="n">
-        <v>11.5</v>
+        <v>9.85</v>
       </c>
       <c r="O58" t="n">
         <v>1.15</v>
@@ -10881,10 +10891,10 @@
         <v>4.1</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R58" t="n">
-        <v>2.13</v>
+        <v>2.11</v>
       </c>
       <c r="S58" t="n">
         <v>1.29</v>
@@ -11739,22 +11749,22 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="H63" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I63" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="J63" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K63" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="L63" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="M63" t="n">
         <v>1.03</v>
@@ -11763,16 +11773,16 @@
         <v>11</v>
       </c>
       <c r="O63" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="P63" t="n">
-        <v>3.94</v>
+        <v>4.2</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R63" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="S63" t="n">
         <v>1.39</v>
@@ -11781,13 +11791,13 @@
         <v>2.45</v>
       </c>
       <c r="U63" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="V63" t="n">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="W63" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="X63" t="n">
         <v>15.5</v>
@@ -11799,90 +11809,92 @@
         <v>30</v>
       </c>
       <c r="AA63" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB63" t="n">
         <v>18</v>
       </c>
-      <c r="AB63" t="n">
-        <v>19</v>
-      </c>
       <c r="AC63" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AD63" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="AE63" t="n">
         <v>9.25</v>
       </c>
       <c r="AF63" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AG63" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AH63" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI63" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AJ63" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AK63" t="n">
         <v>18</v>
       </c>
       <c r="AL63" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AM63" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AN63" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AO63" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AP63" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ63" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AR63" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AS63" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="AU63" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AV63" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AW63" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="AX63" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AY63" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AZ63" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BA63" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BB63" t="n">
-        <v>150</v>
-      </c>
-      <c r="BC63" t="inlineStr"/>
+        <v>120</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>500</v>
+      </c>
       <c r="BD63" t="inlineStr"/>
     </row>
     <row r="64">
@@ -12447,28 +12459,28 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I67" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="J67" t="n">
-        <v>2.67</v>
+        <v>2.85</v>
       </c>
       <c r="K67" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="L67" t="n">
-        <v>4.55</v>
+        <v>4.15</v>
       </c>
       <c r="M67" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N67" t="n">
-        <v>6.4</v>
+        <v>5.75</v>
       </c>
       <c r="O67" t="n">
         <v>1.47</v>
@@ -12477,10 +12489,10 @@
         <v>2.32</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="R67" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="S67" t="n">
         <v>1.53</v>
@@ -12489,73 +12501,73 @@
         <v>2.1</v>
       </c>
       <c r="U67" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="V67" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="W67" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="X67" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="Y67" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z67" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA67" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AB67" t="n">
         <v>30</v>
       </c>
       <c r="AC67" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AD67" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AE67" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF67" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG67" t="n">
         <v>101</v>
       </c>
       <c r="AH67" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="AI67" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AJ67" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AK67" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AL67" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AM67" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN67" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AO67" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="AP67" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ67" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AR67" t="n">
         <v>110</v>
@@ -12570,22 +12582,22 @@
         <v>8.25</v>
       </c>
       <c r="AV67" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AW67" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="AX67" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AY67" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AZ67" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BA67" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BB67" t="inlineStr"/>
       <c r="BC67" t="inlineStr"/>
@@ -13711,10 +13723,10 @@
         <v>2.63</v>
       </c>
       <c r="M74" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N74" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O74" t="n">
         <v>1.4</v>
@@ -13895,16 +13907,16 @@
         <v>11</v>
       </c>
       <c r="O75" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P75" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R75" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S75" t="n">
         <v>1.36</v>
@@ -14067,10 +14079,10 @@
         <v>5</v>
       </c>
       <c r="M76" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N76" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O76" t="n">
         <v>1.36</v>
@@ -14227,145 +14239,145 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.72</v>
+        <v>2.85</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="I77" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="J77" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="K77" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="L77" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="M77" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="N77" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="O77" t="n">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="P77" t="n">
-        <v>2.52</v>
+        <v>2.15</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.35</v>
+        <v>2.82</v>
       </c>
       <c r="R77" t="n">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="S77" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="T77" t="n">
-        <v>2.37</v>
+        <v>2.12</v>
       </c>
       <c r="U77" t="n">
-        <v>1.98</v>
+        <v>2.25</v>
       </c>
       <c r="V77" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="W77" t="n">
-        <v>7.1</v>
+        <v>6.2</v>
       </c>
       <c r="X77" t="n">
         <v>12.5</v>
       </c>
       <c r="Y77" t="n">
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="Z77" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA77" t="n">
         <v>32</v>
       </c>
-      <c r="AA77" t="n">
-        <v>26</v>
-      </c>
       <c r="AB77" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AC77" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="AD77" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AE77" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AF77" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AG77" t="n">
         <v>1000</v>
       </c>
       <c r="AH77" t="n">
-        <v>6.7</v>
+        <v>5.8</v>
       </c>
       <c r="AI77" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AJ77" t="n">
-        <v>10.25</v>
+        <v>11.5</v>
       </c>
       <c r="AK77" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AL77" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AM77" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AN77" t="n">
         <v>4.45</v>
       </c>
       <c r="AO77" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP77" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AQ77" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AR77" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AS77" t="n">
         <v>400</v>
       </c>
       <c r="AT77" t="n">
-        <v>2.37</v>
+        <v>2.12</v>
       </c>
       <c r="AU77" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="AV77" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AW77" t="n">
         <v>4.4</v>
       </c>
       <c r="AX77" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY77" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AZ77" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="BA77" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="BB77" t="n">
         <v>450</v>
@@ -14728,7 +14740,7 @@
         <v>81</v>
       </c>
       <c r="BB79" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC79" t="n">
         <v>81</v>
@@ -14951,40 +14963,40 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="H81" t="n">
         <v>3.2</v>
       </c>
       <c r="I81" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="J81" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K81" t="n">
         <v>2.05</v>
       </c>
       <c r="L81" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M81" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N81" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O81" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P81" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R81" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S81" t="n">
         <v>1.44</v>
@@ -14993,10 +15005,10 @@
         <v>2.63</v>
       </c>
       <c r="U81" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V81" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W81" t="n">
         <v>8</v>
@@ -15005,13 +15017,13 @@
         <v>13</v>
       </c>
       <c r="Y81" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z81" t="n">
         <v>29</v>
       </c>
       <c r="AA81" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB81" t="n">
         <v>34</v>
@@ -15023,25 +15035,25 @@
         <v>6.5</v>
       </c>
       <c r="AE81" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF81" t="n">
         <v>51</v>
       </c>
       <c r="AG81" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH81" t="n">
         <v>7.5</v>
       </c>
       <c r="AI81" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ81" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK81" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL81" t="n">
         <v>21</v>
@@ -15056,7 +15068,7 @@
         <v>17</v>
       </c>
       <c r="AP81" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ81" t="n">
         <v>51</v>
@@ -15077,7 +15089,7 @@
         <v>51</v>
       </c>
       <c r="AW81" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX81" t="n">
         <v>15</v>
@@ -15089,7 +15101,7 @@
         <v>51</v>
       </c>
       <c r="BA81" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB81" t="n">
         <v>201</v>
@@ -15129,22 +15141,22 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H82" t="n">
         <v>3.45</v>
       </c>
       <c r="I82" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="J82" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="K82" t="n">
         <v>2.15</v>
       </c>
       <c r="L82" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="M82" t="n">
         <v>1.04</v>
@@ -15153,37 +15165,37 @@
         <v>10</v>
       </c>
       <c r="O82" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P82" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R82" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S82" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="T82" t="n">
-        <v>2.99</v>
+        <v>3.04</v>
       </c>
       <c r="U82" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="V82" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="W82" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="X82" t="n">
         <v>21</v>
       </c>
       <c r="Y82" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z82" t="n">
         <v>55</v>
@@ -15195,40 +15207,40 @@
         <v>35</v>
       </c>
       <c r="AC82" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AD82" t="n">
         <v>6.8</v>
       </c>
       <c r="AE82" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF82" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG82" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AH82" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="AI82" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AJ82" t="n">
         <v>8.25</v>
       </c>
       <c r="AK82" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL82" t="n">
         <v>14.5</v>
       </c>
       <c r="AM82" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AN82" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AO82" t="n">
         <v>19.5</v>
@@ -15243,25 +15255,25 @@
         <v>120</v>
       </c>
       <c r="AS82" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AT82" t="n">
         <v>2.82</v>
       </c>
       <c r="AU82" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV82" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW82" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="AX82" t="n">
         <v>9.5</v>
       </c>
       <c r="AY82" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AZ82" t="n">
         <v>32</v>
@@ -15307,145 +15319,145 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H83" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I83" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L83" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N83" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="O83" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P83" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R83" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T83" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V83" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="W83" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="X83" t="n">
         <v>5.3</v>
       </c>
-      <c r="J83" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="K83" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L83" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="M83" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N83" t="n">
-        <v>5</v>
-      </c>
-      <c r="O83" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P83" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="R83" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S83" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="T83" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="U83" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="V83" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="W83" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="X83" t="n">
-        <v>5.1</v>
-      </c>
       <c r="Y83" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z83" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AA83" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AB83" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AC83" t="n">
-        <v>5.8</v>
+        <v>6.7</v>
       </c>
       <c r="AD83" t="n">
         <v>6</v>
       </c>
       <c r="AE83" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AF83" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AG83" t="n">
         <v>101</v>
       </c>
       <c r="AH83" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="AI83" t="n">
         <v>21</v>
       </c>
       <c r="AJ83" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AK83" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL83" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM83" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AN83" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AO83" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP83" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AQ83" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AR83" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS83" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="AU83" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AV83" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AW83" t="n">
         <v>6.6</v>
       </c>
       <c r="AX83" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AY83" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AZ83" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BA83" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="BB83" t="inlineStr"/>
       <c r="BC83" t="inlineStr"/>
@@ -15483,19 +15495,19 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="H84" t="n">
-        <v>2.7</v>
+        <v>2.52</v>
       </c>
       <c r="I84" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J84" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K84" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="L84" t="n">
         <v>3.8</v>
@@ -15504,7 +15516,7 @@
         <v>1.06</v>
       </c>
       <c r="N84" t="n">
-        <v>5.7</v>
+        <v>5.75</v>
       </c>
       <c r="O84" t="n">
         <v>1.53</v>
@@ -15522,7 +15534,7 @@
         <v>1.6</v>
       </c>
       <c r="T84" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U84" t="n">
         <v>2.12</v>
@@ -15534,64 +15546,64 @@
         <v>5.4</v>
       </c>
       <c r="X84" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y84" t="n">
         <v>8.5</v>
       </c>
       <c r="Z84" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AA84" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB84" t="n">
         <v>32</v>
       </c>
       <c r="AC84" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AD84" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="AE84" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF84" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AG84" t="n">
         <v>101</v>
       </c>
       <c r="AH84" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="AI84" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AJ84" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK84" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AP84" t="n">
         <v>29</v>
       </c>
-      <c r="AL84" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM84" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN84" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AO84" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP84" t="n">
-        <v>28</v>
-      </c>
       <c r="AQ84" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AR84" t="n">
         <v>150</v>
@@ -15600,28 +15612,28 @@
         <v>500</v>
       </c>
       <c r="AT84" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AU84" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AV84" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AW84" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="AX84" t="n">
         <v>19</v>
       </c>
       <c r="AY84" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AZ84" t="n">
         <v>110</v>
       </c>
       <c r="BA84" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BB84" t="inlineStr"/>
       <c r="BC84" t="inlineStr"/>
@@ -15868,19 +15880,19 @@
         <v>1.44</v>
       </c>
       <c r="R86" t="n">
-        <v>2.36</v>
+        <v>2.35</v>
       </c>
       <c r="S86" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="T86" t="n">
-        <v>3.48</v>
+        <v>3.42</v>
       </c>
       <c r="U86" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="V86" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="W86" t="n">
         <v>23</v>
@@ -16014,7 +16026,7 @@
         <v>2.62</v>
       </c>
       <c r="H87" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I87" t="n">
         <v>2.52</v>
@@ -16038,13 +16050,13 @@
         <v>1.24</v>
       </c>
       <c r="P87" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q87" t="n">
         <v>1.72</v>
       </c>
       <c r="R87" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S87" t="n">
         <v>1.36</v>
@@ -16056,10 +16068,10 @@
         <v>1.57</v>
       </c>
       <c r="V87" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="W87" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="X87" t="n">
         <v>14.5</v>
@@ -16083,43 +16095,43 @@
         <v>6.5</v>
       </c>
       <c r="AE87" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF87" t="n">
         <v>45</v>
       </c>
       <c r="AG87" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AH87" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AI87" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ87" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK87" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL87" t="n">
         <v>19</v>
       </c>
       <c r="AM87" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN87" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="AO87" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AP87" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AQ87" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR87" t="n">
         <v>80</v>
@@ -16131,7 +16143,7 @@
         <v>2.92</v>
       </c>
       <c r="AU87" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AV87" t="n">
         <v>50</v>
@@ -16140,16 +16152,16 @@
         <v>4.65</v>
       </c>
       <c r="AX87" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AY87" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ87" t="n">
         <v>55</v>
       </c>
       <c r="BA87" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BB87" t="n">
         <v>200</v>
@@ -16193,55 +16205,55 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="H88" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="I88" t="n">
-        <v>5.47</v>
+        <v>5.48</v>
       </c>
       <c r="J88" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="K88" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="L88" t="n">
-        <v>5.4</v>
+        <v>5.41</v>
       </c>
       <c r="M88" t="n">
         <v>1.03</v>
       </c>
       <c r="N88" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O88" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P88" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="R88" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="S88" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="T88" t="n">
-        <v>3.6</v>
+        <v>3.34</v>
       </c>
       <c r="U88" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="V88" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="W88" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X88" t="n">
         <v>7</v>
@@ -16253,29 +16265,29 @@
         <v>10</v>
       </c>
       <c r="AA88" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB88" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC88" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD88" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE88" t="n">
         <v>13</v>
       </c>
       <c r="AF88" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AG88" t="inlineStr"/>
       <c r="AH88" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI88" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ88" t="n">
         <v>15</v>
@@ -16284,13 +16296,13 @@
         <v>51</v>
       </c>
       <c r="AL88" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM88" t="n">
         <v>41</v>
       </c>
-      <c r="AM88" t="n">
-        <v>36</v>
-      </c>
       <c r="AN88" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO88" t="n">
         <v>6.5</v>
@@ -16299,31 +16311,31 @@
         <v>13</v>
       </c>
       <c r="AQ88" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR88" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="AS88" t="n">
         <v>51</v>
       </c>
       <c r="AT88" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AU88" t="n">
         <v>6.5</v>
       </c>
       <c r="AV88" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AW88" t="n">
         <v>6.5</v>
       </c>
       <c r="AX88" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY88" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ88" t="n">
         <v>51</v>
@@ -16373,22 +16385,22 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="H89" t="n">
-        <v>3.9</v>
+        <v>3.68</v>
       </c>
       <c r="I89" t="n">
-        <v>6.17</v>
+        <v>5.26</v>
       </c>
       <c r="J89" t="n">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="K89" t="n">
-        <v>2.18</v>
+        <v>2.13</v>
       </c>
       <c r="L89" t="n">
-        <v>6.28</v>
+        <v>5.96</v>
       </c>
       <c r="M89" t="n">
         <v>1.06</v>
@@ -16397,28 +16409,28 @@
         <v>8</v>
       </c>
       <c r="O89" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P89" t="n">
-        <v>3.14</v>
+        <v>3.04</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R89" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="S89" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="T89" t="n">
-        <v>2.81</v>
+        <v>2.77</v>
       </c>
       <c r="U89" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V89" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W89" t="n">
         <v>5.5</v>
@@ -16430,10 +16442,10 @@
         <v>7</v>
       </c>
       <c r="Z89" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AA89" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB89" t="n">
         <v>26</v>
@@ -16442,23 +16454,23 @@
         <v>9</v>
       </c>
       <c r="AD89" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE89" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF89" t="n">
         <v>51</v>
       </c>
       <c r="AG89" t="inlineStr"/>
       <c r="AH89" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI89" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ89" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK89" t="n">
         <v>51</v>
@@ -16473,13 +16485,13 @@
         <v>3.3</v>
       </c>
       <c r="AO89" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP89" t="n">
         <v>17</v>
       </c>
       <c r="AQ89" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR89" t="n">
         <v>51</v>
@@ -16491,16 +16503,16 @@
         <v>2.75</v>
       </c>
       <c r="AU89" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV89" t="n">
         <v>51</v>
       </c>
       <c r="AW89" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX89" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AY89" t="n">
         <v>36</v>
@@ -16559,16 +16571,16 @@
         <v>2.75</v>
       </c>
       <c r="I90" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="J90" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K90" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="L90" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="M90" t="n">
         <v>1.04</v>
@@ -16601,22 +16613,22 @@
         <v>1.69</v>
       </c>
       <c r="W90" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="X90" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Y90" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z90" t="n">
         <v>22</v>
       </c>
       <c r="AA90" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AB90" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC90" t="n">
         <v>6.1</v>
@@ -16634,40 +16646,40 @@
         <v>101</v>
       </c>
       <c r="AH90" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AI90" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AJ90" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AK90" t="n">
         <v>28</v>
       </c>
       <c r="AL90" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM90" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AN90" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="AO90" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AP90" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AQ90" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AR90" t="n">
         <v>150</v>
       </c>
       <c r="AS90" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AT90" t="n">
         <v>2.05</v>
@@ -16679,19 +16691,19 @@
         <v>100</v>
       </c>
       <c r="AW90" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="AX90" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY90" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AZ90" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BA90" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BB90" t="n">
         <v>500</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-28.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="K2" t="n">
         <v>2.25</v>
       </c>
       <c r="L2" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -771,10 +771,10 @@
         <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q2" t="n">
         <v>1.8</v>
@@ -783,10 +783,10 @@
         <v>2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U2" t="n">
         <v>1.67</v>
@@ -795,10 +795,10 @@
         <v>2.1</v>
       </c>
       <c r="W2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
         <v>13</v>
@@ -807,7 +807,7 @@
         <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="n">
         <v>34</v>
@@ -819,7 +819,7 @@
         <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
@@ -828,16 +828,16 @@
         <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
         <v>15</v>
@@ -846,25 +846,25 @@
         <v>23</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS2" t="n">
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU2" t="n">
         <v>7.5</v>
@@ -873,16 +873,16 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA2" t="n">
         <v>51</v>
@@ -965,7 +965,7 @@
         <v>2.38</v>
       </c>
       <c r="S3" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T3" t="n">
         <v>3.5</v>
@@ -1135,10 +1135,10 @@
         <v>17</v>
       </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q4" t="n">
         <v>1.53</v>
@@ -1147,7 +1147,7 @@
         <v>2.5</v>
       </c>
       <c r="S4" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T4" t="n">
         <v>3.5</v>
@@ -1329,7 +1329,7 @@
         <v>2.3</v>
       </c>
       <c r="S5" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T5" t="n">
         <v>3.4</v>
@@ -1475,10 +1475,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
         <v>2.75</v>
@@ -1487,7 +1487,7 @@
         <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
         <v>3.4</v>
@@ -1511,25 +1511,25 @@
         <v>1.62</v>
       </c>
       <c r="S6" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="T6" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V6" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
         <v>12</v>
       </c>
       <c r="Y6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
         <v>26</v>
@@ -1541,7 +1541,7 @@
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
@@ -1553,13 +1553,13 @@
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ6" t="n">
         <v>11</v>
@@ -1580,7 +1580,7 @@
         <v>15</v>
       </c>
       <c r="AP6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ6" t="n">
         <v>51</v>
@@ -1589,25 +1589,25 @@
         <v>81</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX6" t="n">
         <v>15</v>
       </c>
       <c r="AY6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
         <v>51</v>
@@ -1616,7 +1616,7 @@
         <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1693,7 +1693,7 @@
         <v>2.2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T7" t="n">
         <v>3.4</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="J9" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
         <v>2.3</v>
       </c>
       <c r="L9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -2063,16 +2063,16 @@
         <v>3.25</v>
       </c>
       <c r="U9" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V9" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y9" t="n">
         <v>15</v>
@@ -2087,16 +2087,16 @@
         <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG9" t="n">
         <v>201</v>
@@ -2150,13 +2150,13 @@
         <v>3.75</v>
       </c>
       <c r="AX9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AY9" t="n">
         <v>19</v>
       </c>
       <c r="AZ9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA9" t="n">
         <v>41</v>
@@ -2203,19 +2203,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
         <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J10" t="n">
         <v>2.6</v>
       </c>
       <c r="K10" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L10" t="n">
         <v>3.6</v>
@@ -2266,7 +2266,7 @@
         <v>15</v>
       </c>
       <c r="AB10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
         <v>17</v>
@@ -2293,7 +2293,7 @@
         <v>12</v>
       </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="n">
         <v>23</v>
@@ -2344,7 +2344,7 @@
         <v>51</v>
       </c>
       <c r="BB10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC10" t="n">
         <v>351</v>
@@ -2597,10 +2597,10 @@
         <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R12" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="S12" t="n">
         <v>1.36</v>
@@ -2749,7 +2749,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="H13" t="n">
         <v>7</v>
@@ -2758,13 +2758,13 @@
         <v>13</v>
       </c>
       <c r="J13" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="K13" t="n">
         <v>3</v>
       </c>
       <c r="L13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.02</v>
@@ -2797,13 +2797,13 @@
         <v>1.8</v>
       </c>
       <c r="W13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X13" t="n">
         <v>7</v>
       </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z13" t="n">
         <v>7.5</v>
@@ -3113,19 +3113,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J15" t="n">
         <v>2.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L15" t="n">
         <v>4.33</v>
@@ -3149,16 +3149,16 @@
         <v>2</v>
       </c>
       <c r="S15" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T15" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U15" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V15" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W15" t="n">
         <v>8.5</v>
@@ -3170,7 +3170,7 @@
         <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA15" t="n">
         <v>15</v>
@@ -3215,7 +3215,7 @@
         <v>4</v>
       </c>
       <c r="AO15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP15" t="n">
         <v>19</v>
@@ -3230,7 +3230,7 @@
         <v>126</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU15" t="n">
         <v>7.5</v>
@@ -3313,10 +3313,10 @@
         <v>4.33</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O16" t="n">
         <v>1.29</v>
@@ -3325,10 +3325,10 @@
         <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R16" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S16" t="n">
         <v>1.4</v>
@@ -3477,40 +3477,40 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I17" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J17" t="n">
         <v>2.75</v>
       </c>
       <c r="K17" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L17" t="n">
         <v>4.33</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P17" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="R17" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S17" t="n">
         <v>1.44</v>
@@ -3519,16 +3519,16 @@
         <v>2.63</v>
       </c>
       <c r="U17" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V17" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y17" t="n">
         <v>9</v>
@@ -3543,10 +3543,10 @@
         <v>29</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE17" t="n">
         <v>15</v>
@@ -3555,10 +3555,10 @@
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI17" t="n">
         <v>19</v>
@@ -3570,7 +3570,7 @@
         <v>41</v>
       </c>
       <c r="AL17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM17" t="n">
         <v>41</v>
@@ -3582,13 +3582,13 @@
         <v>11</v>
       </c>
       <c r="AP17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ17" t="n">
         <v>41</v>
       </c>
       <c r="AR17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS17" t="n">
         <v>151</v>
@@ -3597,7 +3597,7 @@
         <v>2.63</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
@@ -3618,10 +3618,10 @@
         <v>101</v>
       </c>
       <c r="BB17" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC17" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD17" t="n">
         <v>151</v>
@@ -4026,7 +4026,7 @@
         <v>4.1</v>
       </c>
       <c r="H20" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I20" t="n">
         <v>1.85</v>
@@ -4038,7 +4038,7 @@
         <v>2.05</v>
       </c>
       <c r="L20" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M20" t="n">
         <v>1.07</v>
@@ -4047,10 +4047,10 @@
         <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q20" t="n">
         <v>2.2</v>
@@ -4077,7 +4077,7 @@
         <v>21</v>
       </c>
       <c r="Y20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z20" t="n">
         <v>41</v>
@@ -4101,7 +4101,7 @@
         <v>67</v>
       </c>
       <c r="AG20" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AH20" t="n">
         <v>6</v>
@@ -4131,7 +4131,7 @@
         <v>34</v>
       </c>
       <c r="AQ20" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR20" t="n">
         <v>126</v>
@@ -4158,10 +4158,10 @@
         <v>23</v>
       </c>
       <c r="AZ20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB20" t="n">
         <v>201</v>
@@ -4205,28 +4205,28 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="J21" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L21" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O21" t="n">
         <v>1.4</v>
@@ -4241,10 +4241,10 @@
         <v>1.57</v>
       </c>
       <c r="S21" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T21" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U21" t="n">
         <v>2</v>
@@ -4253,13 +4253,13 @@
         <v>1.73</v>
       </c>
       <c r="W21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z21" t="n">
         <v>41</v>
@@ -4274,37 +4274,37 @@
         <v>7</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG21" t="n">
         <v>401</v>
       </c>
       <c r="AH21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ21" t="n">
         <v>9.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM21" t="n">
         <v>34</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO21" t="n">
         <v>21</v>
@@ -4313,19 +4313,19 @@
         <v>34</v>
       </c>
       <c r="AQ21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR21" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS21" t="n">
         <v>301</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV21" t="n">
         <v>67</v>
@@ -4334,7 +4334,7 @@
         <v>4</v>
       </c>
       <c r="AX21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY21" t="n">
         <v>26</v>
@@ -4343,10 +4343,10 @@
         <v>41</v>
       </c>
       <c r="BA21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB21" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC21" t="n">
         <v>126</v>
@@ -4387,58 +4387,58 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H22" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K22" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L22" t="n">
         <v>3.6</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O22" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="P22" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="R22" t="n">
-        <v>2.08</v>
+        <v>2.4</v>
       </c>
       <c r="S22" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="T22" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U22" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="V22" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="W22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y22" t="n">
         <v>9</v>
@@ -4447,34 +4447,34 @@
         <v>21</v>
       </c>
       <c r="AA22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC22" t="n">
         <v>17</v>
       </c>
-      <c r="AB22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>13</v>
-      </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG22" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AH22" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK22" t="n">
         <v>34</v>
@@ -4483,34 +4483,34 @@
         <v>23</v>
       </c>
       <c r="AM22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR22" t="n">
         <v>41</v>
       </c>
-      <c r="AR22" t="n">
-        <v>51</v>
-      </c>
       <c r="AS22" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AU22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW22" t="n">
         <v>5.5</v>
@@ -4519,22 +4519,22 @@
         <v>17</v>
       </c>
       <c r="AY22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ22" t="n">
         <v>51</v>
       </c>
       <c r="BA22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB22" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD22" t="n">
         <v>151</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="23">
@@ -4569,19 +4569,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H23" t="n">
         <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
         <v>2.5</v>
       </c>
       <c r="K23" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L23" t="n">
         <v>4.33</v>
@@ -4590,7 +4590,7 @@
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O23" t="n">
         <v>1.25</v>
@@ -4611,10 +4611,10 @@
         <v>3</v>
       </c>
       <c r="U23" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W23" t="n">
         <v>8</v>
@@ -4626,7 +4626,7 @@
         <v>8.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA23" t="n">
         <v>15</v>
@@ -4635,7 +4635,7 @@
         <v>23</v>
       </c>
       <c r="AC23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD23" t="n">
         <v>6.5</v>
@@ -4662,7 +4662,7 @@
         <v>41</v>
       </c>
       <c r="AL23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM23" t="n">
         <v>34</v>
@@ -4689,7 +4689,7 @@
         <v>3</v>
       </c>
       <c r="AU23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV23" t="n">
         <v>51</v>
@@ -4701,7 +4701,7 @@
         <v>21</v>
       </c>
       <c r="AY23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
         <v>67</v>
@@ -4710,7 +4710,7 @@
         <v>81</v>
       </c>
       <c r="BB23" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC23" t="n">
         <v>126</v>
@@ -4751,16 +4751,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="H24" t="n">
         <v>4.5</v>
       </c>
       <c r="I24" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="J24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="K24" t="n">
         <v>2.3</v>
@@ -4781,10 +4781,10 @@
         <v>3.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R24" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S24" t="n">
         <v>1.4</v>
@@ -4793,10 +4793,10 @@
         <v>2.75</v>
       </c>
       <c r="U24" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V24" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W24" t="n">
         <v>19</v>
@@ -4820,7 +4820,7 @@
         <v>10</v>
       </c>
       <c r="AD24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
         <v>23</v>
@@ -4838,7 +4838,7 @@
         <v>6</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK24" t="n">
         <v>8.5</v>
@@ -4850,7 +4850,7 @@
         <v>34</v>
       </c>
       <c r="AN24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO24" t="n">
         <v>41</v>
@@ -4865,7 +4865,7 @@
         <v>251</v>
       </c>
       <c r="AS24" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AT24" t="n">
         <v>2.75</v>
@@ -4933,28 +4933,28 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H25" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I25" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="J25" t="n">
         <v>5</v>
       </c>
       <c r="K25" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L25" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O25" t="n">
         <v>1.14</v>
@@ -4963,25 +4963,25 @@
         <v>5.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="R25" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="S25" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T25" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U25" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V25" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X25" t="n">
         <v>34</v>
@@ -4996,13 +4996,13 @@
         <v>41</v>
       </c>
       <c r="AB25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -5011,13 +5011,13 @@
         <v>41</v>
       </c>
       <c r="AG25" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>9</v>
       </c>
       <c r="AJ25" t="n">
         <v>8.5</v>
@@ -5032,13 +5032,13 @@
         <v>19</v>
       </c>
       <c r="AN25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO25" t="n">
         <v>26</v>
       </c>
       <c r="AP25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ25" t="n">
         <v>81</v>
@@ -5050,7 +5050,7 @@
         <v>151</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU25" t="n">
         <v>7.5</v>
@@ -5071,13 +5071,13 @@
         <v>21</v>
       </c>
       <c r="BA25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB25" t="n">
         <v>81</v>
       </c>
       <c r="BC25" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD25" t="n">
         <v>151</v>
@@ -5115,28 +5115,28 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I26" t="n">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="J26" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K26" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L26" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M26" t="n">
         <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O26" t="n">
         <v>1.22</v>
@@ -5157,22 +5157,22 @@
         <v>3</v>
       </c>
       <c r="U26" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V26" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W26" t="n">
         <v>7.5</v>
       </c>
       <c r="X26" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y26" t="n">
         <v>8.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA26" t="n">
         <v>13</v>
@@ -5184,7 +5184,7 @@
         <v>12</v>
       </c>
       <c r="AD26" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
         <v>15</v>
@@ -5193,40 +5193,40 @@
         <v>51</v>
       </c>
       <c r="AG26" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>15</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>17</v>
       </c>
       <c r="AK26" t="n">
         <v>51</v>
       </c>
       <c r="AL26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM26" t="n">
         <v>41</v>
       </c>
       <c r="AN26" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP26" t="n">
         <v>19</v>
       </c>
       <c r="AQ26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS26" t="n">
         <v>126</v>
@@ -5241,16 +5241,16 @@
         <v>51</v>
       </c>
       <c r="AW26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ26" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA26" t="n">
         <v>101</v>
@@ -5479,22 +5479,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="H28" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="I28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J28" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="K28" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="L28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M28" t="n">
         <v>1.02</v>
@@ -5521,106 +5521,106 @@
         <v>3.75</v>
       </c>
       <c r="U28" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W28" t="n">
         <v>8.5</v>
       </c>
       <c r="X28" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y28" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA28" t="n">
         <v>11</v>
       </c>
       <c r="AB28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC28" t="n">
         <v>17</v>
       </c>
       <c r="AD28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF28" t="n">
         <v>67</v>
       </c>
       <c r="AG28" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI28" t="n">
         <v>51</v>
       </c>
       <c r="AJ28" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK28" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL28" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM28" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN28" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO28" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AP28" t="n">
         <v>17</v>
       </c>
       <c r="AQ28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR28" t="n">
         <v>34</v>
       </c>
       <c r="AS28" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT28" t="n">
         <v>3.75</v>
       </c>
       <c r="AU28" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV28" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AY28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ28" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB28" t="n">
         <v>301</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>251</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>401</v>
       </c>
       <c r="BC28" t="n">
         <v>126</v>
@@ -5849,16 +5849,16 @@
         <v>3.8</v>
       </c>
       <c r="I30" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="J30" t="n">
         <v>4.75</v>
       </c>
       <c r="K30" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L30" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="M30" t="n">
         <v>1.04</v>
@@ -5867,16 +5867,16 @@
         <v>13</v>
       </c>
       <c r="O30" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P30" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R30" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S30" t="n">
         <v>1.33</v>
@@ -5906,7 +5906,7 @@
         <v>34</v>
       </c>
       <c r="AB30" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC30" t="n">
         <v>13</v>
@@ -5933,7 +5933,7 @@
         <v>8.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL30" t="n">
         <v>13</v>
@@ -5972,25 +5972,25 @@
         <v>3.75</v>
       </c>
       <c r="AX30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AY30" t="n">
         <v>17</v>
       </c>
       <c r="AZ30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA30" t="n">
         <v>41</v>
       </c>
       <c r="BB30" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC30" t="n">
         <v>501</v>
       </c>
       <c r="BD30" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31">
@@ -6025,40 +6025,40 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="H31" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="I31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J31" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="K31" t="n">
         <v>2.5</v>
       </c>
       <c r="L31" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M31" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O31" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P31" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="R31" t="n">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="S31" t="n">
         <v>1.3</v>
@@ -6067,10 +6067,10 @@
         <v>3.4</v>
       </c>
       <c r="U31" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V31" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W31" t="n">
         <v>7.5</v>
@@ -6082,7 +6082,7 @@
         <v>8.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA31" t="n">
         <v>11</v>
@@ -6106,25 +6106,25 @@
         <v>301</v>
       </c>
       <c r="AH31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ31" t="n">
         <v>21</v>
       </c>
-      <c r="AI31" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>23</v>
-      </c>
       <c r="AK31" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL31" t="n">
         <v>51</v>
       </c>
       <c r="AM31" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN31" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO31" t="n">
         <v>6.5</v>
@@ -6133,7 +6133,7 @@
         <v>17</v>
       </c>
       <c r="AQ31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR31" t="n">
         <v>41</v>
@@ -6151,10 +6151,10 @@
         <v>51</v>
       </c>
       <c r="AW31" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AX31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY31" t="n">
         <v>41</v>
@@ -6166,7 +6166,7 @@
         <v>151</v>
       </c>
       <c r="BB31" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC31" t="n">
         <v>501</v>
@@ -6389,19 +6389,19 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="H33" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I33" t="n">
         <v>1.57</v>
       </c>
       <c r="J33" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K33" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L33" t="n">
         <v>2.1</v>
@@ -6410,31 +6410,31 @@
         <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O33" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="P33" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q33" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U33" t="n">
         <v>1.62</v>
       </c>
-      <c r="R33" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T33" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.67</v>
-      </c>
       <c r="V33" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W33" t="n">
         <v>19</v>
@@ -6452,16 +6452,16 @@
         <v>41</v>
       </c>
       <c r="AB33" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD33" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF33" t="n">
         <v>41</v>
@@ -6470,10 +6470,10 @@
         <v>151</v>
       </c>
       <c r="AH33" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ33" t="n">
         <v>8.5</v>
@@ -6500,31 +6500,31 @@
         <v>81</v>
       </c>
       <c r="AR33" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS33" t="n">
         <v>151</v>
       </c>
       <c r="AT33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU33" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV33" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW33" t="n">
         <v>3.75</v>
       </c>
       <c r="AX33" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AY33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA33" t="n">
         <v>41</v>
@@ -6533,7 +6533,7 @@
         <v>101</v>
       </c>
       <c r="BC33" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="BD33" t="n">
         <v>151</v>
@@ -6768,46 +6768,46 @@
         <v>2.2</v>
       </c>
       <c r="L35" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O35" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P35" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R35" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S35" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="T35" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U35" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V35" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W35" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X35" t="n">
         <v>13</v>
       </c>
       <c r="Y35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z35" t="n">
         <v>23</v>
@@ -6819,22 +6819,22 @@
         <v>26</v>
       </c>
       <c r="AC35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD35" t="n">
         <v>6.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF35" t="n">
         <v>41</v>
       </c>
       <c r="AG35" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH35" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AI35" t="n">
         <v>15</v>
@@ -6849,7 +6849,7 @@
         <v>21</v>
       </c>
       <c r="AM35" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN35" t="n">
         <v>4.5</v>
@@ -6858,19 +6858,19 @@
         <v>13</v>
       </c>
       <c r="AP35" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ35" t="n">
         <v>41</v>
       </c>
       <c r="AR35" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS35" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU35" t="n">
         <v>7.5</v>
@@ -6885,7 +6885,7 @@
         <v>15</v>
       </c>
       <c r="AY35" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ35" t="n">
         <v>51</v>
@@ -6897,7 +6897,7 @@
         <v>151</v>
       </c>
       <c r="BC35" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD35" t="n">
         <v>126</v>
@@ -6938,82 +6938,82 @@
         <v>1.25</v>
       </c>
       <c r="H36" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J36" t="n">
         <v>1.67</v>
       </c>
       <c r="K36" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L36" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="M36" t="n">
         <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O36" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P36" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R36" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="S36" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T36" t="n">
         <v>3.5</v>
       </c>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V36" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W36" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X36" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y36" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA36" t="n">
         <v>11</v>
       </c>
       <c r="AB36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF36" t="n">
         <v>67</v>
       </c>
       <c r="AG36" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AH36" t="n">
         <v>29</v>
@@ -7031,16 +7031,16 @@
         <v>81</v>
       </c>
       <c r="AM36" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN36" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO36" t="n">
         <v>5.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ36" t="n">
         <v>15</v>
@@ -7055,28 +7055,28 @@
         <v>3.5</v>
       </c>
       <c r="AU36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV36" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW36" t="n">
         <v>11</v>
       </c>
       <c r="AX36" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AY36" t="n">
         <v>41</v>
       </c>
       <c r="AZ36" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BA36" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB36" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BC36" t="n">
         <v>501</v>
@@ -7120,145 +7120,145 @@
         <v>2.2</v>
       </c>
       <c r="H37" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="I37" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J37" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="K37" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L37" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="P37" t="n">
-        <v>2.58</v>
+        <v>2.69</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="R37" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="S37" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T37" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="U37" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="V37" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="W37" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="X37" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="Z37" t="n">
         <v>17.5</v>
       </c>
       <c r="AA37" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="AD37" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AE37" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF37" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG37" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AH37" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AI37" t="n">
         <v>13</v>
       </c>
       <c r="AJ37" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK37" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AL37" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AM37" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AN37" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="AO37" t="n">
         <v>11.75</v>
       </c>
       <c r="AP37" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ37" t="n">
         <v>50</v>
       </c>
       <c r="AR37" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS37" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="AU37" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AV37" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW37" t="n">
         <v>5</v>
       </c>
       <c r="AX37" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AY37" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ37" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BA37" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BB37" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC37" t="inlineStr"/>
       <c r="BD37" t="inlineStr"/>
@@ -7295,109 +7295,109 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="H38" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="I38" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="J38" t="n">
-        <v>4.65</v>
+        <v>4.5</v>
       </c>
       <c r="K38" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="L38" t="n">
-        <v>2.47</v>
+        <v>2.27</v>
       </c>
       <c r="M38" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N38" t="n">
-        <v>6.48</v>
+        <v>6.88</v>
       </c>
       <c r="O38" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="P38" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="R38" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S38" t="n">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="T38" t="n">
-        <v>2.27</v>
+        <v>2.5</v>
       </c>
       <c r="U38" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="V38" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="W38" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="X38" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="Z38" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA38" t="n">
         <v>32</v>
       </c>
       <c r="AB38" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC38" t="n">
-        <v>7.9</v>
+        <v>9</v>
       </c>
       <c r="AD38" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="AE38" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AF38" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AG38" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AH38" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AI38" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AJ38" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AK38" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AL38" t="n">
         <v>12</v>
       </c>
-      <c r="AL38" t="n">
-        <v>13</v>
-      </c>
       <c r="AM38" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN38" t="n">
         <v>5.9</v>
       </c>
       <c r="AO38" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP38" t="n">
         <v>32</v>
@@ -7406,37 +7406,37 @@
         <v>150</v>
       </c>
       <c r="AR38" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AS38" t="n">
         <v>450</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.27</v>
+        <v>2.5</v>
       </c>
       <c r="AU38" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AV38" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW38" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AX38" t="n">
-        <v>9.75</v>
+        <v>8.5</v>
       </c>
       <c r="AY38" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AZ38" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="BA38" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="BB38" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="BC38" t="inlineStr"/>
       <c r="BD38" t="inlineStr"/>
@@ -7473,34 +7473,34 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="H39" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I39" t="n">
-        <v>4.65</v>
+        <v>5.2</v>
       </c>
       <c r="J39" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="K39" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L39" t="n">
-        <v>4.85</v>
+        <v>5.2</v>
       </c>
       <c r="M39" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N39" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="O39" t="n">
         <v>1.18</v>
       </c>
       <c r="P39" t="n">
-        <v>3.66</v>
+        <v>3.72</v>
       </c>
       <c r="Q39" t="n">
         <v>1.7</v>
@@ -7515,73 +7515,73 @@
         <v>2.4</v>
       </c>
       <c r="U39" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="V39" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="W39" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="X39" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="Y39" t="n">
         <v>7</v>
       </c>
       <c r="Z39" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA39" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AB39" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC39" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AD39" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AE39" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF39" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG39" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AH39" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AJ39" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK39" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AL39" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AM39" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AN39" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AO39" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="AP39" t="n">
         <v>17</v>
       </c>
       <c r="AQ39" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AR39" t="n">
         <v>55</v>
@@ -7593,28 +7593,28 @@
         <v>2.62</v>
       </c>
       <c r="AU39" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AV39" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AW39" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AX39" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AY39" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AZ39" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BA39" t="n">
         <v>200</v>
       </c>
       <c r="BB39" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC39" t="inlineStr"/>
       <c r="BD39" t="inlineStr"/>
@@ -7672,7 +7672,7 @@
         <v>1.02</v>
       </c>
       <c r="N40" t="n">
-        <v>7.55</v>
+        <v>7.46</v>
       </c>
       <c r="O40" t="n">
         <v>1.27</v>
@@ -7829,148 +7829,148 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="H41" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I41" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="J41" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="K41" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="L41" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="M41" t="n">
         <v>1.03</v>
       </c>
       <c r="N41" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="O41" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="P41" t="n">
-        <v>2.97</v>
+        <v>3.72</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.93</v>
+        <v>1.65</v>
       </c>
       <c r="R41" t="n">
-        <v>1.7</v>
+        <v>1.98</v>
       </c>
       <c r="S41" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T41" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="U41" t="n">
-        <v>1.76</v>
+        <v>1.57</v>
       </c>
       <c r="V41" t="n">
-        <v>2.01</v>
+        <v>2.34</v>
       </c>
       <c r="W41" t="n">
-        <v>7.2</v>
+        <v>8.75</v>
       </c>
       <c r="X41" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="Y41" t="n">
         <v>8.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA41" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC41" t="n">
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="AD41" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="AE41" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="AF41" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="AG41" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="AH41" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AI41" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="AJ41" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AK41" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL41" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AM41" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AN41" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AO41" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AP41" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AQ41" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>45</v>
+      </c>
+      <c r="BA41" t="n">
         <v>70</v>
       </c>
-      <c r="AR41" t="n">
-        <v>110</v>
-      </c>
-      <c r="AS41" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AV41" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW41" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AX41" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AY41" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ41" t="n">
-        <v>55</v>
-      </c>
-      <c r="BA41" t="n">
-        <v>100</v>
-      </c>
       <c r="BB41" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="BC41" t="inlineStr"/>
       <c r="BD41" t="inlineStr"/>
@@ -8007,79 +8007,79 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="H42" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I42" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="J42" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="K42" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="L42" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="M42" t="n">
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="O42" t="n">
         <v>1.12</v>
       </c>
       <c r="P42" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q42" t="n">
         <v>1.52</v>
       </c>
       <c r="R42" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="S42" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="T42" t="n">
-        <v>3.42</v>
+        <v>3.48</v>
       </c>
       <c r="U42" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="V42" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="W42" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="X42" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y42" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA42" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB42" t="n">
         <v>21</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>22</v>
       </c>
       <c r="AC42" t="n">
         <v>15.5</v>
       </c>
       <c r="AD42" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AE42" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AF42" t="n">
         <v>32</v>
@@ -8088,34 +8088,34 @@
         <v>175</v>
       </c>
       <c r="AH42" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AI42" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ42" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AK42" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL42" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AM42" t="n">
         <v>16</v>
       </c>
       <c r="AN42" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="AO42" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP42" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ42" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AR42" t="n">
         <v>90</v>
@@ -8127,22 +8127,22 @@
         <v>3.35</v>
       </c>
       <c r="AU42" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV42" t="n">
         <v>45</v>
       </c>
       <c r="AW42" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AX42" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AY42" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AZ42" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="BA42" t="n">
         <v>50</v>
@@ -8185,22 +8185,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
         <v>3.2</v>
       </c>
       <c r="I43" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="J43" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="K43" t="n">
         <v>2.05</v>
       </c>
       <c r="L43" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="M43" t="n">
         <v>1.04</v>
@@ -8209,10 +8209,10 @@
         <v>9</v>
       </c>
       <c r="O43" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P43" t="n">
-        <v>3.6</v>
+        <v>3.08</v>
       </c>
       <c r="Q43" t="n">
         <v>1.8</v>
@@ -8221,43 +8221,43 @@
         <v>1.8</v>
       </c>
       <c r="S43" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="T43" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="U43" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="V43" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="W43" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="X43" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="Y43" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="Z43" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AA43" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB43" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AD43" t="n">
         <v>5.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF43" t="n">
         <v>40</v>
@@ -8266,34 +8266,34 @@
         <v>250</v>
       </c>
       <c r="AH43" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AI43" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ43" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AK43" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AL43" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM43" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN43" t="n">
-        <v>4.05</v>
+        <v>3.9</v>
       </c>
       <c r="AO43" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AP43" t="n">
         <v>19</v>
       </c>
       <c r="AQ43" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR43" t="n">
         <v>75</v>
@@ -8302,25 +8302,25 @@
         <v>250</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="AU43" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV43" t="n">
         <v>60</v>
       </c>
       <c r="AW43" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AX43" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AY43" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ43" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BA43" t="n">
         <v>120</v>
@@ -8363,34 +8363,34 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="H44" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="I44" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="J44" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N44" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="O44" t="n">
         <v>1.11</v>
       </c>
-      <c r="J44" t="n">
-        <v>12</v>
-      </c>
-      <c r="K44" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N44" t="n">
-        <v>11</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.17</v>
-      </c>
       <c r="P44" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="Q44" t="n">
         <v>1.55</v>
@@ -8399,104 +8399,104 @@
         <v>2.15</v>
       </c>
       <c r="S44" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="T44" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="U44" t="n">
-        <v>2.35</v>
+        <v>2.48</v>
       </c>
       <c r="V44" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="W44" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="X44" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="Y44" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="Z44" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AA44" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AB44" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AC44" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AD44" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE44" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF44" t="n">
         <v>120</v>
       </c>
       <c r="AG44" t="inlineStr"/>
       <c r="AH44" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AI44" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="AJ44" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AL44" t="n">
         <v>9.5</v>
       </c>
-      <c r="AK44" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>9.25</v>
-      </c>
       <c r="AM44" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AN44" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO44" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AP44" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AQ44" t="inlineStr"/>
       <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr"/>
       <c r="AT44" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="AU44" t="n">
         <v>10.75</v>
       </c>
       <c r="AV44" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AW44" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AX44" t="n">
-        <v>4.3</v>
+        <v>4.45</v>
       </c>
       <c r="AY44" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AZ44" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="BA44" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BB44" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC44" t="inlineStr"/>
       <c r="BD44" t="inlineStr"/>
@@ -8554,7 +8554,7 @@
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>7.6</v>
+        <v>7.95</v>
       </c>
       <c r="O45" t="n">
         <v>1.26</v>
@@ -8575,10 +8575,10 @@
         <v>2.5</v>
       </c>
       <c r="U45" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="V45" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="W45" t="n">
         <v>12.5</v>
@@ -8709,22 +8709,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="H46" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="I46" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="J46" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="K46" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="L46" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="M46" t="n">
         <v>1.01</v>
@@ -8733,22 +8733,22 @@
         <v>14.9</v>
       </c>
       <c r="O46" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="P46" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="R46" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="S46" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="T46" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="U46" t="n">
         <v>1.62</v>
@@ -8757,46 +8757,46 @@
         <v>2.02</v>
       </c>
       <c r="W46" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X46" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Y46" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z46" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AA46" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB46" t="n">
         <v>55</v>
       </c>
       <c r="AC46" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AD46" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AF46" t="n">
         <v>60</v>
       </c>
       <c r="AG46" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH46" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AI46" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AJ46" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AK46" t="n">
         <v>9.25</v>
@@ -8808,7 +8808,7 @@
         <v>20</v>
       </c>
       <c r="AN46" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AO46" t="n">
         <v>37</v>
@@ -8826,31 +8826,31 @@
         <v>250</v>
       </c>
       <c r="AT46" t="n">
-        <v>4.45</v>
+        <v>4.7</v>
       </c>
       <c r="AU46" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AV46" t="n">
         <v>45</v>
       </c>
       <c r="AW46" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AX46" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AY46" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AZ46" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="BA46" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BB46" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BC46" t="n">
         <v>500</v>
@@ -8894,33 +8894,33 @@
         <v>1.02</v>
       </c>
       <c r="H47" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="I47" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J47" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="K47" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="L47" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="P47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="R47" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="S47" t="n">
         <v>1.05</v>
@@ -8929,25 +8929,25 @@
         <v>7.8</v>
       </c>
       <c r="U47" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="V47" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="W47" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="X47" t="n">
         <v>12</v>
       </c>
       <c r="Y47" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z47" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AA47" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB47" t="n">
         <v>70</v>
@@ -8956,25 +8956,25 @@
         <v>45</v>
       </c>
       <c r="AD47" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AE47" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AF47" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AG47" t="n">
         <v>800</v>
       </c>
       <c r="AH47" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AI47" t="n">
         <v>900</v>
       </c>
       <c r="AJ47" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AK47" t="n">
         <v>51</v>
@@ -8983,43 +8983,43 @@
         <v>1000</v>
       </c>
       <c r="AM47" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="AN47" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AO47" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AP47" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AQ47" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AR47" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS47" t="n">
         <v>150</v>
       </c>
       <c r="AT47" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="AU47" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AV47" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AW47" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AX47" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AY47" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AZ47" t="n">
         <v>51</v>
@@ -9069,148 +9069,148 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="H48" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="I48" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="J48" t="n">
         <v>8.25</v>
       </c>
       <c r="K48" t="n">
-        <v>2.62</v>
+        <v>2.77</v>
       </c>
       <c r="L48" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="M48" t="n">
         <v>1.01</v>
       </c>
       <c r="N48" t="n">
-        <v>12.8</v>
+        <v>14.9</v>
       </c>
       <c r="O48" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="P48" t="n">
-        <v>4.9</v>
+        <v>5.45</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="R48" t="n">
-        <v>2.55</v>
+        <v>2.77</v>
       </c>
       <c r="S48" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="T48" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="U48" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V48" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W48" t="n">
+        <v>45</v>
+      </c>
+      <c r="X48" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y48" t="n">
         <v>37</v>
       </c>
-      <c r="X48" t="n">
-        <v>110</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>35</v>
-      </c>
       <c r="Z48" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AA48" t="n">
         <v>150</v>
       </c>
       <c r="AB48" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AC48" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AD48" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AE48" t="n">
         <v>21</v>
       </c>
       <c r="AF48" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG48" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AH48" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AJ48" t="n">
         <v>9.25</v>
       </c>
-      <c r="AI48" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>9</v>
-      </c>
       <c r="AK48" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AL48" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AM48" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AN48" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AO48" t="n">
         <v>60</v>
       </c>
       <c r="AP48" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AQ48" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AR48" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AS48" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AT48" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="AU48" t="n">
         <v>8.25</v>
       </c>
       <c r="AV48" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AW48" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AX48" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AY48" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AZ48" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="BA48" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="BB48" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BC48" t="n">
         <v>51</v>
@@ -9433,22 +9433,22 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H50" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="I50" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="J50" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="K50" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="L50" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="M50" t="n">
         <v>1.03</v>
@@ -9463,7 +9463,7 @@
         <v>3.55</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R50" t="n">
         <v>2.2</v>
@@ -9478,19 +9478,19 @@
         <v>1.6</v>
       </c>
       <c r="V50" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="W50" t="n">
+        <v>9</v>
+      </c>
+      <c r="X50" t="n">
         <v>8.75</v>
-      </c>
-      <c r="X50" t="n">
-        <v>8.5</v>
       </c>
       <c r="Y50" t="n">
         <v>8</v>
       </c>
       <c r="Z50" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AA50" t="n">
         <v>11.25</v>
@@ -9499,7 +9499,7 @@
         <v>20</v>
       </c>
       <c r="AC50" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD50" t="n">
         <v>8.25</v>
@@ -9511,19 +9511,19 @@
         <v>50</v>
       </c>
       <c r="AG50" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AH50" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI50" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AJ50" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AK50" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AL50" t="n">
         <v>45</v>
@@ -9532,40 +9532,40 @@
         <v>40</v>
       </c>
       <c r="AN50" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AO50" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AP50" t="n">
         <v>13.5</v>
       </c>
       <c r="AQ50" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AR50" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AS50" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AT50" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AU50" t="n">
         <v>6.9</v>
       </c>
       <c r="AV50" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW50" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AX50" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY50" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ50" t="n">
         <v>150</v>
@@ -9797,46 +9797,46 @@
         </is>
       </c>
       <c r="G52" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L52" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N52" t="n">
+        <v>11</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q52" t="n">
         <v>2</v>
       </c>
-      <c r="H52" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L52" t="n">
-        <v>4</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N52" t="n">
-        <v>12</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P52" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>1.83</v>
-      </c>
       <c r="R52" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="S52" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T52" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U52" t="n">
         <v>1.73</v>
@@ -9848,91 +9848,91 @@
         <v>8</v>
       </c>
       <c r="X52" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC52" t="n">
         <v>10</v>
       </c>
-      <c r="Y52" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>12</v>
-      </c>
       <c r="AD52" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE52" t="n">
         <v>15</v>
       </c>
       <c r="AF52" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG52" t="n">
         <v>201</v>
       </c>
       <c r="AH52" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ52" t="n">
         <v>11</v>
       </c>
-      <c r="AI52" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>12</v>
-      </c>
       <c r="AK52" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL52" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM52" t="n">
         <v>34</v>
       </c>
       <c r="AN52" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO52" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP52" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ52" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR52" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS52" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT52" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU52" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV52" t="n">
         <v>51</v>
       </c>
       <c r="AW52" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX52" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY52" t="n">
         <v>26</v>
       </c>
       <c r="AZ52" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA52" t="n">
         <v>81</v>
@@ -9975,22 +9975,22 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H53" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I53" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J53" t="n">
         <v>2.3</v>
       </c>
       <c r="K53" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L53" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M53" t="n">
         <v>1.05</v>
@@ -10011,22 +10011,22 @@
         <v>1.85</v>
       </c>
       <c r="S53" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T53" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U53" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V53" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W53" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X53" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y53" t="n">
         <v>8.5</v>
@@ -10035,10 +10035,10 @@
         <v>13</v>
       </c>
       <c r="AA53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB53" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC53" t="n">
         <v>11</v>
@@ -10053,7 +10053,7 @@
         <v>51</v>
       </c>
       <c r="AG53" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH53" t="n">
         <v>12</v>
@@ -10068,19 +10068,19 @@
         <v>51</v>
       </c>
       <c r="AL53" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM53" t="n">
         <v>41</v>
       </c>
       <c r="AN53" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO53" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ53" t="n">
         <v>29</v>
@@ -10092,10 +10092,10 @@
         <v>151</v>
       </c>
       <c r="AT53" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU53" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV53" t="n">
         <v>51</v>
@@ -10110,13 +10110,13 @@
         <v>34</v>
       </c>
       <c r="AZ53" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA53" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB53" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC53" t="inlineStr"/>
       <c r="BD53" t="inlineStr"/>
@@ -10505,145 +10505,145 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="H56" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="I56" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J56" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="K56" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="L56" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="M56" t="n">
         <v>1.04</v>
       </c>
       <c r="N56" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="O56" t="n">
-        <v>1.36</v>
+        <v>1.52</v>
       </c>
       <c r="P56" t="n">
-        <v>2.61</v>
+        <v>2.2</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="R56" t="n">
         <v>1.5</v>
       </c>
       <c r="S56" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="T56" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U56" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="V56" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="W56" t="n">
-        <v>5.2</v>
+        <v>4.75</v>
       </c>
       <c r="X56" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Y56" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="Z56" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA56" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AE56" t="n">
         <v>16</v>
       </c>
-      <c r="AB56" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AF56" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AG56" t="n">
         <v>500</v>
       </c>
       <c r="AH56" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="AI56" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AJ56" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AK56" t="n">
         <v>32</v>
       </c>
       <c r="AL56" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AM56" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AN56" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="AO56" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AQ56" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR56" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV56" t="n">
         <v>110</v>
       </c>
-      <c r="AS56" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT56" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU56" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AV56" t="n">
-        <v>100</v>
-      </c>
       <c r="AW56" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="AX56" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AY56" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AZ56" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BA56" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BB56" t="n">
         <v>500</v>
@@ -10704,7 +10704,7 @@
         <v>1.06</v>
       </c>
       <c r="N57" t="n">
-        <v>5.67</v>
+        <v>5.65</v>
       </c>
       <c r="O57" t="n">
         <v>1.36</v>
@@ -10864,52 +10864,52 @@
         <v>16.5</v>
       </c>
       <c r="H58" t="n">
-        <v>6.05</v>
+        <v>6.15</v>
       </c>
       <c r="I58" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="J58" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="K58" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="L58" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="M58" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N58" t="n">
-        <v>9.85</v>
+        <v>11.5</v>
       </c>
       <c r="O58" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P58" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="R58" t="n">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="S58" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="T58" t="n">
-        <v>3.32</v>
+        <v>3.34</v>
       </c>
       <c r="U58" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="V58" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="W58" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X58" t="n">
         <v>81</v>
@@ -10933,14 +10933,14 @@
         <v>11</v>
       </c>
       <c r="AE58" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF58" t="n">
         <v>81</v>
       </c>
       <c r="AG58" t="inlineStr"/>
       <c r="AH58" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI58" t="n">
         <v>5</v>
@@ -10958,10 +10958,10 @@
         <v>29</v>
       </c>
       <c r="AN58" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO58" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AP58" t="n">
         <v>46</v>
@@ -10976,7 +10976,7 @@
         <v>81</v>
       </c>
       <c r="AT58" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU58" t="n">
         <v>8</v>
@@ -10988,7 +10988,7 @@
         <v>2.7</v>
       </c>
       <c r="AX58" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="AY58" t="n">
         <v>13</v>
@@ -11393,34 +11393,34 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H61" t="n">
         <v>3.4</v>
       </c>
       <c r="I61" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J61" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K61" t="n">
         <v>2.3</v>
       </c>
       <c r="L61" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M61" t="n">
         <v>1.04</v>
       </c>
       <c r="N61" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O61" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P61" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="Q61" t="n">
         <v>1.67</v>
@@ -11429,10 +11429,10 @@
         <v>2.15</v>
       </c>
       <c r="S61" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="T61" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="U61" t="n">
         <v>1.53</v>
@@ -11441,7 +11441,7 @@
         <v>2.32</v>
       </c>
       <c r="W61" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X61" t="n">
         <v>15</v>
@@ -11459,7 +11459,7 @@
         <v>23</v>
       </c>
       <c r="AC61" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD61" t="n">
         <v>7</v>
@@ -11468,7 +11468,7 @@
         <v>12</v>
       </c>
       <c r="AF61" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG61" t="n">
         <v>126</v>
@@ -11483,7 +11483,7 @@
         <v>10</v>
       </c>
       <c r="AK61" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL61" t="n">
         <v>19</v>
@@ -11492,7 +11492,7 @@
         <v>23</v>
       </c>
       <c r="AN61" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO61" t="n">
         <v>13</v>
@@ -11510,10 +11510,10 @@
         <v>126</v>
       </c>
       <c r="AT61" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AU61" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV61" t="n">
         <v>41</v>
@@ -11525,7 +11525,7 @@
         <v>13</v>
       </c>
       <c r="AY61" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ61" t="n">
         <v>41</v>
@@ -11749,22 +11749,22 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.87</v>
+        <v>2.52</v>
       </c>
       <c r="H63" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I63" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="J63" t="n">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="K63" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L63" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="M63" t="n">
         <v>1.03</v>
@@ -11773,10 +11773,10 @@
         <v>11</v>
       </c>
       <c r="O63" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P63" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q63" t="n">
         <v>1.55</v>
@@ -11791,28 +11791,28 @@
         <v>2.45</v>
       </c>
       <c r="U63" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="V63" t="n">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="W63" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="X63" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Y63" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AA63" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB63" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AC63" t="n">
         <v>15.5</v>
@@ -11824,49 +11824,49 @@
         <v>9.25</v>
       </c>
       <c r="AF63" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG63" t="n">
         <v>120</v>
       </c>
       <c r="AH63" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AI63" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AJ63" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AK63" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AL63" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AM63" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AN63" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="AO63" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AP63" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AQ63" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR63" t="n">
         <v>60</v>
-      </c>
-      <c r="AR63" t="n">
-        <v>70</v>
       </c>
       <c r="AS63" t="n">
         <v>150</v>
       </c>
       <c r="AT63" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AU63" t="n">
         <v>6.1</v>
@@ -11875,25 +11875,25 @@
         <v>37</v>
       </c>
       <c r="AW63" t="n">
-        <v>4.45</v>
+        <v>4.7</v>
       </c>
       <c r="AX63" t="n">
-        <v>10.5</v>
+        <v>11.75</v>
       </c>
       <c r="AY63" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AZ63" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BA63" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BB63" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BC63" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BD63" t="inlineStr"/>
     </row>
@@ -11929,94 +11929,94 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H64" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I64" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="J64" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="K64" t="n">
         <v>2.1</v>
       </c>
       <c r="L64" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="M64" t="n">
         <v>1.01</v>
       </c>
       <c r="N64" t="n">
-        <v>9.800000000000001</v>
+        <v>9.75</v>
       </c>
       <c r="O64" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P64" t="n">
-        <v>3.14</v>
+        <v>3.22</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="R64" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="S64" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="T64" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="U64" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="V64" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="W64" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="X64" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="Y64" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="Z64" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AA64" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AB64" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AC64" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD64" t="n">
         <v>6</v>
       </c>
       <c r="AE64" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF64" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG64" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AH64" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AI64" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AJ64" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK64" t="n">
         <v>55</v>
@@ -12025,52 +12025,52 @@
         <v>35</v>
       </c>
       <c r="AM64" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN64" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AO64" t="n">
         <v>8.25</v>
       </c>
       <c r="AP64" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ64" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR64" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS64" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT64" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="AU64" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AV64" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW64" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AX64" t="n">
         <v>26</v>
       </c>
       <c r="AY64" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AZ64" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BA64" t="n">
         <v>200</v>
       </c>
       <c r="BB64" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BC64" t="inlineStr"/>
       <c r="BD64" t="inlineStr"/>
@@ -12125,16 +12125,16 @@
         <v>3.15</v>
       </c>
       <c r="M65" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N65" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O65" t="n">
         <v>1.19</v>
       </c>
       <c r="P65" t="n">
-        <v>3.62</v>
+        <v>3.64</v>
       </c>
       <c r="Q65" t="n">
         <v>1.72</v>
@@ -12285,144 +12285,148 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4</v>
+        <v>2.82</v>
       </c>
       <c r="H66" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="J66" t="n">
         <v>3.35</v>
       </c>
-      <c r="I66" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="J66" t="n">
-        <v>4.35</v>
-      </c>
       <c r="K66" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="L66" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
+        <v>2.85</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N66" t="n">
+        <v>7.8</v>
+      </c>
       <c r="O66" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P66" t="n">
-        <v>3.08</v>
+        <v>2.97</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R66" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S66" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T66" t="n">
-        <v>2.81</v>
+        <v>2.73</v>
       </c>
       <c r="U66" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="V66" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="W66" t="n">
-        <v>9.25</v>
+        <v>7.3</v>
       </c>
       <c r="X66" t="n">
-        <v>18</v>
+        <v>11.75</v>
       </c>
       <c r="Y66" t="n">
-        <v>11.25</v>
+        <v>8.75</v>
       </c>
       <c r="Z66" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF66" t="n">
         <v>50</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>55</v>
       </c>
       <c r="AG66" t="n">
         <v>350</v>
       </c>
       <c r="AH66" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="AI66" t="n">
-        <v>7</v>
+        <v>9.25</v>
       </c>
       <c r="AJ66" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="AK66" t="n">
-        <v>12</v>
+        <v>18.5</v>
       </c>
       <c r="AL66" t="n">
-        <v>11.75</v>
+        <v>15.5</v>
       </c>
       <c r="AM66" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN66" t="n">
-        <v>5.9</v>
+        <v>4.75</v>
       </c>
       <c r="AO66" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AP66" t="n">
         <v>23</v>
       </c>
-      <c r="AP66" t="n">
-        <v>27</v>
-      </c>
       <c r="AQ66" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AR66" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AS66" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.77</v>
+        <v>2.52</v>
       </c>
       <c r="AU66" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AV66" t="n">
         <v>60</v>
       </c>
       <c r="AW66" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="AX66" t="n">
-        <v>8.75</v>
+        <v>11.75</v>
       </c>
       <c r="AY66" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AZ66" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="BA66" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="BB66" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC66" t="inlineStr"/>
       <c r="BD66" t="inlineStr"/>
@@ -12459,7 +12463,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H67" t="n">
         <v>2.92</v>
@@ -12468,19 +12472,19 @@
         <v>3.4</v>
       </c>
       <c r="J67" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="K67" t="n">
         <v>1.85</v>
       </c>
       <c r="L67" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="M67" t="n">
         <v>1.06</v>
       </c>
       <c r="N67" t="n">
-        <v>5.75</v>
+        <v>5.8</v>
       </c>
       <c r="O67" t="n">
         <v>1.47</v>
@@ -12489,10 +12493,10 @@
         <v>2.32</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.42</v>
+        <v>2.39</v>
       </c>
       <c r="R67" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S67" t="n">
         <v>1.53</v>
@@ -12501,16 +12505,16 @@
         <v>2.1</v>
       </c>
       <c r="U67" t="n">
-        <v>2.09</v>
+        <v>2.07</v>
       </c>
       <c r="V67" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W67" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="X67" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="Y67" t="n">
         <v>7.8</v>
@@ -12519,10 +12523,10 @@
         <v>15.5</v>
       </c>
       <c r="AA67" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AB67" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC67" t="n">
         <v>6.4</v>
@@ -12540,19 +12544,19 @@
         <v>101</v>
       </c>
       <c r="AH67" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AI67" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ67" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AK67" t="n">
         <v>37</v>
       </c>
       <c r="AL67" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM67" t="n">
         <v>40</v>
@@ -12561,7 +12565,7 @@
         <v>3.8</v>
       </c>
       <c r="AO67" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AP67" t="n">
         <v>26</v>
@@ -12570,10 +12574,10 @@
         <v>55</v>
       </c>
       <c r="AR67" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AS67" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AT67" t="n">
         <v>2.1</v>
@@ -12582,13 +12586,13 @@
         <v>8.25</v>
       </c>
       <c r="AV67" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AW67" t="n">
         <v>5.1</v>
       </c>
       <c r="AX67" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY67" t="n">
         <v>35</v>
@@ -12991,34 +12995,34 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H70" t="n">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="I70" t="n">
         <v>3.3</v>
       </c>
       <c r="J70" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K70" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="L70" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="M70" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N70" t="n">
-        <v>5.9</v>
+        <v>5.55</v>
       </c>
       <c r="O70" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P70" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="Q70" t="n">
         <v>2.35</v>
@@ -13027,52 +13031,52 @@
         <v>1.47</v>
       </c>
       <c r="S70" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="T70" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="U70" t="n">
-        <v>2.17</v>
+        <v>2.25</v>
       </c>
       <c r="V70" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="W70" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="X70" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y70" t="n">
         <v>8.25</v>
       </c>
-      <c r="Y70" t="n">
-        <v>8</v>
-      </c>
       <c r="Z70" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AA70" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AB70" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AC70" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="AD70" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="AE70" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF70" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG70" t="n">
         <v>101</v>
       </c>
       <c r="AH70" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AI70" t="n">
         <v>12.5</v>
@@ -13081,7 +13085,7 @@
         <v>10.25</v>
       </c>
       <c r="AK70" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AL70" t="n">
         <v>30</v>
@@ -13090,40 +13094,40 @@
         <v>45</v>
       </c>
       <c r="AN70" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AO70" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP70" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AQ70" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AR70" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AS70" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AT70" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU70" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AV70" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AW70" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AX70" t="n">
         <v>21</v>
       </c>
       <c r="AY70" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AZ70" t="n">
         <v>120</v>
@@ -13729,16 +13733,16 @@
         <v>9</v>
       </c>
       <c r="O74" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P74" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R74" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S74" t="n">
         <v>1.5</v>
@@ -13907,16 +13911,16 @@
         <v>11</v>
       </c>
       <c r="O75" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P75" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R75" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S75" t="n">
         <v>1.36</v>
@@ -14067,13 +14071,13 @@
         <v>3.4</v>
       </c>
       <c r="I76" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J76" t="n">
         <v>2.5</v>
       </c>
       <c r="K76" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L76" t="n">
         <v>5</v>
@@ -14082,19 +14086,19 @@
         <v>1.07</v>
       </c>
       <c r="N76" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O76" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P76" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R76" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S76" t="n">
         <v>1.44</v>
@@ -14109,34 +14113,34 @@
         <v>1.73</v>
       </c>
       <c r="W76" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X76" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
       </c>
       <c r="Z76" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA76" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB76" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC76" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD76" t="n">
         <v>6.5</v>
       </c>
       <c r="AE76" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF76" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG76" t="n">
         <v>1250</v>
@@ -14163,7 +14167,7 @@
         <v>3.6</v>
       </c>
       <c r="AO76" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP76" t="n">
         <v>23</v>
@@ -14175,7 +14179,7 @@
         <v>51</v>
       </c>
       <c r="AS76" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT76" t="n">
         <v>2.63</v>
@@ -14239,28 +14243,28 @@
         </is>
       </c>
       <c r="G77" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="H77" t="n">
         <v>2.85</v>
       </c>
-      <c r="H77" t="n">
-        <v>2.75</v>
-      </c>
       <c r="I77" t="n">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="J77" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="K77" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="L77" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="M77" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="N77" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O77" t="n">
         <v>1.62</v>
@@ -14281,37 +14285,37 @@
         <v>2.12</v>
       </c>
       <c r="U77" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="V77" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="W77" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="X77" t="n">
-        <v>12.5</v>
+        <v>10.25</v>
       </c>
       <c r="Y77" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="Z77" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="AA77" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AB77" t="n">
         <v>55</v>
       </c>
       <c r="AC77" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AD77" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AE77" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF77" t="n">
         <v>150</v>
@@ -14320,61 +14324,61 @@
         <v>1000</v>
       </c>
       <c r="AH77" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="AI77" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ77" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AK77" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AL77" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AM77" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN77" t="n">
-        <v>4.45</v>
+        <v>4.1</v>
       </c>
       <c r="AO77" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP77" t="n">
         <v>32</v>
       </c>
       <c r="AQ77" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AR77" t="n">
         <v>175</v>
       </c>
       <c r="AS77" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AT77" t="n">
         <v>2.12</v>
       </c>
       <c r="AU77" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AV77" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AW77" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="AX77" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY77" t="n">
         <v>32</v>
       </c>
       <c r="AZ77" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="BA77" t="n">
         <v>200</v>
@@ -14417,16 +14421,16 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H78" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I78" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J78" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K78" t="n">
         <v>2.05</v>
@@ -14474,7 +14478,7 @@
         <v>9.5</v>
       </c>
       <c r="Z78" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA78" t="n">
         <v>19</v>
@@ -14483,7 +14487,7 @@
         <v>29</v>
       </c>
       <c r="AC78" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD78" t="n">
         <v>6.5</v>
@@ -14495,10 +14499,10 @@
         <v>51</v>
       </c>
       <c r="AG78" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH78" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI78" t="n">
         <v>15</v>
@@ -14513,13 +14517,13 @@
         <v>26</v>
       </c>
       <c r="AM78" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN78" t="n">
         <v>4.33</v>
       </c>
       <c r="AO78" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP78" t="n">
         <v>23</v>
@@ -14537,7 +14541,7 @@
         <v>2.63</v>
       </c>
       <c r="AU78" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV78" t="n">
         <v>51</v>
@@ -14558,7 +14562,7 @@
         <v>81</v>
       </c>
       <c r="BB78" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC78" t="n">
         <v>81</v>
@@ -14599,13 +14603,13 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H79" t="n">
         <v>3.4</v>
       </c>
       <c r="I79" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J79" t="n">
         <v>2.5</v>
@@ -14614,13 +14618,13 @@
         <v>2.1</v>
       </c>
       <c r="L79" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M79" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N79" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O79" t="n">
         <v>1.29</v>
@@ -14641,22 +14645,22 @@
         <v>2.75</v>
       </c>
       <c r="U79" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V79" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W79" t="n">
         <v>7.5</v>
       </c>
       <c r="X79" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y79" t="n">
         <v>9</v>
       </c>
       <c r="Z79" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA79" t="n">
         <v>15</v>
@@ -14680,10 +14684,10 @@
         <v>600</v>
       </c>
       <c r="AH79" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI79" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ79" t="n">
         <v>13</v>
@@ -14692,10 +14696,10 @@
         <v>41</v>
       </c>
       <c r="AL79" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM79" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN79" t="n">
         <v>4</v>
@@ -14725,7 +14729,7 @@
         <v>51</v>
       </c>
       <c r="AW79" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX79" t="n">
         <v>21</v>
@@ -14737,10 +14741,10 @@
         <v>67</v>
       </c>
       <c r="BA79" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB79" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC79" t="n">
         <v>81</v>
@@ -14784,58 +14788,58 @@
         <v>2.3</v>
       </c>
       <c r="H80" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I80" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J80" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K80" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L80" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M80" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N80" t="n">
+        <v>10</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T80" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U80" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V80" t="n">
+        <v>2</v>
+      </c>
+      <c r="W80" t="n">
         <v>8.5</v>
-      </c>
-      <c r="O80" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P80" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R80" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S80" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T80" t="n">
-        <v>3</v>
-      </c>
-      <c r="U80" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V80" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W80" t="n">
-        <v>9</v>
       </c>
       <c r="X80" t="n">
         <v>12</v>
       </c>
       <c r="Y80" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z80" t="n">
         <v>21</v>
@@ -14844,10 +14848,10 @@
         <v>19</v>
       </c>
       <c r="AB80" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC80" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD80" t="n">
         <v>6.5</v>
@@ -14877,7 +14881,7 @@
         <v>23</v>
       </c>
       <c r="AM80" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN80" t="n">
         <v>4.5</v>
@@ -14886,22 +14890,22 @@
         <v>13</v>
       </c>
       <c r="AP80" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ80" t="n">
         <v>41</v>
       </c>
       <c r="AR80" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS80" t="n">
         <v>151</v>
       </c>
       <c r="AT80" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU80" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV80" t="n">
         <v>51</v>
@@ -14910,10 +14914,10 @@
         <v>5</v>
       </c>
       <c r="AX80" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY80" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ80" t="n">
         <v>51</v>
@@ -14963,28 +14967,28 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H81" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I81" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J81" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K81" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L81" t="n">
         <v>3.25</v>
       </c>
       <c r="M81" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N81" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O81" t="n">
         <v>1.4</v>
@@ -14993,22 +14997,22 @@
         <v>2.75</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R81" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S81" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T81" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U81" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V81" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W81" t="n">
         <v>8</v>
@@ -15017,43 +15021,43 @@
         <v>13</v>
       </c>
       <c r="Y81" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z81" t="n">
         <v>29</v>
       </c>
       <c r="AA81" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB81" t="n">
         <v>34</v>
       </c>
       <c r="AC81" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD81" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE81" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF81" t="n">
         <v>51</v>
       </c>
       <c r="AG81" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH81" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI81" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ81" t="n">
         <v>10</v>
       </c>
       <c r="AK81" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL81" t="n">
         <v>21</v>
@@ -15068,7 +15072,7 @@
         <v>17</v>
       </c>
       <c r="AP81" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ81" t="n">
         <v>51</v>
@@ -15077,16 +15081,16 @@
         <v>81</v>
       </c>
       <c r="AS81" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU81" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV81" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW81" t="n">
         <v>4.5</v>
@@ -15680,7 +15684,7 @@
         <v>3.1</v>
       </c>
       <c r="J85" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="K85" t="n">
         <v>1.87</v>
@@ -15689,10 +15693,10 @@
         <v>3.85</v>
       </c>
       <c r="M85" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N85" t="n">
-        <v>6.2</v>
+        <v>6.35</v>
       </c>
       <c r="O85" t="n">
         <v>1.5</v>
@@ -15701,10 +15705,10 @@
         <v>2.27</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.45</v>
+        <v>2.39</v>
       </c>
       <c r="R85" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S85" t="n">
         <v>1.53</v>
@@ -15713,10 +15717,10 @@
         <v>2.1</v>
       </c>
       <c r="U85" t="n">
-        <v>2.11</v>
+        <v>2.07</v>
       </c>
       <c r="V85" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="W85" t="n">
         <v>5</v>
@@ -15752,7 +15756,7 @@
         <v>101</v>
       </c>
       <c r="AH85" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AI85" t="n">
         <v>11.75</v>
@@ -15761,7 +15765,7 @@
         <v>10</v>
       </c>
       <c r="AK85" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL85" t="n">
         <v>26</v>
@@ -15803,7 +15807,7 @@
         <v>19</v>
       </c>
       <c r="AY85" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AZ85" t="n">
         <v>110</v>
@@ -15880,13 +15884,13 @@
         <v>1.44</v>
       </c>
       <c r="R86" t="n">
-        <v>2.35</v>
+        <v>2.36</v>
       </c>
       <c r="S86" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="T86" t="n">
-        <v>3.42</v>
+        <v>3.48</v>
       </c>
       <c r="U86" t="n">
         <v>2.04</v>
@@ -16023,46 +16027,46 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="H87" t="n">
         <v>3.35</v>
       </c>
       <c r="I87" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="J87" t="n">
         <v>3.15</v>
       </c>
       <c r="K87" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L87" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="M87" t="n">
         <v>1.05</v>
       </c>
       <c r="N87" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O87" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P87" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R87" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S87" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="T87" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="U87" t="n">
         <v>1.57</v>
@@ -16071,28 +16075,28 @@
         <v>2.25</v>
       </c>
       <c r="W87" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="X87" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y87" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z87" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA87" t="n">
         <v>20</v>
       </c>
       <c r="AB87" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC87" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AD87" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AE87" t="n">
         <v>11.75</v>
@@ -16107,13 +16111,13 @@
         <v>9.75</v>
       </c>
       <c r="AI87" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ87" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK87" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL87" t="n">
         <v>19</v>
@@ -16122,25 +16126,25 @@
         <v>24</v>
       </c>
       <c r="AN87" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AO87" t="n">
         <v>13.5</v>
       </c>
       <c r="AP87" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AQ87" t="n">
         <v>55</v>
       </c>
       <c r="AR87" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AS87" t="n">
         <v>200</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="AU87" t="n">
         <v>6.5</v>
@@ -16149,19 +16153,19 @@
         <v>50</v>
       </c>
       <c r="AW87" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="AX87" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AY87" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AZ87" t="n">
         <v>55</v>
       </c>
       <c r="BA87" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB87" t="n">
         <v>200</v>
@@ -16205,40 +16209,40 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H88" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="I88" t="n">
-        <v>5.48</v>
+        <v>5.74</v>
       </c>
       <c r="J88" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="K88" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L88" t="n">
-        <v>5.41</v>
+        <v>5.61</v>
       </c>
       <c r="M88" t="n">
         <v>1.03</v>
       </c>
       <c r="N88" t="n">
-        <v>10</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="O88" t="n">
         <v>1.17</v>
       </c>
       <c r="P88" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R88" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="S88" t="n">
         <v>1.28</v>
@@ -16287,7 +16291,7 @@
         <v>15</v>
       </c>
       <c r="AI88" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ88" t="n">
         <v>15</v>
@@ -16302,7 +16306,7 @@
         <v>41</v>
       </c>
       <c r="AN88" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO88" t="n">
         <v>6.5</v>
@@ -16320,7 +16324,7 @@
         <v>51</v>
       </c>
       <c r="AT88" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AU88" t="n">
         <v>6.5</v>
@@ -16385,19 +16389,19 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="H89" t="n">
-        <v>3.68</v>
+        <v>3.64</v>
       </c>
       <c r="I89" t="n">
-        <v>5.26</v>
+        <v>5.22</v>
       </c>
       <c r="J89" t="n">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="K89" t="n">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="L89" t="n">
         <v>5.96</v>
@@ -16406,7 +16410,7 @@
         <v>1.06</v>
       </c>
       <c r="N89" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O89" t="n">
         <v>1.27</v>
@@ -16415,22 +16419,22 @@
         <v>3.04</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R89" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="S89" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T89" t="n">
-        <v>2.77</v>
+        <v>2.73</v>
       </c>
       <c r="U89" t="n">
         <v>1.95</v>
       </c>
       <c r="V89" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="W89" t="n">
         <v>5.5</v>
@@ -16457,17 +16461,17 @@
         <v>6.5</v>
       </c>
       <c r="AE89" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF89" t="n">
         <v>51</v>
       </c>
       <c r="AG89" t="inlineStr"/>
       <c r="AH89" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI89" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ89" t="n">
         <v>15</v>
@@ -16500,10 +16504,10 @@
         <v>51</v>
       </c>
       <c r="AT89" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="AU89" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV89" t="n">
         <v>51</v>
@@ -16574,19 +16578,19 @@
         <v>2.87</v>
       </c>
       <c r="J90" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K90" t="n">
         <v>1.8</v>
       </c>
       <c r="L90" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="M90" t="n">
         <v>1.04</v>
       </c>
       <c r="N90" t="n">
-        <v>6.4</v>
+        <v>6.45</v>
       </c>
       <c r="O90" t="n">
         <v>1.5</v>
@@ -16607,28 +16611,28 @@
         <v>2.05</v>
       </c>
       <c r="U90" t="n">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="V90" t="n">
         <v>1.69</v>
       </c>
       <c r="W90" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="X90" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Y90" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z90" t="n">
         <v>22</v>
       </c>
       <c r="AA90" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AB90" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AC90" t="n">
         <v>6.1</v>
@@ -16646,40 +16650,40 @@
         <v>101</v>
       </c>
       <c r="AH90" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AI90" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AJ90" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AK90" t="n">
         <v>28</v>
       </c>
       <c r="AL90" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AM90" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AN90" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="AO90" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AP90" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AQ90" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AR90" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AS90" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AT90" t="n">
         <v>2.05</v>
@@ -16691,19 +16695,19 @@
         <v>100</v>
       </c>
       <c r="AW90" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="AX90" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AY90" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AZ90" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BA90" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BB90" t="n">
         <v>500</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-28.xlsx
@@ -765,22 +765,22 @@
         <v>2.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>
@@ -929,19 +929,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="K3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L3" t="n">
         <v>10</v>
@@ -983,10 +983,10 @@
         <v>6</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA3" t="n">
         <v>11</v>
@@ -998,7 +998,7 @@
         <v>15</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
         <v>29</v>
@@ -1010,19 +1010,19 @@
         <v>501</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
         <v>51</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM3" t="n">
         <v>67</v>
@@ -1043,19 +1043,19 @@
         <v>41</v>
       </c>
       <c r="AS3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT3" t="n">
         <v>3.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX3" t="n">
         <v>51</v>
@@ -1064,7 +1064,7 @@
         <v>51</v>
       </c>
       <c r="AZ3" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BA3" t="n">
         <v>251</v>
@@ -1073,7 +1073,7 @@
         <v>451</v>
       </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H4" t="n">
         <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J4" t="n">
         <v>3.4</v>
@@ -1162,7 +1162,7 @@
         <v>15</v>
       </c>
       <c r="X4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
         <v>12</v>
@@ -1189,7 +1189,7 @@
         <v>29</v>
       </c>
       <c r="AG4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH4" t="n">
         <v>12</v>
@@ -1198,7 +1198,7 @@
         <v>13</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK4" t="n">
         <v>21</v>
@@ -1219,7 +1219,7 @@
         <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H5" t="n">
         <v>3.8</v>
@@ -1302,7 +1302,7 @@
         <v>4.75</v>
       </c>
       <c r="J5" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K5" t="n">
         <v>2.38</v>
@@ -1311,10 +1311,10 @@
         <v>4.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
         <v>1.2</v>
@@ -1371,7 +1371,7 @@
         <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH5" t="n">
         <v>17</v>
@@ -1395,7 +1395,7 @@
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
         <v>17</v>
@@ -1422,7 +1422,7 @@
         <v>6.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY5" t="n">
         <v>26</v>
@@ -1622,7 +1622,7 @@
         <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H7" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J7" t="n">
         <v>1.73</v>
@@ -1672,7 +1672,7 @@
         <v>2.5</v>
       </c>
       <c r="L7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1705,13 +1705,13 @@
         <v>1.62</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X7" t="n">
         <v>6</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
         <v>7.5</v>
@@ -1729,7 +1729,7 @@
         <v>10</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF7" t="n">
         <v>81</v>
@@ -1738,28 +1738,28 @@
         <v>501</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
         <v>51</v>
       </c>
       <c r="AJ7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN7" t="n">
         <v>3.1</v>
       </c>
       <c r="AO7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP7" t="n">
         <v>19</v>
@@ -1777,34 +1777,34 @@
         <v>3.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX7" t="n">
         <v>51</v>
       </c>
       <c r="AY7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ7" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BA7" t="n">
         <v>251</v>
       </c>
       <c r="BB7" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
@@ -1986,7 +1986,7 @@
         <v>351</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9">
@@ -2388,10 +2388,10 @@
         <v>3.4</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J11" t="n">
         <v>4</v>
@@ -2400,31 +2400,31 @@
         <v>2.1</v>
       </c>
       <c r="L11" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="R11" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="S11" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T11" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U11" t="n">
         <v>1.8</v>
@@ -2451,7 +2451,7 @@
         <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD11" t="n">
         <v>6.5</v>
@@ -2481,7 +2481,7 @@
         <v>17</v>
       </c>
       <c r="AM11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN11" t="n">
         <v>5.5</v>
@@ -2502,7 +2502,7 @@
         <v>201</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU11" t="n">
         <v>8</v>
@@ -2517,7 +2517,7 @@
         <v>12</v>
       </c>
       <c r="AY11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ11" t="n">
         <v>41</v>
@@ -2532,7 +2532,7 @@
         <v>126</v>
       </c>
       <c r="BD11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
@@ -2567,16 +2567,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H12" t="n">
         <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J12" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K12" t="n">
         <v>2.25</v>
@@ -2597,10 +2597,10 @@
         <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="R12" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="S12" t="n">
         <v>1.36</v>
@@ -2609,10 +2609,10 @@
         <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V12" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
         <v>8</v>
@@ -2666,7 +2666,7 @@
         <v>41</v>
       </c>
       <c r="AN12" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO12" t="n">
         <v>9.5</v>
@@ -2696,7 +2696,7 @@
         <v>6</v>
       </c>
       <c r="AX12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY12" t="n">
         <v>29</v>
@@ -2931,13 +2931,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H14" t="n">
         <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
         <v>3.75</v>
@@ -2946,7 +2946,7 @@
         <v>2.3</v>
       </c>
       <c r="L14" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2967,7 +2967,7 @@
         <v>2.2</v>
       </c>
       <c r="S14" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T14" t="n">
         <v>3.25</v>
@@ -2982,7 +2982,7 @@
         <v>13</v>
       </c>
       <c r="X14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="n">
         <v>12</v>
@@ -3033,7 +3033,7 @@
         <v>5.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP14" t="n">
         <v>23</v>
@@ -3131,10 +3131,10 @@
         <v>4.33</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
         <v>1.25</v>
@@ -3313,10 +3313,10 @@
         <v>4.33</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O16" t="n">
         <v>1.29</v>
@@ -3325,13 +3325,13 @@
         <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="R16" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S16" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T16" t="n">
         <v>2.75</v>
@@ -3361,7 +3361,7 @@
         <v>26</v>
       </c>
       <c r="AC16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
         <v>6.5</v>
@@ -3659,19 +3659,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H18" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I18" t="n">
         <v>4.5</v>
       </c>
       <c r="J18" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K18" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L18" t="n">
         <v>4.5</v>
@@ -3680,7 +3680,7 @@
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O18" t="n">
         <v>1.17</v>
@@ -3689,22 +3689,22 @@
         <v>5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R18" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S18" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T18" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U18" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V18" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W18" t="n">
         <v>10</v>
@@ -3725,10 +3725,10 @@
         <v>19</v>
       </c>
       <c r="AC18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE18" t="n">
         <v>13</v>
@@ -3740,7 +3740,7 @@
         <v>126</v>
       </c>
       <c r="AH18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
         <v>26</v>
@@ -3752,10 +3752,10 @@
         <v>51</v>
       </c>
       <c r="AL18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN18" t="n">
         <v>4</v>
@@ -3767,16 +3767,16 @@
         <v>15</v>
       </c>
       <c r="AQ18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR18" t="n">
         <v>41</v>
       </c>
       <c r="AS18" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU18" t="n">
         <v>7.5</v>
@@ -3797,13 +3797,13 @@
         <v>67</v>
       </c>
       <c r="BA18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB18" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC18" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BD18" t="n">
         <v>151</v>
@@ -3865,10 +3865,10 @@
         <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q19" t="n">
         <v>2.1</v>
@@ -4023,28 +4023,28 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H20" t="n">
         <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J20" t="n">
         <v>4.75</v>
       </c>
       <c r="K20" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
         <v>2.63</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
         <v>1.4</v>
@@ -4053,10 +4053,10 @@
         <v>2.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R20" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S20" t="n">
         <v>1.5</v>
@@ -4065,13 +4065,13 @@
         <v>2.5</v>
       </c>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V20" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X20" t="n">
         <v>19</v>
@@ -4089,7 +4089,7 @@
         <v>41</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD20" t="n">
         <v>7</v>
@@ -4101,7 +4101,7 @@
         <v>67</v>
       </c>
       <c r="AG20" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AH20" t="n">
         <v>6</v>
@@ -4113,10 +4113,10 @@
         <v>9</v>
       </c>
       <c r="AK20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM20" t="n">
         <v>34</v>
@@ -4235,10 +4235,10 @@
         <v>2.63</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S21" t="n">
         <v>1.53</v>
@@ -4405,10 +4405,10 @@
         <v>3.6</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O22" t="n">
         <v>1.14</v>
@@ -4417,10 +4417,10 @@
         <v>5.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R22" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S22" t="n">
         <v>1.25</v>
@@ -4590,7 +4590,7 @@
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
         <v>1.25</v>
@@ -4775,16 +4775,16 @@
         <v>11</v>
       </c>
       <c r="O24" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P24" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R24" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S24" t="n">
         <v>1.4</v>
@@ -4933,22 +4933,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="H25" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I25" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="J25" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K25" t="n">
         <v>2.6</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="M25" t="n">
         <v>1.02</v>
@@ -4957,19 +4957,19 @@
         <v>19</v>
       </c>
       <c r="O25" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P25" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R25" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S25" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T25" t="n">
         <v>3.75</v>
@@ -4987,25 +4987,25 @@
         <v>34</v>
       </c>
       <c r="Y25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z25" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AA25" t="n">
         <v>41</v>
       </c>
       <c r="AB25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC25" t="n">
         <v>19</v>
       </c>
       <c r="AD25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="n">
         <v>41</v>
@@ -5017,7 +5017,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ25" t="n">
         <v>8.5</v>
@@ -5032,13 +5032,13 @@
         <v>19</v>
       </c>
       <c r="AN25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ25" t="n">
         <v>81</v>
@@ -5062,13 +5062,13 @@
         <v>3.75</v>
       </c>
       <c r="AX25" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY25" t="n">
         <v>15</v>
       </c>
       <c r="AZ25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA25" t="n">
         <v>34</v>
@@ -5145,13 +5145,13 @@
         <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R26" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S26" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T26" t="n">
         <v>3</v>
@@ -5327,13 +5327,13 @@
         <v>3.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R27" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S27" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T27" t="n">
         <v>2.75</v>
@@ -5479,7 +5479,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H28" t="n">
         <v>5.75</v>
@@ -5497,16 +5497,16 @@
         <v>8.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O28" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P28" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q28" t="n">
         <v>1.53</v>
@@ -5515,22 +5515,22 @@
         <v>2.4</v>
       </c>
       <c r="S28" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T28" t="n">
         <v>3.75</v>
       </c>
       <c r="U28" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W28" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -5542,7 +5542,7 @@
         <v>11</v>
       </c>
       <c r="AB28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC28" t="n">
         <v>17</v>
@@ -5551,16 +5551,16 @@
         <v>11</v>
       </c>
       <c r="AE28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF28" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG28" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI28" t="n">
         <v>51</v>
@@ -5593,7 +5593,7 @@
         <v>34</v>
       </c>
       <c r="AS28" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT28" t="n">
         <v>3.75</v>
@@ -5617,7 +5617,7 @@
         <v>201</v>
       </c>
       <c r="BA28" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB28" t="n">
         <v>301</v>
@@ -5685,19 +5685,19 @@
         <v>21</v>
       </c>
       <c r="O29" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P29" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R29" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S29" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="T29" t="n">
         <v>4</v>
@@ -5846,7 +5846,7 @@
         <v>4.75</v>
       </c>
       <c r="H30" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I30" t="n">
         <v>1.73</v>
@@ -5906,10 +5906,10 @@
         <v>34</v>
       </c>
       <c r="AB30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD30" t="n">
         <v>7</v>
@@ -5921,10 +5921,10 @@
         <v>41</v>
       </c>
       <c r="AG30" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH30" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI30" t="n">
         <v>9</v>
@@ -5933,13 +5933,13 @@
         <v>8.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL30" t="n">
         <v>13</v>
       </c>
       <c r="AM30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN30" t="n">
         <v>6.5</v>
@@ -5957,13 +5957,13 @@
         <v>81</v>
       </c>
       <c r="AS30" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT30" t="n">
         <v>3.25</v>
       </c>
       <c r="AU30" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV30" t="n">
         <v>51</v>
@@ -5975,7 +5975,7 @@
         <v>9</v>
       </c>
       <c r="AY30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ30" t="n">
         <v>29</v>
@@ -6046,7 +6046,7 @@
         <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O31" t="n">
         <v>1.22</v>
@@ -6207,13 +6207,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="H32" t="n">
         <v>3.3</v>
       </c>
       <c r="I32" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
         <v>3</v>
@@ -6222,7 +6222,7 @@
         <v>2.25</v>
       </c>
       <c r="L32" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M32" t="n">
         <v>1.04</v>
@@ -6255,7 +6255,7 @@
         <v>2.25</v>
       </c>
       <c r="W32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X32" t="n">
         <v>13</v>
@@ -6267,7 +6267,7 @@
         <v>23</v>
       </c>
       <c r="AA32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB32" t="n">
         <v>23</v>
@@ -6288,10 +6288,10 @@
         <v>126</v>
       </c>
       <c r="AH32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ32" t="n">
         <v>11</v>
@@ -6306,7 +6306,7 @@
         <v>26</v>
       </c>
       <c r="AN32" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO32" t="n">
         <v>13</v>
@@ -6395,7 +6395,7 @@
         <v>4.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="J33" t="n">
         <v>5</v>
@@ -6404,7 +6404,7 @@
         <v>2.5</v>
       </c>
       <c r="L33" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M33" t="n">
         <v>1.02</v>
@@ -6425,22 +6425,22 @@
         <v>2.5</v>
       </c>
       <c r="S33" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T33" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U33" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V33" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y33" t="n">
         <v>17</v>
@@ -6455,7 +6455,7 @@
         <v>34</v>
       </c>
       <c r="AC33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD33" t="n">
         <v>8.5</v>
@@ -6467,25 +6467,25 @@
         <v>41</v>
       </c>
       <c r="AG33" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI33" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>9</v>
       </c>
       <c r="AJ33" t="n">
         <v>8.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN33" t="n">
         <v>7</v>
@@ -6494,7 +6494,7 @@
         <v>26</v>
       </c>
       <c r="AP33" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ33" t="n">
         <v>81</v>
@@ -6506,7 +6506,7 @@
         <v>151</v>
       </c>
       <c r="AT33" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU33" t="n">
         <v>7.5</v>
@@ -6530,10 +6530,10 @@
         <v>41</v>
       </c>
       <c r="BB33" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC33" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD33" t="n">
         <v>151</v>
@@ -6571,22 +6571,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="H34" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="I34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J34" t="n">
         <v>1.62</v>
       </c>
       <c r="K34" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M34" t="n">
         <v>1.04</v>
@@ -6595,34 +6595,34 @@
         <v>13</v>
       </c>
       <c r="O34" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P34" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="R34" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="S34" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3</v>
+      </c>
+      <c r="U34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V34" t="n">
         <v>1.33</v>
       </c>
-      <c r="T34" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.4</v>
-      </c>
       <c r="W34" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="X34" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Y34" t="n">
         <v>11</v>
@@ -6643,10 +6643,10 @@
         <v>13</v>
       </c>
       <c r="AE34" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF34" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AG34" t="n">
         <v>501</v>
@@ -6661,13 +6661,13 @@
         <v>41</v>
       </c>
       <c r="AK34" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AL34" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AM34" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AN34" t="n">
         <v>2.88</v>
@@ -6676,34 +6676,34 @@
         <v>5</v>
       </c>
       <c r="AP34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ34" t="n">
         <v>13</v>
       </c>
       <c r="AR34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS34" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT34" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AV34" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AW34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX34" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AY34" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AZ34" t="n">
         <v>501</v>
@@ -6759,10 +6759,10 @@
         <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K35" t="n">
         <v>2.25</v>
@@ -6822,7 +6822,7 @@
         <v>13</v>
       </c>
       <c r="AD35" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE35" t="n">
         <v>12</v>
@@ -6965,10 +6965,10 @@
         <v>4</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R36" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S36" t="n">
         <v>1.33</v>
@@ -6986,13 +6986,13 @@
         <v>6.5</v>
       </c>
       <c r="X36" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y36" t="n">
         <v>9.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA36" t="n">
         <v>12</v>
@@ -7001,10 +7001,10 @@
         <v>34</v>
       </c>
       <c r="AC36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE36" t="n">
         <v>26</v>
@@ -7016,7 +7016,7 @@
         <v>451</v>
       </c>
       <c r="AH36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI36" t="n">
         <v>51</v>
@@ -7025,10 +7025,10 @@
         <v>34</v>
       </c>
       <c r="AK36" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL36" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM36" t="n">
         <v>81</v>
@@ -7040,7 +7040,7 @@
         <v>5.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ36" t="n">
         <v>15</v>
@@ -7316,7 +7316,7 @@
         <v>1.03</v>
       </c>
       <c r="N38" t="n">
-        <v>6.88</v>
+        <v>7.07</v>
       </c>
       <c r="O38" t="n">
         <v>1.29</v>
@@ -7473,22 +7473,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="I39" t="n">
-        <v>5.2</v>
+        <v>6.1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="K39" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="L39" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="M39" t="n">
         <v>1.02</v>
@@ -7497,16 +7497,16 @@
         <v>10.5</v>
       </c>
       <c r="O39" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P39" t="n">
-        <v>3.72</v>
+        <v>3.88</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R39" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S39" t="n">
         <v>1.4</v>
@@ -7515,103 +7515,103 @@
         <v>2.4</v>
       </c>
       <c r="U39" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="V39" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="W39" t="n">
         <v>6.2</v>
       </c>
       <c r="X39" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="Y39" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Z39" t="n">
-        <v>8.75</v>
+        <v>7.8</v>
       </c>
       <c r="AA39" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC39" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="AE39" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH39" t="n">
         <v>14</v>
       </c>
-      <c r="AF39" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AI39" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AJ39" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AK39" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AL39" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AM39" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN39" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AO39" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="AP39" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AQ39" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AR39" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AS39" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT39" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="AU39" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AV39" t="n">
         <v>75</v>
       </c>
       <c r="AW39" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="AX39" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AY39" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AZ39" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="BA39" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BB39" t="n">
         <v>500</v>
@@ -7672,7 +7672,7 @@
         <v>1.02</v>
       </c>
       <c r="N40" t="n">
-        <v>7.46</v>
+        <v>7.55</v>
       </c>
       <c r="O40" t="n">
         <v>1.27</v>
@@ -7829,34 +7829,34 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.62</v>
+        <v>2.18</v>
       </c>
       <c r="H41" t="n">
         <v>3.5</v>
       </c>
       <c r="I41" t="n">
-        <v>2.25</v>
+        <v>2.72</v>
       </c>
       <c r="J41" t="n">
-        <v>3.15</v>
+        <v>2.75</v>
       </c>
       <c r="K41" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L41" t="n">
-        <v>2.82</v>
+        <v>3.25</v>
       </c>
       <c r="M41" t="n">
         <v>1.03</v>
       </c>
       <c r="N41" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="O41" t="n">
         <v>1.18</v>
       </c>
       <c r="P41" t="n">
-        <v>3.74</v>
+        <v>3.72</v>
       </c>
       <c r="Q41" t="n">
         <v>1.65</v>
@@ -7877,22 +7877,22 @@
         <v>2.34</v>
       </c>
       <c r="W41" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="X41" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y41" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="Z41" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC41" t="n">
         <v>12.5</v>
@@ -7910,67 +7910,67 @@
         <v>200</v>
       </c>
       <c r="AH41" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI41" t="n">
-        <v>10.25</v>
+        <v>12.5</v>
       </c>
       <c r="AJ41" t="n">
-        <v>7.8</v>
+        <v>8.75</v>
       </c>
       <c r="AK41" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AP41" t="n">
         <v>18.5</v>
       </c>
-      <c r="AL41" t="n">
-        <v>14</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>20</v>
-      </c>
       <c r="AQ41" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AR41" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AS41" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="AU41" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV41" t="n">
         <v>55</v>
       </c>
       <c r="AW41" t="n">
-        <v>4.3</v>
+        <v>4.75</v>
       </c>
       <c r="AX41" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="AY41" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AZ41" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="BA41" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="BB41" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC41" t="inlineStr"/>
       <c r="BD41" t="inlineStr"/>
@@ -8185,22 +8185,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="H43" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I43" t="n">
-        <v>3.6</v>
+        <v>4.15</v>
       </c>
       <c r="J43" t="n">
-        <v>2.52</v>
+        <v>2.35</v>
       </c>
       <c r="K43" t="n">
         <v>2.07</v>
       </c>
       <c r="L43" t="n">
-        <v>4.05</v>
+        <v>4.6</v>
       </c>
       <c r="M43" t="n">
         <v>1.04</v>
@@ -8215,49 +8215,49 @@
         <v>3.14</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R43" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S43" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="T43" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="U43" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V43" t="n">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="W43" t="n">
         <v>6.2</v>
       </c>
       <c r="X43" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="Z43" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA43" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AB43" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC43" t="n">
         <v>9.5</v>
       </c>
       <c r="AD43" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AE43" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AF43" t="n">
         <v>45</v>
@@ -8266,67 +8266,67 @@
         <v>300</v>
       </c>
       <c r="AH43" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AI43" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AJ43" t="n">
-        <v>10.25</v>
+        <v>11.5</v>
       </c>
       <c r="AK43" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AL43" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX43" t="n">
         <v>25</v>
       </c>
-      <c r="AM43" t="n">
-        <v>28</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AQ43" t="n">
-        <v>37</v>
-      </c>
-      <c r="AR43" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS43" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT43" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU43" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV43" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW43" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX43" t="n">
-        <v>20</v>
-      </c>
       <c r="AY43" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AZ43" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="BA43" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BB43" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="BC43" t="inlineStr"/>
       <c r="BD43" t="inlineStr"/>
@@ -8709,79 +8709,79 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="H46" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="I46" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="J46" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="K46" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="L46" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="M46" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="O46" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="P46" t="n">
-        <v>2.97</v>
+        <v>2.78</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="R46" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="S46" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T46" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="U46" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="V46" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="W46" t="n">
-        <v>11.75</v>
+        <v>10</v>
       </c>
       <c r="X46" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="Y46" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AA46" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB46" t="n">
         <v>70</v>
       </c>
       <c r="AC46" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="AD46" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="AE46" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF46" t="n">
         <v>110</v>
@@ -8790,65 +8790,65 @@
         <v>101</v>
       </c>
       <c r="AH46" t="n">
-        <v>4.7</v>
+        <v>4.45</v>
       </c>
       <c r="AI46" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AJ46" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN46" t="n">
         <v>7.3</v>
       </c>
-      <c r="AK46" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>7.9</v>
-      </c>
       <c r="AO46" t="n">
+        <v>37</v>
+      </c>
+      <c r="AP46" t="n">
         <v>45</v>
       </c>
-      <c r="AP46" t="n">
-        <v>50</v>
-      </c>
       <c r="AQ46" t="n">
+        <v>300</v>
+      </c>
+      <c r="AR46" t="n">
         <v>350</v>
-      </c>
-      <c r="AR46" t="n">
-        <v>400</v>
       </c>
       <c r="AS46" t="inlineStr"/>
       <c r="AT46" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="AU46" t="n">
         <v>9</v>
       </c>
       <c r="AV46" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AW46" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AX46" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AY46" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ46" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BA46" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="BB46" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC46" t="inlineStr"/>
       <c r="BD46" t="inlineStr"/>
@@ -9245,22 +9245,22 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H49" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="I49" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="J49" t="n">
-        <v>8.25</v>
+        <v>6.7</v>
       </c>
       <c r="K49" t="n">
-        <v>2.85</v>
+        <v>2.72</v>
       </c>
       <c r="L49" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="M49" t="n">
         <v>1.01</v>
@@ -9269,124 +9269,124 @@
         <v>14.9</v>
       </c>
       <c r="O49" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="P49" t="n">
-        <v>5.65</v>
+        <v>6</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="R49" t="n">
-        <v>2.87</v>
+        <v>2.72</v>
       </c>
       <c r="S49" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="T49" t="n">
-        <v>4.4</v>
+        <v>4.17</v>
       </c>
       <c r="U49" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="V49" t="n">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="W49" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="X49" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="Y49" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="Z49" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AA49" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AB49" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AC49" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AD49" t="n">
-        <v>13.5</v>
+        <v>11.25</v>
       </c>
       <c r="AE49" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AF49" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AG49" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AH49" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AI49" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AJ49" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK49" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>8.5</v>
       </c>
       <c r="AL49" t="n">
         <v>9.75</v>
       </c>
       <c r="AM49" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AN49" t="n">
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="AO49" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AP49" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AQ49" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="AR49" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AS49" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AT49" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="AU49" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="AV49" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW49" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AX49" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="AY49" t="n">
         <v>12</v>
       </c>
       <c r="AZ49" t="n">
-        <v>10.75</v>
+        <v>13</v>
       </c>
       <c r="BA49" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB49" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BC49" t="n">
         <v>51</v>
@@ -9427,40 +9427,40 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="H50" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="I50" t="n">
-        <v>2.95</v>
+        <v>2.72</v>
       </c>
       <c r="J50" t="n">
         <v>2.8</v>
       </c>
       <c r="K50" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="L50" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="M50" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N50" t="n">
-        <v>8.949999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="O50" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P50" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R50" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="S50" t="n">
         <v>1.39</v>
@@ -9475,13 +9475,13 @@
         <v>2.07</v>
       </c>
       <c r="W50" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="X50" t="n">
         <v>12</v>
       </c>
       <c r="Y50" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z50" t="n">
         <v>23</v>
@@ -9490,16 +9490,16 @@
         <v>17</v>
       </c>
       <c r="AB50" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC50" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="AD50" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="AE50" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF50" t="n">
         <v>50</v>
@@ -9511,22 +9511,22 @@
         <v>10.25</v>
       </c>
       <c r="AI50" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AJ50" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AK50" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AL50" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AM50" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN50" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="AO50" t="n">
         <v>11.5</v>
@@ -9544,28 +9544,28 @@
         <v>200</v>
       </c>
       <c r="AT50" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="AU50" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AV50" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW50" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="AX50" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AY50" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ50" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BA50" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BB50" t="n">
         <v>250</v>
@@ -9609,28 +9609,28 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="H51" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I51" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J51" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K51" t="n">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="L51" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M51" t="n">
         <v>1.03</v>
       </c>
       <c r="N51" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="O51" t="n">
         <v>1.19</v>
@@ -9639,10 +9639,10 @@
         <v>3.7</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="R51" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="S51" t="n">
         <v>1.4</v>
@@ -9651,16 +9651,16 @@
         <v>2.52</v>
       </c>
       <c r="U51" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="V51" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="W51" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="X51" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="Y51" t="n">
         <v>8.25</v>
@@ -9669,31 +9669,31 @@
         <v>15.5</v>
       </c>
       <c r="AA51" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB51" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC51" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AD51" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AE51" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF51" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG51" t="n">
         <v>250</v>
       </c>
       <c r="AH51" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI51" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ51" t="n">
         <v>13</v>
@@ -9702,58 +9702,58 @@
         <v>65</v>
       </c>
       <c r="AL51" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM51" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN51" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="AO51" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AQ51" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AR51" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AS51" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="AU51" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AV51" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW51" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AX51" t="n">
         <v>20</v>
       </c>
       <c r="AY51" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AZ51" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BA51" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BB51" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC51" t="n">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="BD51" t="n">
         <v>51</v>
@@ -9973,58 +9973,58 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H53" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I53" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J53" t="n">
         <v>3</v>
       </c>
       <c r="K53" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L53" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M53" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N53" t="n">
+        <v>8</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T53" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W53" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X53" t="n">
         <v>10</v>
-      </c>
-      <c r="O53" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P53" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R53" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S53" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T53" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U53" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V53" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W53" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X53" t="n">
-        <v>11</v>
       </c>
       <c r="Y53" t="n">
         <v>9.5</v>
@@ -10033,28 +10033,28 @@
         <v>21</v>
       </c>
       <c r="AA53" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB53" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC53" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AD53" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE53" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF53" t="n">
         <v>51</v>
       </c>
       <c r="AG53" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH53" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI53" t="n">
         <v>15</v>
@@ -10066,19 +10066,19 @@
         <v>34</v>
       </c>
       <c r="AL53" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM53" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN53" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO53" t="n">
         <v>13</v>
       </c>
       <c r="AP53" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ53" t="n">
         <v>41</v>
@@ -10087,34 +10087,34 @@
         <v>67</v>
       </c>
       <c r="AS53" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT53" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU53" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV53" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW53" t="n">
         <v>5</v>
       </c>
       <c r="AX53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY53" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ53" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA53" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB53" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC53" t="inlineStr"/>
       <c r="BD53" t="inlineStr"/>
@@ -10151,22 +10151,22 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H54" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I54" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J54" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K54" t="n">
         <v>2.25</v>
       </c>
-      <c r="K54" t="n">
-        <v>2.2</v>
-      </c>
       <c r="L54" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M54" t="n">
         <v>1.05</v>
@@ -10181,10 +10181,10 @@
         <v>3.5</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R54" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S54" t="n">
         <v>1.4</v>
@@ -10202,22 +10202,22 @@
         <v>6.5</v>
       </c>
       <c r="X54" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y54" t="n">
         <v>8.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA54" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB54" t="n">
         <v>29</v>
       </c>
       <c r="AC54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD54" t="n">
         <v>7.5</v>
@@ -10232,13 +10232,13 @@
         <v>351</v>
       </c>
       <c r="AH54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI54" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK54" t="n">
         <v>51</v>
@@ -10250,16 +10250,16 @@
         <v>41</v>
       </c>
       <c r="AN54" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO54" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP54" t="n">
         <v>21</v>
       </c>
       <c r="AQ54" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR54" t="n">
         <v>51</v>
@@ -10271,28 +10271,28 @@
         <v>2.75</v>
       </c>
       <c r="AU54" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV54" t="n">
         <v>51</v>
       </c>
       <c r="AW54" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX54" t="n">
         <v>29</v>
       </c>
       <c r="AY54" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ54" t="n">
         <v>101</v>
       </c>
       <c r="BA54" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB54" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC54" t="inlineStr"/>
       <c r="BD54" t="inlineStr"/>
@@ -10499,16 +10499,16 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H56" t="n">
         <v>3.4</v>
       </c>
       <c r="I56" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J56" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K56" t="n">
         <v>2.25</v>
@@ -10520,7 +10520,7 @@
         <v>1.04</v>
       </c>
       <c r="N56" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O56" t="n">
         <v>1.22</v>
@@ -10565,7 +10565,7 @@
         <v>34</v>
       </c>
       <c r="AC56" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD56" t="n">
         <v>7</v>
@@ -10702,7 +10702,7 @@
         <v>1.06</v>
       </c>
       <c r="N57" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="O57" t="n">
         <v>1.5</v>
@@ -10723,10 +10723,10 @@
         <v>2.12</v>
       </c>
       <c r="U57" t="n">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="V57" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W57" t="n">
         <v>4.9</v>
@@ -11037,61 +11037,61 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>16</v>
+        <v>11.7</v>
       </c>
       <c r="H59" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="I59" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="J59" t="n">
-        <v>10.6</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="K59" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="L59" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="M59" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N59" t="n">
-        <v>14.1</v>
+        <v>13.3</v>
       </c>
       <c r="O59" t="n">
         <v>1.12</v>
       </c>
       <c r="P59" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R59" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="S59" t="n">
         <v>1.26</v>
       </c>
       <c r="T59" t="n">
-        <v>3.48</v>
+        <v>3.5</v>
       </c>
       <c r="U59" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="V59" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="W59" t="n">
+        <v>26</v>
+      </c>
+      <c r="X59" t="n">
+        <v>67</v>
+      </c>
+      <c r="Y59" t="n">
         <v>29</v>
-      </c>
-      <c r="X59" t="n">
-        <v>81</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>34</v>
       </c>
       <c r="Z59" t="n">
         <v>81</v>
@@ -11103,44 +11103,44 @@
         <v>81</v>
       </c>
       <c r="AC59" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD59" t="n">
         <v>11</v>
       </c>
       <c r="AE59" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF59" t="n">
         <v>81</v>
       </c>
       <c r="AG59" t="inlineStr"/>
       <c r="AH59" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AK59" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>6</v>
       </c>
       <c r="AL59" t="n">
         <v>9</v>
       </c>
       <c r="AM59" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AN59" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO59" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP59" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="AQ59" t="n">
         <v>81</v>
@@ -11152,16 +11152,16 @@
         <v>81</v>
       </c>
       <c r="AT59" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU59" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV59" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AW59" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AX59" t="n">
         <v>4.33</v>
@@ -11391,148 +11391,148 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.87</v>
+        <v>2.2</v>
       </c>
       <c r="H61" t="n">
-        <v>2.72</v>
+        <v>2.92</v>
       </c>
       <c r="I61" t="n">
-        <v>2.67</v>
+        <v>3.4</v>
       </c>
       <c r="J61" t="n">
-        <v>3.5</v>
+        <v>2.85</v>
       </c>
       <c r="K61" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L61" t="n">
-        <v>3.35</v>
+        <v>4.05</v>
       </c>
       <c r="M61" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N61" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T61" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U61" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V61" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W61" t="n">
+        <v>6</v>
+      </c>
+      <c r="X61" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AD61" t="n">
         <v>5.8</v>
       </c>
-      <c r="O61" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P61" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R61" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S61" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="T61" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U61" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V61" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W61" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="X61" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>37</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>5.4</v>
-      </c>
       <c r="AE61" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF61" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG61" t="n">
         <v>800</v>
       </c>
       <c r="AH61" t="n">
-        <v>6.6</v>
+        <v>7.9</v>
       </c>
       <c r="AI61" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="AJ61" t="n">
-        <v>10.25</v>
+        <v>12.5</v>
       </c>
       <c r="AK61" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AL61" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="AM61" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AN61" t="n">
-        <v>4.55</v>
+        <v>3.9</v>
       </c>
       <c r="AO61" t="n">
-        <v>16.5</v>
+        <v>11.75</v>
       </c>
       <c r="AP61" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AQ61" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AR61" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AS61" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="AU61" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AV61" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW61" t="n">
-        <v>4.35</v>
+        <v>5.1</v>
       </c>
       <c r="AX61" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AY61" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AZ61" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="BA61" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="BB61" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BC61" t="inlineStr"/>
       <c r="BD61" t="inlineStr"/>
@@ -11605,13 +11605,13 @@
         <v>2.15</v>
       </c>
       <c r="S62" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="T62" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="U62" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="V62" t="n">
         <v>2.32</v>
@@ -12105,40 +12105,40 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.93</v>
+        <v>1.65</v>
       </c>
       <c r="H65" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="I65" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="J65" t="n">
-        <v>2.47</v>
+        <v>2.18</v>
       </c>
       <c r="K65" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="L65" t="n">
-        <v>3.8</v>
+        <v>4.35</v>
       </c>
       <c r="M65" t="n">
         <v>1.02</v>
       </c>
       <c r="N65" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O65" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P65" t="n">
-        <v>3.62</v>
+        <v>4</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="R65" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="S65" t="n">
         <v>1.38</v>
@@ -12147,37 +12147,37 @@
         <v>2.47</v>
       </c>
       <c r="U65" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="V65" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="W65" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X65" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y65" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Z65" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AA65" t="n">
-        <v>12</v>
+        <v>10.25</v>
       </c>
       <c r="AB65" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC65" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AD65" t="n">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="AE65" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AF65" t="n">
         <v>40</v>
@@ -12186,64 +12186,64 @@
         <v>250</v>
       </c>
       <c r="AH65" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AI65" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AJ65" t="n">
-        <v>9.75</v>
+        <v>11.5</v>
       </c>
       <c r="AK65" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="AL65" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AX65" t="n">
         <v>22</v>
       </c>
-      <c r="AM65" t="n">
-        <v>25</v>
-      </c>
-      <c r="AN65" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AO65" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AP65" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ65" t="n">
-        <v>35</v>
-      </c>
-      <c r="AR65" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS65" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT65" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AU65" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV65" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW65" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AX65" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AY65" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AZ65" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="BA65" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BB65" t="n">
         <v>300</v>
@@ -12301,10 +12301,10 @@
         <v>3.2</v>
       </c>
       <c r="M66" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N66" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="O66" t="n">
         <v>1.18</v>
@@ -12461,28 +12461,28 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="H67" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I67" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="J67" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K67" t="n">
         <v>2.1</v>
       </c>
       <c r="L67" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="M67" t="n">
         <v>1.01</v>
       </c>
       <c r="N67" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="O67" t="n">
         <v>1.28</v>
@@ -12509,16 +12509,16 @@
         <v>2</v>
       </c>
       <c r="W67" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X67" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Y67" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z67" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AA67" t="n">
         <v>20</v>
@@ -12542,37 +12542,37 @@
         <v>350</v>
       </c>
       <c r="AH67" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AI67" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AJ67" t="n">
         <v>7.7</v>
       </c>
       <c r="AK67" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL67" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AM67" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN67" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="AO67" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AP67" t="n">
         <v>23</v>
       </c>
       <c r="AQ67" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AR67" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS67" t="n">
         <v>300</v>
@@ -12581,19 +12581,19 @@
         <v>2.52</v>
       </c>
       <c r="AU67" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AV67" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW67" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="AX67" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AY67" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AZ67" t="n">
         <v>45</v>
@@ -12662,7 +12662,7 @@
         <v>1.05</v>
       </c>
       <c r="P68" t="n">
-        <v>5.9</v>
+        <v>5.95</v>
       </c>
       <c r="Q68" t="n">
         <v>1.31</v>
@@ -12812,16 +12812,16 @@
         <v>2.27</v>
       </c>
       <c r="H69" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="I69" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J69" t="n">
         <v>2.95</v>
       </c>
       <c r="K69" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="L69" t="n">
         <v>3.95</v>
@@ -12836,7 +12836,7 @@
         <v>1.5</v>
       </c>
       <c r="P69" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="Q69" t="n">
         <v>2.39</v>
@@ -12860,40 +12860,40 @@
         <v>5.1</v>
       </c>
       <c r="X69" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Y69" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="Z69" t="n">
         <v>18</v>
       </c>
       <c r="AA69" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AB69" t="n">
         <v>32</v>
       </c>
       <c r="AC69" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AD69" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AE69" t="n">
         <v>14</v>
       </c>
       <c r="AF69" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG69" t="n">
         <v>101</v>
       </c>
       <c r="AH69" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AI69" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AJ69" t="n">
         <v>10</v>
@@ -12917,7 +12917,7 @@
         <v>25</v>
       </c>
       <c r="AQ69" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR69" t="n">
         <v>110</v>
@@ -12929,13 +12929,13 @@
         <v>2.12</v>
       </c>
       <c r="AU69" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AV69" t="n">
         <v>90</v>
       </c>
       <c r="AW69" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AX69" t="n">
         <v>20</v>
@@ -12987,55 +12987,55 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="H70" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="I70" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="J70" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="K70" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="L70" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="M70" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N70" t="n">
-        <v>11.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="O70" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="P70" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="R70" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="S70" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="T70" t="n">
-        <v>2.32</v>
+        <v>2.55</v>
       </c>
       <c r="U70" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="V70" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="W70" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="X70" t="n">
         <v>45</v>
@@ -13044,52 +13044,52 @@
         <v>23</v>
       </c>
       <c r="Z70" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AA70" t="n">
         <v>90</v>
       </c>
       <c r="AB70" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AC70" t="n">
-        <v>11.5</v>
+        <v>10.25</v>
       </c>
       <c r="AD70" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AE70" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF70" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AG70" t="n">
         <v>900</v>
       </c>
       <c r="AH70" t="n">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="AI70" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AJ70" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK70" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AL70" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AM70" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AN70" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AO70" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AP70" t="n">
         <v>45</v>
@@ -13104,31 +13104,31 @@
         <v>500</v>
       </c>
       <c r="AT70" t="n">
-        <v>2.9</v>
+        <v>2.57</v>
       </c>
       <c r="AU70" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AV70" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AW70" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AX70" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AY70" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AZ70" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="BA70" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="BB70" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC70" t="inlineStr"/>
       <c r="BD70" t="inlineStr"/>
@@ -13171,7 +13171,7 @@
         <v>2.95</v>
       </c>
       <c r="I71" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J71" t="n">
         <v>3.3</v>
@@ -13180,7 +13180,7 @@
         <v>1.88</v>
       </c>
       <c r="L71" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="M71" t="n">
         <v>1.07</v>
@@ -13213,13 +13213,13 @@
         <v>1.7</v>
       </c>
       <c r="W71" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X71" t="n">
         <v>12</v>
       </c>
       <c r="Y71" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Z71" t="n">
         <v>30</v>
@@ -13237,16 +13237,16 @@
         <v>5.8</v>
       </c>
       <c r="AE71" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF71" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG71" t="n">
         <v>900</v>
       </c>
       <c r="AH71" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AI71" t="n">
         <v>12.5</v>
@@ -13258,7 +13258,7 @@
         <v>32</v>
       </c>
       <c r="AL71" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM71" t="n">
         <v>45</v>
@@ -13267,19 +13267,19 @@
         <v>4.3</v>
       </c>
       <c r="AO71" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AP71" t="n">
         <v>26</v>
       </c>
       <c r="AQ71" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AR71" t="n">
         <v>120</v>
       </c>
       <c r="AS71" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AT71" t="n">
         <v>2.18</v>
@@ -13291,13 +13291,13 @@
         <v>90</v>
       </c>
       <c r="AW71" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="AX71" t="n">
         <v>16</v>
       </c>
       <c r="AY71" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ71" t="n">
         <v>80</v>
@@ -13306,7 +13306,7 @@
         <v>150</v>
       </c>
       <c r="BB71" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BC71" t="inlineStr"/>
       <c r="BD71" t="inlineStr"/>
@@ -13343,34 +13343,34 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="H72" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I72" t="n">
-        <v>4.15</v>
+        <v>3.8</v>
       </c>
       <c r="J72" t="n">
-        <v>2.47</v>
+        <v>2.57</v>
       </c>
       <c r="K72" t="n">
         <v>1.95</v>
       </c>
       <c r="L72" t="n">
-        <v>4.7</v>
+        <v>4.45</v>
       </c>
       <c r="M72" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N72" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="O72" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="P72" t="n">
-        <v>2.07</v>
+        <v>2.32</v>
       </c>
       <c r="Q72" t="n">
         <v>2.32</v>
@@ -13382,37 +13382,37 @@
         <v>1.47</v>
       </c>
       <c r="T72" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U72" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="V72" t="n">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="W72" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="X72" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="Y72" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="Z72" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AA72" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AB72" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC72" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AD72" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AE72" t="n">
         <v>16</v>
@@ -13424,43 +13424,43 @@
         <v>101</v>
       </c>
       <c r="AH72" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AI72" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AJ72" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK72" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AL72" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AM72" t="n">
         <v>50</v>
       </c>
       <c r="AN72" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="AO72" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP72" t="n">
         <v>23</v>
       </c>
       <c r="AQ72" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AR72" t="n">
         <v>90</v>
       </c>
       <c r="AS72" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="AU72" t="n">
         <v>8.25</v>
@@ -13469,16 +13469,16 @@
         <v>100</v>
       </c>
       <c r="AW72" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AX72" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AY72" t="n">
         <v>37</v>
       </c>
       <c r="AZ72" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BA72" t="n">
         <v>250</v>
@@ -13894,13 +13894,13 @@
         <v>2.55</v>
       </c>
       <c r="J75" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K75" t="n">
         <v>1.82</v>
       </c>
       <c r="L75" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M75" t="n">
         <v>1.08</v>
@@ -13933,22 +13933,22 @@
         <v>1.69</v>
       </c>
       <c r="W75" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="X75" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Y75" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z75" t="n">
         <v>26</v>
       </c>
       <c r="AA75" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB75" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC75" t="n">
         <v>6</v>
@@ -13960,14 +13960,14 @@
         <v>14.5</v>
       </c>
       <c r="AF75" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG75" t="inlineStr"/>
       <c r="AH75" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AI75" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AJ75" t="n">
         <v>8.75</v>
@@ -13976,10 +13976,10 @@
         <v>22</v>
       </c>
       <c r="AL75" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM75" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN75" t="n">
         <v>4.45</v>
@@ -13994,7 +13994,7 @@
         <v>90</v>
       </c>
       <c r="AR75" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AS75" t="n">
         <v>500</v>
@@ -14009,21 +14009,23 @@
         <v>110</v>
       </c>
       <c r="AW75" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="AX75" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AY75" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AZ75" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BA75" t="n">
-        <v>175</v>
-      </c>
-      <c r="BB75" t="inlineStr"/>
+        <v>150</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>500</v>
+      </c>
       <c r="BC75" t="inlineStr"/>
       <c r="BD75" t="inlineStr"/>
     </row>
@@ -14237,13 +14239,13 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="H77" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I77" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="J77" t="n">
         <v>4.33</v>
@@ -14255,10 +14257,10 @@
         <v>2.5</v>
       </c>
       <c r="M77" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N77" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O77" t="n">
         <v>1.25</v>
@@ -14279,16 +14281,16 @@
         <v>3</v>
       </c>
       <c r="U77" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V77" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W77" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X77" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y77" t="n">
         <v>13</v>
@@ -14297,16 +14299,16 @@
         <v>41</v>
       </c>
       <c r="AA77" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB77" t="n">
         <v>34</v>
       </c>
       <c r="AC77" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD77" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE77" t="n">
         <v>15</v>
@@ -14318,16 +14320,16 @@
         <v>201</v>
       </c>
       <c r="AH77" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI77" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ77" t="n">
         <v>8.5</v>
       </c>
       <c r="AK77" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL77" t="n">
         <v>15</v>
@@ -14415,7 +14417,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H78" t="n">
         <v>3.4</v>
@@ -14436,19 +14438,19 @@
         <v>1.07</v>
       </c>
       <c r="N78" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O78" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P78" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R78" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S78" t="n">
         <v>1.44</v>
@@ -14463,7 +14465,7 @@
         <v>1.73</v>
       </c>
       <c r="W78" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X78" t="n">
         <v>8</v>
@@ -14475,10 +14477,10 @@
         <v>15</v>
       </c>
       <c r="AA78" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB78" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC78" t="n">
         <v>8.5</v>
@@ -14490,10 +14492,10 @@
         <v>17</v>
       </c>
       <c r="AF78" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG78" t="n">
-        <v>1250</v>
+        <v>900</v>
       </c>
       <c r="AH78" t="n">
         <v>11</v>
@@ -14514,10 +14516,10 @@
         <v>41</v>
       </c>
       <c r="AN78" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO78" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP78" t="n">
         <v>23</v>
@@ -14529,7 +14531,7 @@
         <v>51</v>
       </c>
       <c r="AS78" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT78" t="n">
         <v>2.63</v>
@@ -14593,76 +14595,76 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.47</v>
+        <v>2</v>
       </c>
       <c r="H79" t="n">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="I79" t="n">
-        <v>3.1</v>
+        <v>3.95</v>
       </c>
       <c r="J79" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="K79" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="L79" t="n">
-        <v>3.95</v>
+        <v>4.6</v>
       </c>
       <c r="M79" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="N79" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="O79" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="P79" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
       <c r="R79" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="S79" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="T79" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="U79" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="V79" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="W79" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="X79" t="n">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="Y79" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Z79" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AA79" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AB79" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AC79" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="AD79" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AE79" t="n">
         <v>22</v>
@@ -14674,64 +14676,64 @@
         <v>1000</v>
       </c>
       <c r="AH79" t="n">
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AI79" t="n">
-        <v>13.5</v>
+        <v>18.5</v>
       </c>
       <c r="AJ79" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AK79" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AL79" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AM79" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AN79" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="AO79" t="n">
-        <v>14.5</v>
+        <v>10.75</v>
       </c>
       <c r="AP79" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AQ79" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="AR79" t="n">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="AS79" t="n">
         <v>500</v>
       </c>
       <c r="AT79" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AU79" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AV79" t="n">
         <v>120</v>
       </c>
       <c r="AW79" t="n">
-        <v>4.65</v>
+        <v>5.5</v>
       </c>
       <c r="AX79" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="AY79" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AZ79" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BA79" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BB79" t="n">
         <v>450</v>
@@ -14774,7 +14776,7 @@
         <v>2.2</v>
       </c>
       <c r="H80" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I80" t="n">
         <v>3</v>
@@ -14783,46 +14785,46 @@
         <v>3</v>
       </c>
       <c r="K80" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L80" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M80" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N80" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O80" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P80" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="R80" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S80" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T80" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U80" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V80" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W80" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X80" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y80" t="n">
         <v>10</v>
@@ -14837,22 +14839,22 @@
         <v>34</v>
       </c>
       <c r="AC80" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD80" t="n">
         <v>6.5</v>
       </c>
       <c r="AE80" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF80" t="n">
         <v>51</v>
       </c>
       <c r="AG80" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AH80" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI80" t="n">
         <v>15</v>
@@ -14864,7 +14866,7 @@
         <v>34</v>
       </c>
       <c r="AL80" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM80" t="n">
         <v>41</v>
@@ -14876,7 +14878,7 @@
         <v>13</v>
       </c>
       <c r="AP80" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ80" t="n">
         <v>41</v>
@@ -14888,19 +14890,19 @@
         <v>151</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU80" t="n">
         <v>8.5</v>
       </c>
       <c r="AV80" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW80" t="n">
         <v>5</v>
       </c>
       <c r="AX80" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY80" t="n">
         <v>29</v>
@@ -14912,7 +14914,7 @@
         <v>81</v>
       </c>
       <c r="BB80" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC80" t="n">
         <v>81</v>
@@ -14971,10 +14973,10 @@
         <v>4.33</v>
       </c>
       <c r="M81" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N81" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="O81" t="n">
         <v>1.3</v>
@@ -14983,10 +14985,10 @@
         <v>3.4</v>
       </c>
       <c r="Q81" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R81" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S81" t="n">
         <v>1.4</v>
@@ -15388,13 +15390,13 @@
         <v>9.75</v>
       </c>
       <c r="AF83" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG83" t="n">
         <v>150</v>
       </c>
       <c r="AH83" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AI83" t="n">
         <v>20</v>
@@ -15406,10 +15408,10 @@
         <v>45</v>
       </c>
       <c r="AL83" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM83" t="n">
         <v>22</v>
-      </c>
-      <c r="AM83" t="n">
-        <v>21</v>
       </c>
       <c r="AN83" t="n">
         <v>4</v>
@@ -15433,7 +15435,7 @@
         <v>3.2</v>
       </c>
       <c r="AU83" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AV83" t="n">
         <v>45</v>
@@ -15451,7 +15453,7 @@
         <v>90</v>
       </c>
       <c r="BA83" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB83" t="n">
         <v>200</v>
@@ -15669,22 +15671,22 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H85" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I85" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J85" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K85" t="n">
         <v>2.15</v>
       </c>
       <c r="L85" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="M85" t="n">
         <v>1.04</v>
@@ -15714,43 +15716,43 @@
         <v>1.62</v>
       </c>
       <c r="V85" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="W85" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="X85" t="n">
         <v>21</v>
       </c>
       <c r="Y85" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="Z85" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA85" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB85" t="n">
         <v>32</v>
-      </c>
-      <c r="AB85" t="n">
-        <v>35</v>
       </c>
       <c r="AC85" t="n">
         <v>11.25</v>
       </c>
       <c r="AD85" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AE85" t="n">
         <v>13</v>
       </c>
       <c r="AF85" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG85" t="n">
         <v>350</v>
       </c>
       <c r="AH85" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AI85" t="n">
         <v>10</v>
@@ -15759,10 +15761,10 @@
         <v>8.25</v>
       </c>
       <c r="AK85" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL85" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AM85" t="n">
         <v>23</v>
@@ -15771,46 +15773,46 @@
         <v>5.5</v>
       </c>
       <c r="AO85" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AP85" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AQ85" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AR85" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AS85" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="AU85" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AV85" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW85" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="AX85" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AY85" t="n">
         <v>16.5</v>
       </c>
       <c r="AZ85" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BA85" t="n">
         <v>60</v>
       </c>
       <c r="BB85" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC85" t="inlineStr"/>
       <c r="BD85" t="inlineStr"/>
@@ -15868,7 +15870,7 @@
         <v>1.07</v>
       </c>
       <c r="N86" t="n">
-        <v>5.6</v>
+        <v>5.55</v>
       </c>
       <c r="O86" t="n">
         <v>1.47</v>
@@ -15889,10 +15891,10 @@
         <v>2.2</v>
       </c>
       <c r="U86" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="V86" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="W86" t="n">
         <v>4.2</v>
@@ -16032,7 +16034,7 @@
         <v>3</v>
       </c>
       <c r="J87" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K87" t="n">
         <v>1.72</v>
@@ -16053,28 +16055,28 @@
         <v>2.2</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.51</v>
+        <v>2.48</v>
       </c>
       <c r="R87" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S87" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T87" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="U87" t="n">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="V87" t="n">
         <v>1.69</v>
       </c>
       <c r="W87" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="X87" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Y87" t="n">
         <v>8.5</v>
@@ -16083,10 +16085,10 @@
         <v>25</v>
       </c>
       <c r="AA87" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB87" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC87" t="n">
         <v>5.5</v>
@@ -16095,7 +16097,7 @@
         <v>4.5</v>
       </c>
       <c r="AE87" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF87" t="n">
         <v>70</v>
@@ -16104,13 +16106,13 @@
         <v>101</v>
       </c>
       <c r="AH87" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AI87" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AJ87" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AK87" t="n">
         <v>32</v>
@@ -16128,19 +16130,19 @@
         <v>16.5</v>
       </c>
       <c r="AP87" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ87" t="n">
         <v>90</v>
       </c>
       <c r="AR87" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AS87" t="n">
         <v>500</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AU87" t="n">
         <v>7.6</v>
@@ -16155,7 +16157,7 @@
         <v>19</v>
       </c>
       <c r="AY87" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AZ87" t="n">
         <v>110</v>
@@ -16163,7 +16165,9 @@
       <c r="BA87" t="n">
         <v>175</v>
       </c>
-      <c r="BB87" t="inlineStr"/>
+      <c r="BB87" t="n">
+        <v>500</v>
+      </c>
       <c r="BC87" t="inlineStr"/>
       <c r="BD87" t="inlineStr"/>
     </row>
@@ -16208,13 +16212,13 @@
         <v>3.1</v>
       </c>
       <c r="J88" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="K88" t="n">
         <v>1.87</v>
       </c>
       <c r="L88" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="M88" t="n">
         <v>1.04</v>
@@ -16274,13 +16278,13 @@
         <v>15</v>
       </c>
       <c r="AF88" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG88" t="n">
         <v>101</v>
       </c>
       <c r="AH88" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AI88" t="n">
         <v>11.75</v>
@@ -16292,7 +16296,7 @@
         <v>32</v>
       </c>
       <c r="AL88" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM88" t="n">
         <v>40</v>
@@ -16328,10 +16332,10 @@
         <v>4.8</v>
       </c>
       <c r="AX88" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AY88" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AZ88" t="n">
         <v>110</v>
@@ -16733,22 +16737,22 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="H91" t="n">
-        <v>4.05</v>
+        <v>3.82</v>
       </c>
       <c r="I91" t="n">
-        <v>5.05</v>
+        <v>4.91</v>
       </c>
       <c r="J91" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="K91" t="n">
-        <v>2.34</v>
+        <v>2.27</v>
       </c>
       <c r="L91" t="n">
-        <v>5.25</v>
+        <v>5.04</v>
       </c>
       <c r="M91" t="n">
         <v>1.03</v>
@@ -16757,37 +16761,37 @@
         <v>10</v>
       </c>
       <c r="O91" t="n">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="P91" t="n">
-        <v>4.2</v>
+        <v>3.74</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.57</v>
+        <v>1.76</v>
       </c>
       <c r="R91" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S91" t="n">
         <v>1.29</v>
       </c>
       <c r="T91" t="n">
-        <v>3.28</v>
+        <v>3.29</v>
       </c>
       <c r="U91" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="V91" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W91" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X91" t="n">
         <v>7</v>
       </c>
       <c r="Y91" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z91" t="n">
         <v>11</v>
@@ -16796,13 +16800,13 @@
         <v>10</v>
       </c>
       <c r="AB91" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC91" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD91" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE91" t="n">
         <v>13</v>
@@ -16812,7 +16816,7 @@
       </c>
       <c r="AG91" t="inlineStr"/>
       <c r="AH91" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI91" t="n">
         <v>29</v>
@@ -16827,7 +16831,7 @@
         <v>41</v>
       </c>
       <c r="AM91" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="AN91" t="n">
         <v>3.5</v>
@@ -16836,19 +16840,19 @@
         <v>6.5</v>
       </c>
       <c r="AP91" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ91" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR91" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AS91" t="n">
         <v>51</v>
       </c>
       <c r="AT91" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU91" t="n">
         <v>6.5</v>
@@ -16863,7 +16867,7 @@
         <v>26</v>
       </c>
       <c r="AY91" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ91" t="n">
         <v>51</v>
@@ -16922,13 +16926,13 @@
         <v>5.32</v>
       </c>
       <c r="J92" t="n">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="K92" t="n">
         <v>2.12</v>
       </c>
       <c r="L92" t="n">
-        <v>6.02</v>
+        <v>5.96</v>
       </c>
       <c r="M92" t="n">
         <v>1.07</v>
@@ -17102,19 +17106,19 @@
         <v>2.87</v>
       </c>
       <c r="J93" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K93" t="n">
         <v>1.8</v>
       </c>
       <c r="L93" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="M93" t="n">
         <v>1.04</v>
       </c>
       <c r="N93" t="n">
-        <v>6.45</v>
+        <v>6.35</v>
       </c>
       <c r="O93" t="n">
         <v>1.5</v>
@@ -17123,10 +17127,10 @@
         <v>2.27</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.51</v>
+        <v>2.54</v>
       </c>
       <c r="R93" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S93" t="n">
         <v>1.55</v>
@@ -17135,25 +17139,25 @@
         <v>2.05</v>
       </c>
       <c r="U93" t="n">
-        <v>2.11</v>
+        <v>2.12</v>
       </c>
       <c r="V93" t="n">
         <v>1.69</v>
       </c>
       <c r="W93" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="X93" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Y93" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z93" t="n">
         <v>22</v>
       </c>
       <c r="AA93" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AB93" t="n">
         <v>32</v>
@@ -17168,46 +17172,46 @@
         <v>13.5</v>
       </c>
       <c r="AF93" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG93" t="n">
         <v>101</v>
       </c>
       <c r="AH93" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AI93" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AJ93" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AK93" t="n">
         <v>28</v>
       </c>
       <c r="AL93" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM93" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN93" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="AO93" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AP93" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ93" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AR93" t="n">
         <v>150</v>
       </c>
       <c r="AS93" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AT93" t="n">
         <v>2.05</v>
@@ -17219,19 +17223,19 @@
         <v>100</v>
       </c>
       <c r="AW93" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="AX93" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AY93" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AZ93" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BA93" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BB93" t="n">
         <v>500</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD93"/>
+  <dimension ref="A1:BD95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -944,13 +944,13 @@
         <v>2.63</v>
       </c>
       <c r="L3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O3" t="n">
         <v>1.17</v>
@@ -965,22 +965,22 @@
         <v>2.38</v>
       </c>
       <c r="S3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T3" t="n">
         <v>3.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y3" t="n">
         <v>9.5</v>
@@ -1001,7 +1001,7 @@
         <v>12</v>
       </c>
       <c r="AE3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
         <v>81</v>
@@ -1010,7 +1010,7 @@
         <v>501</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
         <v>51</v>
@@ -1025,16 +1025,16 @@
         <v>67</v>
       </c>
       <c r="AM3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AO3" t="n">
         <v>5.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ3" t="n">
         <v>13</v>
@@ -1043,7 +1043,7 @@
         <v>41</v>
       </c>
       <c r="AS3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT3" t="n">
         <v>3.5</v>
@@ -1061,7 +1061,7 @@
         <v>51</v>
       </c>
       <c r="AY3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
         <v>251</v>
@@ -1070,13 +1070,13 @@
         <v>251</v>
       </c>
       <c r="BB3" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BC3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
@@ -1111,19 +1111,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I4" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J4" t="n">
         <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L4" t="n">
         <v>2.63</v>
@@ -1141,10 +1141,10 @@
         <v>5.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S4" t="n">
         <v>1.25</v>
@@ -1153,13 +1153,13 @@
         <v>3.75</v>
       </c>
       <c r="U4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X4" t="n">
         <v>21</v>
@@ -1174,13 +1174,13 @@
         <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
         <v>11</v>
@@ -1189,16 +1189,16 @@
         <v>29</v>
       </c>
       <c r="AG4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK4" t="n">
         <v>21</v>
@@ -1219,7 +1219,7 @@
         <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
@@ -1237,13 +1237,13 @@
         <v>41</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX4" t="n">
         <v>11</v>
       </c>
       <c r="AY4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ4" t="n">
         <v>34</v>
@@ -1255,7 +1255,7 @@
         <v>81</v>
       </c>
       <c r="BC4" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1499,10 +1499,10 @@
         <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q6" t="n">
         <v>2.3</v>
@@ -1669,7 +1669,7 @@
         <v>1.73</v>
       </c>
       <c r="K7" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L7" t="n">
         <v>9.5</v>
@@ -1678,7 +1678,7 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O7" t="n">
         <v>1.22</v>
@@ -1792,7 +1792,7 @@
         <v>51</v>
       </c>
       <c r="AZ7" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BA7" t="n">
         <v>251</v>
@@ -2385,76 +2385,76 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="J11" t="n">
         <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L11" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W11" t="n">
         <v>9</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W11" t="n">
-        <v>10</v>
-      </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y11" t="n">
         <v>12</v>
       </c>
       <c r="Z11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="n">
         <v>29</v>
       </c>
       <c r="AB11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>15</v>
@@ -2463,28 +2463,28 @@
         <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI11" t="n">
         <v>10</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL11" t="n">
         <v>19</v>
       </c>
-      <c r="AL11" t="n">
-        <v>17</v>
-      </c>
       <c r="AM11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO11" t="n">
         <v>19</v>
@@ -2499,40 +2499,40 @@
         <v>81</v>
       </c>
       <c r="AS11" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ11" t="n">
         <v>41</v>
       </c>
       <c r="BA11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB11" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC11" t="n">
         <v>126</v>
       </c>
       <c r="BD11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
@@ -2597,10 +2597,10 @@
         <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R12" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="S12" t="n">
         <v>1.36</v>
@@ -2797,7 +2797,7 @@
         <v>1.8</v>
       </c>
       <c r="W13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X13" t="n">
         <v>7</v>
@@ -2824,7 +2824,7 @@
         <v>23</v>
       </c>
       <c r="AF13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="n">
         <v>301</v>
@@ -3319,16 +3319,16 @@
         <v>10</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S16" t="n">
         <v>1.4</v>
@@ -3477,13 +3477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>3.3</v>
       </c>
       <c r="I17" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J17" t="n">
         <v>2.75</v>
@@ -3519,13 +3519,13 @@
         <v>2.63</v>
       </c>
       <c r="U17" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V17" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X17" t="n">
         <v>9</v>
@@ -3546,7 +3546,7 @@
         <v>8.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE17" t="n">
         <v>15</v>
@@ -3555,7 +3555,7 @@
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH17" t="n">
         <v>10</v>
@@ -3591,7 +3591,7 @@
         <v>67</v>
       </c>
       <c r="AS17" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT17" t="n">
         <v>2.63</v>
@@ -3609,10 +3609,10 @@
         <v>21</v>
       </c>
       <c r="AY17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ17" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA17" t="n">
         <v>101</v>
@@ -4023,88 +4023,88 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="H20" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="J20" t="n">
         <v>4.75</v>
       </c>
       <c r="K20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U20" t="n">
         <v>2</v>
       </c>
-      <c r="L20" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N20" t="n">
-        <v>8</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.1</v>
-      </c>
       <c r="V20" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W20" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="X20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z20" t="n">
         <v>41</v>
       </c>
       <c r="AA20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB20" t="n">
         <v>41</v>
       </c>
       <c r="AC20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AH20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI20" t="n">
         <v>8</v>
@@ -4113,13 +4113,13 @@
         <v>9</v>
       </c>
       <c r="AK20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL20" t="n">
         <v>17</v>
       </c>
-      <c r="AL20" t="n">
-        <v>19</v>
-      </c>
       <c r="AM20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN20" t="n">
         <v>6</v>
@@ -4140,10 +4140,10 @@
         <v>301</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV20" t="n">
         <v>67</v>
@@ -4152,16 +4152,16 @@
         <v>3.75</v>
       </c>
       <c r="AX20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY20" t="n">
         <v>23</v>
       </c>
       <c r="AZ20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB20" t="n">
         <v>201</v>
@@ -4205,16 +4205,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H21" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I21" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K21" t="n">
         <v>1.95</v>
@@ -4241,10 +4241,10 @@
         <v>1.5</v>
       </c>
       <c r="S21" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T21" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U21" t="n">
         <v>2</v>
@@ -4256,7 +4256,7 @@
         <v>8.5</v>
       </c>
       <c r="X21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y21" t="n">
         <v>13</v>
@@ -4280,16 +4280,16 @@
         <v>17</v>
       </c>
       <c r="AF21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG21" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH21" t="n">
         <v>6.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ21" t="n">
         <v>10</v>
@@ -4301,13 +4301,13 @@
         <v>21</v>
       </c>
       <c r="AM21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN21" t="n">
         <v>5</v>
       </c>
       <c r="AO21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP21" t="n">
         <v>34</v>
@@ -4322,7 +4322,7 @@
         <v>301</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU21" t="n">
         <v>9</v>
@@ -4331,7 +4331,7 @@
         <v>67</v>
       </c>
       <c r="AW21" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX21" t="n">
         <v>13</v>
@@ -4405,10 +4405,10 @@
         <v>3.6</v>
       </c>
       <c r="M22" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O22" t="n">
         <v>1.14</v>
@@ -4417,10 +4417,10 @@
         <v>5.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R22" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="S22" t="n">
         <v>1.25</v>
@@ -4751,16 +4751,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="H24" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I24" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="J24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="K24" t="n">
         <v>2.3</v>
@@ -4769,10 +4769,10 @@
         <v>1.91</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O24" t="n">
         <v>1.3</v>
@@ -4799,13 +4799,13 @@
         <v>1.57</v>
       </c>
       <c r="W24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X24" t="n">
         <v>41</v>
       </c>
       <c r="Y24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z24" t="n">
         <v>101</v>
@@ -4817,10 +4817,10 @@
         <v>67</v>
       </c>
       <c r="AC24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE24" t="n">
         <v>23</v>
@@ -4850,7 +4850,7 @@
         <v>34</v>
       </c>
       <c r="AN24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO24" t="n">
         <v>41</v>
@@ -4874,7 +4874,7 @@
         <v>10</v>
       </c>
       <c r="AV24" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW24" t="n">
         <v>3.2</v>
@@ -4886,13 +4886,13 @@
         <v>21</v>
       </c>
       <c r="AZ24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB24" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC24" t="n">
         <v>126</v>
@@ -4933,22 +4933,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="H25" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I25" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="J25" t="n">
         <v>5.5</v>
       </c>
       <c r="K25" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L25" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="M25" t="n">
         <v>1.02</v>
@@ -4957,16 +4957,16 @@
         <v>19</v>
       </c>
       <c r="O25" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P25" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R25" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S25" t="n">
         <v>1.25</v>
@@ -4981,10 +4981,10 @@
         <v>2.25</v>
       </c>
       <c r="W25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y25" t="n">
         <v>19</v>
@@ -5023,7 +5023,7 @@
         <v>8.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL25" t="n">
         <v>11</v>
@@ -5115,19 +5115,19 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H26" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I26" t="n">
         <v>4.75</v>
       </c>
       <c r="J26" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K26" t="n">
         <v>2.25</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2.3</v>
       </c>
       <c r="L26" t="n">
         <v>5</v>
@@ -5139,16 +5139,16 @@
         <v>13</v>
       </c>
       <c r="O26" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P26" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R26" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S26" t="n">
         <v>1.36</v>
@@ -5181,10 +5181,10 @@
         <v>23</v>
       </c>
       <c r="AC26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD26" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
         <v>15</v>
@@ -5193,7 +5193,7 @@
         <v>51</v>
       </c>
       <c r="AG26" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH26" t="n">
         <v>13</v>
@@ -5208,7 +5208,7 @@
         <v>51</v>
       </c>
       <c r="AL26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM26" t="n">
         <v>41</v>
@@ -5217,16 +5217,16 @@
         <v>3.75</v>
       </c>
       <c r="AO26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP26" t="n">
         <v>19</v>
       </c>
       <c r="AQ26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS26" t="n">
         <v>126</v>
@@ -5244,7 +5244,7 @@
         <v>6.5</v>
       </c>
       <c r="AX26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY26" t="n">
         <v>29</v>
@@ -5479,13 +5479,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H28" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J28" t="n">
         <v>1.67</v>
@@ -5494,13 +5494,13 @@
         <v>2.75</v>
       </c>
       <c r="L28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M28" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O28" t="n">
         <v>1.14</v>
@@ -5509,10 +5509,10 @@
         <v>5.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R28" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S28" t="n">
         <v>1.25</v>
@@ -5527,22 +5527,22 @@
         <v>1.73</v>
       </c>
       <c r="W28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X28" t="n">
         <v>6.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA28" t="n">
         <v>11</v>
       </c>
       <c r="AB28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC28" t="n">
         <v>17</v>
@@ -5587,25 +5587,25 @@
         <v>17</v>
       </c>
       <c r="AQ28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR28" t="n">
         <v>34</v>
       </c>
       <c r="AS28" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT28" t="n">
         <v>3.75</v>
       </c>
       <c r="AU28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV28" t="n">
         <v>51</v>
       </c>
       <c r="AW28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX28" t="n">
         <v>41</v>
@@ -5620,7 +5620,7 @@
         <v>201</v>
       </c>
       <c r="BB28" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC28" t="n">
         <v>126</v>
@@ -5873,10 +5873,10 @@
         <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R30" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S30" t="n">
         <v>1.33</v>
@@ -6392,7 +6392,7 @@
         <v>5.5</v>
       </c>
       <c r="H33" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I33" t="n">
         <v>1.55</v>
@@ -6407,10 +6407,10 @@
         <v>2.05</v>
       </c>
       <c r="M33" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O33" t="n">
         <v>1.14</v>
@@ -6419,10 +6419,10 @@
         <v>5.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R33" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S33" t="n">
         <v>1.25</v>
@@ -6437,7 +6437,7 @@
         <v>2.25</v>
       </c>
       <c r="W33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X33" t="n">
         <v>34</v>
@@ -6455,7 +6455,7 @@
         <v>34</v>
       </c>
       <c r="AC33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD33" t="n">
         <v>8.5</v>
@@ -6473,13 +6473,13 @@
         <v>10</v>
       </c>
       <c r="AI33" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ33" t="n">
         <v>8.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL33" t="n">
         <v>11</v>
@@ -6533,7 +6533,7 @@
         <v>81</v>
       </c>
       <c r="BC33" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BD33" t="n">
         <v>151</v>
@@ -6589,10 +6589,10 @@
         <v>15</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O34" t="n">
         <v>1.25</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H35" t="n">
         <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J35" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K35" t="n">
         <v>2.25</v>
       </c>
       <c r="L35" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M35" t="n">
         <v>1.04</v>
@@ -6834,10 +6834,10 @@
         <v>126</v>
       </c>
       <c r="AH35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ35" t="n">
         <v>11</v>
@@ -6977,22 +6977,22 @@
         <v>3.25</v>
       </c>
       <c r="U36" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V36" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W36" t="n">
         <v>6.5</v>
       </c>
       <c r="X36" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y36" t="n">
         <v>9.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA36" t="n">
         <v>12</v>
@@ -7004,7 +7004,7 @@
         <v>11</v>
       </c>
       <c r="AD36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE36" t="n">
         <v>26</v>
@@ -7025,7 +7025,7 @@
         <v>34</v>
       </c>
       <c r="AK36" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL36" t="n">
         <v>101</v>
@@ -7034,7 +7034,7 @@
         <v>81</v>
       </c>
       <c r="AN36" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AO36" t="n">
         <v>5.5</v>
@@ -7295,34 +7295,34 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="H38" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I38" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="J38" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L38" t="n">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="M38" t="n">
         <v>1.03</v>
       </c>
       <c r="N38" t="n">
-        <v>7.07</v>
+        <v>6.55</v>
       </c>
       <c r="O38" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P38" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="Q38" t="n">
         <v>2</v>
@@ -7331,10 +7331,10 @@
         <v>1.65</v>
       </c>
       <c r="S38" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="T38" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="U38" t="n">
         <v>1.86</v>
@@ -7343,31 +7343,31 @@
         <v>1.9</v>
       </c>
       <c r="W38" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="X38" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC38" t="n">
         <v>8.25</v>
       </c>
-      <c r="X38" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AD38" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AE38" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF38" t="n">
         <v>65</v>
@@ -7376,43 +7376,43 @@
         <v>500</v>
       </c>
       <c r="AH38" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AI38" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AJ38" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AK38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL38" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AM38" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN38" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="AO38" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP38" t="n">
         <v>29</v>
       </c>
       <c r="AQ38" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AR38" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AS38" t="n">
         <v>400</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="AU38" t="n">
         <v>7.6</v>
@@ -7421,22 +7421,22 @@
         <v>75</v>
       </c>
       <c r="AW38" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AX38" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AY38" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AZ38" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BA38" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BB38" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC38" t="inlineStr"/>
       <c r="BD38" t="inlineStr"/>
@@ -7473,40 +7473,40 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="H39" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="I39" t="n">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
       <c r="J39" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="K39" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="L39" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="M39" t="n">
         <v>1.02</v>
       </c>
       <c r="N39" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="O39" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P39" t="n">
-        <v>3.88</v>
+        <v>3.82</v>
       </c>
       <c r="Q39" t="n">
         <v>1.65</v>
       </c>
       <c r="R39" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S39" t="n">
         <v>1.4</v>
@@ -7515,100 +7515,100 @@
         <v>2.4</v>
       </c>
       <c r="U39" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="V39" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="W39" t="n">
         <v>6.2</v>
       </c>
       <c r="X39" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="Y39" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD39" t="n">
         <v>7.1</v>
       </c>
-      <c r="Z39" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AE39" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF39" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG39" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AH39" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI39" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AJ39" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AK39" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AL39" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AM39" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN39" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AO39" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="AP39" t="n">
         <v>16.5</v>
       </c>
       <c r="AQ39" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AR39" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AS39" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT39" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="AU39" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AV39" t="n">
         <v>75</v>
       </c>
       <c r="AW39" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AX39" t="n">
+        <v>32</v>
+      </c>
+      <c r="AY39" t="n">
         <v>35</v>
       </c>
-      <c r="AY39" t="n">
-        <v>40</v>
-      </c>
       <c r="AZ39" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BA39" t="n">
         <v>250</v>
@@ -7847,7 +7847,7 @@
         <v>3.25</v>
       </c>
       <c r="M41" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N41" t="n">
         <v>10.5</v>
@@ -8007,28 +8007,28 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H42" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I42" t="n">
-        <v>1.93</v>
+        <v>2.15</v>
       </c>
       <c r="J42" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="K42" t="n">
         <v>2.32</v>
       </c>
       <c r="L42" t="n">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="M42" t="n">
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="O42" t="n">
         <v>1.12</v>
@@ -8040,7 +8040,7 @@
         <v>1.52</v>
       </c>
       <c r="R42" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="S42" t="n">
         <v>1.26</v>
@@ -8049,28 +8049,28 @@
         <v>3.48</v>
       </c>
       <c r="U42" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="V42" t="n">
-        <v>2.48</v>
+        <v>2.57</v>
       </c>
       <c r="W42" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="X42" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA42" t="n">
         <v>16</v>
       </c>
-      <c r="Y42" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>19</v>
-      </c>
       <c r="AB42" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AC42" t="n">
         <v>15.5</v>
@@ -8079,73 +8079,73 @@
         <v>6.8</v>
       </c>
       <c r="AE42" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AF42" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG42" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS42" t="n">
         <v>175</v>
       </c>
-      <c r="AH42" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>16</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>16</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ42" t="n">
-        <v>70</v>
-      </c>
-      <c r="AR42" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS42" t="n">
-        <v>200</v>
-      </c>
       <c r="AT42" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AU42" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AV42" t="n">
         <v>45</v>
       </c>
       <c r="AW42" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="AX42" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AY42" t="n">
         <v>15.5</v>
       </c>
       <c r="AZ42" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="BA42" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BB42" t="n">
         <v>150</v>
@@ -8227,10 +8227,10 @@
         <v>2.47</v>
       </c>
       <c r="U43" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V43" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="W43" t="n">
         <v>6.2</v>
@@ -9791,13 +9791,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H52" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="I52" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="J52" t="n">
         <v>2.05</v>
@@ -9806,13 +9806,13 @@
         <v>2.37</v>
       </c>
       <c r="L52" t="n">
-        <v>4.85</v>
+        <v>4.75</v>
       </c>
       <c r="M52" t="n">
         <v>1.03</v>
       </c>
       <c r="N52" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="O52" t="n">
         <v>1.19</v>
@@ -9821,10 +9821,10 @@
         <v>3.7</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="R52" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="S52" t="n">
         <v>1.39</v>
@@ -9836,10 +9836,10 @@
         <v>1.62</v>
       </c>
       <c r="V52" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="W52" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="X52" t="n">
         <v>8.5</v>
@@ -9848,19 +9848,19 @@
         <v>8</v>
       </c>
       <c r="Z52" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AA52" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AB52" t="n">
         <v>21</v>
       </c>
       <c r="AC52" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD52" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE52" t="n">
         <v>14.5</v>
@@ -9872,13 +9872,13 @@
         <v>350</v>
       </c>
       <c r="AH52" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI52" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ52" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK52" t="n">
         <v>90</v>
@@ -9890,10 +9890,10 @@
         <v>40</v>
       </c>
       <c r="AN52" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AO52" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AP52" t="n">
         <v>14.5</v>
@@ -9902,28 +9902,28 @@
         <v>21</v>
       </c>
       <c r="AR52" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AS52" t="n">
         <v>150</v>
       </c>
       <c r="AT52" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AU52" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AV52" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW52" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AX52" t="n">
+        <v>25</v>
+      </c>
+      <c r="AY52" t="n">
         <v>26</v>
-      </c>
-      <c r="AY52" t="n">
-        <v>27</v>
       </c>
       <c r="AZ52" t="n">
         <v>150</v>
@@ -9973,13 +9973,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H53" t="n">
         <v>3.2</v>
       </c>
       <c r="I53" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J53" t="n">
         <v>3</v>
@@ -10015,25 +10015,25 @@
         <v>2.5</v>
       </c>
       <c r="U53" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V53" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W53" t="n">
         <v>6.5</v>
       </c>
       <c r="X53" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y53" t="n">
         <v>9.5</v>
       </c>
       <c r="Z53" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA53" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB53" t="n">
         <v>34</v>
@@ -10057,13 +10057,13 @@
         <v>8.5</v>
       </c>
       <c r="AI53" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ53" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK53" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL53" t="n">
         <v>29</v>
@@ -10102,10 +10102,10 @@
         <v>5</v>
       </c>
       <c r="AX53" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY53" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ53" t="n">
         <v>67</v>
@@ -10151,64 +10151,64 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="H54" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I54" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="J54" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K54" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L54" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M54" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N54" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O54" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P54" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="R54" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="S54" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T54" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U54" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V54" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W54" t="n">
         <v>6.5</v>
       </c>
       <c r="X54" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y54" t="n">
         <v>8.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AA54" t="n">
         <v>13</v>
@@ -10217,76 +10217,76 @@
         <v>29</v>
       </c>
       <c r="AC54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD54" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF54" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG54" t="n">
         <v>351</v>
       </c>
       <c r="AH54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI54" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ54" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AK54" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL54" t="n">
         <v>51</v>
       </c>
-      <c r="AL54" t="n">
+      <c r="AM54" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR54" t="n">
         <v>41</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO54" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP54" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ54" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR54" t="n">
-        <v>51</v>
       </c>
       <c r="AS54" t="n">
         <v>151</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU54" t="n">
         <v>9</v>
       </c>
       <c r="AV54" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW54" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX54" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY54" t="n">
         <v>41</v>
       </c>
       <c r="AZ54" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BA54" t="n">
         <v>151</v>
@@ -10699,10 +10699,10 @@
         <v>3.85</v>
       </c>
       <c r="M57" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N57" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="O57" t="n">
         <v>1.5</v>
@@ -10723,10 +10723,10 @@
         <v>2.12</v>
       </c>
       <c r="U57" t="n">
-        <v>2.11</v>
+        <v>2.4</v>
       </c>
       <c r="V57" t="n">
-        <v>1.69</v>
+        <v>1.54</v>
       </c>
       <c r="W57" t="n">
         <v>4.9</v>
@@ -10880,7 +10880,7 @@
         <v>1.06</v>
       </c>
       <c r="N58" t="n">
-        <v>5.65</v>
+        <v>5.67</v>
       </c>
       <c r="O58" t="n">
         <v>1.36</v>
@@ -11037,22 +11037,22 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="H59" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="I59" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="J59" t="n">
-        <v>9.050000000000001</v>
+        <v>9.35</v>
       </c>
       <c r="K59" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="L59" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="M59" t="n">
         <v>1.02</v>
@@ -11061,16 +11061,16 @@
         <v>13.3</v>
       </c>
       <c r="O59" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P59" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R59" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="S59" t="n">
         <v>1.26</v>
@@ -11079,10 +11079,10 @@
         <v>3.5</v>
       </c>
       <c r="U59" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V59" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W59" t="n">
         <v>26</v>
@@ -11100,7 +11100,7 @@
         <v>81</v>
       </c>
       <c r="AB59" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AC59" t="n">
         <v>21</v>
@@ -11109,7 +11109,7 @@
         <v>11</v>
       </c>
       <c r="AE59" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF59" t="n">
         <v>81</v>
@@ -11161,13 +11161,13 @@
         <v>56</v>
       </c>
       <c r="AW59" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="AX59" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AY59" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ59" t="n">
         <v>10</v>
@@ -11217,46 +11217,46 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.18</v>
+        <v>2.45</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>2.52</v>
       </c>
       <c r="I60" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="J60" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="K60" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="L60" t="n">
         <v>4.15</v>
       </c>
       <c r="M60" t="n">
-        <v>1.09</v>
+        <v>1.16</v>
       </c>
       <c r="N60" t="n">
-        <v>5.05</v>
+        <v>4</v>
       </c>
       <c r="O60" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="P60" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.57</v>
+        <v>2.87</v>
       </c>
       <c r="R60" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="S60" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T60" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="U60" t="n">
         <v>2.22</v>
@@ -11265,95 +11265,97 @@
         <v>1.52</v>
       </c>
       <c r="W60" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="X60" t="n">
-        <v>8.75</v>
+        <v>10.25</v>
       </c>
       <c r="Y60" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="Z60" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AA60" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AB60" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AC60" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="AD60" t="n">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
       <c r="AE60" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF60" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AG60" t="n">
         <v>101</v>
       </c>
       <c r="AH60" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AI60" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AJ60" t="n">
         <v>13.5</v>
       </c>
       <c r="AK60" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL60" t="n">
         <v>45</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>40</v>
       </c>
       <c r="AM60" t="n">
         <v>70</v>
       </c>
       <c r="AN60" t="n">
-        <v>3.75</v>
+        <v>4.05</v>
       </c>
       <c r="AO60" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AQ60" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AR60" t="n">
         <v>150</v>
       </c>
-      <c r="AS60" t="inlineStr"/>
+      <c r="AS60" t="n">
+        <v>500</v>
+      </c>
       <c r="AT60" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AU60" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AV60" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AW60" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AX60" t="n">
         <v>21</v>
       </c>
       <c r="AY60" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AZ60" t="n">
         <v>120</v>
       </c>
       <c r="BA60" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BB60" t="inlineStr"/>
       <c r="BC60" t="inlineStr"/>
@@ -11391,79 +11393,79 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="H61" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="I61" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="J61" t="n">
-        <v>2.85</v>
+        <v>2.67</v>
       </c>
       <c r="K61" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="L61" t="n">
-        <v>4.05</v>
+        <v>4.4</v>
       </c>
       <c r="M61" t="n">
         <v>1.05</v>
       </c>
       <c r="N61" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="O61" t="n">
         <v>1.45</v>
       </c>
       <c r="P61" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="R61" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S61" t="n">
         <v>1.5</v>
       </c>
       <c r="T61" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="U61" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V61" t="n">
         <v>1.65</v>
       </c>
       <c r="W61" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="X61" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD61" t="n">
         <v>6</v>
       </c>
-      <c r="X61" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>5.8</v>
-      </c>
       <c r="AE61" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF61" t="n">
         <v>110</v>
@@ -11472,37 +11474,37 @@
         <v>800</v>
       </c>
       <c r="AH61" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AI61" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AJ61" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK61" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AL61" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AM61" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN61" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="AO61" t="n">
-        <v>11.75</v>
+        <v>10.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ61" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR61" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS61" t="n">
         <v>350</v>
@@ -11511,25 +11513,25 @@
         <v>2.22</v>
       </c>
       <c r="AU61" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AV61" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW61" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AX61" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AY61" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AZ61" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BA61" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BB61" t="n">
         <v>500</v>
@@ -11569,13 +11571,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H62" t="n">
         <v>3.4</v>
       </c>
       <c r="I62" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J62" t="n">
         <v>3.1</v>
@@ -11590,13 +11592,13 @@
         <v>1.04</v>
       </c>
       <c r="N62" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O62" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P62" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="Q62" t="n">
         <v>1.67</v>
@@ -11605,16 +11607,16 @@
         <v>2.15</v>
       </c>
       <c r="S62" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="T62" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="U62" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="V62" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="W62" t="n">
         <v>11</v>
@@ -11635,7 +11637,7 @@
         <v>23</v>
       </c>
       <c r="AC62" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD62" t="n">
         <v>7</v>
@@ -11686,10 +11688,10 @@
         <v>126</v>
       </c>
       <c r="AT62" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AU62" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV62" t="n">
         <v>41</v>
@@ -12301,10 +12303,10 @@
         <v>3.2</v>
       </c>
       <c r="M66" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N66" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="O66" t="n">
         <v>1.18</v>
@@ -12461,22 +12463,22 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="H67" t="n">
         <v>3.25</v>
       </c>
       <c r="I67" t="n">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="J67" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="K67" t="n">
         <v>2.1</v>
       </c>
       <c r="L67" t="n">
-        <v>2.77</v>
+        <v>2.62</v>
       </c>
       <c r="M67" t="n">
         <v>1.01</v>
@@ -12503,28 +12505,28 @@
         <v>2.73</v>
       </c>
       <c r="U67" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="V67" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W67" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="X67" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Y67" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z67" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AA67" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AB67" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AC67" t="n">
         <v>9</v>
@@ -12536,43 +12538,43 @@
         <v>12</v>
       </c>
       <c r="AF67" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG67" t="n">
         <v>350</v>
       </c>
       <c r="AH67" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AI67" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AJ67" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AK67" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL67" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM67" t="n">
         <v>23</v>
       </c>
       <c r="AN67" t="n">
-        <v>4.85</v>
+        <v>5.1</v>
       </c>
       <c r="AO67" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ67" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AR67" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AS67" t="n">
         <v>300</v>
@@ -12587,19 +12589,19 @@
         <v>65</v>
       </c>
       <c r="AW67" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="AX67" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AY67" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AZ67" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BA67" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB67" t="n">
         <v>250</v>
@@ -12987,40 +12989,40 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="H70" t="n">
-        <v>4.2</v>
+        <v>4.05</v>
       </c>
       <c r="I70" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="J70" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="K70" t="n">
         <v>2.25</v>
       </c>
       <c r="L70" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="M70" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N70" t="n">
-        <v>9.300000000000001</v>
+        <v>10</v>
       </c>
       <c r="O70" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="P70" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="R70" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="S70" t="n">
         <v>1.39</v>
@@ -13029,106 +13031,106 @@
         <v>2.55</v>
       </c>
       <c r="U70" t="n">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="V70" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="W70" t="n">
         <v>16</v>
       </c>
       <c r="X70" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Y70" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="Z70" t="n">
         <v>150</v>
       </c>
       <c r="AA70" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>65</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF70" t="n">
         <v>90</v>
       </c>
-      <c r="AB70" t="n">
-        <v>90</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>120</v>
-      </c>
       <c r="AG70" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="AH70" t="n">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="AI70" t="n">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="AJ70" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AK70" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL70" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AM70" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AN70" t="n">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="AO70" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AP70" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AQ70" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AR70" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AS70" t="n">
         <v>500</v>
       </c>
       <c r="AT70" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="AU70" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AV70" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AW70" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="AX70" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AY70" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AZ70" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA70" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB70" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC70" t="inlineStr"/>
       <c r="BD70" t="inlineStr"/>
@@ -13165,82 +13167,82 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="H71" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="I71" t="n">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="J71" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K71" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="L71" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="M71" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N71" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="O71" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="P71" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="R71" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="S71" t="n">
         <v>1.52</v>
       </c>
       <c r="T71" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U71" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="V71" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="W71" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="X71" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y71" t="n">
         <v>10.25</v>
       </c>
       <c r="Z71" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA71" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB71" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AC71" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="AD71" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AE71" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF71" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG71" t="n">
         <v>900</v>
@@ -13249,52 +13251,52 @@
         <v>6.9</v>
       </c>
       <c r="AI71" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ71" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK71" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AL71" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AM71" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AN71" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="AO71" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AP71" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ71" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AR71" t="n">
         <v>120</v>
       </c>
       <c r="AS71" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="AU71" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AV71" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW71" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="AX71" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AY71" t="n">
         <v>28</v>
@@ -14417,28 +14419,28 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H78" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I78" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J78" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K78" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L78" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M78" t="n">
         <v>1.07</v>
       </c>
       <c r="N78" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O78" t="n">
         <v>1.36</v>
@@ -14498,7 +14500,7 @@
         <v>900</v>
       </c>
       <c r="AH78" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI78" t="n">
         <v>21</v>
@@ -14507,7 +14509,7 @@
         <v>15</v>
       </c>
       <c r="AK78" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL78" t="n">
         <v>41</v>
@@ -14546,13 +14548,13 @@
         <v>6</v>
       </c>
       <c r="AX78" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY78" t="n">
         <v>34</v>
       </c>
       <c r="AZ78" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA78" t="n">
         <v>126</v>
@@ -14595,145 +14597,145 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H79" t="n">
         <v>3.05</v>
       </c>
       <c r="I79" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J79" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="K79" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L79" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="M79" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N79" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="O79" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P79" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="R79" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="S79" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T79" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="U79" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="V79" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="W79" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="X79" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="Y79" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z79" t="n">
         <v>17</v>
       </c>
       <c r="AA79" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB79" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC79" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="AD79" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AE79" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AF79" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AG79" t="n">
         <v>1000</v>
       </c>
       <c r="AH79" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AI79" t="n">
         <v>18.5</v>
       </c>
       <c r="AJ79" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK79" t="n">
         <v>65</v>
       </c>
       <c r="AL79" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ79" t="n">
         <v>50</v>
       </c>
-      <c r="AM79" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN79" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO79" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AP79" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ79" t="n">
-        <v>45</v>
-      </c>
       <c r="AR79" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AS79" t="n">
         <v>500</v>
       </c>
       <c r="AT79" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU79" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AV79" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AW79" t="n">
         <v>5.5</v>
       </c>
       <c r="AX79" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY79" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AZ79" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BA79" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BB79" t="n">
         <v>450</v>
@@ -14773,22 +14775,22 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H80" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="J80" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K80" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="L80" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M80" t="n">
         <v>1.08</v>
@@ -14797,112 +14799,112 @@
         <v>7</v>
       </c>
       <c r="O80" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P80" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R80" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S80" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T80" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U80" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V80" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W80" t="n">
         <v>7</v>
       </c>
       <c r="X80" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y80" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z80" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA80" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB80" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC80" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD80" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE80" t="n">
         <v>17</v>
       </c>
       <c r="AF80" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG80" t="n">
         <v>900</v>
       </c>
       <c r="AH80" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI80" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ80" t="n">
         <v>12</v>
       </c>
       <c r="AK80" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL80" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM80" t="n">
         <v>41</v>
       </c>
       <c r="AN80" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO80" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP80" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ80" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR80" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS80" t="n">
         <v>151</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU80" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV80" t="n">
         <v>67</v>
       </c>
       <c r="AW80" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX80" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY80" t="n">
         <v>29</v>
@@ -14955,28 +14957,28 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H81" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I81" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J81" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K81" t="n">
         <v>2.1</v>
       </c>
       <c r="L81" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M81" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N81" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O81" t="n">
         <v>1.3</v>
@@ -15021,7 +15023,7 @@
         <v>29</v>
       </c>
       <c r="AC81" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD81" t="n">
         <v>7</v>
@@ -15036,7 +15038,7 @@
         <v>700</v>
       </c>
       <c r="AH81" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI81" t="n">
         <v>21</v>
@@ -15057,7 +15059,7 @@
         <v>3.75</v>
       </c>
       <c r="AO81" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP81" t="n">
         <v>21</v>
@@ -15087,7 +15089,7 @@
         <v>23</v>
       </c>
       <c r="AY81" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ81" t="n">
         <v>81</v>
@@ -15096,7 +15098,7 @@
         <v>101</v>
       </c>
       <c r="BB81" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC81" t="n">
         <v>81</v>
@@ -15671,22 +15673,22 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H85" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I85" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J85" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K85" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L85" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="M85" t="n">
         <v>1.04</v>
@@ -15701,10 +15703,10 @@
         <v>3.3</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R85" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S85" t="n">
         <v>1.33</v>
@@ -15719,40 +15721,40 @@
         <v>2.05</v>
       </c>
       <c r="W85" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="X85" t="n">
         <v>21</v>
       </c>
       <c r="Y85" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Z85" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA85" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB85" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC85" t="n">
         <v>11.25</v>
       </c>
       <c r="AD85" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AE85" t="n">
         <v>13</v>
       </c>
       <c r="AF85" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG85" t="n">
         <v>350</v>
       </c>
       <c r="AH85" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AI85" t="n">
         <v>10</v>
@@ -15761,28 +15763,28 @@
         <v>8.25</v>
       </c>
       <c r="AK85" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL85" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AM85" t="n">
         <v>23</v>
       </c>
       <c r="AN85" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AO85" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AP85" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ85" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AR85" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AS85" t="n">
         <v>250</v>
@@ -15791,25 +15793,25 @@
         <v>2.92</v>
       </c>
       <c r="AU85" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV85" t="n">
         <v>50</v>
       </c>
       <c r="AW85" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AX85" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AY85" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AZ85" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BA85" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB85" t="n">
         <v>175</v>
@@ -16040,43 +16042,43 @@
         <v>1.72</v>
       </c>
       <c r="L87" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M87" t="n">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="N87" t="n">
-        <v>5.75</v>
+        <v>5.21</v>
       </c>
       <c r="O87" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P87" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q87" t="n">
         <v>2.48</v>
       </c>
       <c r="R87" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="S87" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T87" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U87" t="n">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="V87" t="n">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="W87" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="X87" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Y87" t="n">
         <v>8.5</v>
@@ -16088,10 +16090,10 @@
         <v>22</v>
       </c>
       <c r="AB87" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC87" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AD87" t="n">
         <v>4.5</v>
@@ -16100,13 +16102,13 @@
         <v>12.5</v>
       </c>
       <c r="AF87" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG87" t="n">
         <v>101</v>
       </c>
       <c r="AH87" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AI87" t="n">
         <v>11.75</v>
@@ -16118,10 +16120,10 @@
         <v>32</v>
       </c>
       <c r="AL87" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM87" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN87" t="n">
         <v>4.35</v>
@@ -16130,22 +16132,22 @@
         <v>16.5</v>
       </c>
       <c r="AP87" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ87" t="n">
         <v>90</v>
       </c>
       <c r="AR87" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AS87" t="n">
         <v>500</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AU87" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AV87" t="n">
         <v>90</v>
@@ -16379,22 +16381,22 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>9.25</v>
+        <v>7.9</v>
       </c>
       <c r="H89" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="I89" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="J89" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="K89" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="L89" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="M89" t="n">
         <v>1.02</v>
@@ -16403,122 +16405,124 @@
         <v>12.9</v>
       </c>
       <c r="O89" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P89" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="R89" t="n">
-        <v>2.36</v>
+        <v>2.39</v>
       </c>
       <c r="S89" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T89" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="U89" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="V89" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="W89" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X89" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB89" t="n">
         <v>55</v>
       </c>
-      <c r="Y89" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z89" t="n">
-        <v>200</v>
-      </c>
-      <c r="AA89" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB89" t="n">
-        <v>70</v>
-      </c>
       <c r="AC89" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AD89" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AE89" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF89" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AG89" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AH89" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AI89" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AJ89" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="AK89" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="AL89" t="n">
         <v>8.75</v>
       </c>
       <c r="AM89" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AN89" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="AO89" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AP89" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AQ89" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AR89" t="n">
-        <v>400</v>
-      </c>
-      <c r="AS89" t="inlineStr"/>
+        <v>300</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>500</v>
+      </c>
       <c r="AT89" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AU89" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AV89" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AW89" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AX89" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AY89" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AZ89" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA89" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BB89" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC89" t="inlineStr"/>
       <c r="BD89" t="inlineStr"/>
@@ -16737,22 +16741,22 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="H91" t="n">
-        <v>3.82</v>
+        <v>3.85</v>
       </c>
       <c r="I91" t="n">
-        <v>4.91</v>
+        <v>4.6</v>
       </c>
       <c r="J91" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="K91" t="n">
         <v>2.27</v>
       </c>
       <c r="L91" t="n">
-        <v>5.04</v>
+        <v>4.7</v>
       </c>
       <c r="M91" t="n">
         <v>1.03</v>
@@ -16767,10 +16771,10 @@
         <v>3.74</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="R91" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S91" t="n">
         <v>1.29</v>
@@ -16785,98 +16789,100 @@
         <v>1.95</v>
       </c>
       <c r="W91" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X91" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="Y91" t="n">
         <v>7</v>
       </c>
       <c r="Z91" t="n">
-        <v>11</v>
+        <v>9.75</v>
       </c>
       <c r="AA91" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AB91" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC91" t="n">
         <v>12</v>
       </c>
       <c r="AD91" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AE91" t="n">
         <v>13</v>
       </c>
       <c r="AF91" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG91" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>350</v>
+      </c>
       <c r="AH91" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AI91" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AJ91" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK91" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AL91" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="AM91" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AN91" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AO91" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AP91" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AQ91" t="n">
         <v>23</v>
       </c>
       <c r="AR91" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AS91" t="n">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="AT91" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AU91" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV91" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AW91" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AX91" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY91" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ91" t="n">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="BA91" t="n">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="BB91" t="n">
-        <v>51</v>
+        <v>400</v>
       </c>
       <c r="BC91" t="n">
         <v>51</v>
@@ -16917,146 +16923,146 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="H92" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="I92" t="n">
-        <v>5.32</v>
+        <v>4.75</v>
       </c>
       <c r="J92" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="K92" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="L92" t="n">
-        <v>5.96</v>
+        <v>5.1</v>
       </c>
       <c r="M92" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N92" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="O92" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="P92" t="n">
-        <v>3.04</v>
+        <v>2.73</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="R92" t="n">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="S92" t="n">
         <v>1.4</v>
       </c>
       <c r="T92" t="n">
-        <v>2.73</v>
+        <v>2.4</v>
       </c>
       <c r="U92" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V92" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="W92" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="X92" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="Y92" t="n">
         <v>7</v>
       </c>
       <c r="Z92" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AA92" t="n">
         <v>12</v>
       </c>
       <c r="AB92" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC92" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AD92" t="n">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="AE92" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AF92" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="AG92" t="inlineStr"/>
       <c r="AH92" t="n">
-        <v>11</v>
+        <v>9.25</v>
       </c>
       <c r="AI92" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ92" t="n">
         <v>29</v>
       </c>
-      <c r="AJ92" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK92" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL92" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM92" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN92" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AO92" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP92" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ92" t="n">
-        <v>26</v>
-      </c>
       <c r="AR92" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AS92" t="n">
-        <v>51</v>
+        <v>250</v>
       </c>
       <c r="AT92" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="AU92" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AV92" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AW92" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AX92" t="n">
         <v>29</v>
       </c>
       <c r="AY92" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AZ92" t="n">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="BA92" t="n">
-        <v>51</v>
+        <v>250</v>
       </c>
       <c r="BB92" t="n">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="BC92" t="n">
         <v>51</v>
@@ -17068,7 +17074,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Ie7xQptP</t>
+          <t>nkK4Cvb4</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -17078,170 +17084,504 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>ZAMBIA - SUPER LEAGUE</t>
+          <t>WORLD - FRIENDLY INTERNATIONAL WOMEN</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Forest Rangers</t>
+          <t>Guatemala W</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Green Eagles</t>
+          <t>Honduras W</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.52</v>
+        <v>1.39</v>
       </c>
       <c r="H93" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="I93" t="n">
-        <v>2.87</v>
+        <v>7.2</v>
       </c>
       <c r="J93" t="n">
-        <v>3.35</v>
+        <v>1.9</v>
       </c>
       <c r="K93" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L93" t="n">
-        <v>3.6</v>
+        <v>6.7</v>
       </c>
       <c r="M93" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N93" t="n">
-        <v>6.35</v>
+        <v>7.2</v>
       </c>
       <c r="O93" t="n">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="P93" t="n">
-        <v>2.27</v>
+        <v>3.04</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.54</v>
+        <v>1.83</v>
       </c>
       <c r="R93" t="n">
-        <v>1.38</v>
+        <v>1.78</v>
       </c>
       <c r="S93" t="n">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
       <c r="T93" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="U93" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V93" t="n">
-        <v>1.69</v>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
       <c r="W93" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="X93" t="n">
-        <v>9.25</v>
+        <v>5.1</v>
       </c>
       <c r="Y93" t="n">
-        <v>8.5</v>
+        <v>7.2</v>
       </c>
       <c r="Z93" t="n">
-        <v>22</v>
+        <v>7.2</v>
       </c>
       <c r="AA93" t="n">
-        <v>21</v>
+        <v>10.25</v>
       </c>
       <c r="AB93" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AC93" t="n">
-        <v>6.1</v>
+        <v>9.5</v>
       </c>
       <c r="AD93" t="n">
-        <v>4.85</v>
+        <v>7.1</v>
       </c>
       <c r="AE93" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG93" t="inlineStr"/>
+      <c r="AH93" t="n">
         <v>13.5</v>
       </c>
-      <c r="AF93" t="n">
+      <c r="AI93" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL93" t="n">
         <v>70</v>
       </c>
-      <c r="AG93" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH93" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI93" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ93" t="n">
+      <c r="AM93" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU93" t="n">
         <v>8.75</v>
-      </c>
-      <c r="AK93" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL93" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM93" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN93" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AO93" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AP93" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ93" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR93" t="n">
-        <v>150</v>
-      </c>
-      <c r="AS93" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT93" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AU93" t="n">
-        <v>7.8</v>
       </c>
       <c r="AV93" t="n">
         <v>100</v>
       </c>
       <c r="AW93" t="n">
-        <v>4.55</v>
+        <v>8.25</v>
       </c>
       <c r="AX93" t="n">
-        <v>17.5</v>
+        <v>45</v>
       </c>
       <c r="AY93" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AZ93" t="n">
-        <v>90</v>
+        <v>350</v>
       </c>
       <c r="BA93" t="n">
-        <v>150</v>
-      </c>
-      <c r="BB93" t="n">
-        <v>500</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="BB93" t="inlineStr"/>
       <c r="BC93" t="inlineStr"/>
       <c r="BD93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>ruUsNKcl</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>28/11/2024</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>WORLD - FRIENDLY INTERNATIONAL WOMEN</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Morocco W</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Botswana W</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H94" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="I94" t="n">
+        <v>22</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="K94" t="n">
+        <v>3</v>
+      </c>
+      <c r="L94" t="n">
+        <v>15</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N94" t="n">
+        <v>13</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="S94" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="T94" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="X94" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>35</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG94" t="inlineStr"/>
+      <c r="AH94" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>250</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK94" t="inlineStr"/>
+      <c r="AL94" t="n">
+        <v>400</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>32</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>110</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>175</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>100</v>
+      </c>
+      <c r="AZ94" t="inlineStr"/>
+      <c r="BA94" t="inlineStr"/>
+      <c r="BB94" t="inlineStr"/>
+      <c r="BC94" t="inlineStr"/>
+      <c r="BD94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Ie7xQptP</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>28/11/2024</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>ZAMBIA - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Forest Rangers</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Green Eagles</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="J95" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L95" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N95" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="O95" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P95" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R95" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S95" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T95" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="V95" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="W95" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="X95" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>90</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC95" t="inlineStr"/>
+      <c r="BD95" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-28.xlsx
@@ -756,7 +756,7 @@
         <v>1.91</v>
       </c>
       <c r="J2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
         <v>2.25</v>
@@ -950,13 +950,13 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q3" t="n">
         <v>1.57</v>
@@ -965,7 +965,7 @@
         <v>2.38</v>
       </c>
       <c r="S3" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T3" t="n">
         <v>3.5</v>
@@ -977,10 +977,10 @@
         <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y3" t="n">
         <v>9.5</v>
@@ -1010,7 +1010,7 @@
         <v>501</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
         <v>51</v>
@@ -1076,7 +1076,7 @@
         <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
         <v>3.75</v>
       </c>
       <c r="I4" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
         <v>2.5</v>
@@ -1129,10 +1129,10 @@
         <v>2.63</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O4" t="n">
         <v>1.14</v>
@@ -1243,7 +1243,7 @@
         <v>11</v>
       </c>
       <c r="AY4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ4" t="n">
         <v>34</v>
@@ -1293,28 +1293,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
         <v>4.75</v>
       </c>
       <c r="J5" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K5" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L5" t="n">
         <v>4.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O5" t="n">
         <v>1.2</v>
@@ -1365,7 +1365,7 @@
         <v>7.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF5" t="n">
         <v>41</v>
@@ -1437,7 +1437,7 @@
         <v>151</v>
       </c>
       <c r="BC5" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1475,28 +1475,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
@@ -1505,16 +1505,16 @@
         <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T6" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U6" t="n">
         <v>1.95</v>
@@ -1538,22 +1538,22 @@
         <v>23</v>
       </c>
       <c r="AB6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH6" t="n">
         <v>7.5</v>
@@ -1565,19 +1565,19 @@
         <v>11</v>
       </c>
       <c r="AK6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL6" t="n">
         <v>26</v>
       </c>
-      <c r="AL6" t="n">
-        <v>23</v>
-      </c>
       <c r="AM6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="n">
         <v>4.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
         <v>29</v>
@@ -1592,7 +1592,7 @@
         <v>251</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU6" t="n">
         <v>8.5</v>
@@ -1604,7 +1604,7 @@
         <v>4.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
@@ -1657,28 +1657,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="H7" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="I7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7" t="n">
         <v>1.73</v>
       </c>
       <c r="K7" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
         <v>1.22</v>
@@ -1705,7 +1705,7 @@
         <v>1.62</v>
       </c>
       <c r="W7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
         <v>6</v>
@@ -1738,28 +1738,28 @@
         <v>501</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
         <v>51</v>
       </c>
       <c r="AJ7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN7" t="n">
         <v>3.1</v>
       </c>
       <c r="AO7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AP7" t="n">
         <v>19</v>
@@ -1777,19 +1777,19 @@
         <v>3.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX7" t="n">
         <v>51</v>
       </c>
       <c r="AY7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ7" t="n">
         <v>251</v>
@@ -1798,13 +1798,13 @@
         <v>251</v>
       </c>
       <c r="BB7" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H8" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J8" t="n">
         <v>3.75</v>
       </c>
       <c r="K8" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L8" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1869,10 +1869,10 @@
         <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R8" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S8" t="n">
         <v>1.29</v>
@@ -1893,7 +1893,7 @@
         <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
         <v>41</v>
@@ -1911,7 +1911,7 @@
         <v>7.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF8" t="n">
         <v>34</v>
@@ -1932,13 +1932,13 @@
         <v>19</v>
       </c>
       <c r="AL8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO8" t="n">
         <v>17</v>
@@ -1953,7 +1953,7 @@
         <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT8" t="n">
         <v>3.5</v>
@@ -1974,19 +1974,19 @@
         <v>17</v>
       </c>
       <c r="AZ8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA8" t="n">
         <v>41</v>
       </c>
       <c r="BB8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC8" t="n">
         <v>351</v>
       </c>
       <c r="BD8" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
         <v>1.7</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K9" t="n">
         <v>2.3</v>
       </c>
       <c r="L9" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -2084,7 +2084,7 @@
         <v>34</v>
       </c>
       <c r="AB9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="n">
         <v>13</v>
@@ -2150,13 +2150,13 @@
         <v>3.75</v>
       </c>
       <c r="AX9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AY9" t="n">
         <v>19</v>
       </c>
       <c r="AZ9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA9" t="n">
         <v>41</v>
@@ -2385,55 +2385,55 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
         <v>2.25</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L11" t="n">
         <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O11" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="R11" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="S11" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T11" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.95</v>
       </c>
-      <c r="V11" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X11" t="n">
         <v>15</v>
@@ -2445,16 +2445,16 @@
         <v>34</v>
       </c>
       <c r="AA11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
         <v>15</v>
@@ -2463,16 +2463,16 @@
         <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK11" t="n">
         <v>21</v>
@@ -2481,7 +2481,7 @@
         <v>19</v>
       </c>
       <c r="AM11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN11" t="n">
         <v>5</v>
@@ -2490,22 +2490,22 @@
         <v>19</v>
       </c>
       <c r="AP11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="n">
         <v>81</v>
       </c>
       <c r="AS11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
@@ -2517,7 +2517,7 @@
         <v>13</v>
       </c>
       <c r="AY11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ11" t="n">
         <v>41</v>
@@ -2526,13 +2526,13 @@
         <v>67</v>
       </c>
       <c r="BB11" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC11" t="n">
         <v>126</v>
       </c>
       <c r="BD11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
@@ -2770,7 +2770,7 @@
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O13" t="n">
         <v>1.13</v>
@@ -2800,19 +2800,19 @@
         <v>10</v>
       </c>
       <c r="X13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y13" t="n">
         <v>9.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA13" t="n">
         <v>10</v>
       </c>
       <c r="AB13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC13" t="n">
         <v>21</v>
@@ -2827,7 +2827,7 @@
         <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH13" t="n">
         <v>34</v>
@@ -2851,7 +2851,7 @@
         <v>3.4</v>
       </c>
       <c r="AO13" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AP13" t="n">
         <v>15</v>
@@ -2860,7 +2860,7 @@
         <v>12</v>
       </c>
       <c r="AR13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS13" t="n">
         <v>101</v>
@@ -2869,7 +2869,7 @@
         <v>4</v>
       </c>
       <c r="AU13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV13" t="n">
         <v>51</v>
@@ -2884,7 +2884,7 @@
         <v>41</v>
       </c>
       <c r="AZ13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BA13" t="n">
         <v>201</v>
@@ -2931,13 +2931,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H14" t="n">
         <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J14" t="n">
         <v>3.75</v>
@@ -2946,13 +2946,13 @@
         <v>2.3</v>
       </c>
       <c r="L14" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O14" t="n">
         <v>1.2</v>
@@ -2967,10 +2967,10 @@
         <v>2.2</v>
       </c>
       <c r="S14" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U14" t="n">
         <v>1.57</v>
@@ -3012,7 +3012,7 @@
         <v>126</v>
       </c>
       <c r="AH14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI14" t="n">
         <v>11</v>
@@ -3033,7 +3033,7 @@
         <v>5.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP14" t="n">
         <v>23</v>
@@ -3048,10 +3048,10 @@
         <v>126</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV14" t="n">
         <v>41</v>
@@ -3075,7 +3075,7 @@
         <v>101</v>
       </c>
       <c r="BC14" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD14" t="n">
         <v>151</v>
@@ -3113,28 +3113,28 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H15" t="n">
         <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J15" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K15" t="n">
         <v>2.25</v>
       </c>
       <c r="L15" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O15" t="n">
         <v>1.25</v>
@@ -3194,7 +3194,7 @@
         <v>151</v>
       </c>
       <c r="AH15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI15" t="n">
         <v>21</v>
@@ -3239,10 +3239,10 @@
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY15" t="n">
         <v>26</v>
@@ -3683,34 +3683,34 @@
         <v>15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R18" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S18" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U18" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V18" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y18" t="n">
         <v>8.5</v>
@@ -3722,10 +3722,10 @@
         <v>12</v>
       </c>
       <c r="AB18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD18" t="n">
         <v>8</v>
@@ -3737,10 +3737,10 @@
         <v>41</v>
       </c>
       <c r="AG18" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI18" t="n">
         <v>26</v>
@@ -3764,7 +3764,7 @@
         <v>8.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ18" t="n">
         <v>26</v>
@@ -3776,7 +3776,7 @@
         <v>101</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU18" t="n">
         <v>7.5</v>
@@ -3788,10 +3788,10 @@
         <v>6.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ18" t="n">
         <v>67</v>
@@ -3803,7 +3803,7 @@
         <v>151</v>
       </c>
       <c r="BC18" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BD18" t="n">
         <v>151</v>
@@ -3844,25 +3844,25 @@
         <v>2.25</v>
       </c>
       <c r="H19" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J19" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L19" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O19" t="n">
         <v>1.36</v>
@@ -3892,10 +3892,10 @@
         <v>7.5</v>
       </c>
       <c r="X19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z19" t="n">
         <v>21</v>
@@ -3907,22 +3907,22 @@
         <v>29</v>
       </c>
       <c r="AC19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD19" t="n">
         <v>6</v>
       </c>
       <c r="AE19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
         <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI19" t="n">
         <v>17</v>
@@ -3934,16 +3934,16 @@
         <v>34</v>
       </c>
       <c r="AL19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN19" t="n">
         <v>4.33</v>
       </c>
       <c r="AO19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP19" t="n">
         <v>23</v>
@@ -3955,7 +3955,7 @@
         <v>67</v>
       </c>
       <c r="AS19" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT19" t="n">
         <v>2.63</v>
@@ -3976,7 +3976,7 @@
         <v>29</v>
       </c>
       <c r="AZ19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA19" t="n">
         <v>81</v>
@@ -3988,7 +3988,7 @@
         <v>501</v>
       </c>
       <c r="BD19" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20">
@@ -4023,22 +4023,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="J20" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K20" t="n">
         <v>2.05</v>
       </c>
       <c r="L20" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="M20" t="n">
         <v>1.07</v>
@@ -4053,16 +4053,16 @@
         <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S20" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T20" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U20" t="n">
         <v>2</v>
@@ -4071,19 +4071,19 @@
         <v>1.73</v>
       </c>
       <c r="W20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z20" t="n">
         <v>41</v>
       </c>
       <c r="AA20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB20" t="n">
         <v>41</v>
@@ -4107,22 +4107,22 @@
         <v>6.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ20" t="n">
         <v>9</v>
       </c>
       <c r="AK20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL20" t="n">
         <v>17</v>
       </c>
       <c r="AM20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN20" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO20" t="n">
         <v>23</v>
@@ -4134,13 +4134,13 @@
         <v>81</v>
       </c>
       <c r="AR20" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS20" t="n">
         <v>301</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU20" t="n">
         <v>8.5</v>
@@ -4152,16 +4152,16 @@
         <v>3.75</v>
       </c>
       <c r="AX20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY20" t="n">
         <v>23</v>
       </c>
       <c r="AZ20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB20" t="n">
         <v>201</v>
@@ -4205,22 +4205,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="H21" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I21" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="J21" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K21" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L21" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
         <v>1.1</v>
@@ -4247,10 +4247,10 @@
         <v>2.25</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V21" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W21" t="n">
         <v>8.5</v>
@@ -4259,16 +4259,16 @@
         <v>17</v>
       </c>
       <c r="Y21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z21" t="n">
         <v>41</v>
       </c>
       <c r="AA21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC21" t="n">
         <v>6.5</v>
@@ -4283,13 +4283,13 @@
         <v>67</v>
       </c>
       <c r="AG21" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AH21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ21" t="n">
         <v>10</v>
@@ -4304,7 +4304,7 @@
         <v>41</v>
       </c>
       <c r="AN21" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO21" t="n">
         <v>21</v>
@@ -4313,13 +4313,13 @@
         <v>34</v>
       </c>
       <c r="AQ21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR21" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS21" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT21" t="n">
         <v>2.25</v>
@@ -4340,7 +4340,7 @@
         <v>29</v>
       </c>
       <c r="AZ21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA21" t="n">
         <v>81</v>
@@ -4390,25 +4390,25 @@
         <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I22" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J22" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K22" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L22" t="n">
         <v>3.6</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O22" t="n">
         <v>1.14</v>
@@ -4444,10 +4444,10 @@
         <v>9</v>
       </c>
       <c r="Z22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB22" t="n">
         <v>19</v>
@@ -4465,10 +4465,10 @@
         <v>29</v>
       </c>
       <c r="AG22" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
         <v>21</v>
@@ -4477,7 +4477,7 @@
         <v>12</v>
       </c>
       <c r="AK22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL22" t="n">
         <v>23</v>
@@ -4575,7 +4575,7 @@
         <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J23" t="n">
         <v>2.5</v>
@@ -4584,25 +4584,25 @@
         <v>2.25</v>
       </c>
       <c r="L23" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O23" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P23" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R23" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
         <v>1.36</v>
@@ -4617,10 +4617,10 @@
         <v>2.1</v>
       </c>
       <c r="W23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y23" t="n">
         <v>8.5</v>
@@ -4638,7 +4638,7 @@
         <v>12</v>
       </c>
       <c r="AD23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
         <v>13</v>
@@ -4647,7 +4647,7 @@
         <v>41</v>
       </c>
       <c r="AG23" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH23" t="n">
         <v>13</v>
@@ -4695,7 +4695,7 @@
         <v>51</v>
       </c>
       <c r="AW23" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX23" t="n">
         <v>21</v>
@@ -4713,7 +4713,7 @@
         <v>151</v>
       </c>
       <c r="BC23" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD23" t="n">
         <v>126</v>
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="H24" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I24" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="J24" t="n">
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L24" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="M24" t="n">
         <v>1.06</v>
@@ -4793,10 +4793,10 @@
         <v>2.75</v>
       </c>
       <c r="U24" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V24" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W24" t="n">
         <v>17</v>
@@ -4805,7 +4805,7 @@
         <v>41</v>
       </c>
       <c r="Y24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z24" t="n">
         <v>101</v>
@@ -4841,7 +4841,7 @@
         <v>9</v>
       </c>
       <c r="AK24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AL24" t="n">
         <v>13</v>
@@ -4862,10 +4862,10 @@
         <v>201</v>
       </c>
       <c r="AR24" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AS24" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AT24" t="n">
         <v>2.75</v>
@@ -4874,13 +4874,13 @@
         <v>10</v>
       </c>
       <c r="AV24" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW24" t="n">
         <v>3.2</v>
       </c>
       <c r="AX24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY24" t="n">
         <v>21</v>
@@ -4892,7 +4892,7 @@
         <v>51</v>
       </c>
       <c r="BB24" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC24" t="n">
         <v>126</v>
@@ -4933,16 +4933,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="H25" t="n">
         <v>4.75</v>
       </c>
       <c r="I25" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="J25" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K25" t="n">
         <v>2.63</v>
@@ -4954,19 +4954,19 @@
         <v>1.02</v>
       </c>
       <c r="N25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O25" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P25" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R25" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S25" t="n">
         <v>1.25</v>
@@ -4975,10 +4975,10 @@
         <v>3.75</v>
       </c>
       <c r="U25" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V25" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W25" t="n">
         <v>23</v>
@@ -4999,10 +4999,10 @@
         <v>41</v>
       </c>
       <c r="AC25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
@@ -5011,13 +5011,13 @@
         <v>41</v>
       </c>
       <c r="AG25" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH25" t="n">
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ25" t="n">
         <v>8.5</v>
@@ -5041,10 +5041,10 @@
         <v>29</v>
       </c>
       <c r="AQ25" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR25" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS25" t="n">
         <v>151</v>
@@ -5053,7 +5053,7 @@
         <v>3.75</v>
       </c>
       <c r="AU25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV25" t="n">
         <v>41</v>
@@ -5077,7 +5077,7 @@
         <v>81</v>
       </c>
       <c r="BC25" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BD25" t="n">
         <v>151</v>
@@ -5297,28 +5297,28 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H27" t="n">
         <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J27" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K27" t="n">
         <v>2.2</v>
       </c>
       <c r="L27" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M27" t="n">
         <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O27" t="n">
         <v>1.3</v>
@@ -5327,10 +5327,10 @@
         <v>3.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R27" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S27" t="n">
         <v>1.4</v>
@@ -5339,16 +5339,16 @@
         <v>2.75</v>
       </c>
       <c r="U27" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V27" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W27" t="n">
         <v>7</v>
       </c>
       <c r="X27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y27" t="n">
         <v>8.5</v>
@@ -5375,22 +5375,22 @@
         <v>51</v>
       </c>
       <c r="AG27" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH27" t="n">
         <v>12</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ27" t="n">
         <v>15</v>
       </c>
       <c r="AK27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL27" t="n">
         <v>41</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>34</v>
       </c>
       <c r="AM27" t="n">
         <v>41</v>
@@ -5399,7 +5399,7 @@
         <v>3.75</v>
       </c>
       <c r="AO27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP27" t="n">
         <v>21</v>
@@ -5417,7 +5417,7 @@
         <v>2.75</v>
       </c>
       <c r="AU27" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV27" t="n">
         <v>51</v>
@@ -5429,7 +5429,7 @@
         <v>23</v>
       </c>
       <c r="AY27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ27" t="n">
         <v>81</v>
@@ -5438,7 +5438,7 @@
         <v>101</v>
       </c>
       <c r="BB27" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC27" t="n">
         <v>501</v>
@@ -5479,13 +5479,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="I28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J28" t="n">
         <v>1.67</v>
@@ -5527,22 +5527,22 @@
         <v>1.73</v>
       </c>
       <c r="W28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X28" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y28" t="n">
         <v>9.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA28" t="n">
         <v>11</v>
       </c>
       <c r="AB28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC28" t="n">
         <v>17</v>
@@ -5557,7 +5557,7 @@
         <v>67</v>
       </c>
       <c r="AG28" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH28" t="n">
         <v>26</v>
@@ -5599,7 +5599,7 @@
         <v>3.75</v>
       </c>
       <c r="AU28" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV28" t="n">
         <v>51</v>
@@ -5620,7 +5620,7 @@
         <v>201</v>
       </c>
       <c r="BB28" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC28" t="n">
         <v>126</v>
@@ -5673,10 +5673,10 @@
         <v>1.91</v>
       </c>
       <c r="K29" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L29" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M29" t="n">
         <v>1.02</v>
@@ -5709,7 +5709,7 @@
         <v>2.25</v>
       </c>
       <c r="W29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X29" t="n">
         <v>9</v>
@@ -5766,7 +5766,7 @@
         <v>7</v>
       </c>
       <c r="AP29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ29" t="n">
         <v>17</v>
@@ -5781,7 +5781,7 @@
         <v>4</v>
       </c>
       <c r="AU29" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV29" t="n">
         <v>41</v>
@@ -5799,7 +5799,7 @@
         <v>101</v>
       </c>
       <c r="BA29" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB29" t="n">
         <v>151</v>
@@ -5843,28 +5843,28 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H30" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I30" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="J30" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
         <v>2.3</v>
       </c>
       <c r="L30" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M30" t="n">
         <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O30" t="n">
         <v>1.22</v>
@@ -5873,10 +5873,10 @@
         <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R30" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S30" t="n">
         <v>1.33</v>
@@ -5885,10 +5885,10 @@
         <v>3.25</v>
       </c>
       <c r="U30" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V30" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W30" t="n">
         <v>15</v>
@@ -5903,7 +5903,7 @@
         <v>51</v>
       </c>
       <c r="AA30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB30" t="n">
         <v>41</v>
@@ -5915,7 +5915,7 @@
         <v>7</v>
       </c>
       <c r="AE30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF30" t="n">
         <v>41</v>
@@ -5927,7 +5927,7 @@
         <v>8</v>
       </c>
       <c r="AI30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ30" t="n">
         <v>8.5</v>
@@ -5945,7 +5945,7 @@
         <v>6.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP30" t="n">
         <v>29</v>
@@ -5954,7 +5954,7 @@
         <v>81</v>
       </c>
       <c r="AR30" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS30" t="n">
         <v>201</v>
@@ -5972,13 +5972,13 @@
         <v>3.75</v>
       </c>
       <c r="AX30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AY30" t="n">
         <v>19</v>
       </c>
       <c r="AZ30" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA30" t="n">
         <v>41</v>
@@ -6025,22 +6025,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="H31" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I31" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J31" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K31" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L31" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M31" t="n">
         <v>1.04</v>
@@ -6067,22 +6067,22 @@
         <v>3.25</v>
       </c>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V31" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W31" t="n">
         <v>7</v>
       </c>
       <c r="X31" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y31" t="n">
         <v>8.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA31" t="n">
         <v>12</v>
@@ -6091,31 +6091,31 @@
         <v>26</v>
       </c>
       <c r="AC31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD31" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF31" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG31" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH31" t="n">
         <v>17</v>
       </c>
       <c r="AI31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK31" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL31" t="n">
         <v>51</v>
@@ -6133,7 +6133,7 @@
         <v>19</v>
       </c>
       <c r="AQ31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR31" t="n">
         <v>41</v>
@@ -6151,16 +6151,16 @@
         <v>51</v>
       </c>
       <c r="AW31" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY31" t="n">
         <v>41</v>
       </c>
       <c r="AZ31" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA31" t="n">
         <v>151</v>
@@ -6216,7 +6216,7 @@
         <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K32" t="n">
         <v>2.25</v>
@@ -6419,10 +6419,10 @@
         <v>5.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R33" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S33" t="n">
         <v>1.25</v>
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H35" t="n">
         <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J35" t="n">
         <v>3</v>
@@ -6813,7 +6813,7 @@
         <v>23</v>
       </c>
       <c r="AA35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB35" t="n">
         <v>23</v>
@@ -6840,7 +6840,7 @@
         <v>15</v>
       </c>
       <c r="AJ35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK35" t="n">
         <v>29</v>
@@ -6852,7 +6852,7 @@
         <v>26</v>
       </c>
       <c r="AN35" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO35" t="n">
         <v>13</v>
@@ -6888,7 +6888,7 @@
         <v>21</v>
       </c>
       <c r="AZ35" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA35" t="n">
         <v>51</v>
@@ -7295,76 +7295,76 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H38" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I38" t="n">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K38" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L38" t="n">
-        <v>2.47</v>
+        <v>2.75</v>
       </c>
       <c r="M38" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>6.55</v>
+        <v>6.59</v>
       </c>
       <c r="O38" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="P38" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="Q38" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="R38" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S38" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T38" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="U38" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="V38" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="W38" t="n">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="X38" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="Y38" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AA38" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AB38" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC38" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD38" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AE38" t="n">
         <v>13.5</v>
@@ -7376,43 +7376,43 @@
         <v>500</v>
       </c>
       <c r="AH38" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AI38" t="n">
-        <v>7.1</v>
+        <v>8</v>
       </c>
       <c r="AJ38" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AK38" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AL38" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AM38" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AN38" t="n">
-        <v>5.3</v>
+        <v>4.85</v>
       </c>
       <c r="AO38" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AP38" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AQ38" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AR38" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AS38" t="n">
         <v>400</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="AU38" t="n">
         <v>7.6</v>
@@ -7421,19 +7421,19 @@
         <v>75</v>
       </c>
       <c r="AW38" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="AX38" t="n">
-        <v>9.5</v>
+        <v>11.25</v>
       </c>
       <c r="AY38" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AZ38" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="BA38" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="BB38" t="n">
         <v>300</v>
@@ -7497,10 +7497,10 @@
         <v>11</v>
       </c>
       <c r="O39" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="P39" t="n">
-        <v>3.82</v>
+        <v>3.95</v>
       </c>
       <c r="Q39" t="n">
         <v>1.65</v>
@@ -7515,10 +7515,10 @@
         <v>2.4</v>
       </c>
       <c r="U39" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="V39" t="n">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="W39" t="n">
         <v>6.2</v>
@@ -7672,13 +7672,13 @@
         <v>1.02</v>
       </c>
       <c r="N40" t="n">
-        <v>7.55</v>
+        <v>7.75</v>
       </c>
       <c r="O40" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="P40" t="n">
-        <v>3.04</v>
+        <v>3.14</v>
       </c>
       <c r="Q40" t="n">
         <v>1.98</v>
@@ -7693,10 +7693,10 @@
         <v>2.37</v>
       </c>
       <c r="U40" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="V40" t="n">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="W40" t="n">
         <v>5.9</v>
@@ -7829,34 +7829,34 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H41" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I41" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="J41" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="K41" t="n">
         <v>2.18</v>
       </c>
       <c r="L41" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M41" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N41" t="n">
         <v>10.5</v>
       </c>
       <c r="O41" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="P41" t="n">
-        <v>3.72</v>
+        <v>3.97</v>
       </c>
       <c r="Q41" t="n">
         <v>1.65</v>
@@ -7874,7 +7874,7 @@
         <v>1.57</v>
       </c>
       <c r="V41" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="W41" t="n">
         <v>8</v>
@@ -7916,10 +7916,10 @@
         <v>12.5</v>
       </c>
       <c r="AJ41" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AK41" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL41" t="n">
         <v>17</v>
@@ -7928,7 +7928,7 @@
         <v>21</v>
       </c>
       <c r="AN41" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="AO41" t="n">
         <v>11.25</v>
@@ -7946,7 +7946,7 @@
         <v>200</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AU41" t="n">
         <v>6.9</v>
@@ -7958,13 +7958,13 @@
         <v>4.75</v>
       </c>
       <c r="AX41" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AY41" t="n">
         <v>21</v>
       </c>
       <c r="AZ41" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BA41" t="n">
         <v>90</v>
@@ -8010,31 +8010,31 @@
         <v>2.7</v>
       </c>
       <c r="H42" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="I42" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="J42" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K42" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="L42" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="M42" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N42" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="O42" t="n">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="P42" t="n">
-        <v>4.5</v>
+        <v>4.03</v>
       </c>
       <c r="Q42" t="n">
         <v>1.52</v>
@@ -8043,22 +8043,22 @@
         <v>2.22</v>
       </c>
       <c r="S42" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="T42" t="n">
-        <v>3.48</v>
+        <v>3.22</v>
       </c>
       <c r="U42" t="n">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="V42" t="n">
-        <v>2.57</v>
+        <v>2.22</v>
       </c>
       <c r="W42" t="n">
-        <v>10.75</v>
+        <v>9</v>
       </c>
       <c r="X42" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y42" t="n">
         <v>8.75</v>
@@ -8067,88 +8067,88 @@
         <v>25</v>
       </c>
       <c r="AA42" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AB42" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AC42" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD42" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="AE42" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AF42" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AG42" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AH42" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AI42" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AJ42" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AK42" t="n">
         <v>17.5</v>
       </c>
       <c r="AL42" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AM42" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AN42" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="AO42" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AP42" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ42" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR42" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AS42" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT42" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="AU42" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AV42" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AW42" t="n">
-        <v>4.4</v>
+        <v>4.25</v>
       </c>
       <c r="AX42" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AY42" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AZ42" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BA42" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="BB42" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="BC42" t="inlineStr"/>
       <c r="BD42" t="inlineStr"/>
@@ -8188,19 +8188,19 @@
         <v>1.78</v>
       </c>
       <c r="H43" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I43" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="J43" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="K43" t="n">
         <v>2.07</v>
       </c>
       <c r="L43" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="M43" t="n">
         <v>1.04</v>
@@ -8209,16 +8209,16 @@
         <v>8.449999999999999</v>
       </c>
       <c r="O43" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P43" t="n">
-        <v>3.14</v>
+        <v>3.29</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R43" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S43" t="n">
         <v>1.38</v>
@@ -8227,34 +8227,34 @@
         <v>2.47</v>
       </c>
       <c r="U43" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V43" t="n">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="W43" t="n">
         <v>6.2</v>
       </c>
       <c r="X43" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="Y43" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="Z43" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA43" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD43" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AE43" t="n">
         <v>11.5</v>
@@ -8266,22 +8266,22 @@
         <v>300</v>
       </c>
       <c r="AH43" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AI43" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AJ43" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK43" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL43" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM43" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AN43" t="n">
         <v>3.65</v>
@@ -8290,19 +8290,19 @@
         <v>9</v>
       </c>
       <c r="AP43" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ43" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AR43" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS43" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AU43" t="n">
         <v>7.1</v>
@@ -8311,22 +8311,22 @@
         <v>65</v>
       </c>
       <c r="AW43" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AX43" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AY43" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AZ43" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA43" t="n">
         <v>150</v>
       </c>
-      <c r="BA43" t="n">
-        <v>175</v>
-      </c>
       <c r="BB43" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC43" t="inlineStr"/>
       <c r="BD43" t="inlineStr"/>
@@ -8369,7 +8369,7 @@
         <v>3.45</v>
       </c>
       <c r="I44" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J44" t="n">
         <v>2.15</v>
@@ -8378,40 +8378,40 @@
         <v>2.1</v>
       </c>
       <c r="L44" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M44" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>6.95</v>
+        <v>7.2</v>
       </c>
       <c r="O44" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="P44" t="n">
-        <v>2.73</v>
+        <v>2.83</v>
       </c>
       <c r="Q44" t="n">
         <v>2.05</v>
       </c>
       <c r="R44" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S44" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T44" t="n">
         <v>2.42</v>
       </c>
       <c r="U44" t="n">
-        <v>2.09</v>
+        <v>2.11</v>
       </c>
       <c r="V44" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="W44" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="X44" t="n">
         <v>5.6</v>
@@ -8426,10 +8426,10 @@
         <v>11.75</v>
       </c>
       <c r="AB44" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC44" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AD44" t="n">
         <v>6</v>
@@ -8459,19 +8459,19 @@
         <v>45</v>
       </c>
       <c r="AM44" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN44" t="n">
         <v>3.3</v>
       </c>
       <c r="AO44" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AP44" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ44" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR44" t="n">
         <v>65</v>
@@ -8495,7 +8495,7 @@
         <v>32</v>
       </c>
       <c r="AY44" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AZ44" t="n">
         <v>200</v>
@@ -8709,34 +8709,34 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="H46" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="I46" t="n">
         <v>1.5</v>
       </c>
       <c r="J46" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="K46" t="n">
         <v>2.15</v>
       </c>
       <c r="L46" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="M46" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N46" t="n">
-        <v>8.1</v>
+        <v>7.33</v>
       </c>
       <c r="O46" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="P46" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="Q46" t="n">
         <v>2.12</v>
@@ -8745,58 +8745,58 @@
         <v>1.57</v>
       </c>
       <c r="S46" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="T46" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="U46" t="n">
-        <v>2.35</v>
+        <v>2.44</v>
       </c>
       <c r="V46" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="W46" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="X46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AA46" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB46" t="n">
         <v>70</v>
       </c>
       <c r="AC46" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AD46" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AE46" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF46" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG46" t="n">
         <v>101</v>
       </c>
       <c r="AH46" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="AI46" t="n">
         <v>5.1</v>
       </c>
       <c r="AJ46" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AK46" t="n">
         <v>8.25</v>
@@ -8808,10 +8808,10 @@
         <v>30</v>
       </c>
       <c r="AN46" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="AO46" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AP46" t="n">
         <v>45</v>
@@ -8824,31 +8824,31 @@
       </c>
       <c r="AS46" t="inlineStr"/>
       <c r="AT46" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="AU46" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV46" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AW46" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AX46" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AY46" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AZ46" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA46" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB46" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC46" t="inlineStr"/>
       <c r="BD46" t="inlineStr"/>
@@ -9809,10 +9809,10 @@
         <v>4.75</v>
       </c>
       <c r="M52" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N52" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O52" t="n">
         <v>1.19</v>
@@ -9982,7 +9982,7 @@
         <v>3.4</v>
       </c>
       <c r="J53" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K53" t="n">
         <v>2</v>
@@ -10015,10 +10015,10 @@
         <v>2.5</v>
       </c>
       <c r="U53" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V53" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W53" t="n">
         <v>6.5</v>
@@ -10051,10 +10051,10 @@
         <v>51</v>
       </c>
       <c r="AG53" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH53" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI53" t="n">
         <v>17</v>
@@ -10105,7 +10105,7 @@
         <v>21</v>
       </c>
       <c r="AY53" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ53" t="n">
         <v>67</v>
@@ -10166,13 +10166,13 @@
         <v>2.3</v>
       </c>
       <c r="L54" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M54" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N54" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O54" t="n">
         <v>1.25</v>
@@ -10241,7 +10241,7 @@
         <v>21</v>
       </c>
       <c r="AK54" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL54" t="n">
         <v>51</v>
@@ -10280,7 +10280,7 @@
         <v>8</v>
       </c>
       <c r="AX54" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY54" t="n">
         <v>41</v>
@@ -10292,7 +10292,7 @@
         <v>151</v>
       </c>
       <c r="BB54" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC54" t="inlineStr"/>
       <c r="BD54" t="inlineStr"/>
@@ -10367,10 +10367,10 @@
         <v>2.22</v>
       </c>
       <c r="U55" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="V55" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W55" t="n">
         <v>4.3</v>
@@ -10520,7 +10520,7 @@
         <v>1.04</v>
       </c>
       <c r="N56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O56" t="n">
         <v>1.22</v>
@@ -10529,10 +10529,10 @@
         <v>4</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R56" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S56" t="n">
         <v>1.33</v>
@@ -10859,34 +10859,34 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.72</v>
+        <v>3.3</v>
       </c>
       <c r="H58" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="I58" t="n">
-        <v>2.5</v>
+        <v>2.12</v>
       </c>
       <c r="J58" t="n">
-        <v>3.45</v>
+        <v>3.95</v>
       </c>
       <c r="K58" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="L58" t="n">
-        <v>3.2</v>
+        <v>2.85</v>
       </c>
       <c r="M58" t="n">
         <v>1.06</v>
       </c>
       <c r="N58" t="n">
-        <v>5.67</v>
+        <v>6.01</v>
       </c>
       <c r="O58" t="n">
         <v>1.36</v>
       </c>
       <c r="P58" t="n">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="Q58" t="n">
         <v>2.18</v>
@@ -10895,109 +10895,109 @@
         <v>1.53</v>
       </c>
       <c r="S58" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T58" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U58" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V58" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="W58" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="X58" t="n">
-        <v>10.75</v>
+        <v>13</v>
       </c>
       <c r="Y58" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="Z58" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AA58" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AB58" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AC58" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AD58" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AE58" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF58" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG58" t="n">
         <v>500</v>
       </c>
       <c r="AH58" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="AI58" t="n">
-        <v>9.5</v>
+        <v>7.8</v>
       </c>
       <c r="AJ58" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AK58" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AL58" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AM58" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN58" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AO58" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AQ58" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AR58" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AS58" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="AU58" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AV58" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW58" t="n">
-        <v>4.25</v>
+        <v>3.85</v>
       </c>
       <c r="AX58" t="n">
-        <v>14.5</v>
+        <v>11.75</v>
       </c>
       <c r="AY58" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ58" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="BA58" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BB58" t="n">
         <v>400</v>
@@ -11040,7 +11040,7 @@
         <v>12</v>
       </c>
       <c r="H59" t="n">
-        <v>5.9</v>
+        <v>5.85</v>
       </c>
       <c r="I59" t="n">
         <v>1.18</v>
@@ -11064,13 +11064,13 @@
         <v>1.11</v>
       </c>
       <c r="P59" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="R59" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="S59" t="n">
         <v>1.26</v>
@@ -11079,13 +11079,13 @@
         <v>3.5</v>
       </c>
       <c r="U59" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V59" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="W59" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X59" t="n">
         <v>67</v>
@@ -11100,16 +11100,16 @@
         <v>81</v>
       </c>
       <c r="AB59" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AC59" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AD59" t="n">
         <v>11</v>
       </c>
       <c r="AE59" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF59" t="n">
         <v>81</v>
@@ -11122,7 +11122,7 @@
         <v>5.5</v>
       </c>
       <c r="AJ59" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK59" t="n">
         <v>6.5</v>
@@ -11134,10 +11134,10 @@
         <v>23</v>
       </c>
       <c r="AN59" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AO59" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AP59" t="n">
         <v>36</v>
@@ -11152,7 +11152,7 @@
         <v>81</v>
       </c>
       <c r="AT59" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AU59" t="n">
         <v>7</v>
@@ -11161,13 +11161,13 @@
         <v>56</v>
       </c>
       <c r="AW59" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="AX59" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY59" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ59" t="n">
         <v>10</v>
@@ -11402,58 +11402,58 @@
         <v>3.8</v>
       </c>
       <c r="J61" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="K61" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="L61" t="n">
         <v>4.4</v>
       </c>
       <c r="M61" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N61" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="O61" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P61" t="n">
         <v>2.4</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="R61" t="n">
         <v>1.5</v>
       </c>
       <c r="S61" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T61" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="U61" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V61" t="n">
         <v>1.65</v>
       </c>
       <c r="W61" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="X61" t="n">
         <v>8.75</v>
       </c>
       <c r="Y61" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z61" t="n">
         <v>18.5</v>
       </c>
       <c r="AA61" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AB61" t="n">
         <v>37</v>
@@ -11465,7 +11465,7 @@
         <v>6</v>
       </c>
       <c r="AE61" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF61" t="n">
         <v>110</v>
@@ -11498,25 +11498,25 @@
         <v>10.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ61" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR61" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS61" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="AU61" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AV61" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW61" t="n">
         <v>5.4</v>
@@ -11525,7 +11525,7 @@
         <v>23</v>
       </c>
       <c r="AY61" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AZ61" t="n">
         <v>150</v>
@@ -11571,34 +11571,34 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="H62" t="n">
         <v>3.4</v>
       </c>
       <c r="I62" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="J62" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K62" t="n">
         <v>2.3</v>
       </c>
       <c r="L62" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M62" t="n">
         <v>1.04</v>
       </c>
       <c r="N62" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O62" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P62" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="Q62" t="n">
         <v>1.67</v>
@@ -11607,10 +11607,10 @@
         <v>2.15</v>
       </c>
       <c r="S62" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="T62" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="U62" t="n">
         <v>1.52</v>
@@ -11619,25 +11619,25 @@
         <v>2.37</v>
       </c>
       <c r="W62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X62" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y62" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z62" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AA62" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB62" t="n">
         <v>23</v>
       </c>
       <c r="AC62" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD62" t="n">
         <v>7</v>
@@ -11652,31 +11652,31 @@
         <v>126</v>
       </c>
       <c r="AH62" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ62" t="n">
         <v>11</v>
       </c>
-      <c r="AI62" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ62" t="n">
-        <v>10</v>
-      </c>
       <c r="AK62" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM62" t="n">
         <v>26</v>
       </c>
-      <c r="AL62" t="n">
+      <c r="AN62" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP62" t="n">
         <v>19</v>
-      </c>
-      <c r="AM62" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN62" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO62" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP62" t="n">
-        <v>21</v>
       </c>
       <c r="AQ62" t="n">
         <v>41</v>
@@ -11688,28 +11688,28 @@
         <v>126</v>
       </c>
       <c r="AT62" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AU62" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV62" t="n">
         <v>41</v>
       </c>
       <c r="AW62" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX62" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY62" t="n">
         <v>21</v>
       </c>
       <c r="AZ62" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA62" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB62" t="n">
         <v>126</v>
@@ -12291,7 +12291,7 @@
         <v>3.5</v>
       </c>
       <c r="I66" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="J66" t="n">
         <v>2.8</v>
@@ -12303,16 +12303,16 @@
         <v>3.2</v>
       </c>
       <c r="M66" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N66" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="O66" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P66" t="n">
-        <v>3.72</v>
+        <v>3.62</v>
       </c>
       <c r="Q66" t="n">
         <v>1.7</v>
@@ -12327,10 +12327,10 @@
         <v>2.45</v>
       </c>
       <c r="U66" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="V66" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="W66" t="n">
         <v>7.7</v>
@@ -12384,7 +12384,7 @@
         <v>22</v>
       </c>
       <c r="AN66" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="AO66" t="n">
         <v>11.5</v>
@@ -12402,7 +12402,7 @@
         <v>250</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="AU66" t="n">
         <v>7</v>
@@ -12414,7 +12414,7 @@
         <v>4.7</v>
       </c>
       <c r="AX66" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AY66" t="n">
         <v>21</v>
@@ -12484,7 +12484,7 @@
         <v>1.01</v>
       </c>
       <c r="N67" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="O67" t="n">
         <v>1.28</v>
@@ -12644,54 +12644,54 @@
         <v>13.5</v>
       </c>
       <c r="H68" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="I68" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="J68" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="K68" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="L68" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P68" t="n">
-        <v>5.95</v>
+        <v>5.75</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="R68" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="S68" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="T68" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="U68" t="n">
-        <v>2.11</v>
+        <v>2.09</v>
       </c>
       <c r="V68" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="W68" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X68" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="Y68" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z68" t="n">
         <v>400</v>
@@ -12700,31 +12700,31 @@
         <v>150</v>
       </c>
       <c r="AB68" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AC68" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AD68" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AE68" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF68" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG68" t="n">
         <v>500</v>
       </c>
       <c r="AH68" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AI68" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AJ68" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AK68" t="n">
         <v>5.9</v>
@@ -12736,7 +12736,7 @@
         <v>23</v>
       </c>
       <c r="AN68" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO68" t="n">
         <v>80</v>
@@ -12750,28 +12750,28 @@
       </c>
       <c r="AS68" t="inlineStr"/>
       <c r="AT68" t="n">
-        <v>4.05</v>
+        <v>3.85</v>
       </c>
       <c r="AU68" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AV68" t="n">
         <v>80</v>
       </c>
       <c r="AW68" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AX68" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="AY68" t="n">
         <v>14</v>
       </c>
       <c r="AZ68" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="BA68" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB68" t="n">
         <v>175</v>
@@ -12829,10 +12829,10 @@
         <v>3.95</v>
       </c>
       <c r="M69" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N69" t="n">
-        <v>5.8</v>
+        <v>5.95</v>
       </c>
       <c r="O69" t="n">
         <v>1.5</v>
@@ -12841,10 +12841,10 @@
         <v>2.27</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.39</v>
+        <v>2.34</v>
       </c>
       <c r="R69" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S69" t="n">
         <v>1.52</v>
@@ -12853,10 +12853,10 @@
         <v>2.12</v>
       </c>
       <c r="U69" t="n">
-        <v>2.07</v>
+        <v>2.04</v>
       </c>
       <c r="V69" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="W69" t="n">
         <v>5.1</v>
@@ -12989,40 +12989,40 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="H70" t="n">
-        <v>4.05</v>
+        <v>3.9</v>
       </c>
       <c r="I70" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="J70" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="K70" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="L70" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="M70" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N70" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O70" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P70" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R70" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S70" t="n">
         <v>1.39</v>
@@ -13031,73 +13031,73 @@
         <v>2.55</v>
       </c>
       <c r="U70" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="V70" t="n">
         <v>1.75</v>
       </c>
       <c r="W70" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X70" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y70" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Z70" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AA70" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB70" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AC70" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AD70" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AE70" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF70" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG70" t="n">
         <v>700</v>
       </c>
       <c r="AH70" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AI70" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AJ70" t="n">
         <v>8.25</v>
       </c>
       <c r="AK70" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AL70" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AM70" t="n">
         <v>27</v>
       </c>
       <c r="AN70" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="AO70" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AP70" t="n">
         <v>37</v>
       </c>
       <c r="AQ70" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AR70" t="n">
         <v>250</v>
@@ -13106,28 +13106,28 @@
         <v>500</v>
       </c>
       <c r="AT70" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="AU70" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AV70" t="n">
         <v>75</v>
       </c>
       <c r="AW70" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AX70" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="AY70" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AZ70" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BA70" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BB70" t="n">
         <v>250</v>
@@ -13167,28 +13167,28 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.57</v>
+        <v>2.72</v>
       </c>
       <c r="H71" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="I71" t="n">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="J71" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K71" t="n">
         <v>1.9</v>
       </c>
       <c r="L71" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="M71" t="n">
         <v>1.04</v>
       </c>
       <c r="N71" t="n">
-        <v>6.4</v>
+        <v>6.45</v>
       </c>
       <c r="O71" t="n">
         <v>1.47</v>
@@ -13215,25 +13215,25 @@
         <v>1.65</v>
       </c>
       <c r="W71" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="X71" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y71" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Z71" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AA71" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB71" t="n">
         <v>45</v>
       </c>
       <c r="AC71" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AD71" t="n">
         <v>5.7</v>
@@ -13242,40 +13242,40 @@
         <v>17</v>
       </c>
       <c r="AF71" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG71" t="n">
         <v>900</v>
       </c>
       <c r="AH71" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="AI71" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ71" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK71" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AL71" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM71" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AN71" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="AO71" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AP71" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ71" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AR71" t="n">
         <v>120</v>
@@ -13293,16 +13293,16 @@
         <v>80</v>
       </c>
       <c r="AW71" t="n">
-        <v>4.55</v>
+        <v>4.4</v>
       </c>
       <c r="AX71" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AY71" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ71" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BA71" t="n">
         <v>150</v>
@@ -13905,10 +13905,10 @@
         <v>3.3</v>
       </c>
       <c r="M75" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="N75" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="O75" t="n">
         <v>1.52</v>
@@ -13917,10 +13917,10 @@
         <v>2.2</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.45</v>
+        <v>2.65</v>
       </c>
       <c r="R75" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="S75" t="n">
         <v>1.57</v>
@@ -13929,10 +13929,10 @@
         <v>2.02</v>
       </c>
       <c r="U75" t="n">
-        <v>2.11</v>
+        <v>2.28</v>
       </c>
       <c r="V75" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="W75" t="n">
         <v>5.5</v>
@@ -14597,46 +14597,46 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="H79" t="n">
-        <v>3.05</v>
+        <v>2.87</v>
       </c>
       <c r="I79" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J79" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="K79" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="L79" t="n">
-        <v>4.8</v>
+        <v>4.55</v>
       </c>
       <c r="M79" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="N79" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O79" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P79" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="R79" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="S79" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T79" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="U79" t="n">
         <v>2.42</v>
@@ -14645,31 +14645,31 @@
         <v>1.5</v>
       </c>
       <c r="W79" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="X79" t="n">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="Y79" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Z79" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AA79" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AB79" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AC79" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AD79" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AE79" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF79" t="n">
         <v>200</v>
@@ -14678,64 +14678,64 @@
         <v>1000</v>
       </c>
       <c r="AH79" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AI79" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AJ79" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK79" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL79" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ79" t="n">
         <v>55</v>
       </c>
-      <c r="AM79" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN79" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AO79" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP79" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ79" t="n">
-        <v>50</v>
-      </c>
       <c r="AR79" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AS79" t="n">
         <v>500</v>
       </c>
       <c r="AT79" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="AU79" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV79" t="n">
+        <v>120</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>24</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>40</v>
+      </c>
+      <c r="AZ79" t="n">
         <v>150</v>
       </c>
-      <c r="AW79" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX79" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY79" t="n">
-        <v>45</v>
-      </c>
-      <c r="AZ79" t="n">
-        <v>175</v>
-      </c>
       <c r="BA79" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BB79" t="n">
         <v>450</v>
@@ -14775,13 +14775,13 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H80" t="n">
         <v>3</v>
       </c>
       <c r="I80" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J80" t="n">
         <v>3.25</v>
@@ -14790,13 +14790,13 @@
         <v>1.91</v>
       </c>
       <c r="L80" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M80" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N80" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O80" t="n">
         <v>1.44</v>
@@ -14805,25 +14805,25 @@
         <v>2.63</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="R80" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S80" t="n">
         <v>1.57</v>
       </c>
-      <c r="S80" t="n">
-        <v>1.53</v>
-      </c>
       <c r="T80" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U80" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V80" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W80" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X80" t="n">
         <v>11</v>
@@ -14841,19 +14841,19 @@
         <v>41</v>
       </c>
       <c r="AC80" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD80" t="n">
         <v>6</v>
       </c>
       <c r="AE80" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF80" t="n">
         <v>67</v>
       </c>
       <c r="AG80" t="n">
-        <v>900</v>
+        <v>1250</v>
       </c>
       <c r="AH80" t="n">
         <v>7.5</v>
@@ -14868,13 +14868,13 @@
         <v>29</v>
       </c>
       <c r="AL80" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM80" t="n">
         <v>41</v>
       </c>
       <c r="AN80" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO80" t="n">
         <v>15</v>
@@ -14892,7 +14892,7 @@
         <v>151</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU80" t="n">
         <v>9</v>
@@ -14904,16 +14904,16 @@
         <v>4.75</v>
       </c>
       <c r="AX80" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY80" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ80" t="n">
         <v>51</v>
       </c>
       <c r="BA80" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB80" t="n">
         <v>400</v>
@@ -14957,55 +14957,55 @@
         </is>
       </c>
       <c r="G81" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H81" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K81" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L81" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N81" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O81" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T81" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U81" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V81" t="n">
         <v>1.8</v>
       </c>
-      <c r="H81" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I81" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K81" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L81" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N81" t="n">
-        <v>10</v>
-      </c>
-      <c r="O81" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P81" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R81" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S81" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T81" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U81" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V81" t="n">
-        <v>1.83</v>
-      </c>
       <c r="W81" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X81" t="n">
         <v>8.5</v>
@@ -15017,16 +15017,16 @@
         <v>15</v>
       </c>
       <c r="AA81" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB81" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC81" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AD81" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE81" t="n">
         <v>17</v>
@@ -15035,13 +15035,13 @@
         <v>51</v>
       </c>
       <c r="AG81" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="AH81" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI81" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ81" t="n">
         <v>15</v>
@@ -15059,10 +15059,10 @@
         <v>3.75</v>
       </c>
       <c r="AO81" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AP81" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ81" t="n">
         <v>34</v>
@@ -15074,13 +15074,13 @@
         <v>151</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU81" t="n">
         <v>8.5</v>
       </c>
       <c r="AV81" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW81" t="n">
         <v>6</v>
@@ -15142,55 +15142,55 @@
         <v>2.35</v>
       </c>
       <c r="H82" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J82" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>2</v>
+      </c>
+      <c r="L82" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N82" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P82" t="n">
         <v>3.25</v>
       </c>
-      <c r="I82" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J82" t="n">
-        <v>3</v>
-      </c>
-      <c r="K82" t="n">
+      <c r="Q82" t="n">
         <v>2.1</v>
       </c>
-      <c r="L82" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N82" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O82" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P82" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>1.93</v>
-      </c>
       <c r="R82" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="S82" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T82" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U82" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="V82" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W82" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X82" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -15199,52 +15199,52 @@
         <v>23</v>
       </c>
       <c r="AA82" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB82" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC82" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AD82" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE82" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF82" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG82" t="n">
         <v>151</v>
       </c>
       <c r="AH82" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI82" t="n">
         <v>15</v>
       </c>
       <c r="AJ82" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK82" t="n">
         <v>29</v>
       </c>
       <c r="AL82" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM82" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN82" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO82" t="n">
         <v>13</v>
       </c>
       <c r="AP82" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ82" t="n">
         <v>41</v>
@@ -15256,28 +15256,28 @@
         <v>151</v>
       </c>
       <c r="AT82" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU82" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV82" t="n">
         <v>51</v>
       </c>
       <c r="AW82" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX82" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY82" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ82" t="n">
         <v>51</v>
       </c>
       <c r="BA82" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB82" t="n">
         <v>151</v>
@@ -15341,10 +15341,10 @@
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="P83" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q83" t="n">
         <v>1.53</v>
@@ -15356,13 +15356,13 @@
         <v>1.27</v>
       </c>
       <c r="T83" t="n">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="U83" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="V83" t="n">
-        <v>2.43</v>
+        <v>2.18</v>
       </c>
       <c r="W83" t="n">
         <v>8.25</v>
@@ -15673,22 +15673,22 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H85" t="n">
         <v>3.45</v>
       </c>
       <c r="I85" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="J85" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K85" t="n">
         <v>2.18</v>
       </c>
       <c r="L85" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="M85" t="n">
         <v>1.04</v>
@@ -15703,10 +15703,10 @@
         <v>3.3</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R85" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="S85" t="n">
         <v>1.33</v>
@@ -15718,22 +15718,22 @@
         <v>1.62</v>
       </c>
       <c r="V85" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="W85" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="X85" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y85" t="n">
         <v>12</v>
       </c>
       <c r="Z85" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA85" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB85" t="n">
         <v>35</v>
@@ -15745,13 +15745,13 @@
         <v>6.8</v>
       </c>
       <c r="AE85" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF85" t="n">
         <v>55</v>
       </c>
       <c r="AG85" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AH85" t="n">
         <v>8.25</v>
@@ -15763,7 +15763,7 @@
         <v>8.25</v>
       </c>
       <c r="AK85" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AL85" t="n">
         <v>14.5</v>
@@ -15772,40 +15772,40 @@
         <v>23</v>
       </c>
       <c r="AN85" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AO85" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AP85" t="n">
         <v>24</v>
       </c>
       <c r="AQ85" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AR85" t="n">
         <v>120</v>
       </c>
       <c r="AS85" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="AU85" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV85" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW85" t="n">
         <v>3.9</v>
       </c>
       <c r="AX85" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AY85" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AZ85" t="n">
         <v>32</v>
@@ -15893,10 +15893,10 @@
         <v>2.2</v>
       </c>
       <c r="U86" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="V86" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="W86" t="n">
         <v>4.2</v>
@@ -16214,13 +16214,13 @@
         <v>3.1</v>
       </c>
       <c r="J88" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="K88" t="n">
         <v>1.87</v>
       </c>
       <c r="L88" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="M88" t="n">
         <v>1.04</v>
@@ -16229,10 +16229,10 @@
         <v>6.35</v>
       </c>
       <c r="O88" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P88" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="Q88" t="n">
         <v>2.39</v>
@@ -16271,7 +16271,7 @@
         <v>32</v>
       </c>
       <c r="AC88" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AD88" t="n">
         <v>5.2</v>
@@ -16286,19 +16286,19 @@
         <v>101</v>
       </c>
       <c r="AH88" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AI88" t="n">
         <v>11.75</v>
       </c>
       <c r="AJ88" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AK88" t="n">
         <v>32</v>
       </c>
       <c r="AL88" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM88" t="n">
         <v>40</v>
@@ -16334,16 +16334,16 @@
         <v>4.8</v>
       </c>
       <c r="AX88" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AY88" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AZ88" t="n">
         <v>110</v>
       </c>
       <c r="BA88" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BB88" t="inlineStr"/>
       <c r="BC88" t="inlineStr"/>
@@ -16381,22 +16381,22 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>7.9</v>
+        <v>10.75</v>
       </c>
       <c r="H89" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="I89" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="J89" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="K89" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="L89" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="M89" t="n">
         <v>1.02</v>
@@ -16405,121 +16405,121 @@
         <v>12.9</v>
       </c>
       <c r="O89" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P89" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="R89" t="n">
-        <v>2.39</v>
+        <v>2.51</v>
       </c>
       <c r="S89" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="T89" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="U89" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="V89" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="W89" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="X89" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="Y89" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Z89" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="AA89" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>75</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF89" t="n">
         <v>70</v>
-      </c>
-      <c r="AB89" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC89" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AD89" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE89" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF89" t="n">
-        <v>65</v>
       </c>
       <c r="AG89" t="n">
         <v>400</v>
       </c>
       <c r="AH89" t="n">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="AI89" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AJ89" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="AK89" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="AL89" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AM89" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AN89" t="n">
-        <v>9.25</v>
+        <v>11.5</v>
       </c>
       <c r="AO89" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="AP89" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AQ89" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AR89" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AS89" t="n">
         <v>500</v>
       </c>
       <c r="AT89" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="AU89" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV89" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AW89" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AX89" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="AY89" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AZ89" t="n">
-        <v>13</v>
+        <v>11.25</v>
       </c>
       <c r="BA89" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BB89" t="n">
         <v>175</v>
@@ -16923,37 +16923,37 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H92" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I92" t="n">
-        <v>4.75</v>
+        <v>5.3</v>
       </c>
       <c r="J92" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="K92" t="n">
         <v>2.05</v>
       </c>
       <c r="L92" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="M92" t="n">
         <v>1.01</v>
       </c>
       <c r="N92" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="O92" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P92" t="n">
-        <v>2.73</v>
+        <v>2.78</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="R92" t="n">
         <v>1.6</v>
@@ -16965,101 +16965,101 @@
         <v>2.4</v>
       </c>
       <c r="U92" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="V92" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="W92" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="X92" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="Y92" t="n">
         <v>7</v>
       </c>
       <c r="Z92" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="AA92" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AB92" t="n">
         <v>25</v>
       </c>
       <c r="AC92" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AD92" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AE92" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF92" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AG92" t="inlineStr"/>
       <c r="AH92" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AI92" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AJ92" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AK92" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AL92" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AM92" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AN92" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AO92" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="AP92" t="n">
         <v>18.5</v>
       </c>
       <c r="AQ92" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR92" t="n">
         <v>65</v>
       </c>
       <c r="AS92" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT92" t="n">
         <v>2.4</v>
       </c>
       <c r="AU92" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="AV92" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW92" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AX92" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AY92" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AZ92" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BA92" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BB92" t="n">
         <v>500</v>
@@ -17121,16 +17121,16 @@
         <v>6.7</v>
       </c>
       <c r="M93" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N93" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="O93" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P93" t="n">
-        <v>3.04</v>
+        <v>2.94</v>
       </c>
       <c r="Q93" t="n">
         <v>1.83</v>
@@ -17303,10 +17303,10 @@
         <v>5.5</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="R94" t="n">
-        <v>2.69</v>
+        <v>2.65</v>
       </c>
       <c r="S94" t="n">
         <v>1.21</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-28.xlsx
@@ -747,40 +747,40 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L2" t="n">
         <v>2.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>
@@ -816,7 +816,7 @@
         <v>12</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
@@ -950,7 +950,7 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O3" t="n">
         <v>1.2</v>
@@ -959,10 +959,10 @@
         <v>4.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R3" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S3" t="n">
         <v>1.29</v>
@@ -1132,7 +1132,7 @@
         <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O4" t="n">
         <v>1.14</v>
@@ -1365,7 +1365,7 @@
         <v>7.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF5" t="n">
         <v>41</v>
@@ -1395,7 +1395,7 @@
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP5" t="n">
         <v>17</v>
@@ -1437,7 +1437,7 @@
         <v>151</v>
       </c>
       <c r="BC5" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J6" t="n">
         <v>3.5</v>
@@ -1532,7 +1532,7 @@
         <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA6" t="n">
         <v>23</v>
@@ -1568,7 +1568,7 @@
         <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM6" t="n">
         <v>41</v>
@@ -1687,10 +1687,10 @@
         <v>4.33</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S7" t="n">
         <v>1.33</v>
@@ -1804,7 +1804,7 @@
         <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
@@ -1860,7 +1860,7 @@
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O8" t="n">
         <v>1.17</v>
@@ -1983,7 +1983,7 @@
         <v>81</v>
       </c>
       <c r="BC8" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -2203,19 +2203,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
         <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J10" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K10" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L10" t="n">
         <v>3.75</v>
@@ -2224,7 +2224,7 @@
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O10" t="n">
         <v>1.17</v>
@@ -2245,10 +2245,10 @@
         <v>3.5</v>
       </c>
       <c r="U10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V10" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W10" t="n">
         <v>11</v>
@@ -2263,10 +2263,10 @@
         <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
         <v>17</v>
@@ -2305,7 +2305,7 @@
         <v>4.33</v>
       </c>
       <c r="AO10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP10" t="n">
         <v>17</v>
@@ -2415,10 +2415,10 @@
         <v>3.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="R11" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="S11" t="n">
         <v>1.44</v>
@@ -2597,10 +2597,10 @@
         <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R12" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="S12" t="n">
         <v>1.36</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13" t="n">
         <v>1.57</v>
       </c>
       <c r="K13" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="L13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="M13" t="n">
         <v>1.02</v>
@@ -2836,16 +2836,16 @@
         <v>51</v>
       </c>
       <c r="AJ13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK13" t="n">
         <v>151</v>
       </c>
       <c r="AL13" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN13" t="n">
         <v>3.4</v>
@@ -2860,7 +2860,7 @@
         <v>12</v>
       </c>
       <c r="AR13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS13" t="n">
         <v>101</v>
@@ -2875,10 +2875,10 @@
         <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AY13" t="n">
         <v>41</v>
@@ -2887,10 +2887,10 @@
         <v>201</v>
       </c>
       <c r="BA13" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB13" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC13" t="n">
         <v>501</v>
@@ -2931,13 +2931,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
         <v>3.75</v>
@@ -2946,7 +2946,7 @@
         <v>2.3</v>
       </c>
       <c r="L14" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2961,10 +2961,10 @@
         <v>4.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R14" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S14" t="n">
         <v>1.3</v>
@@ -3000,7 +3000,7 @@
         <v>15</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE14" t="n">
         <v>12</v>
@@ -3033,7 +3033,7 @@
         <v>5.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP14" t="n">
         <v>23</v>
@@ -3060,16 +3060,16 @@
         <v>4.33</v>
       </c>
       <c r="AX14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ14" t="n">
         <v>34</v>
       </c>
       <c r="BA14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB14" t="n">
         <v>101</v>
@@ -3119,7 +3119,7 @@
         <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J15" t="n">
         <v>2.6</v>
@@ -3131,10 +3131,10 @@
         <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
         <v>1.25</v>
@@ -3215,7 +3215,7 @@
         <v>4</v>
       </c>
       <c r="AO15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP15" t="n">
         <v>19</v>
@@ -3325,10 +3325,10 @@
         <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R16" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S16" t="n">
         <v>1.4</v>
@@ -3847,7 +3847,7 @@
         <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J19" t="n">
         <v>3</v>
@@ -3871,10 +3871,10 @@
         <v>3.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R19" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S19" t="n">
         <v>1.44</v>
@@ -3883,13 +3883,13 @@
         <v>2.63</v>
       </c>
       <c r="U19" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V19" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X19" t="n">
         <v>10</v>
@@ -3907,7 +3907,7 @@
         <v>29</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD19" t="n">
         <v>6</v>
@@ -3961,7 +3961,7 @@
         <v>2.63</v>
       </c>
       <c r="AU19" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV19" t="n">
         <v>51</v>
@@ -3982,13 +3982,13 @@
         <v>81</v>
       </c>
       <c r="BB19" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC19" t="n">
         <v>501</v>
       </c>
       <c r="BD19" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20">
@@ -4023,28 +4023,28 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
         <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J20" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K20" t="n">
         <v>2.05</v>
       </c>
       <c r="L20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M20" t="n">
         <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
         <v>1.36</v>
@@ -4089,7 +4089,7 @@
         <v>41</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD20" t="n">
         <v>6.5</v>
@@ -4098,7 +4098,7 @@
         <v>17</v>
       </c>
       <c r="AF20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG20" t="n">
         <v>401</v>
@@ -4122,7 +4122,7 @@
         <v>34</v>
       </c>
       <c r="AN20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO20" t="n">
         <v>23</v>
@@ -4134,7 +4134,7 @@
         <v>81</v>
       </c>
       <c r="AR20" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS20" t="n">
         <v>301</v>
@@ -4223,16 +4223,16 @@
         <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P21" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q21" t="n">
         <v>2.5</v>
@@ -4393,7 +4393,7 @@
         <v>3.7</v>
       </c>
       <c r="I22" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J22" t="n">
         <v>2.6</v>
@@ -4405,10 +4405,10 @@
         <v>3.6</v>
       </c>
       <c r="M22" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O22" t="n">
         <v>1.14</v>
@@ -4417,16 +4417,16 @@
         <v>5.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R22" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S22" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T22" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U22" t="n">
         <v>1.44</v>
@@ -4438,13 +4438,13 @@
         <v>12</v>
       </c>
       <c r="X22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y22" t="n">
         <v>9</v>
       </c>
       <c r="Z22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA22" t="n">
         <v>15</v>
@@ -4462,7 +4462,7 @@
         <v>11</v>
       </c>
       <c r="AF22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG22" t="n">
         <v>101</v>
@@ -4477,13 +4477,13 @@
         <v>12</v>
       </c>
       <c r="AK22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL22" t="n">
         <v>23</v>
       </c>
       <c r="AM22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN22" t="n">
         <v>4.5</v>
@@ -4504,7 +4504,7 @@
         <v>81</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU22" t="n">
         <v>7</v>
@@ -4569,13 +4569,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J23" t="n">
         <v>2.5</v>
@@ -4584,13 +4584,13 @@
         <v>2.25</v>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M23" t="n">
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
         <v>1.22</v>
@@ -4617,16 +4617,16 @@
         <v>2.1</v>
       </c>
       <c r="W23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y23" t="n">
         <v>8.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA23" t="n">
         <v>15</v>
@@ -4695,7 +4695,7 @@
         <v>51</v>
       </c>
       <c r="AW23" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX23" t="n">
         <v>21</v>
@@ -4751,28 +4751,28 @@
         </is>
       </c>
       <c r="G24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="J24" t="n">
         <v>8.5</v>
-      </c>
-      <c r="H24" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J24" t="n">
-        <v>8</v>
       </c>
       <c r="K24" t="n">
         <v>2.25</v>
       </c>
       <c r="L24" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O24" t="n">
         <v>1.3</v>
@@ -4793,10 +4793,10 @@
         <v>2.75</v>
       </c>
       <c r="U24" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V24" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W24" t="n">
         <v>17</v>
@@ -4817,7 +4817,7 @@
         <v>67</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD24" t="n">
         <v>8.5</v>
@@ -4841,7 +4841,7 @@
         <v>9</v>
       </c>
       <c r="AK24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AL24" t="n">
         <v>13</v>
@@ -4856,16 +4856,16 @@
         <v>41</v>
       </c>
       <c r="AP24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ24" t="n">
         <v>201</v>
       </c>
       <c r="AR24" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AS24" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AT24" t="n">
         <v>2.75</v>
@@ -4874,13 +4874,13 @@
         <v>10</v>
       </c>
       <c r="AV24" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW24" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AX24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY24" t="n">
         <v>21</v>
@@ -4892,7 +4892,7 @@
         <v>51</v>
       </c>
       <c r="BB24" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC24" t="n">
         <v>126</v>
@@ -4933,40 +4933,40 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="H25" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I25" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="J25" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K25" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L25" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="M25" t="n">
         <v>1.02</v>
       </c>
       <c r="N25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O25" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P25" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R25" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="S25" t="n">
         <v>1.25</v>
@@ -4981,10 +4981,10 @@
         <v>2.2</v>
       </c>
       <c r="W25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y25" t="n">
         <v>19</v>
@@ -4999,10 +4999,10 @@
         <v>41</v>
       </c>
       <c r="AC25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
@@ -5014,7 +5014,7 @@
         <v>151</v>
       </c>
       <c r="AH25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI25" t="n">
         <v>8.5</v>
@@ -5029,7 +5029,7 @@
         <v>11</v>
       </c>
       <c r="AM25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN25" t="n">
         <v>8</v>
@@ -5115,16 +5115,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H26" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I26" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K26" t="n">
         <v>2.25</v>
@@ -5133,10 +5133,10 @@
         <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O26" t="n">
         <v>1.25</v>
@@ -5166,7 +5166,7 @@
         <v>7.5</v>
       </c>
       <c r="X26" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y26" t="n">
         <v>8.5</v>
@@ -5196,13 +5196,13 @@
         <v>251</v>
       </c>
       <c r="AH26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK26" t="n">
         <v>51</v>
@@ -5214,10 +5214,10 @@
         <v>41</v>
       </c>
       <c r="AN26" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP26" t="n">
         <v>19</v>
@@ -5244,10 +5244,10 @@
         <v>6.5</v>
       </c>
       <c r="AX26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ26" t="n">
         <v>81</v>
@@ -5297,22 +5297,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H27" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K27" t="n">
         <v>2.2</v>
       </c>
       <c r="L27" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
         <v>1.06</v>
@@ -5354,13 +5354,13 @@
         <v>8.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA27" t="n">
         <v>15</v>
       </c>
       <c r="AB27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC27" t="n">
         <v>9.5</v>
@@ -5378,13 +5378,13 @@
         <v>301</v>
       </c>
       <c r="AH27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI27" t="n">
         <v>23</v>
       </c>
       <c r="AJ27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK27" t="n">
         <v>51</v>
@@ -5396,7 +5396,7 @@
         <v>41</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO27" t="n">
         <v>9.5</v>
@@ -5405,7 +5405,7 @@
         <v>21</v>
       </c>
       <c r="AQ27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR27" t="n">
         <v>51</v>
@@ -5423,10 +5423,10 @@
         <v>51</v>
       </c>
       <c r="AW27" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY27" t="n">
         <v>34</v>
@@ -5435,7 +5435,7 @@
         <v>81</v>
       </c>
       <c r="BA27" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB27" t="n">
         <v>251</v>
@@ -5479,13 +5479,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H28" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J28" t="n">
         <v>1.67</v>
@@ -5509,10 +5509,10 @@
         <v>5.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R28" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S28" t="n">
         <v>1.25</v>
@@ -5521,13 +5521,13 @@
         <v>3.75</v>
       </c>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V28" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X28" t="n">
         <v>7</v>
@@ -5551,7 +5551,7 @@
         <v>11</v>
       </c>
       <c r="AE28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF28" t="n">
         <v>67</v>
@@ -5661,13 +5661,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H29" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
         <v>1.91</v>
@@ -5709,13 +5709,13 @@
         <v>2.25</v>
       </c>
       <c r="W29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y29" t="n">
         <v>9</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>8.5</v>
       </c>
       <c r="Z29" t="n">
         <v>11</v>
@@ -5742,7 +5742,7 @@
         <v>126</v>
       </c>
       <c r="AH29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI29" t="n">
         <v>41</v>
@@ -5751,7 +5751,7 @@
         <v>21</v>
       </c>
       <c r="AK29" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL29" t="n">
         <v>41</v>
@@ -5796,7 +5796,7 @@
         <v>29</v>
       </c>
       <c r="AZ29" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA29" t="n">
         <v>81</v>
@@ -5864,7 +5864,7 @@
         <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O30" t="n">
         <v>1.22</v>
@@ -6034,7 +6034,7 @@
         <v>6.5</v>
       </c>
       <c r="J31" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K31" t="n">
         <v>2.38</v>
@@ -6046,7 +6046,7 @@
         <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O31" t="n">
         <v>1.22</v>
@@ -6067,10 +6067,10 @@
         <v>3.25</v>
       </c>
       <c r="U31" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V31" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W31" t="n">
         <v>7</v>
@@ -6091,7 +6091,7 @@
         <v>26</v>
       </c>
       <c r="AC31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD31" t="n">
         <v>8.5</v>
@@ -6112,7 +6112,7 @@
         <v>34</v>
       </c>
       <c r="AJ31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK31" t="n">
         <v>67</v>
@@ -6145,7 +6145,7 @@
         <v>3.25</v>
       </c>
       <c r="AU31" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV31" t="n">
         <v>51</v>
@@ -6166,7 +6166,7 @@
         <v>151</v>
       </c>
       <c r="BB31" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC31" t="n">
         <v>501</v>
@@ -6577,7 +6577,7 @@
         <v>6.5</v>
       </c>
       <c r="I34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J34" t="n">
         <v>1.62</v>
@@ -6589,10 +6589,10 @@
         <v>15</v>
       </c>
       <c r="M34" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O34" t="n">
         <v>1.25</v>
@@ -6601,25 +6601,25 @@
         <v>3.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R34" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
         <v>1.36</v>
       </c>
-      <c r="T34" t="n">
-        <v>3</v>
-      </c>
-      <c r="U34" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.33</v>
-      </c>
       <c r="W34" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X34" t="n">
         <v>4.75</v>
@@ -6682,19 +6682,19 @@
         <v>13</v>
       </c>
       <c r="AR34" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS34" t="n">
         <v>251</v>
       </c>
       <c r="AT34" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV34" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AW34" t="n">
         <v>15</v>
@@ -6703,7 +6703,7 @@
         <v>81</v>
       </c>
       <c r="AY34" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AZ34" t="n">
         <v>501</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H35" t="n">
         <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K35" t="n">
         <v>2.25</v>
       </c>
       <c r="L35" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M35" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O35" t="n">
         <v>1.2</v>
@@ -6783,10 +6783,10 @@
         <v>4.33</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R35" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S35" t="n">
         <v>1.33</v>
@@ -6813,7 +6813,7 @@
         <v>23</v>
       </c>
       <c r="AA35" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB35" t="n">
         <v>23</v>
@@ -6834,13 +6834,13 @@
         <v>126</v>
       </c>
       <c r="AH35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ35" t="n">
         <v>11</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>10</v>
       </c>
       <c r="AK35" t="n">
         <v>29</v>
@@ -6852,7 +6852,7 @@
         <v>26</v>
       </c>
       <c r="AN35" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO35" t="n">
         <v>13</v>
@@ -6888,7 +6888,7 @@
         <v>21</v>
       </c>
       <c r="AZ35" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA35" t="n">
         <v>51</v>
@@ -6965,10 +6965,10 @@
         <v>4</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R36" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S36" t="n">
         <v>1.33</v>
@@ -10166,7 +10166,7 @@
         <v>2.3</v>
       </c>
       <c r="L54" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M54" t="n">
         <v>1.05</v>
@@ -10238,10 +10238,10 @@
         <v>34</v>
       </c>
       <c r="AJ54" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK54" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL54" t="n">
         <v>51</v>
@@ -10280,7 +10280,7 @@
         <v>8</v>
       </c>
       <c r="AX54" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY54" t="n">
         <v>41</v>
@@ -10292,7 +10292,7 @@
         <v>151</v>
       </c>
       <c r="BB54" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC54" t="inlineStr"/>
       <c r="BD54" t="inlineStr"/>
@@ -10349,10 +10349,10 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="P55" t="n">
-        <v>2.48</v>
+        <v>2.63</v>
       </c>
       <c r="Q55" t="n">
         <v>2.2</v>
@@ -10367,10 +10367,10 @@
         <v>2.22</v>
       </c>
       <c r="U55" t="n">
-        <v>2.35</v>
+        <v>2.61</v>
       </c>
       <c r="V55" t="n">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
       <c r="W55" t="n">
         <v>4.3</v>
@@ -10859,136 +10859,136 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H58" t="n">
         <v>3</v>
       </c>
       <c r="I58" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="J58" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="K58" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="L58" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="M58" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N58" t="n">
-        <v>6.01</v>
+        <v>6.5</v>
       </c>
       <c r="O58" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="P58" t="n">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="R58" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S58" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="T58" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="U58" t="n">
-        <v>1.95</v>
+        <v>2.11</v>
       </c>
       <c r="V58" t="n">
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="W58" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X58" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>37</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC58" t="n">
         <v>7</v>
       </c>
-      <c r="X58" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>35</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AD58" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="AE58" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="AF58" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AG58" t="n">
         <v>500</v>
       </c>
       <c r="AH58" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="AI58" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AJ58" t="n">
-        <v>7.7</v>
+        <v>9.25</v>
       </c>
       <c r="AK58" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AL58" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AM58" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="AN58" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AO58" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AP58" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AQ58" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AR58" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AS58" t="n">
         <v>500</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU58" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AV58" t="n">
         <v>90</v>
       </c>
       <c r="AW58" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="AX58" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AY58" t="n">
         <v>24</v>
@@ -11037,40 +11037,40 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="H59" t="n">
-        <v>5.85</v>
+        <v>6.1</v>
       </c>
       <c r="I59" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="J59" t="n">
-        <v>9.35</v>
+        <v>9.25</v>
       </c>
       <c r="K59" t="n">
-        <v>2.65</v>
+        <v>2.71</v>
       </c>
       <c r="L59" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="M59" t="n">
         <v>1.02</v>
       </c>
       <c r="N59" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="O59" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="P59" t="n">
-        <v>4.6</v>
+        <v>4.95</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="R59" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="S59" t="n">
         <v>1.26</v>
@@ -11079,10 +11079,10 @@
         <v>3.5</v>
       </c>
       <c r="U59" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V59" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W59" t="n">
         <v>29</v>
@@ -11103,7 +11103,7 @@
         <v>81</v>
       </c>
       <c r="AC59" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD59" t="n">
         <v>11</v>
@@ -11116,13 +11116,13 @@
       </c>
       <c r="AG59" t="inlineStr"/>
       <c r="AH59" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI59" t="n">
         <v>5.5</v>
       </c>
       <c r="AJ59" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK59" t="n">
         <v>6.5</v>
@@ -11152,7 +11152,7 @@
         <v>81</v>
       </c>
       <c r="AT59" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AU59" t="n">
         <v>7</v>
@@ -11167,13 +11167,13 @@
         <v>4.33</v>
       </c>
       <c r="AY59" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ59" t="n">
         <v>10</v>
       </c>
       <c r="BA59" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BB59" t="n">
         <v>81</v>
@@ -11396,19 +11396,19 @@
         <v>2.02</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I61" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J61" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="K61" t="n">
         <v>1.95</v>
       </c>
       <c r="L61" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="M61" t="n">
         <v>1.04</v>
@@ -11417,10 +11417,10 @@
         <v>6.3</v>
       </c>
       <c r="O61" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="P61" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q61" t="n">
         <v>2.25</v>
@@ -11453,13 +11453,13 @@
         <v>18.5</v>
       </c>
       <c r="AA61" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AB61" t="n">
         <v>37</v>
       </c>
       <c r="AC61" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AD61" t="n">
         <v>6</v>
@@ -11474,7 +11474,7 @@
         <v>800</v>
       </c>
       <c r="AH61" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AI61" t="n">
         <v>18.5</v>
@@ -11489,7 +11489,7 @@
         <v>45</v>
       </c>
       <c r="AM61" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN61" t="n">
         <v>3.7</v>
@@ -11498,16 +11498,16 @@
         <v>10.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ61" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR61" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS61" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AT61" t="n">
         <v>2.27</v>
@@ -11522,13 +11522,13 @@
         <v>5.4</v>
       </c>
       <c r="AX61" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY61" t="n">
         <v>32</v>
       </c>
       <c r="AZ61" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BA61" t="n">
         <v>200</v>
@@ -12463,145 +12463,141 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="H67" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I67" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="J67" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="K67" t="n">
         <v>2.1</v>
       </c>
       <c r="L67" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N67" t="n">
-        <v>7.8</v>
-      </c>
+        <v>2.52</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
       <c r="O67" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="P67" t="n">
-        <v>2.97</v>
+        <v>3.14</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="R67" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="S67" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="T67" t="n">
-        <v>2.73</v>
+        <v>2.5</v>
       </c>
       <c r="U67" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="V67" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="W67" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="X67" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y67" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z67" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AA67" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB67" t="n">
         <v>29</v>
       </c>
       <c r="AC67" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AD67" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="AE67" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AF67" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG67" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH67" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="AI67" t="n">
         <v>8</v>
       </c>
       <c r="AJ67" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AK67" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL67" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AM67" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN67" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AO67" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AP67" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ67" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AR67" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AS67" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AT67" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="AU67" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AV67" t="n">
         <v>65</v>
       </c>
       <c r="AW67" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="AX67" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AY67" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AZ67" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BA67" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BB67" t="n">
         <v>250</v>
@@ -12664,13 +12660,13 @@
         <v>1.06</v>
       </c>
       <c r="P68" t="n">
-        <v>5.75</v>
+        <v>5.6</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="R68" t="n">
-        <v>2.78</v>
+        <v>2.73</v>
       </c>
       <c r="S68" t="n">
         <v>1.22</v>
@@ -12829,10 +12825,10 @@
         <v>3.95</v>
       </c>
       <c r="M69" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N69" t="n">
-        <v>5.95</v>
+        <v>6</v>
       </c>
       <c r="O69" t="n">
         <v>1.5</v>
@@ -12841,10 +12837,10 @@
         <v>2.27</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="R69" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="S69" t="n">
         <v>1.52</v>
@@ -12853,10 +12849,10 @@
         <v>2.12</v>
       </c>
       <c r="U69" t="n">
-        <v>2.04</v>
+        <v>2.25</v>
       </c>
       <c r="V69" t="n">
-        <v>1.74</v>
+        <v>1.57</v>
       </c>
       <c r="W69" t="n">
         <v>5.1</v>
@@ -12989,22 +12985,22 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>5.6</v>
+        <v>6.5</v>
       </c>
       <c r="H70" t="n">
-        <v>3.9</v>
+        <v>4.25</v>
       </c>
       <c r="I70" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="J70" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K70" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="L70" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="M70" t="n">
         <v>1.01</v>
@@ -13013,16 +13009,16 @@
         <v>11</v>
       </c>
       <c r="O70" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P70" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R70" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S70" t="n">
         <v>1.39</v>
@@ -13031,73 +13027,73 @@
         <v>2.55</v>
       </c>
       <c r="U70" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="V70" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="W70" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="X70" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Y70" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Z70" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AA70" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB70" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AC70" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="AD70" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="AE70" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AF70" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG70" t="n">
         <v>700</v>
       </c>
       <c r="AH70" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AI70" t="n">
         <v>6.6</v>
-      </c>
-      <c r="AI70" t="n">
-        <v>6.9</v>
       </c>
       <c r="AJ70" t="n">
         <v>8.25</v>
       </c>
       <c r="AK70" t="n">
-        <v>10.5</v>
+        <v>9.25</v>
       </c>
       <c r="AL70" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AM70" t="n">
         <v>27</v>
       </c>
       <c r="AN70" t="n">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="AO70" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AP70" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AQ70" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AR70" t="n">
         <v>250</v>
@@ -13106,28 +13102,28 @@
         <v>500</v>
       </c>
       <c r="AT70" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="AU70" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AV70" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW70" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AX70" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="AY70" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AZ70" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="BA70" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB70" t="n">
         <v>250</v>
@@ -13188,7 +13184,7 @@
         <v>1.04</v>
       </c>
       <c r="N71" t="n">
-        <v>6.45</v>
+        <v>6.35</v>
       </c>
       <c r="O71" t="n">
         <v>1.47</v>
@@ -14063,13 +14059,13 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H76" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I76" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J76" t="n">
         <v>4.75</v>
@@ -14078,7 +14074,7 @@
         <v>2.05</v>
       </c>
       <c r="L76" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M76" t="n">
         <v>1.07</v>
@@ -14138,16 +14134,16 @@
         <v>17</v>
       </c>
       <c r="AF76" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG76" t="n">
-        <v>1000</v>
+        <v>351</v>
       </c>
       <c r="AH76" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI76" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ76" t="n">
         <v>9</v>
@@ -14183,7 +14179,7 @@
         <v>2.5</v>
       </c>
       <c r="AU76" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV76" t="n">
         <v>67</v>
@@ -14192,16 +14188,16 @@
         <v>3.75</v>
       </c>
       <c r="AX76" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY76" t="n">
         <v>23</v>
       </c>
       <c r="AZ76" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA76" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB76" t="n">
         <v>201</v>
@@ -14262,7 +14258,7 @@
         <v>1.04</v>
       </c>
       <c r="N77" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O77" t="n">
         <v>1.25</v>
@@ -14289,7 +14285,7 @@
         <v>1.91</v>
       </c>
       <c r="W77" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X77" t="n">
         <v>21</v>
@@ -14301,7 +14297,7 @@
         <v>41</v>
       </c>
       <c r="AA77" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB77" t="n">
         <v>34</v>
@@ -14319,7 +14315,7 @@
         <v>51</v>
       </c>
       <c r="AG77" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH77" t="n">
         <v>7.5</v>
@@ -15139,28 +15135,28 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H82" t="n">
         <v>3.1</v>
       </c>
       <c r="I82" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J82" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K82" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L82" t="n">
         <v>3.5</v>
       </c>
       <c r="M82" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N82" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="O82" t="n">
         <v>1.33</v>
@@ -15169,10 +15165,10 @@
         <v>3.25</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R82" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S82" t="n">
         <v>1.44</v>
@@ -15196,7 +15192,7 @@
         <v>10</v>
       </c>
       <c r="Z82" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA82" t="n">
         <v>21</v>
@@ -15244,7 +15240,7 @@
         <v>13</v>
       </c>
       <c r="AP82" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ82" t="n">
         <v>41</v>
@@ -15265,13 +15261,13 @@
         <v>51</v>
       </c>
       <c r="AW82" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX82" t="n">
         <v>17</v>
       </c>
       <c r="AY82" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ82" t="n">
         <v>51</v>
@@ -15869,10 +15865,10 @@
         <v>5.6</v>
       </c>
       <c r="M86" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N86" t="n">
-        <v>5.55</v>
+        <v>6</v>
       </c>
       <c r="O86" t="n">
         <v>1.47</v>
@@ -15893,10 +15889,10 @@
         <v>2.2</v>
       </c>
       <c r="U86" t="n">
-        <v>2.3</v>
+        <v>2.61</v>
       </c>
       <c r="V86" t="n">
-        <v>1.59</v>
+        <v>1.43</v>
       </c>
       <c r="W86" t="n">
         <v>4.2</v>
@@ -16223,10 +16219,10 @@
         <v>3.85</v>
       </c>
       <c r="M88" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N88" t="n">
-        <v>6.35</v>
+        <v>6</v>
       </c>
       <c r="O88" t="n">
         <v>1.47</v>
@@ -16235,10 +16231,10 @@
         <v>2.32</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="R88" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="S88" t="n">
         <v>1.53</v>
@@ -16247,10 +16243,10 @@
         <v>2.1</v>
       </c>
       <c r="U88" t="n">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="V88" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="W88" t="n">
         <v>5</v>
@@ -16390,10 +16386,10 @@
         <v>1.18</v>
       </c>
       <c r="J89" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="K89" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="L89" t="n">
         <v>1.55</v>
@@ -16411,10 +16407,10 @@
         <v>5</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R89" t="n">
-        <v>2.51</v>
+        <v>2.48</v>
       </c>
       <c r="S89" t="n">
         <v>1.19</v>
@@ -16423,19 +16419,19 @@
         <v>4.2</v>
       </c>
       <c r="U89" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="V89" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="W89" t="n">
+        <v>28</v>
+      </c>
+      <c r="X89" t="n">
+        <v>75</v>
+      </c>
+      <c r="Y89" t="n">
         <v>30</v>
-      </c>
-      <c r="X89" t="n">
-        <v>80</v>
-      </c>
-      <c r="Y89" t="n">
-        <v>29</v>
       </c>
       <c r="Z89" t="n">
         <v>300</v>
@@ -16444,40 +16440,40 @@
         <v>110</v>
       </c>
       <c r="AB89" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AC89" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AD89" t="n">
         <v>11</v>
       </c>
       <c r="AE89" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AF89" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AG89" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AH89" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AI89" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="AJ89" t="n">
         <v>8.25</v>
       </c>
       <c r="AK89" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AL89" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AM89" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AN89" t="n">
         <v>11.5</v>
@@ -16486,13 +16482,13 @@
         <v>65</v>
       </c>
       <c r="AP89" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AQ89" t="n">
         <v>500</v>
       </c>
       <c r="AR89" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AS89" t="n">
         <v>500</v>
@@ -16501,28 +16497,28 @@
         <v>3.65</v>
       </c>
       <c r="AU89" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AV89" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW89" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AX89" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="AY89" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AZ89" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="BA89" t="n">
         <v>32</v>
       </c>
       <c r="BB89" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC89" t="inlineStr"/>
       <c r="BD89" t="inlineStr"/>
@@ -16923,34 +16919,34 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H92" t="n">
         <v>3.3</v>
       </c>
       <c r="I92" t="n">
+        <v>5</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K92" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L92" t="n">
         <v>5.3</v>
       </c>
-      <c r="J92" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="K92" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L92" t="n">
-        <v>5.5</v>
-      </c>
       <c r="M92" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N92" t="n">
-        <v>7.8</v>
+        <v>8.59</v>
       </c>
       <c r="O92" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P92" t="n">
-        <v>2.78</v>
+        <v>3.04</v>
       </c>
       <c r="Q92" t="n">
         <v>2.05</v>
@@ -16962,104 +16958,104 @@
         <v>1.4</v>
       </c>
       <c r="T92" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="U92" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="V92" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="W92" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="X92" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="Y92" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="Z92" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AA92" t="n">
         <v>11.75</v>
       </c>
       <c r="AB92" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC92" t="n">
         <v>7.7</v>
       </c>
       <c r="AD92" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AE92" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF92" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG92" t="inlineStr"/>
       <c r="AH92" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AI92" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AJ92" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK92" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL92" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AM92" t="n">
         <v>50</v>
       </c>
       <c r="AN92" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AO92" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AP92" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ92" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR92" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS92" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT92" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="AU92" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AV92" t="n">
         <v>80</v>
       </c>
       <c r="AW92" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AX92" t="n">
         <v>32</v>
       </c>
       <c r="AY92" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AZ92" t="n">
+        <v>200</v>
+      </c>
+      <c r="BA92" t="n">
         <v>250</v>
-      </c>
-      <c r="BA92" t="n">
-        <v>300</v>
       </c>
       <c r="BB92" t="n">
         <v>500</v>
@@ -17103,97 +17099,97 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="H93" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I93" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="J93" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K93" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L93" t="n">
+        <v>7</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N93" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O93" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P93" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Q93" t="n">
         <v>1.9</v>
       </c>
-      <c r="K93" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L93" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="M93" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N93" t="n">
-        <v>7</v>
-      </c>
-      <c r="O93" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P93" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>1.83</v>
-      </c>
       <c r="R93" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="S93" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="T93" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="U93" t="inlineStr"/>
       <c r="V93" t="inlineStr"/>
       <c r="W93" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="X93" t="n">
         <v>5</v>
       </c>
-      <c r="X93" t="n">
-        <v>5.1</v>
-      </c>
       <c r="Y93" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="Z93" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AA93" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AB93" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC93" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD93" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AE93" t="n">
         <v>18</v>
       </c>
       <c r="AF93" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG93" t="inlineStr"/>
       <c r="AH93" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AI93" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ93" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AK93" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AL93" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM93" t="n">
         <v>70</v>
-      </c>
-      <c r="AM93" t="n">
-        <v>65</v>
       </c>
       <c r="AN93" t="n">
         <v>3.05</v>
@@ -17205,7 +17201,7 @@
         <v>19</v>
       </c>
       <c r="AQ93" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AR93" t="n">
         <v>55</v>
@@ -17214,28 +17210,28 @@
         <v>300</v>
       </c>
       <c r="AT93" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="AU93" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AV93" t="n">
         <v>100</v>
       </c>
       <c r="AW93" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AX93" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AY93" t="n">
         <v>50</v>
       </c>
       <c r="AZ93" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BA93" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BB93" t="inlineStr"/>
       <c r="BC93" t="inlineStr"/>
@@ -17303,10 +17299,10 @@
         <v>5.5</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="R94" t="n">
-        <v>2.65</v>
+        <v>2.73</v>
       </c>
       <c r="S94" t="n">
         <v>1.21</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-28.xlsx
@@ -747,40 +747,40 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
         <v>2.3</v>
       </c>
       <c r="L2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>
@@ -798,22 +798,22 @@
         <v>13</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="n">
         <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="n">
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
         <v>7</v>
@@ -831,16 +831,16 @@
         <v>8.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ2" t="n">
         <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM2" t="n">
         <v>23</v>
@@ -876,13 +876,13 @@
         <v>4</v>
       </c>
       <c r="AX2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AY2" t="n">
         <v>19</v>
       </c>
       <c r="AZ2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA2" t="n">
         <v>51</v>
@@ -929,40 +929,40 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
+        <v>11</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L3" t="n">
         <v>10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="L3" t="n">
-        <v>9.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O3" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R3" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S3" t="n">
         <v>1.29</v>
@@ -971,10 +971,10 @@
         <v>3.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
         <v>7.5</v>
@@ -986,7 +986,7 @@
         <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA3" t="n">
         <v>11</v>
@@ -998,10 +998,10 @@
         <v>15</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF3" t="n">
         <v>81</v>
@@ -1010,31 +1010,31 @@
         <v>501</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
         <v>51</v>
       </c>
       <c r="AJ3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM3" t="n">
         <v>67</v>
       </c>
-      <c r="AM3" t="n">
-        <v>51</v>
-      </c>
       <c r="AN3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AO3" t="n">
         <v>5.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ3" t="n">
         <v>13</v>
@@ -1049,31 +1049,31 @@
         <v>3.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX3" t="n">
         <v>51</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BA3" t="n">
         <v>251</v>
       </c>
       <c r="BB3" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H4" t="n">
         <v>3.75</v>
       </c>
       <c r="I4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
         <v>2.5</v>
       </c>
       <c r="L4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.02</v>
@@ -1135,10 +1135,10 @@
         <v>19</v>
       </c>
       <c r="O4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q4" t="n">
         <v>1.44</v>
@@ -1162,16 +1162,16 @@
         <v>17</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
         <v>21</v>
@@ -1186,13 +1186,13 @@
         <v>11</v>
       </c>
       <c r="AF4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG4" t="n">
         <v>81</v>
       </c>
       <c r="AH4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI4" t="n">
         <v>15</v>
@@ -1201,7 +1201,7 @@
         <v>9.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
         <v>15</v>
@@ -1216,7 +1216,7 @@
         <v>15</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ4" t="n">
         <v>41</v>
@@ -1225,13 +1225,13 @@
         <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT4" t="n">
         <v>3.75</v>
       </c>
       <c r="AU4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AV4" t="n">
         <v>41</v>
@@ -1240,7 +1240,7 @@
         <v>4.75</v>
       </c>
       <c r="AX4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY4" t="n">
         <v>17</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="J5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="K5" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
@@ -1335,16 +1335,16 @@
         <v>3.4</v>
       </c>
       <c r="U5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W5" t="n">
         <v>9.5</v>
       </c>
       <c r="X5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
@@ -1374,34 +1374,34 @@
         <v>126</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN5" t="n">
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AP5" t="n">
         <v>17</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR5" t="n">
         <v>41</v>
@@ -1419,25 +1419,25 @@
         <v>41</v>
       </c>
       <c r="AW5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX5" t="n">
         <v>21</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
         <v>67</v>
       </c>
       <c r="BA5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB5" t="n">
         <v>151</v>
       </c>
       <c r="BC5" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1475,58 +1475,58 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J6" t="n">
         <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="O6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S6" t="n">
         <v>1.44</v>
       </c>
-      <c r="P6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.53</v>
-      </c>
       <c r="T6" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V6" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
         <v>11</v>
@@ -1538,49 +1538,49 @@
         <v>23</v>
       </c>
       <c r="AB6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AH6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI6" t="n">
         <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO6" t="n">
         <v>17</v>
       </c>
       <c r="AP6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
         <v>51</v>
@@ -1589,25 +1589,25 @@
         <v>81</v>
       </c>
       <c r="AS6" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW6" t="n">
         <v>4.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ6" t="n">
         <v>51</v>
@@ -1616,13 +1616,13 @@
         <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="H7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="K7" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1681,22 +1681,22 @@
         <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="R7" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
         <v>2.2</v>
@@ -1705,16 +1705,16 @@
         <v>1.62</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X7" t="n">
         <v>6</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA7" t="n">
         <v>12</v>
@@ -1723,13 +1723,13 @@
         <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="n">
         <v>81</v>
@@ -1741,10 +1741,10 @@
         <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK7" t="n">
         <v>126</v>
@@ -1756,16 +1756,16 @@
         <v>67</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AO7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AP7" t="n">
         <v>19</v>
       </c>
       <c r="AQ7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR7" t="n">
         <v>41</v>
@@ -1774,7 +1774,7 @@
         <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
         <v>10</v>
@@ -1783,19 +1783,19 @@
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AY7" t="n">
         <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BA7" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB7" t="n">
         <v>451</v>
@@ -1839,52 +1839,52 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
         <v>3.8</v>
       </c>
       <c r="I8" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
         <v>2.4</v>
       </c>
       <c r="L8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O8" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="R8" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="S8" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T8" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W8" t="n">
         <v>15</v>
@@ -1893,19 +1893,19 @@
         <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB8" t="n">
         <v>23</v>
       </c>
-      <c r="AB8" t="n">
-        <v>26</v>
-      </c>
       <c r="AC8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD8" t="n">
         <v>7.5</v>
@@ -1914,37 +1914,37 @@
         <v>11</v>
       </c>
       <c r="AF8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG8" t="n">
         <v>101</v>
       </c>
       <c r="AH8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ8" t="n">
         <v>9</v>
       </c>
       <c r="AK8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM8" t="n">
         <v>19</v>
       </c>
       <c r="AN8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
         <v>51</v>
@@ -1956,7 +1956,7 @@
         <v>101</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU8" t="n">
         <v>7</v>
@@ -1965,16 +1965,16 @@
         <v>41</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY8" t="n">
         <v>17</v>
       </c>
       <c r="AZ8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA8" t="n">
         <v>41</v>
@@ -2021,46 +2021,46 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="J9" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="K9" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="R9" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T9" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U9" t="n">
         <v>1.75</v>
@@ -2069,28 +2069,28 @@
         <v>2</v>
       </c>
       <c r="W9" t="n">
+        <v>12</v>
+      </c>
+      <c r="X9" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y9" t="n">
         <v>13</v>
       </c>
-      <c r="X9" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>15</v>
-      </c>
       <c r="Z9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB9" t="n">
         <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2102,43 +2102,43 @@
         <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ9" t="n">
         <v>8.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP9" t="n">
         <v>29</v>
       </c>
       <c r="AQ9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR9" t="n">
         <v>81</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>101</v>
       </c>
       <c r="AS9" t="n">
         <v>201</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
         <v>8</v>
@@ -2147,19 +2147,19 @@
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB9" t="n">
         <v>126</v>
@@ -2224,7 +2224,7 @@
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O10" t="n">
         <v>1.17</v>
@@ -2409,22 +2409,22 @@
         <v>10</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="R11" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="S11" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T11" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U11" t="n">
         <v>1.8</v>
@@ -2439,7 +2439,7 @@
         <v>15</v>
       </c>
       <c r="Y11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z11" t="n">
         <v>34</v>
@@ -2451,7 +2451,7 @@
         <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
         <v>6.5</v>
@@ -2466,7 +2466,7 @@
         <v>251</v>
       </c>
       <c r="AH11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI11" t="n">
         <v>11</v>
@@ -2487,7 +2487,7 @@
         <v>5</v>
       </c>
       <c r="AO11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP11" t="n">
         <v>26</v>
@@ -2502,7 +2502,7 @@
         <v>201</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU11" t="n">
         <v>8</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J12" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K12" t="n">
         <v>2.25</v>
       </c>
       <c r="L12" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
@@ -2597,10 +2597,10 @@
         <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R12" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="S12" t="n">
         <v>1.36</v>
@@ -2618,7 +2618,7 @@
         <v>8</v>
       </c>
       <c r="X12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y12" t="n">
         <v>8.5</v>
@@ -2627,7 +2627,7 @@
         <v>15</v>
       </c>
       <c r="AA12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB12" t="n">
         <v>23</v>
@@ -2636,7 +2636,7 @@
         <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
         <v>13</v>
@@ -2657,7 +2657,7 @@
         <v>15</v>
       </c>
       <c r="AK12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL12" t="n">
         <v>34</v>
@@ -2669,13 +2669,13 @@
         <v>3.75</v>
       </c>
       <c r="AO12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP12" t="n">
         <v>19</v>
       </c>
       <c r="AQ12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR12" t="n">
         <v>51</v>
@@ -2702,10 +2702,10 @@
         <v>29</v>
       </c>
       <c r="AZ12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB12" t="n">
         <v>201</v>
@@ -2758,13 +2758,13 @@
         <v>12</v>
       </c>
       <c r="J13" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="K13" t="n">
         <v>2.88</v>
       </c>
       <c r="L13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.02</v>
@@ -2779,10 +2779,10 @@
         <v>6</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="S13" t="n">
         <v>1.22</v>
@@ -2791,10 +2791,10 @@
         <v>4</v>
       </c>
       <c r="U13" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V13" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W13" t="n">
         <v>10</v>
@@ -2803,7 +2803,7 @@
         <v>7.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z13" t="n">
         <v>8</v>
@@ -2818,10 +2818,10 @@
         <v>21</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="n">
         <v>51</v>
@@ -2830,16 +2830,16 @@
         <v>251</v>
       </c>
       <c r="AH13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI13" t="n">
         <v>51</v>
       </c>
       <c r="AJ13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK13" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL13" t="n">
         <v>67</v>
@@ -2857,7 +2857,7 @@
         <v>15</v>
       </c>
       <c r="AQ13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR13" t="n">
         <v>34</v>
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H14" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L14" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2979,13 +2979,13 @@
         <v>2.25</v>
       </c>
       <c r="W14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X14" t="n">
         <v>21</v>
       </c>
       <c r="Y14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z14" t="n">
         <v>41</v>
@@ -3018,19 +3018,19 @@
         <v>11</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM14" t="n">
         <v>21</v>
       </c>
       <c r="AN14" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO14" t="n">
         <v>19</v>
@@ -3051,7 +3051,7 @@
         <v>3.4</v>
       </c>
       <c r="AU14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV14" t="n">
         <v>41</v>
@@ -3066,7 +3066,7 @@
         <v>17</v>
       </c>
       <c r="AZ14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA14" t="n">
         <v>41</v>
@@ -3301,7 +3301,7 @@
         <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
         <v>2.6</v>
@@ -3319,16 +3319,16 @@
         <v>10</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P16" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="R16" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="S16" t="n">
         <v>1.4</v>
@@ -3337,10 +3337,10 @@
         <v>2.75</v>
       </c>
       <c r="U16" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V16" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W16" t="n">
         <v>7.5</v>
@@ -3361,7 +3361,7 @@
         <v>26</v>
       </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD16" t="n">
         <v>6.5</v>
@@ -3373,7 +3373,7 @@
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH16" t="n">
         <v>12</v>
@@ -3659,7 +3659,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H18" t="n">
         <v>4.1</v>
@@ -3668,13 +3668,13 @@
         <v>4.5</v>
       </c>
       <c r="J18" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K18" t="n">
         <v>2.4</v>
       </c>
       <c r="L18" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
@@ -3695,10 +3695,10 @@
         <v>2.3</v>
       </c>
       <c r="S18" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U18" t="n">
         <v>1.62</v>
@@ -3707,7 +3707,7 @@
         <v>2.2</v>
       </c>
       <c r="W18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X18" t="n">
         <v>9.5</v>
@@ -3716,7 +3716,7 @@
         <v>8.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA18" t="n">
         <v>12</v>
@@ -3740,7 +3740,7 @@
         <v>151</v>
       </c>
       <c r="AH18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
         <v>26</v>
@@ -3776,7 +3776,7 @@
         <v>101</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU18" t="n">
         <v>7.5</v>
@@ -3803,7 +3803,7 @@
         <v>151</v>
       </c>
       <c r="BC18" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD18" t="n">
         <v>151</v>
@@ -3865,10 +3865,10 @@
         <v>8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P19" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="n">
         <v>2.2</v>
@@ -4205,22 +4205,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="H21" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I21" t="n">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="J21" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
         <v>1.91</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M21" t="n">
         <v>1.11</v>
@@ -4235,10 +4235,10 @@
         <v>2.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R21" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S21" t="n">
         <v>1.57</v>
@@ -4253,25 +4253,25 @@
         <v>1.67</v>
       </c>
       <c r="W21" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB21" t="n">
         <v>41</v>
       </c>
-      <c r="AA21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>51</v>
-      </c>
       <c r="AC21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD21" t="n">
         <v>5.5</v>
@@ -4286,37 +4286,37 @@
         <v>501</v>
       </c>
       <c r="AH21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ21" t="n">
         <v>10</v>
       </c>
       <c r="AK21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM21" t="n">
         <v>41</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP21" t="n">
         <v>34</v>
       </c>
       <c r="AQ21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR21" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS21" t="n">
         <v>351</v>
@@ -4328,25 +4328,25 @@
         <v>9</v>
       </c>
       <c r="AV21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW21" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY21" t="n">
         <v>29</v>
       </c>
       <c r="AZ21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA21" t="n">
         <v>81</v>
       </c>
       <c r="BB21" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC21" t="n">
         <v>126</v>
@@ -4390,13 +4390,13 @@
         <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I22" t="n">
         <v>3.3</v>
       </c>
       <c r="J22" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K22" t="n">
         <v>2.4</v>
@@ -4417,16 +4417,16 @@
         <v>5.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R22" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S22" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T22" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U22" t="n">
         <v>1.44</v>
@@ -4438,7 +4438,7 @@
         <v>12</v>
       </c>
       <c r="X22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y22" t="n">
         <v>9</v>
@@ -4483,7 +4483,7 @@
         <v>23</v>
       </c>
       <c r="AM22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN22" t="n">
         <v>4.5</v>
@@ -4504,7 +4504,7 @@
         <v>81</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU22" t="n">
         <v>7</v>
@@ -4569,37 +4569,37 @@
         </is>
       </c>
       <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>4</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N23" t="n">
+        <v>11</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q23" t="n">
         <v>1.85</v>
-      </c>
-      <c r="H23" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L23" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N23" t="n">
-        <v>13</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.8</v>
       </c>
       <c r="R23" t="n">
         <v>2</v>
@@ -4620,13 +4620,13 @@
         <v>8</v>
       </c>
       <c r="X23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y23" t="n">
         <v>8.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA23" t="n">
         <v>15</v>
@@ -4635,10 +4635,10 @@
         <v>23</v>
       </c>
       <c r="AC23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE23" t="n">
         <v>13</v>
@@ -4647,13 +4647,13 @@
         <v>41</v>
       </c>
       <c r="AG23" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="n">
         <v>13</v>
@@ -4671,10 +4671,10 @@
         <v>4</v>
       </c>
       <c r="AO23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ23" t="n">
         <v>34</v>
@@ -4695,10 +4695,10 @@
         <v>51</v>
       </c>
       <c r="AW23" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY23" t="n">
         <v>26</v>
@@ -4754,16 +4754,16 @@
         <v>9.5</v>
       </c>
       <c r="H24" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I24" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="J24" t="n">
         <v>8.5</v>
       </c>
       <c r="K24" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L24" t="n">
         <v>1.91</v>
@@ -4799,7 +4799,7 @@
         <v>1.57</v>
       </c>
       <c r="W24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X24" t="n">
         <v>41</v>
@@ -4808,7 +4808,7 @@
         <v>26</v>
       </c>
       <c r="Z24" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AA24" t="n">
         <v>67</v>
@@ -4817,7 +4817,7 @@
         <v>67</v>
       </c>
       <c r="AC24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD24" t="n">
         <v>8.5</v>
@@ -4841,7 +4841,7 @@
         <v>9</v>
       </c>
       <c r="AK24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AL24" t="n">
         <v>13</v>
@@ -4850,7 +4850,7 @@
         <v>34</v>
       </c>
       <c r="AN24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO24" t="n">
         <v>41</v>
@@ -4859,7 +4859,7 @@
         <v>51</v>
       </c>
       <c r="AQ24" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AR24" t="n">
         <v>251</v>
@@ -4886,7 +4886,7 @@
         <v>21</v>
       </c>
       <c r="AZ24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA24" t="n">
         <v>51</v>
@@ -4933,28 +4933,28 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>6.25</v>
+        <v>5</v>
       </c>
       <c r="H25" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="I25" t="n">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="J25" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="K25" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="M25" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O25" t="n">
         <v>1.14</v>
@@ -4963,115 +4963,115 @@
         <v>5.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R25" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S25" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T25" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U25" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V25" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X25" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA25" t="n">
         <v>34</v>
       </c>
-      <c r="Y25" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>41</v>
-      </c>
       <c r="AB25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF25" t="n">
         <v>41</v>
       </c>
       <c r="AG25" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>8.5</v>
       </c>
       <c r="AJ25" t="n">
         <v>8.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO25" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AP25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ25" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR25" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS25" t="n">
         <v>151</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV25" t="n">
         <v>41</v>
       </c>
       <c r="AW25" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY25" t="n">
         <v>15</v>
       </c>
       <c r="AZ25" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="BA25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB25" t="n">
         <v>81</v>
@@ -5115,16 +5115,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H26" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J26" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K26" t="n">
         <v>2.25</v>
@@ -5139,16 +5139,16 @@
         <v>11</v>
       </c>
       <c r="O26" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P26" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="R26" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S26" t="n">
         <v>1.36</v>
@@ -5178,7 +5178,7 @@
         <v>13</v>
       </c>
       <c r="AB26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC26" t="n">
         <v>11</v>
@@ -5196,13 +5196,13 @@
         <v>251</v>
       </c>
       <c r="AH26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
         <v>26</v>
       </c>
       <c r="AJ26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK26" t="n">
         <v>51</v>
@@ -5214,10 +5214,10 @@
         <v>41</v>
       </c>
       <c r="AN26" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP26" t="n">
         <v>19</v>
@@ -5229,7 +5229,7 @@
         <v>51</v>
       </c>
       <c r="AS26" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT26" t="n">
         <v>3</v>
@@ -5297,16 +5297,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H27" t="n">
         <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J27" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K27" t="n">
         <v>2.2</v>
@@ -5315,22 +5315,22 @@
         <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O27" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P27" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="R27" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="S27" t="n">
         <v>1.4</v>
@@ -5360,16 +5360,16 @@
         <v>15</v>
       </c>
       <c r="AB27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC27" t="n">
         <v>9.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF27" t="n">
         <v>51</v>
@@ -5381,7 +5381,7 @@
         <v>13</v>
       </c>
       <c r="AI27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ27" t="n">
         <v>17</v>
@@ -5399,7 +5399,7 @@
         <v>3.6</v>
       </c>
       <c r="AO27" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP27" t="n">
         <v>21</v>
@@ -5432,7 +5432,7 @@
         <v>34</v>
       </c>
       <c r="AZ27" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA27" t="n">
         <v>126</v>
@@ -5479,46 +5479,46 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J28" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="K28" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O28" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P28" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="R28" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="S28" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T28" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U28" t="n">
         <v>1.91</v>
@@ -5527,13 +5527,13 @@
         <v>1.8</v>
       </c>
       <c r="W28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X28" t="n">
         <v>7</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z28" t="n">
         <v>8</v>
@@ -5545,16 +5545,16 @@
         <v>26</v>
       </c>
       <c r="AC28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
         <v>21</v>
       </c>
       <c r="AF28" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG28" t="n">
         <v>301</v>
@@ -5581,22 +5581,22 @@
         <v>3.25</v>
       </c>
       <c r="AO28" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AP28" t="n">
         <v>17</v>
       </c>
       <c r="AQ28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR28" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS28" t="n">
         <v>101</v>
       </c>
       <c r="AT28" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU28" t="n">
         <v>9.5</v>
@@ -5605,7 +5605,7 @@
         <v>51</v>
       </c>
       <c r="AW28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX28" t="n">
         <v>41</v>
@@ -5661,19 +5661,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="H29" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I29" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J29" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K29" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L29" t="n">
         <v>5.5</v>
@@ -5685,16 +5685,16 @@
         <v>21</v>
       </c>
       <c r="O29" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P29" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R29" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="S29" t="n">
         <v>1.22</v>
@@ -5703,22 +5703,22 @@
         <v>4</v>
       </c>
       <c r="U29" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V29" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X29" t="n">
         <v>9.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA29" t="n">
         <v>11</v>
@@ -5742,22 +5742,22 @@
         <v>126</v>
       </c>
       <c r="AH29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ29" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AK29" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL29" t="n">
         <v>41</v>
       </c>
       <c r="AM29" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN29" t="n">
         <v>3.75</v>
@@ -5766,10 +5766,10 @@
         <v>7</v>
       </c>
       <c r="AP29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR29" t="n">
         <v>34</v>
@@ -5787,13 +5787,13 @@
         <v>41</v>
       </c>
       <c r="AW29" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AX29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ29" t="n">
         <v>81</v>
@@ -5802,7 +5802,7 @@
         <v>81</v>
       </c>
       <c r="BB29" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC29" t="n">
         <v>351</v>
@@ -5843,22 +5843,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H30" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I30" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J30" t="n">
         <v>5</v>
       </c>
       <c r="K30" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L30" t="n">
         <v>2.3</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.25</v>
       </c>
       <c r="M30" t="n">
         <v>1.04</v>
@@ -5867,22 +5867,22 @@
         <v>13</v>
       </c>
       <c r="O30" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P30" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="R30" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S30" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T30" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U30" t="n">
         <v>1.73</v>
@@ -5909,7 +5909,7 @@
         <v>41</v>
       </c>
       <c r="AC30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD30" t="n">
         <v>7</v>
@@ -5918,13 +5918,13 @@
         <v>15</v>
       </c>
       <c r="AF30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG30" t="n">
         <v>201</v>
       </c>
       <c r="AH30" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI30" t="n">
         <v>8.5</v>
@@ -5960,7 +5960,7 @@
         <v>201</v>
       </c>
       <c r="AT30" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU30" t="n">
         <v>8</v>
@@ -5972,16 +5972,16 @@
         <v>3.75</v>
       </c>
       <c r="AX30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AY30" t="n">
         <v>19</v>
       </c>
       <c r="AZ30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB30" t="n">
         <v>126</v>
@@ -6031,7 +6031,7 @@
         <v>4.5</v>
       </c>
       <c r="I31" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J31" t="n">
         <v>2</v>
@@ -6046,7 +6046,7 @@
         <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O31" t="n">
         <v>1.22</v>
@@ -6091,7 +6091,7 @@
         <v>26</v>
       </c>
       <c r="AC31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD31" t="n">
         <v>8.5</v>
@@ -6112,7 +6112,7 @@
         <v>34</v>
       </c>
       <c r="AJ31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK31" t="n">
         <v>67</v>
@@ -6121,7 +6121,7 @@
         <v>51</v>
       </c>
       <c r="AM31" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN31" t="n">
         <v>3.4</v>
@@ -6389,13 +6389,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H33" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J33" t="n">
         <v>5</v>
@@ -6437,7 +6437,7 @@
         <v>2.25</v>
       </c>
       <c r="W33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X33" t="n">
         <v>34</v>
@@ -6488,7 +6488,7 @@
         <v>19</v>
       </c>
       <c r="AN33" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO33" t="n">
         <v>26</v>
@@ -6577,10 +6577,10 @@
         <v>6.5</v>
       </c>
       <c r="I34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J34" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="K34" t="n">
         <v>2.6</v>
@@ -6589,10 +6589,10 @@
         <v>15</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O34" t="n">
         <v>1.25</v>
@@ -6601,40 +6601,40 @@
         <v>3.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="R34" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S34" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3</v>
+      </c>
+      <c r="U34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V34" t="n">
         <v>1.33</v>
       </c>
-      <c r="T34" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U34" t="n">
-        <v>3</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.36</v>
-      </c>
       <c r="W34" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X34" t="n">
         <v>4.75</v>
       </c>
       <c r="Y34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z34" t="n">
         <v>6</v>
       </c>
       <c r="AA34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC34" t="n">
         <v>11</v>
@@ -6646,7 +6646,7 @@
         <v>41</v>
       </c>
       <c r="AF34" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AG34" t="n">
         <v>501</v>
@@ -6682,19 +6682,19 @@
         <v>13</v>
       </c>
       <c r="AR34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS34" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT34" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AV34" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AW34" t="n">
         <v>15</v>
@@ -6703,7 +6703,7 @@
         <v>81</v>
       </c>
       <c r="AY34" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AZ34" t="n">
         <v>501</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="H35" t="n">
         <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="J35" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K35" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L35" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M35" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O35" t="n">
         <v>1.2</v>
@@ -6804,19 +6804,19 @@
         <v>10</v>
       </c>
       <c r="X35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y35" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z35" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA35" t="n">
         <v>17</v>
       </c>
       <c r="AB35" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC35" t="n">
         <v>13</v>
@@ -6843,10 +6843,10 @@
         <v>11</v>
       </c>
       <c r="AK35" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL35" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM35" t="n">
         <v>26</v>
@@ -6855,10 +6855,10 @@
         <v>4.5</v>
       </c>
       <c r="AO35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP35" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ35" t="n">
         <v>41</v>
@@ -6882,7 +6882,7 @@
         <v>5</v>
       </c>
       <c r="AX35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY35" t="n">
         <v>21</v>
@@ -6891,7 +6891,7 @@
         <v>51</v>
       </c>
       <c r="BA35" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB35" t="n">
         <v>126</v>
@@ -6965,10 +6965,10 @@
         <v>4</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R36" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S36" t="n">
         <v>1.33</v>
@@ -10238,7 +10238,7 @@
         <v>34</v>
       </c>
       <c r="AJ54" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK54" t="n">
         <v>67</v>
@@ -11037,22 +11037,22 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>12.2</v>
+        <v>11.3</v>
       </c>
       <c r="H59" t="n">
-        <v>6.1</v>
+        <v>5.64</v>
       </c>
       <c r="I59" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="J59" t="n">
-        <v>9.25</v>
+        <v>8.43</v>
       </c>
       <c r="K59" t="n">
-        <v>2.71</v>
+        <v>2.58</v>
       </c>
       <c r="L59" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="M59" t="n">
         <v>1.02</v>
@@ -11061,22 +11061,22 @@
         <v>13.4</v>
       </c>
       <c r="O59" t="n">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="P59" t="n">
-        <v>4.95</v>
+        <v>4.5</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R59" t="n">
-        <v>2.36</v>
+        <v>2.5</v>
       </c>
       <c r="S59" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="T59" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="U59" t="n">
         <v>2</v>
@@ -11100,16 +11100,16 @@
         <v>81</v>
       </c>
       <c r="AB59" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AC59" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD59" t="n">
         <v>11</v>
       </c>
       <c r="AE59" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF59" t="n">
         <v>81</v>
@@ -11128,7 +11128,7 @@
         <v>6.5</v>
       </c>
       <c r="AL59" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM59" t="n">
         <v>23</v>
@@ -11137,7 +11137,7 @@
         <v>8.5</v>
       </c>
       <c r="AO59" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="AP59" t="n">
         <v>36</v>
@@ -11158,7 +11158,7 @@
         <v>7</v>
       </c>
       <c r="AV59" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AW59" t="n">
         <v>2.9</v>
@@ -12285,13 +12285,13 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="H66" t="n">
         <v>3.5</v>
       </c>
       <c r="I66" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="J66" t="n">
         <v>2.8</v>
@@ -12306,19 +12306,19 @@
         <v>1.02</v>
       </c>
       <c r="N66" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O66" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="P66" t="n">
-        <v>3.62</v>
+        <v>3.75</v>
       </c>
       <c r="Q66" t="n">
         <v>1.7</v>
       </c>
       <c r="R66" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S66" t="n">
         <v>1.39</v>
@@ -12327,22 +12327,22 @@
         <v>2.45</v>
       </c>
       <c r="U66" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="V66" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="W66" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X66" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Y66" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="Z66" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA66" t="n">
         <v>14</v>
@@ -12354,7 +12354,7 @@
         <v>11.75</v>
       </c>
       <c r="AD66" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AE66" t="n">
         <v>11</v>
@@ -12384,7 +12384,7 @@
         <v>22</v>
       </c>
       <c r="AN66" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="AO66" t="n">
         <v>11.5</v>
@@ -12402,19 +12402,19 @@
         <v>250</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="AU66" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AV66" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW66" t="n">
         <v>4.7</v>
       </c>
       <c r="AX66" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AY66" t="n">
         <v>21</v>
@@ -12463,36 +12463,40 @@
         </is>
       </c>
       <c r="G67" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H67" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K67" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L67" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N67" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P67" t="n">
         <v>3.35</v>
       </c>
-      <c r="H67" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J67" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K67" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L67" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P67" t="n">
-        <v>3.14</v>
-      </c>
       <c r="Q67" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R67" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="S67" t="n">
         <v>1.37</v>
@@ -12501,64 +12505,64 @@
         <v>2.5</v>
       </c>
       <c r="U67" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="V67" t="n">
-        <v>2.04</v>
+        <v>2.11</v>
       </c>
       <c r="W67" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="X67" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y67" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="Z67" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA67" t="n">
         <v>24</v>
       </c>
       <c r="AB67" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC67" t="n">
-        <v>9.75</v>
+        <v>11</v>
       </c>
       <c r="AD67" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="AE67" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF67" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG67" t="n">
         <v>300</v>
       </c>
       <c r="AH67" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AI67" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AJ67" t="n">
         <v>7.2</v>
       </c>
       <c r="AK67" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AL67" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AM67" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN67" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AO67" t="n">
         <v>19</v>
@@ -12570,13 +12574,13 @@
         <v>100</v>
       </c>
       <c r="AR67" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AS67" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT67" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="AU67" t="n">
         <v>7.2</v>
@@ -12585,19 +12589,19 @@
         <v>65</v>
       </c>
       <c r="AW67" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="AX67" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AY67" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AZ67" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="BA67" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BB67" t="n">
         <v>250</v>
@@ -12985,55 +12989,51 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="H70" t="n">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="I70" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="J70" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K70" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="L70" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="M70" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N70" t="n">
-        <v>11</v>
-      </c>
+        <v>1.95</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
       <c r="O70" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="P70" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="R70" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="S70" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="T70" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="U70" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="V70" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="W70" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="X70" t="n">
         <v>40</v>
@@ -13045,85 +13045,85 @@
         <v>150</v>
       </c>
       <c r="AA70" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AB70" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AC70" t="n">
-        <v>11.75</v>
+        <v>10</v>
       </c>
       <c r="AD70" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE70" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF70" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AG70" t="n">
         <v>700</v>
       </c>
       <c r="AH70" t="n">
-        <v>6.8</v>
+        <v>6.1</v>
       </c>
       <c r="AI70" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AJ70" t="n">
         <v>8.25</v>
       </c>
       <c r="AK70" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AL70" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AM70" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AN70" t="n">
         <v>7.7</v>
       </c>
       <c r="AO70" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AP70" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AQ70" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AR70" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AS70" t="n">
         <v>500</v>
       </c>
       <c r="AT70" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="AU70" t="n">
         <v>8.25</v>
       </c>
       <c r="AV70" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW70" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AX70" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AY70" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AZ70" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA70" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BB70" t="n">
         <v>250</v>
@@ -13163,28 +13163,28 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.72</v>
+        <v>2.55</v>
       </c>
       <c r="H71" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="I71" t="n">
-        <v>2.7</v>
+        <v>2.92</v>
       </c>
       <c r="J71" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K71" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="L71" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="M71" t="n">
         <v>1.04</v>
       </c>
       <c r="N71" t="n">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="O71" t="n">
         <v>1.47</v>
@@ -13211,16 +13211,16 @@
         <v>1.65</v>
       </c>
       <c r="W71" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="X71" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y71" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Z71" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA71" t="n">
         <v>27</v>
@@ -13229,13 +13229,13 @@
         <v>45</v>
       </c>
       <c r="AC71" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AD71" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AE71" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF71" t="n">
         <v>100</v>
@@ -13244,34 +13244,34 @@
         <v>900</v>
       </c>
       <c r="AH71" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="AI71" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AJ71" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AK71" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AL71" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM71" t="n">
         <v>45</v>
       </c>
       <c r="AN71" t="n">
-        <v>4.4</v>
+        <v>4.25</v>
       </c>
       <c r="AO71" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AP71" t="n">
         <v>26</v>
       </c>
       <c r="AQ71" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AR71" t="n">
         <v>120</v>
@@ -13283,28 +13283,28 @@
         <v>2.2</v>
       </c>
       <c r="AU71" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AV71" t="n">
         <v>80</v>
       </c>
       <c r="AW71" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AX71" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AY71" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ71" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BA71" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BB71" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BC71" t="inlineStr"/>
       <c r="BD71" t="inlineStr"/>
@@ -15135,40 +15135,40 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="H82" t="n">
         <v>3.1</v>
       </c>
       <c r="I82" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="J82" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K82" t="n">
         <v>2.05</v>
       </c>
       <c r="L82" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M82" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N82" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O82" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P82" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="R82" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S82" t="n">
         <v>1.44</v>
@@ -15177,31 +15177,31 @@
         <v>2.63</v>
       </c>
       <c r="U82" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V82" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W82" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X82" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
       </c>
       <c r="Z82" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA82" t="n">
         <v>21</v>
       </c>
       <c r="AB82" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC82" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD82" t="n">
         <v>6</v>
@@ -15219,22 +15219,22 @@
         <v>9</v>
       </c>
       <c r="AI82" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ82" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK82" t="n">
         <v>29</v>
       </c>
       <c r="AL82" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM82" t="n">
         <v>34</v>
       </c>
       <c r="AN82" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO82" t="n">
         <v>13</v>
@@ -15255,16 +15255,16 @@
         <v>2.63</v>
       </c>
       <c r="AU82" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV82" t="n">
         <v>51</v>
       </c>
       <c r="AW82" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX82" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY82" t="n">
         <v>26</v>
@@ -15273,7 +15273,7 @@
         <v>51</v>
       </c>
       <c r="BA82" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB82" t="n">
         <v>151</v>
@@ -16377,22 +16377,22 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="H89" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="I89" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="J89" t="n">
         <v>8.75</v>
       </c>
       <c r="K89" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="L89" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="M89" t="n">
         <v>1.02</v>
@@ -16407,31 +16407,31 @@
         <v>5</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="R89" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="S89" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="T89" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="U89" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="V89" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="W89" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="X89" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Y89" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z89" t="n">
         <v>300</v>
@@ -16443,10 +16443,10 @@
         <v>80</v>
       </c>
       <c r="AC89" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AD89" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE89" t="n">
         <v>21</v>
@@ -16458,22 +16458,22 @@
         <v>500</v>
       </c>
       <c r="AH89" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="AI89" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AJ89" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AK89" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AL89" t="n">
         <v>8.75</v>
       </c>
       <c r="AM89" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN89" t="n">
         <v>11.5</v>
@@ -16494,7 +16494,7 @@
         <v>500</v>
       </c>
       <c r="AT89" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="AU89" t="n">
         <v>9.25</v>
@@ -16506,16 +16506,16 @@
         <v>3.1</v>
       </c>
       <c r="AX89" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="AY89" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AZ89" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="BA89" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BB89" t="n">
         <v>200</v>
@@ -17099,136 +17099,136 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="H93" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="I93" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="J93" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="K93" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L93" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N93" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="O93" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P93" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q93" t="n">
         <v>2.15</v>
       </c>
-      <c r="L93" t="n">
-        <v>7</v>
-      </c>
-      <c r="M93" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N93" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O93" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P93" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>1.9</v>
-      </c>
       <c r="R93" t="n">
-        <v>1.72</v>
+        <v>1.55</v>
       </c>
       <c r="S93" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="T93" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="U93" t="inlineStr"/>
       <c r="V93" t="inlineStr"/>
       <c r="W93" t="n">
-        <v>4.8</v>
+        <v>4.25</v>
       </c>
       <c r="X93" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="Y93" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="Z93" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="AA93" t="n">
-        <v>10.5</v>
+        <v>11.75</v>
       </c>
       <c r="AB93" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AC93" t="n">
-        <v>8.75</v>
+        <v>7.4</v>
       </c>
       <c r="AD93" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="AE93" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF93" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AG93" t="inlineStr"/>
       <c r="AH93" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI93" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AJ93" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK93" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AL93" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM93" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AN93" t="n">
         <v>3.05</v>
       </c>
       <c r="AO93" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AP93" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ93" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AR93" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>120</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>45</v>
+      </c>
+      <c r="AY93" t="n">
         <v>55</v>
       </c>
-      <c r="AS93" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT93" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AU93" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV93" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW93" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX93" t="n">
-        <v>50</v>
-      </c>
-      <c r="AY93" t="n">
-        <v>50</v>
-      </c>
       <c r="AZ93" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BA93" t="n">
         <v>450</v>
@@ -17269,13 +17269,13 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="H94" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="I94" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J94" t="n">
         <v>1.37</v>
@@ -17299,65 +17299,65 @@
         <v>5.5</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="R94" t="n">
-        <v>2.73</v>
+        <v>3.1</v>
       </c>
       <c r="S94" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="T94" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr"/>
       <c r="W94" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="X94" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y94" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AA94" t="n">
         <v>10</v>
       </c>
-      <c r="Z94" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA94" t="n">
-        <v>9.75</v>
-      </c>
       <c r="AB94" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AC94" t="n">
         <v>17</v>
       </c>
       <c r="AD94" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AE94" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AF94" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AG94" t="inlineStr"/>
       <c r="AH94" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AI94" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AJ94" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AK94" t="inlineStr"/>
       <c r="AL94" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AM94" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AN94" t="n">
         <v>3</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-28.xlsx
@@ -795,7 +795,7 @@
         <v>2.1</v>
       </c>
       <c r="W2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X2" t="n">
         <v>23</v>
@@ -1073,7 +1073,7 @@
         <v>451</v>
       </c>
       <c r="BC3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1299,10 +1299,10 @@
         <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K5" t="n">
         <v>2.38</v>
@@ -1365,7 +1365,7 @@
         <v>7.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF5" t="n">
         <v>41</v>
@@ -1839,19 +1839,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
         <v>3.8</v>
       </c>
       <c r="I8" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L8" t="n">
         <v>2.63</v>
@@ -1881,13 +1881,13 @@
         <v>3.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V8" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X8" t="n">
         <v>21</v>
@@ -1902,13 +1902,13 @@
         <v>21</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
@@ -1917,16 +1917,16 @@
         <v>29</v>
       </c>
       <c r="AG8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK8" t="n">
         <v>21</v>
@@ -1947,7 +1947,7 @@
         <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="n">
         <v>51</v>
@@ -1965,7 +1965,7 @@
         <v>41</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX8" t="n">
         <v>11</v>
@@ -1983,7 +1983,7 @@
         <v>81</v>
       </c>
       <c r="BC8" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -2051,10 +2051,10 @@
         <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="S9" t="n">
         <v>1.36</v>
@@ -2224,7 +2224,7 @@
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O10" t="n">
         <v>1.17</v>
@@ -2233,10 +2233,10 @@
         <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R10" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S10" t="n">
         <v>1.29</v>
@@ -2251,7 +2251,7 @@
         <v>2.38</v>
       </c>
       <c r="W10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X10" t="n">
         <v>12</v>
@@ -2281,7 +2281,7 @@
         <v>34</v>
       </c>
       <c r="AG10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH10" t="n">
         <v>15</v>
@@ -2305,7 +2305,7 @@
         <v>4.33</v>
       </c>
       <c r="AO10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP10" t="n">
         <v>17</v>
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J11" t="n">
         <v>3.75</v>
@@ -2415,10 +2415,10 @@
         <v>3.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="R11" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="S11" t="n">
         <v>1.4</v>
@@ -2427,10 +2427,10 @@
         <v>2.75</v>
       </c>
       <c r="U11" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V11" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
         <v>9.5</v>
@@ -2445,7 +2445,7 @@
         <v>34</v>
       </c>
       <c r="AA11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB11" t="n">
         <v>34</v>
@@ -2463,7 +2463,7 @@
         <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH11" t="n">
         <v>8</v>
@@ -2472,7 +2472,7 @@
         <v>11</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK11" t="n">
         <v>21</v>
@@ -2529,7 +2529,7 @@
         <v>151</v>
       </c>
       <c r="BC11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD11" t="n">
         <v>151</v>
@@ -2615,7 +2615,7 @@
         <v>2</v>
       </c>
       <c r="W12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X12" t="n">
         <v>8.5</v>
@@ -2633,13 +2633,13 @@
         <v>23</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
         <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF12" t="n">
         <v>41</v>
@@ -2693,7 +2693,7 @@
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX12" t="n">
         <v>23</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J13" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="K13" t="n">
         <v>2.88</v>
       </c>
       <c r="L13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M13" t="n">
         <v>1.02</v>
@@ -2791,10 +2791,10 @@
         <v>4</v>
       </c>
       <c r="U13" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V13" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W13" t="n">
         <v>10</v>
@@ -2803,16 +2803,16 @@
         <v>7.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA13" t="n">
         <v>10</v>
       </c>
       <c r="AB13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC13" t="n">
         <v>21</v>
@@ -2827,7 +2827,7 @@
         <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH13" t="n">
         <v>29</v>
@@ -2836,7 +2836,7 @@
         <v>51</v>
       </c>
       <c r="AJ13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK13" t="n">
         <v>126</v>
@@ -2848,7 +2848,7 @@
         <v>51</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO13" t="n">
         <v>5.5</v>
@@ -2863,19 +2863,19 @@
         <v>34</v>
       </c>
       <c r="AS13" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT13" t="n">
         <v>4</v>
       </c>
       <c r="AU13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV13" t="n">
         <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX13" t="n">
         <v>41</v>
@@ -2884,13 +2884,13 @@
         <v>41</v>
       </c>
       <c r="AZ13" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BA13" t="n">
         <v>151</v>
       </c>
       <c r="BB13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC13" t="n">
         <v>501</v>
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="H14" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I14" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K14" t="n">
         <v>2.38</v>
       </c>
       <c r="L14" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2982,7 +2982,7 @@
         <v>15</v>
       </c>
       <c r="X14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y14" t="n">
         <v>13</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="AA14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB14" t="n">
         <v>29</v>
@@ -3003,7 +3003,7 @@
         <v>7.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF14" t="n">
         <v>41</v>
@@ -3012,16 +3012,16 @@
         <v>126</v>
       </c>
       <c r="AH14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI14" t="n">
         <v>10</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>11</v>
       </c>
       <c r="AJ14" t="n">
         <v>8.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL14" t="n">
         <v>13</v>
@@ -3033,19 +3033,19 @@
         <v>6</v>
       </c>
       <c r="AO14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP14" t="n">
         <v>23</v>
       </c>
       <c r="AQ14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR14" t="n">
         <v>67</v>
       </c>
       <c r="AS14" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT14" t="n">
         <v>3.4</v>
@@ -3057,10 +3057,10 @@
         <v>41</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY14" t="n">
         <v>17</v>
@@ -3113,22 +3113,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H15" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="J15" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -3137,16 +3137,16 @@
         <v>11</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S15" t="n">
         <v>1.36</v>
@@ -3161,19 +3161,19 @@
         <v>2.1</v>
       </c>
       <c r="W15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA15" t="n">
         <v>17</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>15</v>
       </c>
       <c r="AB15" t="n">
         <v>23</v>
@@ -3182,7 +3182,7 @@
         <v>12</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE15" t="n">
         <v>13</v>
@@ -3197,31 +3197,31 @@
         <v>12</v>
       </c>
       <c r="AI15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM15" t="n">
         <v>29</v>
       </c>
-      <c r="AM15" t="n">
-        <v>34</v>
-      </c>
       <c r="AN15" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO15" t="n">
         <v>11</v>
       </c>
       <c r="AP15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR15" t="n">
         <v>51</v>
@@ -3242,16 +3242,16 @@
         <v>5.5</v>
       </c>
       <c r="AX15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA15" t="n">
         <v>67</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>81</v>
       </c>
       <c r="BB15" t="n">
         <v>151</v>
@@ -3295,28 +3295,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K16" t="n">
         <v>2.2</v>
       </c>
       <c r="L16" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O16" t="n">
         <v>1.29</v>
@@ -3325,10 +3325,10 @@
         <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R16" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S16" t="n">
         <v>1.4</v>
@@ -3352,7 +3352,7 @@
         <v>8.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA16" t="n">
         <v>15</v>
@@ -3361,10 +3361,10 @@
         <v>26</v>
       </c>
       <c r="AC16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -3433,7 +3433,7 @@
         <v>67</v>
       </c>
       <c r="BA16" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB16" t="n">
         <v>201</v>
@@ -3659,22 +3659,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="H18" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I18" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="J18" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="K18" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L18" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
@@ -3683,16 +3683,16 @@
         <v>15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P18" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R18" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S18" t="n">
         <v>1.29</v>
@@ -3701,22 +3701,22 @@
         <v>3.5</v>
       </c>
       <c r="U18" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V18" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W18" t="n">
         <v>9.5</v>
       </c>
       <c r="X18" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y18" t="n">
         <v>8.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA18" t="n">
         <v>12</v>
@@ -3725,13 +3725,13 @@
         <v>21</v>
       </c>
       <c r="AC18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE18" t="n">
         <v>15</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>13</v>
       </c>
       <c r="AF18" t="n">
         <v>41</v>
@@ -3740,34 +3740,34 @@
         <v>151</v>
       </c>
       <c r="AH18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>17</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>15</v>
       </c>
       <c r="AK18" t="n">
         <v>51</v>
       </c>
       <c r="AL18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM18" t="n">
         <v>34</v>
       </c>
       <c r="AN18" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO18" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ18" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AR18" t="n">
         <v>41</v>
@@ -3785,16 +3785,16 @@
         <v>41</v>
       </c>
       <c r="AW18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA18" t="n">
         <v>81</v>
@@ -3803,7 +3803,7 @@
         <v>151</v>
       </c>
       <c r="BC18" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BD18" t="n">
         <v>151</v>
@@ -3841,40 +3841,40 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H19" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K19" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L19" t="n">
         <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="S19" t="n">
         <v>1.44</v>
@@ -3883,55 +3883,55 @@
         <v>2.63</v>
       </c>
       <c r="U19" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V19" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X19" t="n">
         <v>10</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB19" t="n">
         <v>29</v>
       </c>
       <c r="AC19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD19" t="n">
         <v>6</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF19" t="n">
         <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI19" t="n">
         <v>17</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL19" t="n">
         <v>29</v>
@@ -3940,10 +3940,10 @@
         <v>41</v>
       </c>
       <c r="AN19" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP19" t="n">
         <v>23</v>
@@ -3952,22 +3952,22 @@
         <v>41</v>
       </c>
       <c r="AR19" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS19" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT19" t="n">
         <v>2.63</v>
       </c>
       <c r="AU19" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV19" t="n">
         <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX19" t="n">
         <v>19</v>
@@ -3982,7 +3982,7 @@
         <v>81</v>
       </c>
       <c r="BB19" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC19" t="n">
         <v>501</v>
@@ -6031,10 +6031,10 @@
         <v>4.5</v>
       </c>
       <c r="I31" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K31" t="n">
         <v>2.38</v>
@@ -6067,10 +6067,10 @@
         <v>3.25</v>
       </c>
       <c r="U31" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V31" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W31" t="n">
         <v>7</v>
@@ -6121,7 +6121,7 @@
         <v>51</v>
       </c>
       <c r="AM31" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN31" t="n">
         <v>3.4</v>
@@ -6145,7 +6145,7 @@
         <v>3.25</v>
       </c>
       <c r="AU31" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV31" t="n">
         <v>51</v>
@@ -6166,7 +6166,7 @@
         <v>151</v>
       </c>
       <c r="BB31" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC31" t="n">
         <v>501</v>
@@ -6389,28 +6389,28 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="H33" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I33" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="J33" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K33" t="n">
         <v>2.5</v>
       </c>
       <c r="L33" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="M33" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O33" t="n">
         <v>1.14</v>
@@ -6419,10 +6419,10 @@
         <v>5.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R33" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S33" t="n">
         <v>1.25</v>
@@ -6431,10 +6431,10 @@
         <v>3.75</v>
       </c>
       <c r="U33" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V33" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W33" t="n">
         <v>21</v>
@@ -6452,7 +6452,7 @@
         <v>41</v>
       </c>
       <c r="AB33" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC33" t="n">
         <v>17</v>
@@ -6461,7 +6461,7 @@
         <v>8.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF33" t="n">
         <v>41</v>
@@ -6494,7 +6494,7 @@
         <v>26</v>
       </c>
       <c r="AP33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ33" t="n">
         <v>81</v>
@@ -6571,13 +6571,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="H34" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J34" t="n">
         <v>1.57</v>
@@ -6586,13 +6586,13 @@
         <v>2.6</v>
       </c>
       <c r="L34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M34" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O34" t="n">
         <v>1.25</v>
@@ -6613,10 +6613,10 @@
         <v>3</v>
       </c>
       <c r="U34" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V34" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W34" t="n">
         <v>5.5</v>
@@ -6628,7 +6628,7 @@
         <v>12</v>
       </c>
       <c r="Z34" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA34" t="n">
         <v>15</v>
@@ -6640,7 +6640,7 @@
         <v>11</v>
       </c>
       <c r="AD34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE34" t="n">
         <v>41</v>
@@ -6652,34 +6652,34 @@
         <v>501</v>
       </c>
       <c r="AH34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI34" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ34" t="n">
         <v>41</v>
       </c>
       <c r="AK34" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AL34" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AM34" t="n">
         <v>151</v>
       </c>
       <c r="AN34" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="AO34" t="n">
         <v>5</v>
       </c>
       <c r="AP34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR34" t="n">
         <v>51</v>
@@ -6697,7 +6697,7 @@
         <v>126</v>
       </c>
       <c r="AW34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX34" t="n">
         <v>81</v>
@@ -6771,10 +6771,10 @@
         <v>3.5</v>
       </c>
       <c r="M35" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O35" t="n">
         <v>1.2</v>
@@ -6935,22 +6935,22 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H36" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J36" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K36" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M36" t="n">
         <v>1.04</v>
@@ -6965,10 +6965,10 @@
         <v>4</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R36" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S36" t="n">
         <v>1.33</v>
@@ -6977,10 +6977,10 @@
         <v>3.25</v>
       </c>
       <c r="U36" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V36" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W36" t="n">
         <v>6.5</v>
@@ -6989,7 +6989,7 @@
         <v>5.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z36" t="n">
         <v>7</v>
@@ -7004,34 +7004,34 @@
         <v>11</v>
       </c>
       <c r="AD36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF36" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG36" t="n">
         <v>451</v>
       </c>
       <c r="AH36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI36" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ36" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK36" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL36" t="n">
         <v>101</v>
       </c>
       <c r="AM36" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AN36" t="n">
         <v>3</v>
@@ -7055,13 +7055,13 @@
         <v>3.25</v>
       </c>
       <c r="AU36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV36" t="n">
         <v>81</v>
       </c>
       <c r="AW36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX36" t="n">
         <v>51</v>
@@ -7070,10 +7070,10 @@
         <v>51</v>
       </c>
       <c r="AZ36" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="BA36" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BB36" t="n">
         <v>501</v>
@@ -9973,13 +9973,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H53" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I53" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J53" t="n">
         <v>2.88</v>
@@ -9991,22 +9991,22 @@
         <v>4</v>
       </c>
       <c r="M53" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N53" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O53" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P53" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R53" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S53" t="n">
         <v>1.5</v>
@@ -10151,85 +10151,85 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H54" t="n">
         <v>4.5</v>
       </c>
       <c r="I54" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J54" t="n">
         <v>2</v>
       </c>
       <c r="K54" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L54" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M54" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N54" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O54" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P54" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="R54" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="S54" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T54" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U54" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V54" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W54" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X54" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y54" t="n">
         <v>8.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB54" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC54" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD54" t="n">
         <v>8.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF54" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG54" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH54" t="n">
         <v>15</v>
@@ -10238,22 +10238,22 @@
         <v>34</v>
       </c>
       <c r="AJ54" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK54" t="n">
         <v>67</v>
       </c>
       <c r="AL54" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM54" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN54" t="n">
         <v>3.4</v>
       </c>
       <c r="AO54" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP54" t="n">
         <v>19</v>
@@ -10265,19 +10265,19 @@
         <v>41</v>
       </c>
       <c r="AS54" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT54" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU54" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV54" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW54" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AX54" t="n">
         <v>34</v>
@@ -10286,13 +10286,13 @@
         <v>41</v>
       </c>
       <c r="AZ54" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA54" t="n">
         <v>151</v>
       </c>
       <c r="BB54" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC54" t="inlineStr"/>
       <c r="BD54" t="inlineStr"/>
@@ -10529,10 +10529,10 @@
         <v>4</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R56" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S56" t="n">
         <v>1.33</v>
@@ -11393,64 +11393,64 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H61" t="n">
         <v>3.05</v>
       </c>
       <c r="I61" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J61" t="n">
         <v>2.65</v>
       </c>
       <c r="K61" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="L61" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="M61" t="n">
         <v>1.04</v>
       </c>
       <c r="N61" t="n">
-        <v>6.3</v>
+        <v>6.45</v>
       </c>
       <c r="O61" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P61" t="n">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="R61" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S61" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="T61" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="U61" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="V61" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="W61" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="X61" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Y61" t="n">
         <v>8.75</v>
       </c>
       <c r="Z61" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA61" t="n">
         <v>19</v>
@@ -11459,37 +11459,37 @@
         <v>37</v>
       </c>
       <c r="AC61" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AD61" t="n">
         <v>6</v>
       </c>
       <c r="AE61" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF61" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG61" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AH61" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AI61" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AJ61" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK61" t="n">
         <v>60</v>
       </c>
       <c r="AL61" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM61" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN61" t="n">
         <v>3.7</v>
@@ -11498,25 +11498,25 @@
         <v>10.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ61" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR61" t="n">
         <v>90</v>
       </c>
       <c r="AS61" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="AU61" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AV61" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW61" t="n">
         <v>5.4</v>
@@ -11525,16 +11525,16 @@
         <v>22</v>
       </c>
       <c r="AY61" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AZ61" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BA61" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BB61" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="BC61" t="inlineStr"/>
       <c r="BD61" t="inlineStr"/>
@@ -12989,36 +12989,40 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H70" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I70" t="n">
         <v>1.45</v>
       </c>
       <c r="J70" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="K70" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L70" t="n">
         <v>1.95</v>
       </c>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
+      <c r="M70" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N70" t="n">
+        <v>9</v>
+      </c>
       <c r="O70" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P70" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="Q70" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R70" t="n">
         <v>1.82</v>
-      </c>
-      <c r="R70" t="n">
-        <v>1.78</v>
       </c>
       <c r="S70" t="n">
         <v>1.38</v>
@@ -13045,31 +13049,31 @@
         <v>150</v>
       </c>
       <c r="AA70" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB70" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AC70" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD70" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AE70" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF70" t="n">
         <v>110</v>
       </c>
       <c r="AG70" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="AH70" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AI70" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AJ70" t="n">
         <v>8.25</v>
@@ -13078,22 +13082,22 @@
         <v>9.5</v>
       </c>
       <c r="AL70" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AM70" t="n">
         <v>30</v>
       </c>
       <c r="AN70" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AO70" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AP70" t="n">
         <v>45</v>
       </c>
       <c r="AQ70" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AR70" t="n">
         <v>300</v>
@@ -13102,16 +13106,16 @@
         <v>500</v>
       </c>
       <c r="AT70" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="AU70" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AV70" t="n">
         <v>90</v>
       </c>
       <c r="AW70" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AX70" t="n">
         <v>6.6</v>
@@ -13120,10 +13124,10 @@
         <v>17.5</v>
       </c>
       <c r="AZ70" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="BA70" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB70" t="n">
         <v>250</v>
@@ -14258,7 +14262,7 @@
         <v>1.04</v>
       </c>
       <c r="N77" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O77" t="n">
         <v>1.25</v>
@@ -15669,145 +15673,145 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.55</v>
+        <v>2.8</v>
       </c>
       <c r="H85" t="n">
         <v>3.45</v>
       </c>
       <c r="I85" t="n">
-        <v>1.93</v>
+        <v>2.27</v>
       </c>
       <c r="J85" t="n">
-        <v>3.95</v>
+        <v>3.2</v>
       </c>
       <c r="K85" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="L85" t="n">
-        <v>2.47</v>
+        <v>2.77</v>
       </c>
       <c r="M85" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N85" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O85" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P85" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="R85" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="S85" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="T85" t="n">
-        <v>3.04</v>
+        <v>3</v>
       </c>
       <c r="U85" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V85" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="W85" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="X85" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Y85" t="n">
-        <v>12</v>
+        <v>10.25</v>
       </c>
       <c r="Z85" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="AA85" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AB85" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AC85" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AD85" t="n">
         <v>6.8</v>
       </c>
       <c r="AE85" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF85" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AG85" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AH85" t="n">
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="AI85" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AJ85" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AK85" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="AL85" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AM85" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN85" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="AO85" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AP85" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AQ85" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AR85" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AS85" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="AU85" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AV85" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AW85" t="n">
-        <v>3.9</v>
+        <v>4.35</v>
       </c>
       <c r="AX85" t="n">
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
       <c r="AY85" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AZ85" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="BA85" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="BB85" t="n">
         <v>175</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-28.xlsx
@@ -2206,16 +2206,16 @@
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J10" t="n">
         <v>2.6</v>
       </c>
       <c r="K10" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L10" t="n">
         <v>3.75</v>
@@ -2224,37 +2224,37 @@
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R10" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U10" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V10" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W10" t="n">
         <v>10</v>
       </c>
       <c r="X10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
@@ -2269,7 +2269,7 @@
         <v>21</v>
       </c>
       <c r="AC10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD10" t="n">
         <v>7.5</v>
@@ -2278,16 +2278,16 @@
         <v>12</v>
       </c>
       <c r="AF10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG10" t="n">
         <v>126</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="n">
         <v>12</v>
@@ -2299,13 +2299,13 @@
         <v>23</v>
       </c>
       <c r="AM10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN10" t="n">
         <v>4.33</v>
       </c>
       <c r="AO10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP10" t="n">
         <v>17</v>
@@ -2314,13 +2314,13 @@
         <v>34</v>
       </c>
       <c r="AR10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS10" t="n">
         <v>101</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
@@ -2335,7 +2335,7 @@
         <v>17</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ10" t="n">
         <v>51</v>
@@ -2347,7 +2347,7 @@
         <v>126</v>
       </c>
       <c r="BC10" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BD10" t="n">
         <v>151</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
         <v>2.1</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
@@ -2415,10 +2415,10 @@
         <v>3.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="R11" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="S11" t="n">
         <v>1.4</v>
@@ -2442,13 +2442,13 @@
         <v>11</v>
       </c>
       <c r="Z11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA11" t="n">
         <v>23</v>
       </c>
       <c r="AB11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC11" t="n">
         <v>10</v>
@@ -2457,25 +2457,25 @@
         <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="n">
         <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ11" t="n">
         <v>9.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL11" t="n">
         <v>19</v>
@@ -2484,22 +2484,22 @@
         <v>29</v>
       </c>
       <c r="AN11" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ11" t="n">
         <v>51</v>
       </c>
       <c r="AR11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS11" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT11" t="n">
         <v>2.75</v>
@@ -2511,7 +2511,7 @@
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX11" t="n">
         <v>13</v>
@@ -2693,7 +2693,7 @@
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX12" t="n">
         <v>23</v>
@@ -2749,46 +2749,46 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J13" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="K13" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="L13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O13" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="R13" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="S13" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="T13" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="U13" t="n">
         <v>1.8</v>
@@ -2797,13 +2797,13 @@
         <v>1.95</v>
       </c>
       <c r="W13" t="n">
+        <v>11</v>
+      </c>
+      <c r="X13" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y13" t="n">
         <v>10</v>
-      </c>
-      <c r="X13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>9</v>
       </c>
       <c r="Z13" t="n">
         <v>8.5</v>
@@ -2812,13 +2812,13 @@
         <v>10</v>
       </c>
       <c r="AB13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
         <v>21</v>
@@ -2836,13 +2836,13 @@
         <v>51</v>
       </c>
       <c r="AJ13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK13" t="n">
         <v>126</v>
       </c>
       <c r="AL13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM13" t="n">
         <v>51</v>
@@ -2857,16 +2857,16 @@
         <v>15</v>
       </c>
       <c r="AQ13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS13" t="n">
         <v>81</v>
       </c>
       <c r="AT13" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AU13" t="n">
         <v>9</v>
@@ -2875,7 +2875,7 @@
         <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX13" t="n">
         <v>41</v>
@@ -2893,7 +2893,7 @@
         <v>201</v>
       </c>
       <c r="BC13" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD13" t="n">
         <v>151</v>
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="H14" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I14" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="J14" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="K14" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L14" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2973,34 +2973,34 @@
         <v>3.4</v>
       </c>
       <c r="U14" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V14" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W14" t="n">
+        <v>17</v>
+      </c>
+      <c r="X14" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y14" t="n">
         <v>15</v>
       </c>
-      <c r="X14" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>13</v>
-      </c>
       <c r="Z14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC14" t="n">
         <v>15</v>
       </c>
       <c r="AD14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE14" t="n">
         <v>13</v>
@@ -3009,40 +3009,40 @@
         <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ14" t="n">
         <v>8.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM14" t="n">
         <v>21</v>
       </c>
       <c r="AN14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS14" t="n">
         <v>151</v>
@@ -3057,16 +3057,16 @@
         <v>41</v>
       </c>
       <c r="AW14" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY14" t="n">
         <v>17</v>
       </c>
       <c r="AZ14" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="BA14" t="n">
         <v>41</v>
@@ -3075,7 +3075,7 @@
         <v>101</v>
       </c>
       <c r="BC14" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BD14" t="n">
         <v>151</v>
@@ -3113,13 +3113,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J15" t="n">
         <v>2.75</v>
@@ -3128,7 +3128,7 @@
         <v>2.2</v>
       </c>
       <c r="L15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -3143,28 +3143,28 @@
         <v>3.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R15" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S15" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T15" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U15" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="V15" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y15" t="n">
         <v>9</v>
@@ -3176,10 +3176,10 @@
         <v>17</v>
       </c>
       <c r="AB15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
         <v>6.5</v>
@@ -3191,28 +3191,28 @@
         <v>41</v>
       </c>
       <c r="AG15" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI15" t="n">
         <v>19</v>
       </c>
       <c r="AJ15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM15" t="n">
         <v>34</v>
       </c>
-      <c r="AL15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>29</v>
-      </c>
       <c r="AN15" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO15" t="n">
         <v>11</v>
@@ -3227,13 +3227,13 @@
         <v>51</v>
       </c>
       <c r="AS15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT15" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
@@ -3242,19 +3242,19 @@
         <v>5.5</v>
       </c>
       <c r="AX15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA15" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB15" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC15" t="n">
         <v>501</v>
@@ -3298,10 +3298,10 @@
         <v>1.85</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J16" t="n">
         <v>2.5</v>
@@ -3313,22 +3313,22 @@
         <v>4.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="R16" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S16" t="n">
         <v>1.4</v>
@@ -3343,10 +3343,10 @@
         <v>1.95</v>
       </c>
       <c r="W16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y16" t="n">
         <v>8.5</v>
@@ -3361,10 +3361,10 @@
         <v>26</v>
       </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -3382,7 +3382,7 @@
         <v>21</v>
       </c>
       <c r="AJ16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
         <v>41</v>
@@ -3394,7 +3394,7 @@
         <v>41</v>
       </c>
       <c r="AN16" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO16" t="n">
         <v>10</v>
@@ -3424,13 +3424,13 @@
         <v>6</v>
       </c>
       <c r="AX16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY16" t="n">
         <v>29</v>
       </c>
       <c r="AZ16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA16" t="n">
         <v>101</v>
@@ -3477,13 +3477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H17" t="n">
         <v>3.3</v>
       </c>
       <c r="I17" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J17" t="n">
         <v>2.75</v>
@@ -3519,13 +3519,13 @@
         <v>2.63</v>
       </c>
       <c r="U17" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V17" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X17" t="n">
         <v>9</v>
@@ -3555,7 +3555,7 @@
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH17" t="n">
         <v>10</v>
@@ -3609,10 +3609,10 @@
         <v>21</v>
       </c>
       <c r="AY17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ17" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA17" t="n">
         <v>101</v>
@@ -3659,13 +3659,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H18" t="n">
         <v>4.33</v>
       </c>
       <c r="I18" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J18" t="n">
         <v>2.05</v>
@@ -3674,7 +3674,7 @@
         <v>2.5</v>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
@@ -3707,7 +3707,7 @@
         <v>2.1</v>
       </c>
       <c r="W18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X18" t="n">
         <v>8.5</v>
@@ -3719,7 +3719,7 @@
         <v>12</v>
       </c>
       <c r="AA18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB18" t="n">
         <v>21</v>
@@ -3743,7 +3743,7 @@
         <v>19</v>
       </c>
       <c r="AI18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ18" t="n">
         <v>17</v>
@@ -3755,7 +3755,7 @@
         <v>41</v>
       </c>
       <c r="AM18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN18" t="n">
         <v>3.75</v>
@@ -3779,7 +3779,7 @@
         <v>3.5</v>
       </c>
       <c r="AU18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV18" t="n">
         <v>41</v>
@@ -3797,7 +3797,7 @@
         <v>81</v>
       </c>
       <c r="BA18" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB18" t="n">
         <v>151</v>
@@ -3841,16 +3841,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H19" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J19" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K19" t="n">
         <v>2.1</v>
@@ -3859,28 +3859,28 @@
         <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R19" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S19" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T19" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U19" t="n">
         <v>1.8</v>
@@ -3892,7 +3892,7 @@
         <v>7.5</v>
       </c>
       <c r="X19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -3904,10 +3904,10 @@
         <v>17</v>
       </c>
       <c r="AB19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD19" t="n">
         <v>6</v>
@@ -3922,10 +3922,10 @@
         <v>251</v>
       </c>
       <c r="AH19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ19" t="n">
         <v>13</v>
@@ -3943,10 +3943,10 @@
         <v>4</v>
       </c>
       <c r="AO19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ19" t="n">
         <v>41</v>
@@ -3958,7 +3958,7 @@
         <v>151</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU19" t="n">
         <v>8</v>
@@ -3970,7 +3970,7 @@
         <v>5.5</v>
       </c>
       <c r="AX19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY19" t="n">
         <v>29</v>
@@ -6037,16 +6037,16 @@
         <v>1.95</v>
       </c>
       <c r="K31" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L31" t="n">
         <v>6.5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O31" t="n">
         <v>1.22</v>
@@ -6055,10 +6055,10 @@
         <v>4</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R31" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S31" t="n">
         <v>1.33</v>
@@ -6067,13 +6067,13 @@
         <v>3.25</v>
       </c>
       <c r="U31" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V31" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W31" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X31" t="n">
         <v>7</v>
@@ -6094,7 +6094,7 @@
         <v>13</v>
       </c>
       <c r="AD31" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE31" t="n">
         <v>19</v>
@@ -6118,10 +6118,10 @@
         <v>67</v>
       </c>
       <c r="AL31" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM31" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN31" t="n">
         <v>3.4</v>
@@ -6130,7 +6130,7 @@
         <v>7</v>
       </c>
       <c r="AP31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ31" t="n">
         <v>21</v>
@@ -6145,7 +6145,7 @@
         <v>3.25</v>
       </c>
       <c r="AU31" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV31" t="n">
         <v>51</v>
@@ -6157,7 +6157,7 @@
         <v>34</v>
       </c>
       <c r="AY31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ31" t="n">
         <v>126</v>
@@ -6166,7 +6166,7 @@
         <v>151</v>
       </c>
       <c r="BB31" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC31" t="n">
         <v>501</v>
@@ -6207,13 +6207,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="H32" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J32" t="n">
         <v>2.88</v>
@@ -6222,7 +6222,7 @@
         <v>2.25</v>
       </c>
       <c r="L32" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M32" t="n">
         <v>1.04</v>
@@ -6237,10 +6237,10 @@
         <v>4.33</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R32" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S32" t="n">
         <v>1.33</v>
@@ -6258,13 +6258,13 @@
         <v>10</v>
       </c>
       <c r="X32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z32" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA32" t="n">
         <v>17</v>
@@ -6288,31 +6288,31 @@
         <v>126</v>
       </c>
       <c r="AH32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI32" t="n">
         <v>17</v>
       </c>
       <c r="AJ32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM32" t="n">
         <v>29</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>26</v>
       </c>
       <c r="AN32" t="n">
         <v>4.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP32" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ32" t="n">
         <v>41</v>
@@ -6336,7 +6336,7 @@
         <v>5</v>
       </c>
       <c r="AX32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY32" t="n">
         <v>21</v>
@@ -6345,7 +6345,7 @@
         <v>51</v>
       </c>
       <c r="BA32" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB32" t="n">
         <v>126</v>
@@ -6401,7 +6401,7 @@
         <v>5.5</v>
       </c>
       <c r="K33" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L33" t="n">
         <v>2</v>
@@ -6413,10 +6413,10 @@
         <v>19</v>
       </c>
       <c r="O33" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P33" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q33" t="n">
         <v>1.48</v>
@@ -6431,10 +6431,10 @@
         <v>3.75</v>
       </c>
       <c r="U33" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V33" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W33" t="n">
         <v>21</v>
@@ -6443,25 +6443,25 @@
         <v>34</v>
       </c>
       <c r="Y33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z33" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AA33" t="n">
         <v>41</v>
       </c>
       <c r="AB33" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD33" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF33" t="n">
         <v>41</v>
@@ -6473,7 +6473,7 @@
         <v>10</v>
       </c>
       <c r="AI33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ33" t="n">
         <v>8.5</v>
@@ -6494,7 +6494,7 @@
         <v>26</v>
       </c>
       <c r="AP33" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ33" t="n">
         <v>81</v>
@@ -6527,13 +6527,13 @@
         <v>21</v>
       </c>
       <c r="BA33" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB33" t="n">
         <v>81</v>
       </c>
       <c r="BC33" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD33" t="n">
         <v>151</v>
@@ -6571,40 +6571,40 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="H34" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I34" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J34" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="K34" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L34" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O34" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P34" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="R34" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="S34" t="n">
         <v>1.36</v>
@@ -6613,10 +6613,10 @@
         <v>3</v>
       </c>
       <c r="U34" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="W34" t="n">
         <v>5.5</v>
@@ -6625,85 +6625,85 @@
         <v>4.75</v>
       </c>
       <c r="Y34" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD34" t="n">
         <v>12</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>15</v>
       </c>
       <c r="AE34" t="n">
         <v>41</v>
       </c>
       <c r="AF34" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AG34" t="n">
         <v>501</v>
       </c>
       <c r="AH34" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AI34" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AJ34" t="n">
         <v>41</v>
       </c>
       <c r="AK34" t="n">
-        <v>401</v>
+        <v>251</v>
       </c>
       <c r="AL34" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AM34" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AN34" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="AO34" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ34" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AR34" t="n">
         <v>51</v>
       </c>
       <c r="AS34" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT34" t="n">
         <v>3</v>
       </c>
       <c r="AU34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV34" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AW34" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AX34" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AY34" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AZ34" t="n">
         <v>501</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H35" t="n">
         <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K35" t="n">
         <v>2.3</v>
       </c>
       <c r="L35" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M35" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O35" t="n">
         <v>1.2</v>
@@ -6783,10 +6783,10 @@
         <v>4.33</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R35" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S35" t="n">
         <v>1.33</v>
@@ -6804,7 +6804,7 @@
         <v>10</v>
       </c>
       <c r="X35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y35" t="n">
         <v>9</v>
@@ -6816,7 +6816,7 @@
         <v>17</v>
       </c>
       <c r="AB35" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC35" t="n">
         <v>13</v>
@@ -6843,10 +6843,10 @@
         <v>11</v>
       </c>
       <c r="AK35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL35" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM35" t="n">
         <v>26</v>
@@ -6873,7 +6873,7 @@
         <v>3.25</v>
       </c>
       <c r="AU35" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV35" t="n">
         <v>41</v>
@@ -6882,7 +6882,7 @@
         <v>5</v>
       </c>
       <c r="AX35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY35" t="n">
         <v>21</v>
@@ -6891,7 +6891,7 @@
         <v>51</v>
       </c>
       <c r="BA35" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB35" t="n">
         <v>126</v>
@@ -6935,46 +6935,46 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="H36" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I36" t="n">
+        <v>17</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L36" t="n">
+        <v>12</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N36" t="n">
         <v>15</v>
       </c>
-      <c r="J36" t="n">
+      <c r="O36" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q36" t="n">
         <v>1.67</v>
       </c>
-      <c r="K36" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L36" t="n">
-        <v>11</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N36" t="n">
-        <v>13</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P36" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.7</v>
-      </c>
       <c r="R36" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S36" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T36" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U36" t="n">
         <v>2.5</v>
@@ -6992,22 +6992,22 @@
         <v>10</v>
       </c>
       <c r="Z36" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA36" t="n">
         <v>12</v>
       </c>
       <c r="AB36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE36" t="n">
         <v>34</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>29</v>
       </c>
       <c r="AF36" t="n">
         <v>101</v>
@@ -7025,10 +7025,10 @@
         <v>41</v>
       </c>
       <c r="AK36" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL36" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AM36" t="n">
         <v>101</v>
@@ -7037,13 +7037,13 @@
         <v>3</v>
       </c>
       <c r="AO36" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AP36" t="n">
         <v>21</v>
       </c>
       <c r="AQ36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR36" t="n">
         <v>41</v>
@@ -7052,7 +7052,7 @@
         <v>151</v>
       </c>
       <c r="AT36" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU36" t="n">
         <v>12</v>
@@ -7061,7 +7061,7 @@
         <v>81</v>
       </c>
       <c r="AW36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX36" t="n">
         <v>51</v>
@@ -7070,10 +7070,10 @@
         <v>51</v>
       </c>
       <c r="AZ36" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BA36" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="BB36" t="n">
         <v>501</v>
@@ -10169,10 +10169,10 @@
         <v>6</v>
       </c>
       <c r="M54" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N54" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O54" t="n">
         <v>1.22</v>
@@ -10181,10 +10181,10 @@
         <v>4</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R54" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S54" t="n">
         <v>1.33</v>
@@ -10499,13 +10499,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H56" t="n">
         <v>3.4</v>
       </c>
       <c r="I56" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J56" t="n">
         <v>4.33</v>
@@ -10514,13 +10514,13 @@
         <v>2.25</v>
       </c>
       <c r="L56" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M56" t="n">
         <v>1.04</v>
       </c>
       <c r="N56" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O56" t="n">
         <v>1.22</v>
@@ -10529,16 +10529,16 @@
         <v>4</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R56" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S56" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T56" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U56" t="n">
         <v>1.67</v>
@@ -10583,13 +10583,13 @@
         <v>8.5</v>
       </c>
       <c r="AI56" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ56" t="n">
         <v>8.5</v>
       </c>
       <c r="AK56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL56" t="n">
         <v>15</v>
@@ -10616,7 +10616,7 @@
         <v>151</v>
       </c>
       <c r="AT56" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU56" t="n">
         <v>7.5</v>
@@ -10628,13 +10628,13 @@
         <v>4</v>
       </c>
       <c r="AX56" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AY56" t="n">
         <v>19</v>
       </c>
       <c r="AZ56" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA56" t="n">
         <v>51</v>
@@ -11217,13 +11217,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.45</v>
+        <v>2.07</v>
       </c>
       <c r="H60" t="n">
-        <v>2.52</v>
+        <v>2.65</v>
       </c>
       <c r="I60" t="n">
-        <v>3.5</v>
+        <v>4.35</v>
       </c>
       <c r="J60" t="n">
         <v>3.2</v>
@@ -11247,10 +11247,10 @@
         <v>1.98</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.87</v>
+        <v>2.77</v>
       </c>
       <c r="R60" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S60" t="n">
         <v>1.62</v>
@@ -11414,7 +11414,7 @@
         <v>1.04</v>
       </c>
       <c r="N61" t="n">
-        <v>6.45</v>
+        <v>6.5</v>
       </c>
       <c r="O61" t="n">
         <v>1.4</v>
@@ -13007,10 +13007,10 @@
         <v>1.95</v>
       </c>
       <c r="M70" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N70" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="O70" t="n">
         <v>1.26</v>
@@ -13167,22 +13167,22 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="H71" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="I71" t="n">
-        <v>2.92</v>
+        <v>2.65</v>
       </c>
       <c r="J71" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="K71" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="L71" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="M71" t="n">
         <v>1.04</v>
@@ -13215,94 +13215,94 @@
         <v>1.65</v>
       </c>
       <c r="W71" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="X71" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="Y71" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="Z71" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA71" t="n">
         <v>29</v>
       </c>
-      <c r="AA71" t="n">
-        <v>27</v>
-      </c>
       <c r="AB71" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AC71" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AD71" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AE71" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF71" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG71" t="n">
         <v>900</v>
       </c>
       <c r="AH71" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="AI71" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AJ71" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AK71" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AL71" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AM71" t="n">
         <v>45</v>
       </c>
       <c r="AN71" t="n">
-        <v>4.25</v>
+        <v>4.45</v>
       </c>
       <c r="AO71" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AP71" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AQ71" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AR71" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AS71" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AT71" t="n">
         <v>2.2</v>
       </c>
       <c r="AU71" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AV71" t="n">
         <v>80</v>
       </c>
       <c r="AW71" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="AX71" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AY71" t="n">
         <v>26</v>
       </c>
       <c r="AZ71" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BA71" t="n">
         <v>120</v>
@@ -14063,22 +14063,22 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="H76" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I76" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J76" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K76" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L76" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M76" t="n">
         <v>1.07</v>
@@ -14087,22 +14087,22 @@
         <v>9</v>
       </c>
       <c r="O76" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P76" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R76" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S76" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T76" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U76" t="n">
         <v>2</v>
@@ -14111,16 +14111,16 @@
         <v>1.73</v>
       </c>
       <c r="W76" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X76" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y76" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z76" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA76" t="n">
         <v>41</v>
@@ -14144,34 +14144,34 @@
         <v>351</v>
       </c>
       <c r="AH76" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI76" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AJ76" t="n">
         <v>9</v>
       </c>
       <c r="AK76" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL76" t="n">
         <v>15</v>
       </c>
-      <c r="AL76" t="n">
-        <v>17</v>
-      </c>
       <c r="AM76" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN76" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO76" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP76" t="n">
         <v>34</v>
       </c>
       <c r="AQ76" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR76" t="n">
         <v>126</v>
@@ -14180,19 +14180,19 @@
         <v>301</v>
       </c>
       <c r="AT76" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU76" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV76" t="n">
         <v>67</v>
       </c>
       <c r="AW76" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AX76" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AY76" t="n">
         <v>23</v>
@@ -14241,22 +14241,22 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="H77" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="I77" t="n">
-        <v>1.8</v>
+        <v>1.48</v>
       </c>
       <c r="J77" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="K77" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="L77" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="M77" t="n">
         <v>1.04</v>
@@ -14265,121 +14265,121 @@
         <v>13</v>
       </c>
       <c r="O77" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P77" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R77" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S77" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T77" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U77" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V77" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W77" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="X77" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Y77" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC77" t="n">
         <v>13</v>
       </c>
-      <c r="Z77" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA77" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB77" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC77" t="n">
-        <v>12</v>
-      </c>
       <c r="AD77" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE77" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF77" t="n">
         <v>51</v>
       </c>
       <c r="AG77" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH77" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI77" t="n">
         <v>7.5</v>
-      </c>
-      <c r="AI77" t="n">
-        <v>9</v>
       </c>
       <c r="AJ77" t="n">
         <v>8.5</v>
       </c>
       <c r="AK77" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AL77" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AM77" t="n">
         <v>26</v>
       </c>
       <c r="AN77" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AO77" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AP77" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AQ77" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="AR77" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AS77" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT77" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU77" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV77" t="n">
         <v>51</v>
       </c>
       <c r="AW77" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AX77" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AY77" t="n">
         <v>19</v>
       </c>
       <c r="AZ77" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="BA77" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB77" t="n">
         <v>126</v>
@@ -14440,7 +14440,7 @@
         <v>1.07</v>
       </c>
       <c r="N78" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O78" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-28.xlsx
@@ -10151,19 +10151,19 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="H54" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I54" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J54" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K54" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L54" t="n">
         <v>6</v>
@@ -10172,46 +10172,46 @@
         <v>1.04</v>
       </c>
       <c r="N54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O54" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P54" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R54" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S54" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T54" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U54" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V54" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W54" t="n">
         <v>7</v>
       </c>
       <c r="X54" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y54" t="n">
         <v>8.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB54" t="n">
         <v>26</v>
@@ -10220,7 +10220,7 @@
         <v>12</v>
       </c>
       <c r="AD54" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE54" t="n">
         <v>19</v>
@@ -10235,13 +10235,13 @@
         <v>15</v>
       </c>
       <c r="AI54" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ54" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK54" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL54" t="n">
         <v>41</v>
@@ -10250,16 +10250,16 @@
         <v>41</v>
       </c>
       <c r="AN54" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO54" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP54" t="n">
         <v>19</v>
       </c>
       <c r="AQ54" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR54" t="n">
         <v>41</v>
@@ -10268,7 +10268,7 @@
         <v>126</v>
       </c>
       <c r="AT54" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU54" t="n">
         <v>8.5</v>
@@ -10280,16 +10280,16 @@
         <v>7.5</v>
       </c>
       <c r="AX54" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY54" t="n">
         <v>34</v>
       </c>
-      <c r="AY54" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ54" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA54" t="n">
         <v>126</v>
-      </c>
-      <c r="BA54" t="n">
-        <v>151</v>
       </c>
       <c r="BB54" t="n">
         <v>251</v>
@@ -10520,7 +10520,7 @@
         <v>1.04</v>
       </c>
       <c r="N56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O56" t="n">
         <v>1.22</v>
@@ -12989,40 +12989,40 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="H70" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I70" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="J70" t="n">
-        <v>6.1</v>
+        <v>7</v>
       </c>
       <c r="K70" t="n">
         <v>2.25</v>
       </c>
       <c r="L70" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="M70" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N70" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="O70" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P70" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R70" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="S70" t="n">
         <v>1.38</v>
@@ -13031,76 +13031,76 @@
         <v>2.57</v>
       </c>
       <c r="U70" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V70" t="n">
         <v>1.65</v>
       </c>
       <c r="W70" t="n">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="X70" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="Y70" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Z70" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AA70" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AB70" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AC70" t="n">
         <v>10.5</v>
       </c>
       <c r="AD70" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AE70" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF70" t="n">
         <v>110</v>
       </c>
       <c r="AG70" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AH70" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AI70" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AJ70" t="n">
         <v>8.25</v>
       </c>
       <c r="AK70" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AL70" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AM70" t="n">
         <v>30</v>
       </c>
       <c r="AN70" t="n">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="AO70" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AP70" t="n">
         <v>45</v>
       </c>
       <c r="AQ70" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AR70" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AS70" t="n">
         <v>500</v>
@@ -13115,16 +13115,16 @@
         <v>90</v>
       </c>
       <c r="AW70" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AX70" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AY70" t="n">
         <v>17.5</v>
       </c>
       <c r="AZ70" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="BA70" t="n">
         <v>50</v>
@@ -13167,22 +13167,22 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.75</v>
+        <v>2.57</v>
       </c>
       <c r="H71" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I71" t="n">
         <v>2.87</v>
       </c>
-      <c r="I71" t="n">
-        <v>2.65</v>
-      </c>
       <c r="J71" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K71" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="L71" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M71" t="n">
         <v>1.04</v>
@@ -13215,31 +13215,31 @@
         <v>1.65</v>
       </c>
       <c r="W71" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="X71" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y71" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="Z71" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA71" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AB71" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AC71" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AD71" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AE71" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF71" t="n">
         <v>110</v>
@@ -13248,64 +13248,64 @@
         <v>900</v>
       </c>
       <c r="AH71" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AI71" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AJ71" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AK71" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AL71" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AM71" t="n">
         <v>45</v>
       </c>
       <c r="AN71" t="n">
-        <v>4.45</v>
+        <v>4.3</v>
       </c>
       <c r="AO71" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AP71" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AQ71" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AR71" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AS71" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AT71" t="n">
         <v>2.2</v>
       </c>
       <c r="AU71" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV71" t="n">
         <v>80</v>
       </c>
       <c r="AW71" t="n">
-        <v>4.3</v>
+        <v>4.55</v>
       </c>
       <c r="AX71" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AY71" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ71" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BA71" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BB71" t="n">
         <v>400</v>
@@ -14087,16 +14087,16 @@
         <v>9</v>
       </c>
       <c r="O76" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P76" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R76" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S76" t="n">
         <v>1.44</v>
@@ -14244,16 +14244,16 @@
         <v>5.5</v>
       </c>
       <c r="H77" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I77" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="J77" t="n">
         <v>6</v>
       </c>
       <c r="K77" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L77" t="n">
         <v>2.05</v>
@@ -14262,13 +14262,13 @@
         <v>1.04</v>
       </c>
       <c r="N77" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O77" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P77" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q77" t="n">
         <v>1.75</v>
@@ -14277,10 +14277,10 @@
         <v>2.05</v>
       </c>
       <c r="S77" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T77" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U77" t="n">
         <v>1.83</v>
@@ -14307,10 +14307,10 @@
         <v>41</v>
       </c>
       <c r="AC77" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD77" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE77" t="n">
         <v>19</v>
@@ -14349,7 +14349,7 @@
         <v>34</v>
       </c>
       <c r="AQ77" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AR77" t="n">
         <v>126</v>
@@ -14358,7 +14358,7 @@
         <v>251</v>
       </c>
       <c r="AT77" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU77" t="n">
         <v>8.5</v>
@@ -14376,7 +14376,7 @@
         <v>19</v>
       </c>
       <c r="AZ77" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA77" t="n">
         <v>41</v>
@@ -14449,10 +14449,10 @@
         <v>3</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R78" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S78" t="n">
         <v>1.44</v>
@@ -14497,7 +14497,7 @@
         <v>67</v>
       </c>
       <c r="AG78" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AH78" t="n">
         <v>10</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-28.xlsx
@@ -10181,10 +10181,10 @@
         <v>3.75</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R54" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S54" t="n">
         <v>1.36</v>
@@ -10220,7 +10220,7 @@
         <v>12</v>
       </c>
       <c r="AD54" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE54" t="n">
         <v>19</v>
@@ -10253,7 +10253,7 @@
         <v>3.5</v>
       </c>
       <c r="AO54" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP54" t="n">
         <v>19</v>
@@ -10511,7 +10511,7 @@
         <v>4.33</v>
       </c>
       <c r="K56" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L56" t="n">
         <v>2.4</v>
@@ -10529,16 +10529,16 @@
         <v>4</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R56" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S56" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T56" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U56" t="n">
         <v>1.67</v>
@@ -10616,7 +10616,7 @@
         <v>151</v>
       </c>
       <c r="AT56" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU56" t="n">
         <v>7.5</v>
@@ -11393,115 +11393,115 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="H61" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="I61" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="J61" t="n">
-        <v>2.65</v>
+        <v>2.82</v>
       </c>
       <c r="K61" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="L61" t="n">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="M61" t="n">
         <v>1.04</v>
       </c>
       <c r="N61" t="n">
-        <v>6.5</v>
+        <v>6.45</v>
       </c>
       <c r="O61" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P61" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R61" t="n">
         <v>1.53</v>
       </c>
       <c r="S61" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="T61" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="U61" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="V61" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W61" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="X61" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AD61" t="n">
         <v>5.8</v>
       </c>
-      <c r="X61" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>6</v>
-      </c>
       <c r="AE61" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF61" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG61" t="n">
         <v>900</v>
       </c>
       <c r="AH61" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="AI61" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AJ61" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK61" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AL61" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AM61" t="n">
         <v>50</v>
       </c>
       <c r="AN61" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="AO61" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ61" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AR61" t="n">
         <v>90</v>
@@ -11510,28 +11510,28 @@
         <v>300</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="AU61" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AV61" t="n">
         <v>75</v>
       </c>
       <c r="AW61" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="AX61" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AY61" t="n">
         <v>29</v>
       </c>
       <c r="AZ61" t="n">
+        <v>110</v>
+      </c>
+      <c r="BA61" t="n">
         <v>150</v>
-      </c>
-      <c r="BA61" t="n">
-        <v>175</v>
       </c>
       <c r="BB61" t="n">
         <v>400</v>
@@ -14419,13 +14419,13 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H78" t="n">
         <v>3.3</v>
       </c>
       <c r="I78" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J78" t="n">
         <v>2.6</v>
@@ -14461,16 +14461,16 @@
         <v>2.63</v>
       </c>
       <c r="U78" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V78" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W78" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X78" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y78" t="n">
         <v>9</v>
@@ -14482,7 +14482,7 @@
         <v>17</v>
       </c>
       <c r="AB78" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC78" t="n">
         <v>8.5</v>
@@ -14494,10 +14494,10 @@
         <v>17</v>
       </c>
       <c r="AF78" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG78" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AH78" t="n">
         <v>10</v>
@@ -14512,7 +14512,7 @@
         <v>41</v>
       </c>
       <c r="AL78" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM78" t="n">
         <v>41</v>
@@ -14521,13 +14521,13 @@
         <v>3.75</v>
       </c>
       <c r="AO78" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP78" t="n">
         <v>23</v>
       </c>
       <c r="AQ78" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR78" t="n">
         <v>51</v>
@@ -14539,7 +14539,7 @@
         <v>2.63</v>
       </c>
       <c r="AU78" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV78" t="n">
         <v>67</v>
@@ -14557,7 +14557,7 @@
         <v>81</v>
       </c>
       <c r="BA78" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB78" t="n">
         <v>301</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-28.xlsx
@@ -10151,13 +10151,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H54" t="n">
         <v>4.33</v>
       </c>
       <c r="I54" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J54" t="n">
         <v>2.1</v>
@@ -10166,13 +10166,13 @@
         <v>2.3</v>
       </c>
       <c r="L54" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M54" t="n">
         <v>1.04</v>
       </c>
       <c r="N54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O54" t="n">
         <v>1.25</v>
@@ -10181,16 +10181,16 @@
         <v>3.75</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R54" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S54" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T54" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U54" t="n">
         <v>1.83</v>
@@ -10199,7 +10199,7 @@
         <v>1.83</v>
       </c>
       <c r="W54" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X54" t="n">
         <v>7.5</v>
@@ -10208,28 +10208,28 @@
         <v>8.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA54" t="n">
         <v>13</v>
       </c>
       <c r="AB54" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD54" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE54" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF54" t="n">
         <v>51</v>
       </c>
       <c r="AG54" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH54" t="n">
         <v>15</v>
@@ -10250,10 +10250,10 @@
         <v>41</v>
       </c>
       <c r="AN54" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO54" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP54" t="n">
         <v>19</v>
@@ -10268,7 +10268,7 @@
         <v>126</v>
       </c>
       <c r="AT54" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU54" t="n">
         <v>8.5</v>
@@ -10277,7 +10277,7 @@
         <v>51</v>
       </c>
       <c r="AW54" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX54" t="n">
         <v>29</v>
@@ -10292,7 +10292,7 @@
         <v>126</v>
       </c>
       <c r="BB54" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC54" t="inlineStr"/>
       <c r="BD54" t="inlineStr"/>
@@ -11414,7 +11414,7 @@
         <v>1.04</v>
       </c>
       <c r="N61" t="n">
-        <v>6.45</v>
+        <v>6.4</v>
       </c>
       <c r="O61" t="n">
         <v>1.42</v>
@@ -13167,10 +13167,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="H71" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I71" t="n">
         <v>2.87</v>
@@ -13179,43 +13179,43 @@
         <v>3.3</v>
       </c>
       <c r="K71" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="L71" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M71" t="n">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="N71" t="n">
-        <v>6.3</v>
+        <v>5.76</v>
       </c>
       <c r="O71" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P71" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="R71" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S71" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="T71" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="U71" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V71" t="n">
         <v>1.65</v>
       </c>
       <c r="W71" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X71" t="n">
         <v>11.5</v>
@@ -13233,7 +13233,7 @@
         <v>45</v>
       </c>
       <c r="AC71" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AD71" t="n">
         <v>5.6</v>
@@ -13248,28 +13248,28 @@
         <v>900</v>
       </c>
       <c r="AH71" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AI71" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ71" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AK71" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AL71" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AM71" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AN71" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="AO71" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AP71" t="n">
         <v>26</v>
@@ -13281,34 +13281,34 @@
         <v>120</v>
       </c>
       <c r="AS71" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="AU71" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AV71" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW71" t="n">
         <v>4.55</v>
       </c>
       <c r="AX71" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY71" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ71" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BA71" t="n">
         <v>150</v>
       </c>
       <c r="BB71" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BC71" t="inlineStr"/>
       <c r="BD71" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-28.xlsx
@@ -10499,10 +10499,10 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H56" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I56" t="n">
         <v>1.8</v>
@@ -10511,46 +10511,46 @@
         <v>4.33</v>
       </c>
       <c r="K56" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L56" t="n">
         <v>2.4</v>
       </c>
       <c r="M56" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O56" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P56" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="R56" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="S56" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T56" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U56" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="V56" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="W56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X56" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y56" t="n">
         <v>13</v>
@@ -10565,10 +10565,10 @@
         <v>34</v>
       </c>
       <c r="AC56" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AD56" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE56" t="n">
         <v>13</v>
@@ -10580,10 +10580,10 @@
         <v>151</v>
       </c>
       <c r="AH56" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI56" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ56" t="n">
         <v>8.5</v>
@@ -10592,10 +10592,10 @@
         <v>15</v>
       </c>
       <c r="AL56" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM56" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN56" t="n">
         <v>6</v>
@@ -10604,25 +10604,25 @@
         <v>21</v>
       </c>
       <c r="AP56" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ56" t="n">
         <v>67</v>
       </c>
       <c r="AR56" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS56" t="n">
         <v>151</v>
       </c>
       <c r="AT56" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU56" t="n">
         <v>7.5</v>
       </c>
       <c r="AV56" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW56" t="n">
         <v>4</v>
@@ -10631,16 +10631,16 @@
         <v>9.5</v>
       </c>
       <c r="AY56" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ56" t="n">
         <v>29</v>
       </c>
       <c r="BA56" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB56" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC56" t="n">
         <v>351</v>
@@ -11402,7 +11402,7 @@
         <v>3.4</v>
       </c>
       <c r="J61" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="K61" t="n">
         <v>1.95</v>
@@ -11411,67 +11411,67 @@
         <v>4</v>
       </c>
       <c r="M61" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N61" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="O61" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P61" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R61" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S61" t="n">
         <v>1.47</v>
       </c>
       <c r="T61" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="U61" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V61" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W61" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="X61" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Y61" t="n">
         <v>9</v>
       </c>
       <c r="Z61" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA61" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB61" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC61" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AD61" t="n">
         <v>5.8</v>
       </c>
       <c r="AE61" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF61" t="n">
         <v>90</v>
       </c>
       <c r="AG61" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AH61" t="n">
         <v>8.25</v>
@@ -11486,46 +11486,46 @@
         <v>50</v>
       </c>
       <c r="AL61" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AM61" t="n">
         <v>50</v>
       </c>
       <c r="AN61" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AO61" t="n">
         <v>11.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ61" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR61" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS61" t="n">
         <v>300</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="AU61" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AV61" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW61" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AX61" t="n">
         <v>20</v>
       </c>
       <c r="AY61" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ61" t="n">
         <v>110</v>
